--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9CF796-FE28-4C8C-9E13-0974609853EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D606B304-7F41-4AFB-B735-50A792D0B2FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1665" windowWidth="29895" windowHeight="19935" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -489,9 +489,6 @@
     <t>Neonatal congenital anomalies</t>
   </si>
   <si>
-    <t>Vitamin A supplementation</t>
-  </si>
-  <si>
     <t>Balanced energy-protein supplementation</t>
   </si>
   <si>
@@ -594,9 +591,6 @@
     <t>IFA fortification of wheat flour</t>
   </si>
   <si>
-    <t>IFA fortification of maize</t>
-  </si>
-  <si>
     <t>IFA fortification of rice</t>
   </si>
   <si>
@@ -1225,6 +1219,12 @@
   </si>
   <si>
     <t>12-23 mois</t>
+  </si>
+  <si>
+    <t>Supplémentation en vitamine A</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
   </si>
 </sst>
 </file>
@@ -4765,18 +4765,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4784,7 +4784,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4793,7 +4793,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4806,48 +4806,48 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="65"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="66"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="67"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="66"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="66"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="66"/>
     </row>
@@ -4856,38 +4856,38 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="67"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="67"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="67"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="67"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4899,30 +4899,30 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="67"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C24" s="67"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="67"/>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="67"/>
     </row>
@@ -4932,38 +4932,38 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="69"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="69"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="69"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="69"/>
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4973,25 +4973,25 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="71"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="17"/>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="17"/>
@@ -5007,19 +5007,19 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C40" s="71"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="67"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="71"/>
     </row>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="17"/>
     </row>
@@ -5070,67 +5070,67 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C51" s="72"/>
       <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C52" s="72"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" s="72"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C54" s="72"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" s="72"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" s="66"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="66"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C60" s="66"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C61" s="66"/>
     </row>
@@ -5138,7 +5138,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ekVZqsUd2H+x6RJbn9WgdRXtRdsfUbT/0t/BjmnafXv+FYqwupcK/cBW4+xG5yL0FHNi2RXtGGkFYlaFWIh8QA==" saltValue="qPnSUoknLDSo33xOAK3KSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2RTbR42ra4o5haAyW6P9xWToeSVmGarigw2T4ROPgKWIpRnCR5yBiS/toIfs5rrUfGsDPywF4GjNNkdvuUtgIQ==" saltValue="mt7iHkNdM0WuHuCcX0Gzaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5163,47 +5163,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5237,7 +5237,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Iw7/ooQ0b9DUoo52LGbAHsSr5HoldTPBA4gyas6TbL3u4NhgFGb7qvUnodi0ZqSLyCods+44BxUJQN95wPOMvg==" saltValue="K87WngZgy7KxIi8f/k3pmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oIH26vGVMcMl9Knnp7rNrUwsUZE5T3jzymAaujgP0jb7DQ2E1n3V7BoBqjLB789QOOS4i0W32u/UkBe/YUHPbg==" saltValue="VpYhP1Vmvzxg/DsujYHOLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5270,7 +5270,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5352,7 +5352,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JW4OdcVmVlxUnGAiNckTKbkt/idhTnEBDolrGa6/aEOLSGSROIeO6ualpNaCb+Cfw9BtYwq0U8y6NpWdzGYUUg==" saltValue="3kKfPQyUUykT0WARcQYXvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SdEv9DmQ2sHp4/N8y5A3vg4vsb9JOmwh+GMh37XTMU5sIL3sPmSi/WP0h+fJ4kW0VUQm+ZU7PEiRGhTLNs3umg==" saltValue="0knMep6iemFWM/UZUgL2Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5379,48 +5379,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aefjwMTkMzm8bV4cjlawPC+jxFjoll6qFhdMC3ifrCsK7j53wtoHrm+RDBsUfpn3Di5yFiGonMUZ2rwYh80H8Q==" saltValue="+miKiSQhYIccvVWTnezVug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1d0Jql8asJiLcBOUIjMWItVBY8ykcNMW1EnXreOHBQZ0MpWIPvudKZ5eY/ty9Zdr19S3Hd3M5gH3wzscB+SOKA==" saltValue="+964GtHeccLm3YvexEtsKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5532,10 +5532,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -5547,42 +5547,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6094,10 +6094,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6146,7 +6146,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6191,7 +6191,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6240,7 +6240,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6475,10 +6475,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6725,10 +6725,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7039,7 +7039,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7217,7 +7217,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s6PYXApzG/yVv6/PvMyTl8A0Vsvy9eNDsIxjyhPggIQyicYM7+19C0Gstb31ZfSrXzTZ09G6887sIVWd/maayA==" saltValue="HQaIcPxVMLpxVgMdOjvCpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kAikK/smr6Ugnm4eEJ+/vnYE6QRfkG03sTpCNoN0WRrmg+BkBAvjeisOL06YBt9hryYltkxQFr894E0OSnzm9g==" saltValue="081X2tCqvkaJb7pVxt+EKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7236,26 +7236,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DUD4GewmkMN3psv6sTjVw0TfVeNZqzk00NknOO1bHqhP8UzuMg5Cx1xauim9Ho2v6DZ1nHR8rpzT+Q8uKTcYaw==" saltValue="2F1kYdQJNwGzvYgOWTiuyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KgMSb0wWuUz4D96BOO8XJLSf1TnoxqJjLEcqAH64e43S+Jox6E49Bxte33150xYt6p+6j51vA97VwKReXQ7wxw==" saltValue="cOpKMFac9r++A4lEc1MJrw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7282,24 +7282,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7463,7 +7463,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k95SwFlQDCCXTb6H3EbYaL4JTlWNIjIqHLV/bcukeu020OOKDMwtaMy7Pae5SYWbnhZBAAztDe0AIUVkyYOx2Q==" saltValue="JiXMyrgl6SRpnTBLC8n/Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5pMZVPAmWaIdyjzquKEWTjwzek8XcxWnlpWb9SOLSHzqjJR1tGw7A8a1uTVV6x9996I5TREnyKI1ZGDclnFRmw==" saltValue="ELRFtfcAb/5d3vfmApiAPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7496,10 +7496,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>1</v>
@@ -7511,42 +7511,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="56" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -7766,7 +7766,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="133">
         <v>1</v>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="133">
         <v>0</v>
@@ -7898,7 +7898,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="133">
         <v>1</v>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="133">
         <v>0</v>
@@ -7986,7 +7986,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="133">
         <v>1</v>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="133">
         <v>0</v>
@@ -8178,10 +8178,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="133">
         <v>0</v>
@@ -8226,7 +8226,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -8314,7 +8314,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -8402,7 +8402,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -8446,7 +8446,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="133">
         <v>0</v>
@@ -8490,7 +8490,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="133">
         <v>0</v>
@@ -8550,10 +8550,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="133">
         <v>0</v>
@@ -8598,7 +8598,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -8643,7 +8643,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -8731,7 +8731,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -8791,10 +8791,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C32" s="133">
         <v>1</v>
@@ -8838,7 +8838,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -8882,7 +8882,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="133">
         <v>1</v>
@@ -9015,7 +9015,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="133">
         <v>1</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="133">
         <v>1</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="133">
         <v>1</v>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="133">
         <v>1</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="133">
         <v>1</v>
@@ -9234,7 +9234,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fl1kRun5l5zV1u+9pD6sfVTbQBTW327PM5TRJgWwOdlXtPmWLIuHRVyZL9a0Q3ZzhcL/qi2KNM8z1tWgaVUFHw==" saltValue="gE/6Q+Kof6IxbLwmBgso7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s9bD4b3glTBLgnPzMsCg9u+kXX2Y+Zj42EZrbtqL+JDh3/ov0VOo+93qKR25fuGD9nNrGCFmfVMm0k21sjLbeQ==" saltValue="fLklMWa2uPNFvvztMUGL+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9267,42 +9267,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -9312,14 +9312,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -9328,7 +9328,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -9336,12 +9336,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -9353,11 +9353,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -9370,7 +9370,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -9381,26 +9381,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -9408,18 +9408,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -9427,18 +9427,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -9446,11 +9446,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -9463,11 +9463,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -9480,11 +9480,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -9497,11 +9497,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -9514,11 +9514,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -9526,18 +9526,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -9545,39 +9545,39 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -9590,16 +9590,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -9609,16 +9609,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -9628,16 +9628,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -9656,26 +9656,26 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -9687,11 +9687,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -9699,14 +9699,14 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="133"/>
       <c r="C24" s="133"/>
@@ -9715,7 +9715,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="133"/>
       <c r="C25" s="133"/>
@@ -9732,7 +9732,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -9740,11 +9740,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -9757,11 +9757,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -9769,14 +9769,14 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="133"/>
@@ -9785,7 +9785,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -9793,14 +9793,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -9812,13 +9812,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="133"/>
       <c r="C30" s="133"/>
       <c r="D30" s="133"/>
       <c r="E30" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -9837,10 +9837,10 @@
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
       <c r="G31" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I31" s="133"/>
       <c r="J31" s="133"/>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="133"/>
       <c r="C32" s="133"/>
@@ -9856,10 +9856,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -9867,7 +9867,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="133"/>
       <c r="C33" s="133"/>
@@ -9875,10 +9875,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -9886,7 +9886,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="133"/>
@@ -9894,10 +9894,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="133"/>
       <c r="C35" s="133"/>
@@ -9913,10 +9913,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="133"/>
       <c r="C36" s="133"/>
@@ -9932,10 +9932,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -9943,7 +9943,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="133"/>
       <c r="C37" s="133"/>
@@ -9952,7 +9952,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="133"/>
       <c r="H37" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -9960,27 +9960,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
       <c r="G38" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H38" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P+5j8u/c5l4FixogiBLRRNEIfIraYChrrjypROR6oZBkMNbECf7zitnNbVw9rdoXUgep5sN0//+ay7ryt3/w9Q==" saltValue="PRP6v3xHSY+I7G3KgFa72A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oxRMRLq+5ELjMhwh2PmsDoxh87wxVRFPNvfF57Y9ZRyp+51mEhe43/0Gr/NI8nHJ91e+A8dqbMsCI9csBuMNgQ==" saltValue="bAS4R8FHLeGmO5NtuKOfzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10013,37 +10013,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -10051,25 +10051,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -10080,25 +10080,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10109,25 +10109,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -10135,28 +10135,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -10167,25 +10167,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -10193,95 +10193,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -10290,19 +10290,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -10312,16 +10312,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -10331,16 +10331,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -10350,11 +10350,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ScWQV4tGVRpR1vYvngbNDFXKk9QzGbU9c46xUMyeVPFUHX7Y40GDcfbCWGA8recK8Gvk+kFzFKOLX/Y1Ihhpjw==" saltValue="hz08+LsGdeLX/D7YEqAYPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5ssCZhMUBtxwXROfEh92NFZ7ne5sDrE2CZk/d2Dv75yMtsOCT2TTt1R9RG4f/xOjW4SiXImH5E2KEQdA/q9dTw==" saltValue="8e6V050qfrItAoXpcuofnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10380,13 +10380,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -10398,7 +10398,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="94" t="s">
         <v>4</v>
@@ -10406,13 +10406,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -10433,7 +10433,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -10455,7 +10455,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -10479,7 +10479,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -10501,7 +10501,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -10522,7 +10522,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -10545,7 +10545,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -10566,7 +10566,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -10587,7 +10587,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -10610,7 +10610,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -10631,7 +10631,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -10652,7 +10652,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -10672,10 +10672,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -10696,7 +10696,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -10717,7 +10717,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -10737,10 +10737,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -10767,13 +10767,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -10794,7 +10794,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -10815,7 +10815,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -10838,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -10859,7 +10859,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -10880,7 +10880,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -10903,7 +10903,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -10924,7 +10924,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -10945,7 +10945,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -10968,7 +10968,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -10989,7 +10989,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -11010,7 +11010,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -11030,10 +11030,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -11054,7 +11054,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -11075,7 +11075,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -11095,10 +11095,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -11125,13 +11125,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -11152,7 +11152,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -11173,7 +11173,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -11196,7 +11196,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -11217,7 +11217,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -11238,7 +11238,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -11261,7 +11261,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -11282,7 +11282,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -11303,7 +11303,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -11347,7 +11347,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -11368,7 +11368,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -11388,10 +11388,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -11412,7 +11412,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -11433,7 +11433,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -11453,10 +11453,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -11475,7 +11475,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EVOHlRb4GuCoW6zLj7f0Cxddvk3AAbRSmNlhpIR+qP1TrI/vfRsL4yopyl/St0pdHFEC7BfEn3R7fl+8bEGing==" saltValue="d2UwI6zWb4FlAtocRaanjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="68ReWg5ibHCrFK2wDp8VmGnzVu1ek2brFEvp0XOL74WZXYzt+NrhJjmHwcrHetNpftgqx4O10Cpl5+bdWHIP2Q==" saltValue="eC9BO2H6UjdZfKfHkSRpcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11521,28 +11521,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12443,7 +12443,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3mLEZeMCCRocCtO+Nf5d0AHREwKVHhIJttr9jp+sWWuHynjCuEs9bUarIXnyk/iHVXFVlsRSnC0ZPBRB6eaCJQ==" saltValue="ro7K3BrM0/3M87hh3Lju6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9xEyICjqAwNohhS2qs4Lbk4Oiyds0MKP3UQRO8aKa6ye7KUqC4uqy/lzbqRAiPkskbxvB4WIFswuwfzBICPnnw==" saltValue="Zw8SpbsP6S/ke+icqNWaoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12477,7 +12477,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12497,7 +12497,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12524,7 +12524,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12541,7 +12541,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12558,7 +12558,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -12606,7 +12606,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -12616,7 +12616,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -12626,7 +12626,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -12644,7 +12644,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -12662,7 +12662,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -12700,7 +12700,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -12789,7 +12789,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -12845,7 +12845,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TezZJbHmrvgC/fNyToS2jtHuAMO/DvurhJhYYjTrpuN5gkXMBFFPTNqmlV8tbnutJaK602Qr+UnVDNvWNTR1ew==" saltValue="TJCYiY0Yk0pexW22rx69jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Rc3sACv7dx1A8o9JNRheS1PaJ7fBnWL/R5GAkIi3LhrrDcqaLwTtqrmmsyGhQA3AMqcuxOv1kGnA6EfDN2bk6g==" saltValue="DdisULiZEgLEvrQa6fa20Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -12875,18 +12875,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D2" s="103" t="s">
         <v>1</v>
@@ -12898,7 +12898,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H2" s="103" t="s">
         <v>4</v>
@@ -12915,10 +12915,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -12946,7 +12946,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -12974,7 +12974,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -13002,7 +13002,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -13033,7 +13033,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -13061,7 +13061,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -13089,7 +13089,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -13117,7 +13117,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -13148,7 +13148,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -13176,7 +13176,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -13232,7 +13232,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -13263,7 +13263,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -13291,7 +13291,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -13319,7 +13319,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -13347,7 +13347,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -13378,7 +13378,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -13406,7 +13406,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -13434,7 +13434,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -13462,7 +13462,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -13493,7 +13493,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -13521,7 +13521,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -13549,7 +13549,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -13577,7 +13577,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -13605,18 +13605,18 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D29" s="103" t="s">
         <v>1</v>
@@ -13628,7 +13628,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H29" s="103" t="s">
         <v>4</v>
@@ -13645,10 +13645,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -13676,7 +13676,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -13704,7 +13704,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -13763,7 +13763,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -13819,7 +13819,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -13878,7 +13878,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -13934,7 +13934,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -13962,7 +13962,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -13993,7 +13993,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -14021,7 +14021,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -14049,7 +14049,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -14077,7 +14077,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -14108,7 +14108,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -14136,7 +14136,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -14164,7 +14164,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -14192,7 +14192,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -14223,7 +14223,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -14251,7 +14251,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -14279,7 +14279,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -14307,7 +14307,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -14339,30 +14339,30 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D56" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="103" t="s">
+      <c r="F56" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="103" t="s">
+      <c r="G56" s="103" t="s">
         <v>53</v>
-      </c>
-      <c r="G56" s="103" t="s">
-        <v>54</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -14373,10 +14373,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -14398,7 +14398,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -14420,10 +14420,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -14445,7 +14445,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -14467,10 +14467,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -14492,7 +14492,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -14518,7 +14518,7 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -14526,10 +14526,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D65" s="103" t="s">
         <v>1</v>
@@ -14541,7 +14541,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H65" s="124" t="s">
         <v>4</v>
@@ -14558,10 +14558,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -14589,7 +14589,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -14617,7 +14617,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -14645,7 +14645,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -14676,7 +14676,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -14704,7 +14704,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -14732,7 +14732,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -14760,7 +14760,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -14791,7 +14791,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -14819,7 +14819,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -14847,7 +14847,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -14875,7 +14875,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -14906,7 +14906,7 @@
         <v>12</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -14934,7 +14934,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -14962,7 +14962,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -14990,7 +14990,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -15018,10 +15018,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -15049,7 +15049,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -15077,7 +15077,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -15105,7 +15105,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -15136,7 +15136,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -15164,7 +15164,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -15192,7 +15192,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -15220,7 +15220,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -15251,7 +15251,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -15279,7 +15279,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -15307,7 +15307,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -15335,7 +15335,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -15366,7 +15366,7 @@
         <v>15</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -15394,7 +15394,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -15422,7 +15422,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -15450,7 +15450,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -15481,7 +15481,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -15509,7 +15509,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -15537,7 +15537,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -15565,7 +15565,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -15593,18 +15593,18 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D104" s="103" t="s">
         <v>1</v>
@@ -15616,7 +15616,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H104" s="124" t="s">
         <v>4</v>
@@ -15634,7 +15634,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -15662,7 +15662,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -15690,7 +15690,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -15718,7 +15718,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -15748,7 +15748,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="82nJTxbT/RwYNVDOZ0WYU/RTQibfIePLbdtYPXfgbmAVSeY48nW7U8dDnMqF2uMEzAwppmguWqvDhZ+qvOhCUw==" saltValue="16Fv+56iPmGpQ46V3vFyAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y1JWFHeQKsN/E1W5dyevDx35+QeJBF7rD05w5vRciQj7X5lEEcOMkrtRRatiOPhumlNzAME2RWZoLafC4IL8iQ==" saltValue="DHFT/CuXMiDgQaAxHjmaDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15779,7 +15779,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15797,7 +15797,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>4</v>
@@ -15805,10 +15805,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -15826,7 +15826,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="136">
         <v>1.0249999999999999</v>
@@ -15846,12 +15846,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -15871,7 +15871,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -15891,7 +15891,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -15919,13 +15919,13 @@
     </row>
     <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="136">
         <v>1.5</v>
@@ -15949,15 +15949,15 @@
     </row>
     <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="136">
         <v>1.0249999999999999</v>
@@ -15978,7 +15978,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15" s="136">
         <v>1.0249999999999999</v>
@@ -15998,10 +15998,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="136">
         <v>1</v>
@@ -16022,26 +16022,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="136">
         <v>1.52</v>
@@ -16057,7 +16057,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JVN9AzemADBqDOz9HZ+GeeopfD4tDdnp1+R2B65u7OlO0sZlsVHt/L1tIo3/klhinTPxITdKYyYkmaK0EW0LpQ==" saltValue="xkNlx8xJNlI1APe92vrcRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1iZ9TcTPvUFPoW54gKJ0Kwxw8PwzjZDcIvUaRE6BIjr+GEtp9gAf9TFEKoOMltQaD6Pf0k+atqVVAeo/XeK8jg==" saltValue="HMvGcuvnW/NRl9gvcgGviw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16086,7 +16086,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
@@ -16104,10 +16104,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -16125,7 +16125,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -16142,10 +16142,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" s="136">
         <v>0</v>
@@ -16163,7 +16163,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16180,10 +16180,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="136">
         <v>0</v>
@@ -16201,7 +16201,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16218,10 +16218,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -16239,7 +16239,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16256,10 +16256,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -16277,7 +16277,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16294,10 +16294,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="136">
         <v>0.08</v>
@@ -16315,7 +16315,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16337,7 +16337,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oyQ/xJeGrFUrH+eic9SsVej+SeaIyhvUQkpSn2caKxZ93ix1Zl8KO7ASBYQt9lkHhwiz1Tdv8+Nz7+xOixnJ1Q==" saltValue="XIlij/ePijW+A8i7XT5+Nw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zZ5AUC6Vc3IBZQRrmjuDmtX4J7AU1aq1DzrGqBp0gQYKUI4CyfQkXZRyMVxS95MkZCuzwXOe/U8lS8YmCZB0Rw==" saltValue="aIiLgLFARbsuk7jPgU91bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16375,44 +16375,44 @@
         <v>3</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="103" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>53</v>
-      </c>
-      <c r="O1" s="103" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -16456,7 +16456,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -16500,7 +16500,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16544,7 +16544,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16588,7 +16588,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16632,7 +16632,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16676,7 +16676,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16720,7 +16720,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -16764,7 +16764,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16808,7 +16808,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="136">
         <v>0.83</v>
@@ -16852,7 +16852,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16896,7 +16896,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="136">
         <v>1</v>
@@ -16940,13 +16940,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C17" s="136">
         <v>1</v>
@@ -16990,7 +16990,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -17034,7 +17034,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -17078,7 +17078,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -17133,7 +17133,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S2KaFdHVtqUEl/c+QujafXgJYQBWVZ9uPy5qWgYeWHgU4vq29OwsnB2nRYZAsIC5VY8XmMDqqpC4WqSYg0ntDA==" saltValue="t6NCwzmonLgyfJvTawhs/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fZobTAEwsIpsZG2WuPhT47PELoagOfuO4FDqDZTV1m3RNUOiF5/QZywdWBdxIDS/Z5sC5T5/iXcvfiGGd03AeQ==" saltValue="+v9g3EExwaod1y7KAodgsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17171,7 +17171,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
@@ -17179,12 +17179,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -17204,7 +17204,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -17215,7 +17215,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -17234,7 +17234,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mAat10ZPVTBizPyh6aFB35ux8BpohcuNPhMn0wB4+Ee9yZ0aIRWQ3b2WyCMrBdOspEUQSrXCD5lg5Q0csIcM6w==" saltValue="Xfr1kWC3uWYSJdmvKV92ZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vQWhoYIk1vPnQnYauNGMdMOlsow2vMya80KJDCoVae6pviJz2YaBxer13GAUNFcRFXF29/Vzwu1HhgvNVY6kMQ==" saltValue="+VJSgdMWhUoI7ZeKyJer+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17266,13 +17266,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -17284,7 +17284,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>4</v>
@@ -17292,13 +17292,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -17318,7 +17318,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -17338,7 +17338,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -17358,13 +17358,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -17384,7 +17384,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -17404,10 +17404,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -17427,7 +17427,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -17447,13 +17447,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -17493,10 +17493,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -17516,7 +17516,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -17536,13 +17536,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -17562,7 +17562,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -17583,10 +17583,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -17607,7 +17607,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -17628,13 +17628,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -17655,7 +17655,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D18" s="136">
         <v>0.186</v>
@@ -17676,13 +17676,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -17702,7 +17702,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D20" s="136">
         <v>0.186</v>
@@ -17722,13 +17722,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D22" s="136">
         <v>0.186</v>
@@ -17768,13 +17768,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -17794,7 +17794,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -17814,7 +17814,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -17834,13 +17834,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -17860,7 +17860,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -17880,7 +17880,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -17900,13 +17900,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -17926,7 +17926,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -17946,7 +17946,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -17966,13 +17966,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -17992,7 +17992,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -18012,7 +18012,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -18032,13 +18032,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18058,7 +18058,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -18078,7 +18078,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -18098,13 +18098,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -18124,7 +18124,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D39" s="136">
         <v>0.5</v>
@@ -18144,7 +18144,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D40" s="136">
         <v>0.65</v>
@@ -18167,7 +18167,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -18187,7 +18187,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D42" s="136">
         <v>0.5</v>
@@ -18207,7 +18207,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D43" s="136">
         <v>0.63</v>
@@ -18227,13 +18227,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -18253,7 +18253,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="136">
         <v>0.8</v>
@@ -18273,13 +18273,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -18299,7 +18299,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D47" s="136">
         <v>0.76</v>
@@ -18319,13 +18319,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -18345,7 +18345,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D49" s="136">
         <v>0.88</v>
@@ -18364,7 +18364,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8cgGkBTNaPc1YjLIgephYWsyaEAjNcUxcSeIh6toRVPsHDZv+McFBffl9LCW6Zao6iuNFUR1ZJEtkGT8OBl4tA==" saltValue="ywf4yO3jBiqpcC+GmnUrwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GaQu+5RZKoWOi0SfPnx7+aeT6jQ9biefOj8E2qLYOjq/fQnFQVT+MTTSZIJrxvqvCDqcVEbYQ5ogsRe/E5IT4w==" saltValue="mwT2I10I/9rWvAk8la1Kwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18392,35 +18392,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>54</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -18438,7 +18438,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -18456,13 +18456,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18481,7 +18481,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -18499,13 +18499,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18524,7 +18524,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D7" s="136">
         <v>0.59</v>
@@ -18541,7 +18541,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kraD5G0mdk1SGzC1wG/Hzy9NYT1s0Ui1fabGDH3Gq6iho6YVzs6BCagv+qYs7e1Qd9i0zUISGl7sDor6gf4lFg==" saltValue="yy8D88KbLbGOTaWOGdbeRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pGDJa2Y/CY3a0JOPg0iIk9Kv9kWzXeNUkHfi4XelkvRO6fL1GV5uwvkv7ikmIMoT0s/TTgTh8sousUdK8dUITg==" saltValue="Vo4GzBnSZdDuTfMT/SIC/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18577,10 +18577,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -18592,7 +18592,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="75"/>
     </row>
@@ -18622,7 +18622,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="75"/>
     </row>
@@ -18640,7 +18640,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18660,10 +18660,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -18672,7 +18672,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>4</v>
@@ -18681,7 +18681,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="75"/>
@@ -18762,7 +18762,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -18794,13 +18794,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -18810,61 +18810,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="75"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="75"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="75"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="75"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="75"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="75"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="75"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="75"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="75"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -18872,7 +18872,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C1W5uWSXTW2ltJ9c9IYItwSAD3Fdc0A/RJ7A5lDePKCCX8sTWRuJeLAb01l2XkJyx54cpwkm27ukxn0qnTq+fQ==" saltValue="PwQPMvml0a/2XXFt0vYsYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="onZfJTyM79wicsfJ0sPwTFhXI+k32DbCYRblO8eDpcJPa3HDaTCgRAphFjXZ3l83gA39eHrOsjKOyiffyij03g==" saltValue="N8Lze0uuML3zxV63lLjmRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18914,7 +18914,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>4</v>
@@ -18922,10 +18922,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="C2" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -18951,7 +18951,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -18977,7 +18977,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -18988,7 +18988,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
@@ -19014,10 +19014,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19042,7 +19042,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19067,7 +19067,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="77"/>
@@ -19077,7 +19077,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -19101,7 +19101,7 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>1</v>
@@ -19113,39 +19113,39 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>54</v>
-      </c>
       <c r="L13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
@@ -19163,7 +19163,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19233,7 +19233,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EddeIva8kR6C7vBgjWgFNylqTmAwVXhQBFiALeBgybMvz2gelpYDJi7tqe2oCXYWUmY73k2vRfsMBnfJ7yQ6Pw==" saltValue="tyf7n6R1NNsLtn1It43CNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y3u5V1EGNaTQfG0dfC8JcBKnDYTy6rLJqKtXlHDUDx1OQm09fPJgCmw2nqoy+uge01wxOETXdpRf/j+fdujicw==" saltValue="kGk8P5zle+MZYqtY6jFZ3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19275,7 +19275,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>4</v>
@@ -19286,7 +19286,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -19296,7 +19296,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -19306,7 +19306,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -19316,7 +19316,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19340,7 +19340,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4GomgmI4eIdNV5IlW2jwgWhGNlUYbY8/opIC92zpSrYAEFlMThoHOJs8O2UwFYAs3ElxiYUhLiNubhYMlAArbw==" saltValue="lBc1KPEE9rdSFNjzK6HAPA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ntK6ORZh0vbu0q7yUKjoO0JhhTFTVxuSz8ahcgNZ6Y7cFgLHClPmVmE9gjOY/EGIwDZtNKaayC6kOx6BJgJ+ig==" saltValue="3nUI3ya4KEdZpFvv/15MkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19366,10 +19366,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -19416,10 +19416,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="28">
         <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
@@ -19446,10 +19446,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="28">
         <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
@@ -19478,10 +19478,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="C6" s="28">
         <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
@@ -19505,7 +19505,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="28" t="e">
         <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
@@ -19529,7 +19529,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28" t="e">
         <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
@@ -19555,10 +19555,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="28">
         <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
@@ -19582,7 +19582,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="28">
         <f>(('Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F4)*(12/18))</f>
@@ -19606,10 +19606,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28">
         <f>U5_mortality/1000</f>
@@ -19633,7 +19633,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -19656,7 +19656,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LV0CgXMr5uafcBZ/X1MG18Dn2cyu/0zXnMRq0z0XB3LULtLG20AEyXvwi36c530r0FQI8L9C7EsUi69nyaingg==" saltValue="X/Lxe1Knu2bThF1Ngs0Hpg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PIkE0flIBPlokIu38Y25HN9ENQuct6HlL2vcJCF+aNLHVeVVk6wwctI5GQ2hTXgxm32LiAN0nnbooI6apXz6FA==" saltValue="tT2KQJkPpeWvFF1v+8E8lQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19683,27 +19683,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -19718,7 +19718,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="57" t="str">
@@ -19732,7 +19732,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="57" t="str">
@@ -19746,7 +19746,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="57" t="str">
@@ -19757,10 +19757,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="57" t="str">
@@ -19771,7 +19771,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -19779,10 +19779,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
@@ -19830,7 +19830,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -19842,24 +19842,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19887,7 +19887,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19911,11 +19911,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19925,14 +19925,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5FtzErKqs17qCSDFYZcpXFLc7RpCZUQyqm7LQYYYON8B80JQG7sFhWvt2OTs9rLaJ0lFHuhLdvG2ebG/sEv76Q==" saltValue="drZ0DOkuBbIGHBQIH+g71w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iuPrafezdLf5YKgjLGtw5e3JTSVhb+Ci+572DEPjhIDm9ixOzap3W9Ugs9RIknN3JWtHQNe77k5I3e/sEw/6gQ==" saltValue="5UEFERiFdYnXjkN60nP0wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -19959,44 +19959,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3zdqsJFY2ku6KxriDlXc0aWTB5kFAbzALNgnuu4iBdsHUYs8a8k3/ys+4q3Km96p6kRa09Jpu7BW4yj4M7vZIw==" saltValue="mzdXjrwwXHrZfo24I/EnLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6Cat416w/xnFMeqM6xx6LXwebFqqxWhXFmLt2M9M1VFzl8g0v/RuhJoFT7wEhGE6B3zQfQv8mU1J0JEuVBThiA==" saltValue="0J2afnceUXkiQpNkuZK1+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20024,25 +20024,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20054,12 +20054,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20071,12 +20071,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20088,12 +20088,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20105,12 +20105,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20122,12 +20122,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="81">
         <v>0</v>
@@ -20139,12 +20139,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20156,12 +20156,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20173,12 +20173,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20190,12 +20190,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20207,12 +20207,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20224,12 +20224,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20241,12 +20241,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20258,12 +20258,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20275,12 +20275,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="81">
         <v>0</v>
@@ -20292,12 +20292,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="81">
         <v>0</v>
@@ -20309,12 +20309,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20326,12 +20326,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20343,12 +20343,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20360,12 +20360,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20377,12 +20377,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20394,12 +20394,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="81">
         <v>0</v>
@@ -20411,12 +20411,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20428,12 +20428,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20445,12 +20445,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="81">
         <v>0</v>
@@ -20462,12 +20462,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="81">
         <v>0</v>
@@ -20479,12 +20479,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20496,12 +20496,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20513,12 +20513,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20530,12 +20530,12 @@
         <v>5.3</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="81">
         <v>0</v>
@@ -20547,12 +20547,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="81">
         <v>0</v>
@@ -20564,12 +20564,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="81">
         <v>0</v>
@@ -20581,12 +20581,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="81">
         <v>0</v>
@@ -20598,12 +20598,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="81">
         <v>0</v>
@@ -20615,12 +20615,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="81">
         <v>0</v>
@@ -20632,13 +20632,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="81">
         <v>0</v>
@@ -20650,12 +20650,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -20667,14 +20667,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gYOjdp3PpEOuL/7hA37h9OAM1gqGm9X7VRqHktlE2gezJvsH0Yn9Awy+s1tDh4LbSUGdwyy/KEAUgE6o02Ez0w==" saltValue="9BWUk21wNsH0ymN5610gGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fjaX8r397PXJH1p79fsdYda49TatfJPNKAP7yqmqYG5Mr+qbgBkd4Z94EttSXhK5oIqkOp+gWhCuyyZPSKGgfA==" saltValue="38W5vNXZ1ydG3N8iZRpUKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D606B304-7F41-4AFB-B735-50A792D0B2FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{736944E8-BC8D-40EA-B25C-72BC72F9FA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
-    <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
-    <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
-    <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
-    <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
-    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
-    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId10"/>
+    <sheet name="Projections démographiques" sheetId="2" r:id="rId2"/>
+    <sheet name="Causes de décès" sheetId="4" r:id="rId3"/>
+    <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
+    <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
+    <sheet name="Tendances temporelles" sheetId="51" state="hidden" r:id="rId6"/>
+    <sheet name="Paquets IYCF" sheetId="55" r:id="rId7"/>
+    <sheet name="Traitement de la MAS" sheetId="60" r:id="rId8"/>
+    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
+    <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId10"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId12"/>
+    <sheet name="Dépendances du programme" sheetId="58" r:id="rId12"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Birth outcome risks'!$A$1:$F$7</definedName>
     <definedName name="abortion" localSheetId="6">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="abortion">'Donnees pop de l''annee de ref'!$C$41</definedName>
-    <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
+    <definedName name="comm_deliv">'Traitement de la MAS'!$D$3</definedName>
     <definedName name="diarrhoea_1_5mo">'Donnees pop de l''annee de ref'!$C$52</definedName>
     <definedName name="diarrhoea_12_23mo">'Donnees pop de l''annee de ref'!$C$54</definedName>
     <definedName name="diarrhoea_1mo">'Donnees pop de l''annee de ref'!$C$51</definedName>
@@ -58,26 +58,26 @@
     <definedName name="frac_diarrhea_severe">'Donnees pop de l''annee de ref'!$C$58</definedName>
     <definedName name="frac_maize">'Donnees pop de l''annee de ref'!$C$19</definedName>
     <definedName name="frac_malaria_risk">'Donnees pop de l''annee de ref'!$C$9</definedName>
-    <definedName name="frac_mam_1_5months">'Nutritional status distribution'!$D$10</definedName>
-    <definedName name="frac_mam_12_23months">'Nutritional status distribution'!$F$10</definedName>
-    <definedName name="frac_mam_1month">'Nutritional status distribution'!$C$10</definedName>
-    <definedName name="frac_mam_24_59months">'Nutritional status distribution'!$G$10</definedName>
-    <definedName name="frac_mam_6_11months">'Nutritional status distribution'!$E$10</definedName>
+    <definedName name="frac_mam_1_5months">'Dist. de l''état nutritionnel'!$D$10</definedName>
+    <definedName name="frac_mam_12_23months">'Dist. de l''état nutritionnel'!$F$10</definedName>
+    <definedName name="frac_mam_1month">'Dist. de l''état nutritionnel'!$C$10</definedName>
+    <definedName name="frac_mam_24_59months">'Dist. de l''état nutritionnel'!$G$10</definedName>
+    <definedName name="frac_mam_6_11months">'Dist. de l''état nutritionnel'!$E$10</definedName>
     <definedName name="frac_MAMtoSAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_other_staples">'Donnees pop de l''annee de ref'!$C$20</definedName>
     <definedName name="frac_PW_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
     <definedName name="frac_rice">'Donnees pop de l''annee de ref'!$C$17</definedName>
-    <definedName name="frac_sam_1_5months">'Nutritional status distribution'!$D$11</definedName>
-    <definedName name="frac_sam_12_23months">'Nutritional status distribution'!$F$11</definedName>
-    <definedName name="frac_sam_1month">'Nutritional status distribution'!$C$11</definedName>
-    <definedName name="frac_sam_24_59months">'Nutritional status distribution'!$G$11</definedName>
-    <definedName name="frac_sam_6_11months">'Nutritional status distribution'!$E$11</definedName>
+    <definedName name="frac_sam_1_5months">'Dist. de l''état nutritionnel'!$D$11</definedName>
+    <definedName name="frac_sam_12_23months">'Dist. de l''état nutritionnel'!$F$11</definedName>
+    <definedName name="frac_sam_1month">'Dist. de l''état nutritionnel'!$C$11</definedName>
+    <definedName name="frac_sam_24_59months">'Dist. de l''état nutritionnel'!$G$11</definedName>
+    <definedName name="frac_sam_6_11months">'Dist. de l''état nutritionnel'!$E$11</definedName>
     <definedName name="frac_SAMtoMAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_subsistence_farming">'Donnees pop de l''annee de ref'!$C$16</definedName>
     <definedName name="frac_wheat">'Donnees pop de l''annee de ref'!$C$18</definedName>
     <definedName name="infant_mortality">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="iron_deficiency_anaemia">'Donnees pop de l''annee de ref'!$C$59</definedName>
-    <definedName name="manage_mam">'Treatment of SAM'!$D$2</definedName>
+    <definedName name="manage_mam">'Traitement de la MAS'!$D$2</definedName>
     <definedName name="maternal_mortality">'Donnees pop de l''annee de ref'!$C$40</definedName>
     <definedName name="neonatal_mortality">'Donnees pop de l''annee de ref'!$C$37</definedName>
     <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
@@ -409,437 +409,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="272">
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>&lt;1 month</t>
-  </si>
-  <si>
-    <t>1-5 months</t>
-  </si>
-  <si>
-    <t>6-11 months</t>
-  </si>
-  <si>
-    <t>24-59 months</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Neonatal sepsis</t>
-  </si>
-  <si>
-    <t>Neonatal pneumonia</t>
-  </si>
-  <si>
-    <t>Pre-term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal asphyxia</t>
-  </si>
-  <si>
-    <t>Pre-term AGA</t>
-  </si>
-  <si>
-    <t>Term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal prematurity</t>
-  </si>
-  <si>
-    <t>Neonatal other</t>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-  </si>
-  <si>
-    <t>Meningitis</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>Malaria</t>
-  </si>
-  <si>
-    <t>Pertussis</t>
-  </si>
-  <si>
-    <t>AIDS</t>
-  </si>
-  <si>
-    <t>Injury</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Breastfeeding</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="271">
   <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Term AGA</t>
-  </si>
-  <si>
-    <t>Neonatal congenital anomalies</t>
-  </si>
-  <si>
-    <t>Balanced energy-protein supplementation</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Pregnant women</t>
-  </si>
-  <si>
     <t>Broad population group</t>
   </si>
   <si>
-    <t>Long-lasting insecticide-treated bednets</t>
-  </si>
-  <si>
     <t>General population</t>
   </si>
   <si>
-    <t>non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Antepartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Intrapartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Postpartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Hypertensive disorders</t>
-  </si>
-  <si>
-    <t>Sepsis</t>
-  </si>
-  <si>
-    <t>Abortion</t>
-  </si>
-  <si>
-    <t>Embolism</t>
-  </si>
-  <si>
-    <t>Other direct causes</t>
-  </si>
-  <si>
-    <t>Indirect causes</t>
-  </si>
-  <si>
-    <t>Iron and iodine fortification of salt</t>
-  </si>
-  <si>
-    <t>Population data</t>
-  </si>
-  <si>
-    <t>WRA: 15-19 years</t>
-  </si>
-  <si>
-    <t>WRA: 20-29 years</t>
-  </si>
-  <si>
-    <t>WRA: 30-39 years</t>
-  </si>
-  <si>
-    <t>WRA: 40-49 years</t>
-  </si>
-  <si>
-    <t>PW: 15-19 years</t>
-  </si>
-  <si>
-    <t>PW: 20-29 years</t>
-  </si>
-  <si>
-    <t>PW: 30-39 years</t>
-  </si>
-  <si>
-    <t>PW: 40-49 years</t>
-  </si>
-  <si>
     <t>IPTp</t>
   </si>
   <si>
-    <t>Public provision of complementary foods</t>
-  </si>
-  <si>
-    <t>Multiple micronutrient supplementation</t>
-  </si>
-  <si>
-    <t>Zinc supplementation</t>
-  </si>
-  <si>
-    <t>Cash transfers</t>
-  </si>
-  <si>
-    <t>IFA fortification of wheat flour</t>
-  </si>
-  <si>
-    <t>IFA fortification of rice</t>
-  </si>
-  <si>
     <t>MAM</t>
   </si>
   <si>
     <t>SAM</t>
   </si>
   <si>
-    <t>Treatment of SAM</t>
-  </si>
-  <si>
-    <t>Prevalence of iron deficiency anaemia</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>Anaemia</t>
-  </si>
-  <si>
-    <t>Diarrhoea</t>
-  </si>
-  <si>
-    <t>Diarrhoea incidence</t>
-  </si>
-  <si>
-    <t>Neonatal diarrhoea</t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>First birth</t>
-  </si>
-  <si>
-    <t>less than 18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>24 months or greater</t>
-  </si>
-  <si>
-    <t>WASH: Improved water source</t>
-  </si>
-  <si>
-    <t>WASH: Piped water</t>
-  </si>
-  <si>
-    <t>WASH: Improved sanitation</t>
-  </si>
-  <si>
-    <t>WASH: Hygenic disposal</t>
-  </si>
-  <si>
-    <t>WASH: Handwashing</t>
-  </si>
-  <si>
-    <t>Oral rehydration salts</t>
-  </si>
-  <si>
-    <t>Zinc for treatment + ORS</t>
-  </si>
-  <si>
-    <t>Calcium supplementation</t>
-  </si>
-  <si>
-    <t>Mg for pre-eclampsia</t>
-  </si>
-  <si>
-    <t>Mg for eclampsia</t>
-  </si>
-  <si>
-    <t>Fraction of pregnancies ending in spontaneous abortion</t>
-  </si>
-  <si>
-    <t>Under 5 mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Infant mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Neonatal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Stillbirths (per 1,000 total births)</t>
-  </si>
-  <si>
-    <t>Fraction of subsistence farming</t>
-  </si>
-  <si>
-    <t>Fraction eating rice as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating wheat as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating maize as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction on other staples as main staple food</t>
-  </si>
-  <si>
-    <t>Age distribution of pregnant women</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 15-19 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 30-39 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 40-49 years</t>
-  </si>
-  <si>
-    <t>School attendance (percentage of 15-19 year women)</t>
-  </si>
-  <si>
-    <t>Percentage of population food insecure (default poor)</t>
-  </si>
-  <si>
-    <t>Percentage of population at risk of malaria</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women attending health facility</t>
-  </si>
-  <si>
-    <t>Percentage of children attending health facility</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning</t>
-  </si>
-  <si>
-    <t>Percentage of diarrhea that is severe</t>
-  </si>
-  <si>
-    <t>Number of births</t>
-  </si>
-  <si>
-    <t>Total WRA</t>
-  </si>
-  <si>
-    <t>Wasting (weight-for-height)</t>
-  </si>
-  <si>
-    <t>Stunting (height-for-age)</t>
-  </si>
-  <si>
-    <t>Moderate (HAZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>Normal (HAZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild (HAZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>High (HAZ-score between &lt; -3)</t>
-  </si>
-  <si>
-    <t>Normal  (WHZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild  (WHZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>MAM   (WHZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>SAM   (WHZ-score &lt; -3)</t>
-  </si>
-  <si>
-    <t>Average episodes per year: &lt;1 month</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 1-5 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 6-11 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 24-59 months</t>
-  </si>
-  <si>
-    <t>Total (must be 100%)</t>
-  </si>
-  <si>
-    <t>Estimated pregnant women</t>
-  </si>
-  <si>
-    <t>Prevalence of anaemia</t>
-  </si>
-  <si>
-    <t>Percentage of anaemia that is iron deficient</t>
-  </si>
-  <si>
-    <t>Birth outcome distribution</t>
-  </si>
-  <si>
-    <t>Other risks</t>
-  </si>
-  <si>
-    <t>Baseline year mortality and risk factors</t>
-  </si>
-  <si>
-    <t>Lipid-based nutrition supplements</t>
-  </si>
-  <si>
-    <t>Micronutrient powders</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Stunting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Wasting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Anaemia prevalence (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of age-appropriate breastfeeding</t>
-  </si>
-  <si>
     <t>Children 0-59 months</t>
   </si>
   <si>
-    <t>Women of reproductive age</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
-    <t>Children 6-23 months</t>
-  </si>
-  <si>
-    <t>Children 0-5 months</t>
-  </si>
-  <si>
-    <t>Under five (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Delayed cord clamping</t>
-  </si>
-  <si>
     <t>IUD</t>
   </si>
   <si>
@@ -888,54 +483,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Exclusive</t>
-  </si>
-  <si>
-    <t>Predominant</t>
-  </si>
-  <si>
-    <t>Partial</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Maternal (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Maternal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
-    <t>Mass media</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Health facility</t>
-  </si>
-  <si>
-    <t>Target population</t>
-  </si>
-  <si>
-    <t>IYCF package</t>
-  </si>
-  <si>
-    <t>Threshold dependency</t>
-  </si>
-  <si>
-    <t>Exclusion dependency</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -945,81 +492,12 @@
     <t>Community-based</t>
   </si>
   <si>
-    <t>Delivery mode</t>
-  </si>
-  <si>
-    <t>Add extension</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (community)</t>
-  </si>
-  <si>
-    <t>IFAS (community)</t>
-  </si>
-  <si>
-    <t>IFAS (retailer)</t>
-  </si>
-  <si>
-    <t>IFAS (school)</t>
-  </si>
-  <si>
-    <t>Projection years</t>
-  </si>
-  <si>
-    <t>End year</t>
-  </si>
-  <si>
-    <t>Baseline year (projection start year)</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Kangaroo mother care</t>
-  </si>
-  <si>
-    <t>Birth spacing</t>
-  </si>
-  <si>
-    <t>Family planning</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
     <t>IYCF 3</t>
   </si>
   <si>
-    <t>Saturation coverage of target population</t>
-  </si>
-  <si>
-    <t>Linear (constant marginal cost) [default]</t>
-  </si>
-  <si>
-    <t>Curved with increasing marginal cost</t>
-  </si>
-  <si>
-    <t>Curved with decreasing marginal cost</t>
-  </si>
-  <si>
-    <t>S-shaped (decreasing then increasing marginal cost)</t>
-  </si>
-  <si>
-    <t>Cost-coverage relationship</t>
-  </si>
-  <si>
-    <t>IFAS (health facility)</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (health facility)</t>
-  </si>
-  <si>
-    <t>Children under 5 population</t>
-  </si>
-  <si>
-    <t>Neonatal</t>
-  </si>
-  <si>
     <t>Causes</t>
   </si>
   <si>
@@ -1209,22 +687,541 @@
     <t>Données de l'année de référence</t>
   </si>
   <si>
+    <t>Années de projection</t>
+  </si>
+  <si>
+    <t>Année de référence (année de début de la projection)</t>
+  </si>
+  <si>
+    <t>Fin d'année</t>
+  </si>
+  <si>
+    <t>Données sur la population</t>
+  </si>
+  <si>
+    <t>Population des enfants de moins de 5 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population en situation d'insécurité alimentaire (pauvre par défaut)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population exposée au risque de paludisme</t>
+  </si>
+  <si>
+    <t>Fréquentation scolaire (pourcentage de femmes de 15 à 19 ans)</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Pourcentage d'enfants fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Besoin non satisfait de planification familiale</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Fraction de l'agriculture de subsistance</t>
+  </si>
+  <si>
+    <t>Fraction de personnes consommant du riz comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de ceux qui consomment du blé comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population consommant du maïs comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population qui consomme d'autres aliments de base comme principale denrée alimentaire</t>
+  </si>
+  <si>
+    <t>Répartition par âge des femmes enceintes</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes de 15 à 19 ans</t>
+  </si>
+  <si>
     <t>Pourcentage de femmes enceintes âgées de 20 à 29 ans</t>
   </si>
   <si>
-    <t>Average episodes per year: 12-23 mois</t>
+    <t>Pourcentage de femmes enceintes âgées de 30 à 39 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes âgées de 40 à 49 ans</t>
+  </si>
+  <si>
+    <t>Espacement des naissances</t>
+  </si>
+  <si>
+    <t>Première naissance</t>
+  </si>
+  <si>
+    <t>moins de 18 mois</t>
+  </si>
+  <si>
+    <t>18 à 23 mois</t>
+  </si>
+  <si>
+    <t>24 mois ou plus</t>
+  </si>
+  <si>
+    <t>Total (doit être 100%)</t>
+  </si>
+  <si>
+    <t>Mortalité de l'année de référence et facteurs de risque</t>
+  </si>
+  <si>
+    <t>Mortalité</t>
+  </si>
+  <si>
+    <t>Mortalité néonatale (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité infantile (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité des moins de 5 ans (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité maternelle (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Fraction des grossesses se terminant par un avortement spontané</t>
+  </si>
+  <si>
+    <t>Mortinatalité (pour 1 000 naissances totales)</t>
+  </si>
+  <si>
+    <t>Distribution des résultats des naissances</t>
+  </si>
+  <si>
+    <t>SGA avant terme</t>
+  </si>
+  <si>
+    <t>AGA avant terme</t>
+  </si>
+  <si>
+    <t>SGA à terme</t>
+  </si>
+  <si>
+    <t>AGA à terme</t>
+  </si>
+  <si>
+    <t>Incidence de la diarrhée</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Épisodes moyens par an : 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+  </si>
+  <si>
+    <t>Autres risques</t>
+  </si>
+  <si>
+    <t>Pourcentage de diarrhée grave</t>
+  </si>
+  <si>
+    <t>Pourcentage d'anémie avec carence en fer</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t>Nombre de naissances</t>
+  </si>
+  <si>
+    <t>FAP : 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP : 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP : 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Total FAP</t>
+  </si>
+  <si>
+    <t>Estimation des femmes enceintes</t>
+  </si>
+  <si>
+    <t>FAP non enceintes</t>
+  </si>
+  <si>
+    <t>Néonatal</t>
+  </si>
+  <si>
+    <t>Diarrhée néonatale</t>
+  </si>
+  <si>
+    <t>Septicémie néonatale</t>
+  </si>
+  <si>
+    <t>Pneumonie néonatale</t>
+  </si>
+  <si>
+    <t>Asphyxie néonatale</t>
+  </si>
+  <si>
+    <t>Prématurité néonatale</t>
   </si>
   <si>
     <t>Tétanos néonatal</t>
   </si>
   <si>
+    <t>Anomalies congénitales néonatales</t>
+  </si>
+  <si>
+    <t>Autres pathologies néonatales</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Pneumonie</t>
+  </si>
+  <si>
+    <t>Méningite</t>
+  </si>
+  <si>
+    <t>Rougeole</t>
+  </si>
+  <si>
+    <t>Paludisme</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>SIDA</t>
+  </si>
+  <si>
+    <t>Blessure</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>1-5 mois</t>
+  </si>
+  <si>
+    <t>6-11 mois</t>
+  </si>
+  <si>
     <t>12-23 mois</t>
   </si>
   <si>
+    <t>24-59 mois</t>
+  </si>
+  <si>
+    <t>Femmes enceintes</t>
+  </si>
+  <si>
+    <t>Hémorragie antepartum</t>
+  </si>
+  <si>
+    <t>Hémorragie intra-partum</t>
+  </si>
+  <si>
+    <t>Hémorragie du post-partum</t>
+  </si>
+  <si>
+    <t>Troubles hypertensifs</t>
+  </si>
+  <si>
+    <t>Septicémie</t>
+  </si>
+  <si>
+    <t>Avortement</t>
+  </si>
+  <si>
+    <t>Embolie</t>
+  </si>
+  <si>
+    <t>Autres causes directes</t>
+  </si>
+  <si>
+    <t>Causes indirectes</t>
+  </si>
+  <si>
+    <t>&lt;1 mois</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Retard de croissance (taille pour l'âge)</t>
+  </si>
+  <si>
+    <t>Normal (score HAZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score HAZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ entre &lt; -3)</t>
+  </si>
+  <si>
+    <t>Amaigrissement (poids par rapport à la taille)</t>
+  </si>
+  <si>
+    <t>Normal (score WHZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score WHZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>MAM (score WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>SAM (score WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Anémie</t>
+  </si>
+  <si>
+    <t>PW : 15-19 ans</t>
+  </si>
+  <si>
+    <t>PW : 20-29 ans</t>
+  </si>
+  <si>
+    <t>PW : 30-39 ans</t>
+  </si>
+  <si>
+    <t>PW : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie ferriprive</t>
+  </si>
+  <si>
+    <t>Allaitement maternel</t>
+  </si>
+  <si>
+    <t>Exclusif</t>
+  </si>
+  <si>
+    <t>Prédominant</t>
+  </si>
+  <si>
+    <t>Partiel</t>
+  </si>
+  <si>
+    <t>Aucun</t>
+  </si>
+  <si>
+    <t>Risque</t>
+  </si>
+  <si>
+    <t>Prévalence du retard de croissance (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'émaciation (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie (%)</t>
+  </si>
+  <si>
+    <t>Femmes en âge de procréer</t>
+  </si>
+  <si>
+    <t>Prévalence de l'allaitement maternel adapté à l'âge des enfants</t>
+  </si>
+  <si>
+    <t>Enfants de 0 à 5 mois</t>
+  </si>
+  <si>
+    <t>Enfants de 6 à 23 mois</t>
+  </si>
+  <si>
+    <t>Moins de cinq ans (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Maternelle (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Paquet IYCF</t>
+  </si>
+  <si>
+    <t>Population cible</t>
+  </si>
+  <si>
+    <t>Établissement de santé</t>
+  </si>
+  <si>
+    <t>Communauté</t>
+  </si>
+  <si>
+    <t>Médias de masse</t>
+  </si>
+  <si>
+    <t>Tous</t>
+  </si>
+  <si>
+    <t>AIFC 1</t>
+  </si>
+  <si>
+    <t>AIFC 2</t>
+  </si>
+  <si>
+    <t>Programme</t>
+  </si>
+  <si>
+    <t>Traitement de la MAS</t>
+  </si>
+  <si>
+    <t>Défaut</t>
+  </si>
+  <si>
+    <t>Ajouter une extension</t>
+  </si>
+  <si>
+    <t>Mode de livraison</t>
+  </si>
+  <si>
+    <t>Couverture à saturation de la population cible</t>
+  </si>
+  <si>
+    <t>Relation coût-couverture</t>
+  </si>
+  <si>
+    <t>Supplémentation équilibrée en énergie et en protéines</t>
+  </si>
+  <si>
+    <t>Supplémentation en calcium</t>
+  </si>
+  <si>
+    <t>Transferts en espèces</t>
+  </si>
+  <si>
+    <t>Retardement du clampage du cordon</t>
+  </si>
+  <si>
+    <t>Planification familiale</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement du riz en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement en ACI de la farine de blé</t>
+  </si>
+  <si>
+    <t>IFAS (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS (établissement de santé)</t>
+  </si>
+  <si>
+    <t>IFAS (détaillant)</t>
+  </si>
+  <si>
+    <t>IFAS (école)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (établissement de santé)</t>
+  </si>
+  <si>
+    <t>Enrichissement du sel en fer et en iode</t>
+  </si>
+  <si>
+    <t>Soins maternels kangourou</t>
+  </si>
+  <si>
+    <t>Suppléments nutritionnels à base de lipides</t>
+  </si>
+  <si>
+    <t>Moustiquaires imprégnées d'insecticide longue durée</t>
+  </si>
+  <si>
+    <t>Mg pour l'éclampsie</t>
+  </si>
+  <si>
+    <t>Mg pour la pré-éclampsie</t>
+  </si>
+  <si>
+    <t>Poudres de micronutriments</t>
+  </si>
+  <si>
+    <t>Supplémentation en micronutriments multiples</t>
+  </si>
+  <si>
+    <t>Sels de réhydratation orale</t>
+  </si>
+  <si>
+    <t>Fourniture publique d'aliments complémentaires</t>
+  </si>
+  <si>
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>Enrichissement du maïs en AGI</t>
+    <t>WASH : lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH : Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH : Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH : Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH : Eau courante</t>
+  </si>
+  <si>
+    <t>Zinc pour le traitement + SRO</t>
+  </si>
+  <si>
+    <t>Supplémentation en zinc</t>
+  </si>
+  <si>
+    <t>Linéaire (coût marginal constant) [par défaut].</t>
+  </si>
+  <si>
+    <t>Dépendance d'exclusion</t>
+  </si>
+  <si>
+    <t>Dépendance de seuil</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal décroissant</t>
+  </si>
+  <si>
+    <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
 </sst>
 </file>
@@ -4765,18 +4762,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4784,7 +4781,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4793,7 +4790,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4806,24 +4803,24 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="C7" s="65"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="66"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="67"/>
     </row>
@@ -4835,19 +4832,19 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="66"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="66"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="66"/>
     </row>
@@ -4856,38 +4853,38 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C16" s="67"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C17" s="67"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C18" s="67"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C19" s="67"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4899,30 +4896,30 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C23" s="67"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="C24" s="67"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C25" s="67"/>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C26" s="67"/>
     </row>
@@ -4932,38 +4929,38 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C29" s="69"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C30" s="69"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C31" s="69"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C32" s="69"/>
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4973,25 +4970,25 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C37" s="71"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="17"/>
@@ -4999,7 +4996,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="17"/>
@@ -5007,19 +5004,19 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C40" s="71"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C41" s="67"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C42" s="71"/>
     </row>
@@ -5028,27 +5025,27 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C46" s="67"/>
       <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="C47" s="67"/>
       <c r="D47" s="17"/>
@@ -5056,7 +5053,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5070,67 +5067,67 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C51" s="72"/>
       <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C52" s="72"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C53" s="72"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="C54" s="72"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C55" s="72"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C58" s="66"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C59" s="66"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="C60" s="66"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="C61" s="66"/>
     </row>
@@ -5138,7 +5135,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2RTbR42ra4o5haAyW6P9xWToeSVmGarigw2T4ROPgKWIpRnCR5yBiS/toIfs5rrUfGsDPywF4GjNNkdvuUtgIQ==" saltValue="mt7iHkNdM0WuHuCcX0Gzaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D5LKIXllAn20ephvra0BP+jEyJ2HR5J8Lqd8TMRhnhaiioA8DgetTRnaWQHeLrrcvsTSi2tRa9oTs6tzDq3V+Q==" saltValue="5j3pk4GP67/JMNPpYR5z+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5163,47 +5160,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5237,7 +5234,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oIH26vGVMcMl9Knnp7rNrUwsUZE5T3jzymAaujgP0jb7DQ2E1n3V7BoBqjLB789QOOS4i0W32u/UkBe/YUHPbg==" saltValue="VpYhP1Vmvzxg/DsujYHOLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q/sbw3psKH1f3Eb/5LpBSjRwib+4N+m91JxJAzbZr3fZxCrEJr1crQYPOkn+wFDVWp+DYNcJeoHoVkRhRnQhrw==" saltValue="EPMbHeePWlfVRe8nGg/2NA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5258,27 +5255,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5303,7 +5300,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5328,7 +5325,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5352,7 +5349,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SdEv9DmQ2sHp4/N8y5A3vg4vsb9JOmwh+GMh37XTMU5sIL3sPmSi/WP0h+fJ4kW0VUQm+ZU7PEiRGhTLNs3umg==" saltValue="0knMep6iemFWM/UZUgL2Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nFFV03aILFDlXLRRX3SjCkPckRtC3I4SDuXr601WZxx5SNg3zJXPWuZvb87e6cJ7elfvLPnTG8DhWUC6IOWU6w==" saltValue="MofszsZhpTkA+P3fC4BUWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5379,48 +5376,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5500,7 +5497,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1d0Jql8asJiLcBOUIjMWItVBY8ykcNMW1EnXreOHBQZ0MpWIPvudKZ5eY/ty9Zdr19S3Hd3M5gH3wzscB+SOKA==" saltValue="+964GtHeccLm3YvexEtsKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WwXjswt+6Lvmf2j8VnpkVh6aQYYI4DfeokRvIscaNoH6d4CbZuYlERHQWN4xgTdVZSjIU9/UmRrOFGSz/+vF8Q==" saltValue="ql+4WXbpxnEPhQ6trdpN1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5532,57 +5529,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5630,7 +5627,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5674,7 +5671,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5718,7 +5715,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5764,7 +5761,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5811,7 +5808,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5860,7 +5857,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5906,7 +5903,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -5954,7 +5951,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -5998,7 +5995,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6047,7 +6044,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6094,10 +6091,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6146,7 +6143,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6191,7 +6188,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6240,7 +6237,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6288,7 +6285,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6336,7 +6333,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6380,7 +6377,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6424,7 +6421,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6475,10 +6472,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6526,7 +6523,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6574,7 +6571,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6622,7 +6619,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6670,7 +6667,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6725,10 +6722,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6783,7 +6780,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6838,7 +6835,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6893,7 +6890,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -6937,7 +6934,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -6994,7 +6991,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7039,7 +7036,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7083,7 +7080,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7127,7 +7124,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7171,7 +7168,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7217,7 +7214,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kAikK/smr6Ugnm4eEJ+/vnYE6QRfkG03sTpCNoN0WRrmg+BkBAvjeisOL06YBt9hryYltkxQFr894E0OSnzm9g==" saltValue="081X2tCqvkaJb7pVxt+EKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RaKL0rBMjheWfuvJryoPDHgdqlYEp1ZHjAJNtsXRiN3UVkCcmf1wTQOA9MQihEzD/4my7DCm+HGG/sh7vi8UfQ==" saltValue="sb7DtI8nUrM40Bu695qpqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7236,26 +7233,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KgMSb0wWuUz4D96BOO8XJLSf1TnoxqJjLEcqAH64e43S+Jox6E49Bxte33150xYt6p+6j51vA97VwKReXQ7wxw==" saltValue="cOpKMFac9r++A4lEc1MJrw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C87wENpr+vIWPFEI5SN1wJRDiqABJiAYkGueQ/ZUWkz0ut4iiG6l2hUOVtJr810dKWJI1lXoS70efrXsAq0d4A==" saltValue="JlWBs+lrsSS9LEeiYHKS9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7282,24 +7279,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7317,7 +7314,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7335,7 +7332,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7353,7 +7350,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7371,7 +7368,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7389,7 +7386,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7407,7 +7404,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7425,7 +7422,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7443,7 +7440,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7463,7 +7460,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5pMZVPAmWaIdyjzquKEWTjwzek8XcxWnlpWb9SOLSHzqjJR1tGw7A8a1uTVV6x9996I5TREnyKI1ZGDclnFRmw==" saltValue="ELRFtfcAb/5d3vfmApiAPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="89u5cYZauH1HXDmKCJgkWQj59jinP83Y7/I2nhNE/g3ewEJJEAIIOEJHpa9EvSQEGYbQiKD67KXc7Scthyg+IQ==" saltValue="f7D8/u/aVOju4Tb3TqatDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7496,57 +7493,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -7590,7 +7587,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -7634,7 +7631,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -7678,7 +7675,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -7722,7 +7719,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -7766,7 +7763,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C7" s="133">
         <v>1</v>
@@ -7810,7 +7807,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -7854,7 +7851,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C9" s="133">
         <v>0</v>
@@ -7898,7 +7895,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C10" s="133">
         <v>1</v>
@@ -7942,7 +7939,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C11" s="133">
         <v>0</v>
@@ -7986,7 +7983,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -8030,7 +8027,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -8074,7 +8071,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C14" s="133">
         <v>1</v>
@@ -8118,7 +8115,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C15" s="133">
         <v>0</v>
@@ -8178,10 +8175,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C17" s="133">
         <v>0</v>
@@ -8226,7 +8223,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -8270,7 +8267,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -8314,7 +8311,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -8358,7 +8355,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -8402,7 +8399,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -8446,7 +8443,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C23" s="133">
         <v>0</v>
@@ -8490,7 +8487,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C24" s="133">
         <v>0</v>
@@ -8550,10 +8547,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C26" s="133">
         <v>0</v>
@@ -8598,7 +8595,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -8643,7 +8640,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -8687,7 +8684,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -8731,7 +8728,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -8791,10 +8788,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C32" s="133">
         <v>1</v>
@@ -8838,7 +8835,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -8882,7 +8879,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -8926,7 +8923,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -8970,7 +8967,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C36" s="133">
         <v>1</v>
@@ -9015,7 +9012,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C37" s="133">
         <v>1</v>
@@ -9059,7 +9056,7 @@
     </row>
     <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C38" s="133">
         <v>1</v>
@@ -9103,7 +9100,7 @@
     </row>
     <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C39" s="133">
         <v>1</v>
@@ -9147,7 +9144,7 @@
     </row>
     <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C40" s="133">
         <v>1</v>
@@ -9191,7 +9188,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C41" s="133">
         <v>1</v>
@@ -9234,7 +9231,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s9bD4b3glTBLgnPzMsCg9u+kXX2Y+Zj42EZrbtqL+JDh3/ov0VOo+93qKR25fuGD9nNrGCFmfVMm0k21sjLbeQ==" saltValue="fLklMWa2uPNFvvztMUGL+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g0ZXPOUq08R8BuEo2jqyUWIqWUxVB8Y4RcFl2b1CAtJLmz/V3tXq2R2buvywalKNOt5k6+ViWZpdXhQoIO0/EA==" saltValue="BEb/QBueQ10Uc2pH0kN/lw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9267,42 +9264,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -9312,14 +9309,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -9328,7 +9325,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -9336,12 +9333,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -9353,11 +9350,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -9370,7 +9367,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -9381,26 +9378,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -9408,18 +9405,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -9427,18 +9424,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -9446,11 +9443,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -9463,11 +9460,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -9480,11 +9477,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -9497,11 +9494,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -9514,11 +9511,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -9526,18 +9523,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -9545,39 +9542,39 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -9590,16 +9587,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -9609,16 +9606,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -9628,16 +9625,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -9647,7 +9644,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -9656,26 +9653,26 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -9687,11 +9684,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -9699,14 +9696,14 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="133"/>
       <c r="C24" s="133"/>
@@ -9715,7 +9712,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -9723,7 +9720,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="133"/>
       <c r="C25" s="133"/>
@@ -9732,7 +9729,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -9740,11 +9737,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -9757,11 +9754,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -9769,14 +9766,14 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="133"/>
@@ -9785,7 +9782,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -9793,14 +9790,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -9812,13 +9809,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B30" s="133"/>
       <c r="C30" s="133"/>
       <c r="D30" s="133"/>
       <c r="E30" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -9829,7 +9826,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -9837,10 +9834,10 @@
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
       <c r="G31" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I31" s="133"/>
       <c r="J31" s="133"/>
@@ -9848,7 +9845,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="133"/>
       <c r="C32" s="133"/>
@@ -9856,10 +9853,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -9867,7 +9864,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="133"/>
       <c r="C33" s="133"/>
@@ -9875,10 +9872,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -9886,7 +9883,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="133"/>
@@ -9894,10 +9891,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -9905,7 +9902,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="133"/>
       <c r="C35" s="133"/>
@@ -9913,10 +9910,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -9924,7 +9921,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="133"/>
       <c r="C36" s="133"/>
@@ -9932,10 +9929,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -9943,7 +9940,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="133"/>
       <c r="C37" s="133"/>
@@ -9952,7 +9949,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="133"/>
       <c r="H37" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -9960,27 +9957,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
       <c r="G38" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H38" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oxRMRLq+5ELjMhwh2PmsDoxh87wxVRFPNvfF57Y9ZRyp+51mEhe43/0Gr/NI8nHJ91e+A8dqbMsCI9csBuMNgQ==" saltValue="bAS4R8FHLeGmO5NtuKOfzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9syhbTwn9ByyT3oGu7ICXqX+WoLWNjnoqNOjdI5JeKlGZi8SDoJFdlMPjPnkEsd1oqAnCG5eol9hgIWf9MT9gw==" saltValue="y3DPAhPswECiwxhR47lI/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10013,63 +10010,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -10077,28 +10074,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10106,28 +10103,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -10135,28 +10132,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -10164,28 +10161,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -10193,95 +10190,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -10290,19 +10287,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -10312,16 +10309,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -10331,16 +10328,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -10350,11 +10347,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5ssCZhMUBtxwXROfEh92NFZ7ne5sDrE2CZk/d2Dv75yMtsOCT2TTt1R9RG4f/xOjW4SiXImH5E2KEQdA/q9dTw==" saltValue="8e6V050qfrItAoXpcuofnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QsZFWbnKKNstvpsBn5QSBHTWSXIyp2yQZdAV8qcnv+DN8FiOIdTQpfipZI56gmuPo9qZoPYvHMPqa1J0VXI9Zg==" saltValue="a3TUcika7HcWP8vKPusG1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10380,39 +10377,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -10433,7 +10430,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -10455,7 +10452,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -10476,10 +10473,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -10501,7 +10498,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -10522,7 +10519,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -10542,10 +10539,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -10566,7 +10563,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -10587,7 +10584,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -10607,10 +10604,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -10631,7 +10628,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -10652,7 +10649,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -10672,10 +10669,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -10696,7 +10693,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -10717,7 +10714,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -10737,10 +10734,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -10767,13 +10764,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -10794,7 +10791,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -10815,7 +10812,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -10835,10 +10832,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -10859,7 +10856,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -10880,7 +10877,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -10900,10 +10897,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -10924,7 +10921,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -10945,7 +10942,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -10965,10 +10962,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -10989,7 +10986,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -11010,7 +11007,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -11030,10 +11027,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -11054,7 +11051,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -11075,7 +11072,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -11095,10 +11092,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -11125,13 +11122,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -11152,7 +11149,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -11173,7 +11170,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -11193,10 +11190,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -11217,7 +11214,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -11238,7 +11235,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -11258,10 +11255,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -11282,7 +11279,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -11303,7 +11300,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -11323,10 +11320,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -11347,7 +11344,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -11368,7 +11365,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -11388,10 +11385,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -11412,7 +11409,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -11433,7 +11430,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -11453,10 +11450,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -11475,7 +11472,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="68ReWg5ibHCrFK2wDp8VmGnzVu1ek2brFEvp0XOL74WZXYzt+NrhJjmHwcrHetNpftgqx4O10Cpl5+bdWHIP2Q==" saltValue="eC9BO2H6UjdZfKfHkSRpcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gx4gtOtf5M8G5P93sBfJ3KzJAVF+XvoYVa43Uj/ZfIT+m5CkwBB+0cuE4pAkTOi1Sp2jndWkwUXH/hBq4JHJFg==" saltValue="a19mQUtWYUpkFrk2ue5fUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11518,31 +11515,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12443,7 +12440,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9xEyICjqAwNohhS2qs4Lbk4Oiyds0MKP3UQRO8aKa6ye7KUqC4uqy/lzbqRAiPkskbxvB4WIFswuwfzBICPnnw==" saltValue="Zw8SpbsP6S/ke+icqNWaoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VTD9/oPnYuhwyQl/fcuUEGdyhr0IP8xqymyFGXxBtu5DzT9mCOmwdoX6bk3d04WnI//tMTdYAVzDA6LEEUBatQ==" saltValue="Ya3UIkHysuGvehugQ/IOBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12477,27 +12474,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -12507,7 +12504,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12524,7 +12521,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12541,7 +12538,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12558,7 +12555,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -12581,7 +12578,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -12606,7 +12603,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -12616,7 +12613,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -12626,7 +12623,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -12644,7 +12641,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -12662,7 +12659,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -12689,7 +12686,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -12700,7 +12697,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -12718,7 +12715,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -12736,7 +12733,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -12754,7 +12751,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -12772,7 +12769,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -12789,7 +12786,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -12806,7 +12803,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -12823,7 +12820,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -12845,7 +12842,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Rc3sACv7dx1A8o9JNRheS1PaJ7fBnWL/R5GAkIi3LhrrDcqaLwTtqrmmsyGhQA3AMqcuxOv1kGnA6EfDN2bk6g==" saltValue="DdisULiZEgLEvrQa6fa20Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4u60VPs4EYiXAolW0apSBUJZQldZevB0BD/tcTNOvvhrtFVOux39DWbC+V8YWFTqACAP8bMoo0Tvt2+odu0AUQ==" saltValue="MpYj3tVoCEOCGHj9+pnB3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -12875,33 +12872,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H2" s="103" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -12915,10 +12912,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -12946,7 +12943,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -12974,7 +12971,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -13002,7 +12999,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -13030,10 +13027,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -13061,7 +13058,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -13089,7 +13086,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -13117,7 +13114,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -13145,10 +13142,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -13176,7 +13173,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -13204,7 +13201,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -13232,7 +13229,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -13260,10 +13257,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -13291,7 +13288,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -13319,7 +13316,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -13347,7 +13344,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -13375,10 +13372,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -13406,7 +13403,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -13434,7 +13431,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -13462,7 +13459,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -13490,10 +13487,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -13521,7 +13518,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -13549,7 +13546,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -13577,7 +13574,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -13605,33 +13602,33 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H29" s="103" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -13645,10 +13642,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -13676,7 +13673,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -13704,7 +13701,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -13732,7 +13729,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -13760,10 +13757,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -13791,7 +13788,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -13819,7 +13816,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -13847,7 +13844,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -13875,10 +13872,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -13906,7 +13903,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -13934,7 +13931,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -13962,7 +13959,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -13990,10 +13987,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -14021,7 +14018,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -14049,7 +14046,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -14077,7 +14074,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -14105,10 +14102,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -14136,7 +14133,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -14164,7 +14161,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -14192,7 +14189,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -14220,10 +14217,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -14251,7 +14248,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -14279,7 +14276,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -14307,7 +14304,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -14339,30 +14336,30 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G56" s="103" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -14373,10 +14370,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -14398,7 +14395,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -14420,10 +14417,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -14445,7 +14442,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -14467,10 +14464,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -14492,7 +14489,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -14518,33 +14515,33 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
-        <v>237</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E65" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F65" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H65" s="124" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -14558,10 +14555,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -14589,7 +14586,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -14617,7 +14614,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -14645,7 +14642,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -14673,10 +14670,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -14704,7 +14701,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -14732,7 +14729,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -14760,7 +14757,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -14788,10 +14785,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -14819,7 +14816,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -14847,7 +14844,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -14875,7 +14872,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -14903,10 +14900,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -14934,7 +14931,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -14962,7 +14959,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -14990,7 +14987,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -15018,10 +15015,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -15049,7 +15046,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -15077,7 +15074,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -15105,7 +15102,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -15133,10 +15130,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -15164,7 +15161,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -15192,7 +15189,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -15220,7 +15217,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -15248,10 +15245,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -15279,7 +15276,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -15307,7 +15304,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -15335,7 +15332,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -15363,10 +15360,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -15394,7 +15391,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -15422,7 +15419,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -15450,7 +15447,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -15478,10 +15475,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -15509,7 +15506,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -15537,7 +15534,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -15565,7 +15562,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -15593,33 +15590,33 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E104" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F104" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H104" s="124" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -15634,7 +15631,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -15662,7 +15659,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -15690,7 +15687,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -15718,7 +15715,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -15748,7 +15745,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y1JWFHeQKsN/E1W5dyevDx35+QeJBF7rD05w5vRciQj7X5lEEcOMkrtRRatiOPhumlNzAME2RWZoLafC4IL8iQ==" saltValue="DHFT/CuXMiDgQaAxHjmaDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TJazQnDwxBBWs6Brjoa70P+hgsDtk01ckeK95Z0NpUTqQmJJYPdjRN+ZYENLjcP5vLakPlNYjYa4SM/wpTvP2A==" saltValue="ACRMDUfN/2a4iRRqTQe4EA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15779,36 +15776,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -15826,7 +15823,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="C4" s="136">
         <v>1.0249999999999999</v>
@@ -15846,12 +15843,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -15871,7 +15868,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -15891,7 +15888,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -15919,13 +15916,13 @@
     </row>
     <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C11" s="136">
         <v>1.5</v>
@@ -15949,15 +15946,15 @@
     </row>
     <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="C14" s="136">
         <v>1.0249999999999999</v>
@@ -15978,7 +15975,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="C15" s="136">
         <v>1.0249999999999999</v>
@@ -15998,10 +15995,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="C16" s="136">
         <v>1</v>
@@ -16022,26 +16019,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C20" s="136">
         <v>1.52</v>
@@ -16057,7 +16054,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1iZ9TcTPvUFPoW54gKJ0Kwxw8PwzjZDcIvUaRE6BIjr+GEtp9gAf9TFEKoOMltQaD6Pf0k+atqVVAeo/XeK8jg==" saltValue="HMvGcuvnW/NRl9gvcgGviw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9ra9SjLWqclrqei0Qd9KQr2c07aO1xeN60vH5xWf33NYr128iua2/ANxeL5/7h4N+HQhnH1UjIrwzH2sTyR7Zw==" saltValue="Wh4M2Xt+fafe7fTgzMD4tQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16086,28 +16083,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -16125,7 +16122,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -16142,10 +16139,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C4" s="136">
         <v>0</v>
@@ -16163,7 +16160,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16180,10 +16177,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C6" s="136">
         <v>0</v>
@@ -16201,7 +16198,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16218,10 +16215,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -16239,7 +16236,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16256,10 +16253,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -16277,7 +16274,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16294,10 +16291,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C12" s="136">
         <v>0.08</v>
@@ -16315,7 +16312,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16337,7 +16334,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zZ5AUC6Vc3IBZQRrmjuDmtX4J7AU1aq1DzrGqBp0gQYKUI4CyfQkXZRyMVxS95MkZCuzwXOe/U8lS8YmCZB0Rw==" saltValue="aIiLgLFARbsuk7jPgU91bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="74LvqT3cwb8AHH2k5wyGPO9cF6t4V+O7+BWwRVhlUGd/UO845B+0osRuYkpjbNnjt0xpoeCWdBmZuzZ57OZ/FA==" saltValue="tXPYtwo6RRA66Pt0slfwPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16366,53 +16363,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -16456,7 +16453,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -16500,7 +16497,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16544,7 +16541,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16588,7 +16585,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16632,7 +16629,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16676,7 +16673,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16720,7 +16717,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -16764,7 +16761,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16808,7 +16805,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C12" s="136">
         <v>0.83</v>
@@ -16852,7 +16849,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16896,7 +16893,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C14" s="136">
         <v>1</v>
@@ -16940,13 +16937,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C17" s="136">
         <v>1</v>
@@ -16990,7 +16987,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -17034,7 +17031,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -17078,7 +17075,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -17133,7 +17130,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fZobTAEwsIpsZG2WuPhT47PELoagOfuO4FDqDZTV1m3RNUOiF5/QZywdWBdxIDS/Z5sC5T5/iXcvfiGGd03AeQ==" saltValue="+v9g3EExwaod1y7KAodgsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gwLwVpy19edfihX83ztYRMFt+sVab8e5mkoB2+PQfmQ8Uere1kxePZi5xfUf6pq4Ah2G8Qk/afKGk6RgKmy2sQ==" saltValue="eLMaoWV4IFbp3CFIZC3A3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17162,29 +17159,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -17204,7 +17201,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -17215,7 +17212,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -17234,7 +17231,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vQWhoYIk1vPnQnYauNGMdMOlsow2vMya80KJDCoVae6pviJz2YaBxer13GAUNFcRFXF29/Vzwu1HhgvNVY6kMQ==" saltValue="+VJSgdMWhUoI7ZeKyJer+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l/gNmtkAnQLWfiFvEQQbksSsflUZBFlamJ3V4C3fMiE5ouu0jFaC/BvwiAhl91RQJ+CmGJoLwKWIvTUeO7W/Vg==" saltValue="gEhYLZ6e+eRamsha8DWjdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17266,39 +17263,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -17318,7 +17315,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -17338,7 +17335,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -17358,13 +17355,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -17384,7 +17381,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -17404,10 +17401,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -17427,7 +17424,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -17447,13 +17444,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -17473,7 +17470,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -17493,10 +17490,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -17516,7 +17513,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -17536,13 +17533,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -17562,7 +17559,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -17583,10 +17580,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -17607,7 +17604,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -17628,13 +17625,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -17655,7 +17652,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D18" s="136">
         <v>0.186</v>
@@ -17676,13 +17673,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -17702,7 +17699,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D20" s="136">
         <v>0.186</v>
@@ -17722,13 +17719,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -17748,7 +17745,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D22" s="136">
         <v>0.186</v>
@@ -17768,13 +17765,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -17794,7 +17791,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -17814,7 +17811,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -17834,13 +17831,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -17860,7 +17857,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -17880,7 +17877,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -17900,13 +17897,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -17926,7 +17923,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -17946,7 +17943,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -17966,13 +17963,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -17992,7 +17989,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -18012,7 +18009,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -18032,13 +18029,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18058,7 +18055,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -18078,7 +18075,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -18098,13 +18095,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -18124,7 +18121,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D39" s="136">
         <v>0.5</v>
@@ -18144,7 +18141,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D40" s="136">
         <v>0.65</v>
@@ -18164,10 +18161,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -18187,7 +18184,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D42" s="136">
         <v>0.5</v>
@@ -18207,7 +18204,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D43" s="136">
         <v>0.63</v>
@@ -18227,13 +18224,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -18253,7 +18250,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D45" s="136">
         <v>0.8</v>
@@ -18273,13 +18270,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -18299,7 +18296,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D47" s="136">
         <v>0.76</v>
@@ -18319,13 +18316,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -18345,7 +18342,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D49" s="136">
         <v>0.88</v>
@@ -18364,7 +18361,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GaQu+5RZKoWOi0SfPnx7+aeT6jQ9biefOj8E2qLYOjq/fQnFQVT+MTTSZIJrxvqvCDqcVEbYQ5ogsRe/E5IT4w==" saltValue="mwT2I10I/9rWvAk8la1Kwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ijAv0DehVMptWmI2e1Ej2xoRnRfxlB+BG2NBy8qd7oKKGqRGKZFBMgYtzc7HlE9YSZiWXrj9ZNy1lXYWoW2lYA==" saltValue="IXlnorbVQSgIDooEE9H9VQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18392,35 +18389,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -18438,7 +18435,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -18456,13 +18453,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18481,7 +18478,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -18499,13 +18496,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18524,7 +18521,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D7" s="136">
         <v>0.59</v>
@@ -18541,7 +18538,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pGDJa2Y/CY3a0JOPg0iIk9Kv9kWzXeNUkHfi4XelkvRO6fL1GV5uwvkv7ikmIMoT0s/TTgTh8sousUdK8dUITg==" saltValue="Vo4GzBnSZdDuTfMT/SIC/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tdao98KpyyfiAy0g2d0ww2dDLIcRUtWV28VirqtaOlQjYZocjqYUzGm1kYRtHtNnGVMV7oVOiYdeKZsRsTFZpg==" saltValue="xt5EPfzUzMPNinyGZACkzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18577,13 +18574,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18592,55 +18589,55 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C3" s="75"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C4" s="75"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C5" s="75"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C6" s="75"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C7" s="75"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C8" s="75"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C10" s="75"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18660,28 +18657,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="75"/>
@@ -18690,7 +18687,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C15" s="75"/>
       <c r="D15" s="75"/>
@@ -18699,7 +18696,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C16" s="75"/>
       <c r="D16" s="75"/>
@@ -18708,7 +18705,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C17" s="75"/>
       <c r="D17" s="75"/>
@@ -18717,7 +18714,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="75"/>
@@ -18726,7 +18723,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="75"/>
@@ -18735,7 +18732,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="75"/>
@@ -18744,7 +18741,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="75"/>
@@ -18753,7 +18750,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="75"/>
@@ -18762,7 +18759,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -18794,13 +18791,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>203</v>
-      </c>
       <c r="C25" s="41" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -18810,61 +18807,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C26" s="75"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C27" s="75"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C28" s="75"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C29" s="75"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="C30" s="75"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="C31" s="75"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C32" s="75"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="C33" s="75"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="C34" s="75"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -18872,7 +18869,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="onZfJTyM79wicsfJ0sPwTFhXI+k32DbCYRblO8eDpcJPa3HDaTCgRAphFjXZ3l83gA39eHrOsjKOyiffyij03g==" saltValue="N8Lze0uuML3zxV63lLjmRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fPxhE84IM2ltkrmlFOOEpfbi1d0k3r0QkQrhIBxttE00gTrsm+OgO19ICjTuDdWbyINfdCDZySWqoSdIqKI8eA==" saltValue="Kxezbe64FDgFSmwTN7G3Ww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18902,30 +18899,30 @@
         <v>Percentage of population in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="C2" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -18951,7 +18948,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C3" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -18977,7 +18974,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -18988,7 +18985,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
@@ -19014,10 +19011,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C8" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19042,7 +19039,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C9" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19067,7 +19064,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="77"/>
@@ -19077,7 +19074,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -19101,51 +19098,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
@@ -19163,7 +19160,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19233,7 +19230,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y3u5V1EGNaTQfG0dfC8JcBKnDYTy6rLJqKtXlHDUDx1OQm09fPJgCmw2nqoy+uge01wxOETXdpRf/j+fdujicw==" saltValue="kGk8P5zle+MZYqtY6jFZ3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r6dgxs9/PDVWBA3oWh1i2dJUIQ3Jey9NdsZQ5E/JulSXHXfvF3zXWzAV1IDNyvBdu0TCPDdNA28s2kKw8f2SVA==" saltValue="HrzH41OxVzoagke7ZHkSHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19263,30 +19260,30 @@
         <v>Percentage of children in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -19296,7 +19293,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -19306,7 +19303,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -19316,7 +19313,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19340,7 +19337,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ntK6ORZh0vbu0q7yUKjoO0JhhTFTVxuSz8ahcgNZ6Y7cFgLHClPmVmE9gjOY/EGIwDZtNKaayC6kOx6BJgJ+ig==" saltValue="3nUI3ya4KEdZpFvv/15MkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mQVMVKS9PonYboRSk6TzZz5YjVDZzejeSsfCoY2pQBKVxxMHhYHfgJYza7V1Vbnj1m6T0O7LYN/W5oz8MtM3ww==" saltValue="EAtidpt5bLsWSWUxnEZmlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19366,10 +19363,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -19416,13 +19413,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C2" s="28">
-        <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
+        <f>(('Dist. de l''état nutritionnel'!C4+'Dist. de l''état nutritionnel'!C5)*(1/60)+('Dist. de l''état nutritionnel'!D4+'Dist. de l''état nutritionnel'!D5)*(5/60)+('Dist. de l''état nutritionnel'!E4+'Dist. de l''état nutritionnel'!E5)*(6/60)+('Dist. de l''état nutritionnel'!F4+'Dist. de l''état nutritionnel'!F5)*(12/60)+('Dist. de l''état nutritionnel'!G4+'Dist. de l''état nutritionnel'!G5)*(36/60))</f>
         <v>0</v>
       </c>
       <c r="D2" s="28"/>
@@ -19446,13 +19443,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C4" s="28">
-        <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
+        <f>(('Dist. de l''état nutritionnel'!C10+'Dist. de l''état nutritionnel'!C11)*(1/60)+('Dist. de l''état nutritionnel'!D10+'Dist. de l''état nutritionnel'!D11)*(5/60)+('Dist. de l''état nutritionnel'!E10+'Dist. de l''état nutritionnel'!E11)*(6/60)+('Dist. de l''état nutritionnel'!F10+'Dist. de l''état nutritionnel'!F11)*(12/60)+('Dist. de l''état nutritionnel'!G10+'Dist. de l''état nutritionnel'!G11)*(36/60))</f>
         <v>0</v>
       </c>
       <c r="D4" s="28"/>
@@ -19478,13 +19475,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C6" s="28">
-        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
+        <f>'Dist. de l''état nutritionnel'!C15*(1/60)+'Dist. de l''état nutritionnel'!D15*(5/60)+'Dist. de l''état nutritionnel'!E15*(6/60)+'Dist. de l''état nutritionnel'!F15*(12/60)+'Dist. de l''état nutritionnel'!G15*(36/60)</f>
         <v>0</v>
       </c>
       <c r="D6" s="28"/>
@@ -19505,10 +19502,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C7" s="28" t="e">
-        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D7" s="28"/>
@@ -19529,10 +19526,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="C8" s="28" t="e">
-        <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Dist. de l''état nutritionnel'!L15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!M15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!N15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!O15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D8" s="28"/>
@@ -19555,13 +19552,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C10" s="28">
-        <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
+        <f>('Dist. l''allaitement maternel'!C2*(1/6)+'Dist. l''allaitement maternel'!D2*(5/6))</f>
         <v>0</v>
       </c>
       <c r="D10" s="28"/>
@@ -19582,10 +19579,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="C11" s="28">
-        <f>(('Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F4)*(12/18))</f>
+        <f>(('Dist. l''allaitement maternel'!E4)*(6/18)+('Dist. l''allaitement maternel'!F4)*(12/18))</f>
         <v>0</v>
       </c>
       <c r="D11" s="28"/>
@@ -19606,10 +19603,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="28">
         <f>U5_mortality/1000</f>
@@ -19633,7 +19630,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -19656,7 +19653,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PIkE0flIBPlokIu38Y25HN9ENQuct6HlL2vcJCF+aNLHVeVVk6wwctI5GQ2hTXgxm32LiAN0nnbooI6apXz6FA==" saltValue="tT2KQJkPpeWvFF1v+8E8lQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kfBvys2DNcXXr/PNeD9qcmyZ3pgzttlQ+X+bZtrVWwIQG4M9nfJwIWgo1qSqaqM3RtJxwxv0RIQFzPQimGdYmA==" saltValue="yFDOjT6W/vcM/KEjzwLvuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19683,27 +19680,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -19715,10 +19712,10 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="57" t="str">
@@ -19729,10 +19726,10 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="57" t="str">
@@ -19743,10 +19740,10 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="57" t="str">
@@ -19757,10 +19754,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="57" t="str">
@@ -19771,7 +19768,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -19779,10 +19776,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
@@ -19794,7 +19791,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -19806,7 +19803,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -19818,7 +19815,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -19830,7 +19827,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -19842,24 +19839,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19869,11 +19866,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19883,11 +19880,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19897,11 +19894,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19911,11 +19908,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19925,14 +19922,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iuPrafezdLf5YKgjLGtw5e3JTSVhb+Ci+572DEPjhIDm9ixOzap3W9Ugs9RIknN3JWtHQNe77k5I3e/sEw/6gQ==" saltValue="5UEFERiFdYnXjkN60nP0wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/KzfcRLOJYUJvSKrehONgnRmSZGtGJ4yI7kv8D0OMLicooxMDjGjop4Lyz5jntdQZA6doXoOY5kDCR3OYhwiMg==" saltValue="ccDdApPtz2i9Msl5RmFFoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -19959,44 +19956,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6Cat416w/xnFMeqM6xx6LXwebFqqxWhXFmLt2M9M1VFzl8g0v/RuhJoFT7wEhGE6B3zQfQv8mU1J0JEuVBThiA==" saltValue="0J2afnceUXkiQpNkuZK1+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JCLLV2Cc7GMXSCj5FLMLd1DJnmBc3cWQlwP9osiq8Gs5/z8Rgx3AmGABY1rlk85EeDHSX7GewzGbtn9SJxoQzA==" saltValue="ngFRm8wTrWRluXbVSn3NUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20024,25 +20021,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20054,12 +20051,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20071,12 +20068,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20088,12 +20085,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20105,12 +20102,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20122,12 +20119,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="81">
         <v>0</v>
@@ -20139,12 +20136,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20156,12 +20153,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20173,12 +20170,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20190,12 +20187,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20207,12 +20204,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20224,12 +20221,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20241,12 +20238,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20258,12 +20255,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20275,12 +20272,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="81">
         <v>0</v>
@@ -20292,12 +20289,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="81">
         <v>0</v>
@@ -20309,12 +20306,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20326,12 +20323,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20343,12 +20340,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20360,12 +20357,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20377,12 +20374,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20394,12 +20391,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="81">
         <v>0</v>
@@ -20411,12 +20408,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20428,12 +20425,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20445,12 +20442,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="81">
         <v>0</v>
@@ -20462,12 +20459,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="81">
         <v>0</v>
@@ -20479,12 +20476,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20496,12 +20493,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20513,12 +20510,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20530,12 +20527,12 @@
         <v>5.3</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="81">
         <v>0</v>
@@ -20547,12 +20544,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="81">
         <v>0</v>
@@ -20564,12 +20561,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="81">
         <v>0</v>
@@ -20581,12 +20578,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="81">
         <v>0</v>
@@ -20598,12 +20595,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="81">
         <v>0</v>
@@ -20615,12 +20612,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="81">
         <v>0</v>
@@ -20632,13 +20629,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="81">
         <v>0</v>
@@ -20650,12 +20647,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -20667,14 +20664,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fjaX8r397PXJH1p79fsdYda49TatfJPNKAP7yqmqYG5Mr+qbgBkd4Z94EttSXhK5oIqkOp+gWhCuyyZPSKGgfA==" saltValue="38W5vNXZ1ydG3N8iZRpUKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TdZYhr0rjXFff5oqylvozjlaTVZbWNGzYeu/T9F/nDoSi2G9RVrjRRazR/3ayJnUnGFi+VvCZntRpC1dblsVsA==" saltValue="2gKWBymL2MYkVeYS7RJpsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{736944E8-BC8D-40EA-B25C-72BC72F9FA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9063B284-69EE-48B9-9038-8C2D379C4025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="2430" windowWidth="27480" windowHeight="16170" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId10"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId11"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId12"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
+    <sheet name="Population cible programmes" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
     <sheet name="Programs impacted population" sheetId="62" state="hidden" r:id="rId16"/>
@@ -5135,7 +5135,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D5LKIXllAn20ephvra0BP+jEyJ2HR5J8Lqd8TMRhnhaiioA8DgetTRnaWQHeLrrcvsTSi2tRa9oTs6tzDq3V+Q==" saltValue="5j3pk4GP67/JMNPpYR5z+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lFQpSomZ9r/FlRlyUu7L9tgh9QnSKHSNYeTiMmxs/C6GKc2NWk4zPYz+JPByd06l84A6HGdemnx0xXRtKC2UWA==" saltValue="ej5l3TcsEG0NUocBTuJQTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5234,7 +5234,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q/sbw3psKH1f3Eb/5LpBSjRwib+4N+m91JxJAzbZr3fZxCrEJr1crQYPOkn+wFDVWp+DYNcJeoHoVkRhRnQhrw==" saltValue="EPMbHeePWlfVRe8nGg/2NA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8xTGyH4GsNPUExiTeKjV0sj22VArwlBXJniFObZvH2p6xG9A/RoddFLjZkB7fn8lKyugURWCJVf7lzOQdlkbIQ==" saltValue="T61hxAUyETs7vzrJdGjOCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5349,7 +5349,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nFFV03aILFDlXLRRX3SjCkPckRtC3I4SDuXr601WZxx5SNg3zJXPWuZvb87e6cJ7elfvLPnTG8DhWUC6IOWU6w==" saltValue="MofszsZhpTkA+P3fC4BUWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iOIksNbRUac9vC4WfK3oolw4GI3mL47qzTZ5mpycfgVE2D7SRipgc0mitZFjEiS/4UGlso/GNK8HsXaT51/kvg==" saltValue="Yoc45bAwQbpy22gbCII9cA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5497,7 +5497,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WwXjswt+6Lvmf2j8VnpkVh6aQYYI4DfeokRvIscaNoH6d4CbZuYlERHQWN4xgTdVZSjIU9/UmRrOFGSz/+vF8Q==" saltValue="ql+4WXbpxnEPhQ6trdpN1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lcGCOK4VueYDBNqorY15oXYZ2CH/RjW14GbC3G6aEYVojWQLJFI8IRU7u61ceLvy//O6ig/1w53sqpUvJf7REQ==" saltValue="C0eERYTrkw99Df6eALbtJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7214,7 +7214,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RaKL0rBMjheWfuvJryoPDHgdqlYEp1ZHjAJNtsXRiN3UVkCcmf1wTQOA9MQihEzD/4my7DCm+HGG/sh7vi8UfQ==" saltValue="sb7DtI8nUrM40Bu695qpqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2SnhgvSor5EEEZqQN557sMdpmDYrjWRC+6etUsuNWC2uKjzuqg5hxkB8ufUNOJHr6wD0AtM2kIS70yBpO0KWlg==" saltValue="obUttNrcabOaprFm4qBLGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7252,7 +7252,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C87wENpr+vIWPFEI5SN1wJRDiqABJiAYkGueQ/ZUWkz0ut4iiG6l2hUOVtJr810dKWJI1lXoS70efrXsAq0d4A==" saltValue="JlWBs+lrsSS9LEeiYHKS9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NilosG2XUMLBTsFk3nYh7PPaIr+Vmy6rcxbadaxxjxJf41xj3IJh3Pc39F9cGhR3u1FceLQYOxGG3kUxlkFmNg==" saltValue="Z9W3SEn8TxHgm99/JHXngQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7460,7 +7460,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="89u5cYZauH1HXDmKCJgkWQj59jinP83Y7/I2nhNE/g3ewEJJEAIIOEJHpa9EvSQEGYbQiKD67KXc7Scthyg+IQ==" saltValue="f7D8/u/aVOju4Tb3TqatDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0XUdycyVIZbqWdn46fcftlwSB0ZuMb+Dsy8MUYzhVJmnUC5i+L+tPyB/4y5zzX9SNbzWLIhBIxVfHCs+m0x8qw==" saltValue="ViBFCob+A2ymM6v06JjJ2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9231,7 +9231,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g0ZXPOUq08R8BuEo2jqyUWIqWUxVB8Y4RcFl2b1CAtJLmz/V3tXq2R2buvywalKNOt5k6+ViWZpdXhQoIO0/EA==" saltValue="BEb/QBueQ10Uc2pH0kN/lw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rpipdwnwHTsrNAL4jOl3AI/y5BvOPGG+5zv3KxuyPuC2VNrPbmyHKQG+a9cInE1Xxrg9FMJqMmmoRoZbvWjSBw==" saltValue="/Ij2TsUyIKdn5sK3VJh8PA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9977,7 +9977,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9syhbTwn9ByyT3oGu7ICXqX+WoLWNjnoqNOjdI5JeKlGZi8SDoJFdlMPjPnkEsd1oqAnCG5eol9hgIWf9MT9gw==" saltValue="y3DPAhPswECiwxhR47lI/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9a3D/dqTBjCl5T6v/gGojFCDlHaTpvBzKj5vA77SFGSy+8tpRrwMzt0+RZH/3p0tec4+9pquCM/9xvR5/8TH5g==" saltValue="1w1qSMgTlR2SBqX8JYLjnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10351,7 +10351,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QsZFWbnKKNstvpsBn5QSBHTWSXIyp2yQZdAV8qcnv+DN8FiOIdTQpfipZI56gmuPo9qZoPYvHMPqa1J0VXI9Zg==" saltValue="a3TUcika7HcWP8vKPusG1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zZ573aprOlpKxF7VEEERbq5G7sFpDUEa+aq5bWnv7HdNVe4SHqERvvlWO9AbfsoXxubxOMzHFEUvg7A+h/i98w==" saltValue="S2hEPUMBRrOo8vLW1iVUFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11472,7 +11472,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gx4gtOtf5M8G5P93sBfJ3KzJAVF+XvoYVa43Uj/ZfIT+m5CkwBB+0cuE4pAkTOi1Sp2jndWkwUXH/hBq4JHJFg==" saltValue="a19mQUtWYUpkFrk2ue5fUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EApZDCC7XUrohZas+gU7XqKE/pLUFVtrz3XY37r48esQGo9PGoipplyW/pOgxKbhi4MYbpNGJuTNqgdvB6zJxA==" saltValue="Vp+wkjxA493eLXWFidt/4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12440,7 +12440,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VTD9/oPnYuhwyQl/fcuUEGdyhr0IP8xqymyFGXxBtu5DzT9mCOmwdoX6bk3d04WnI//tMTdYAVzDA6LEEUBatQ==" saltValue="Ya3UIkHysuGvehugQ/IOBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w4kpqk+XNLPhRDIpPnyRoXQc9i3PBbDOJS6q9yzjPRsmPflK/3l379UZMCxag8qu4rLxuzSwk8OWa53gp/rtzw==" saltValue="wZMHYQT+6/KAQmOMqdaIZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12842,7 +12842,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4u60VPs4EYiXAolW0apSBUJZQldZevB0BD/tcTNOvvhrtFVOux39DWbC+V8YWFTqACAP8bMoo0Tvt2+odu0AUQ==" saltValue="MpYj3tVoCEOCGHj9+pnB3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IJDQF5CIR3yP/ebekXMnoXyLHajo1pe7v1m1AELNFr9bEm0Xx/iHEsjJ73mLNnHRoEdHb934Ee0sKu4FzWXpPg==" saltValue="z5ULbVO4ifcmfwJtEi1wpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15745,7 +15745,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TJazQnDwxBBWs6Brjoa70P+hgsDtk01ckeK95Z0NpUTqQmJJYPdjRN+ZYENLjcP5vLakPlNYjYa4SM/wpTvP2A==" saltValue="ACRMDUfN/2a4iRRqTQe4EA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Qwh+YWcIS6THpVtqod/7RTAum+PdAHYKX05fAsyzlIiorqgBNdmMfq7aijBTCtog2ST2njj2ZqB1gRRPh8pv5g==" saltValue="eEfWBJ5QErpAzgLgtAfUZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16054,7 +16054,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9ra9SjLWqclrqei0Qd9KQr2c07aO1xeN60vH5xWf33NYr128iua2/ANxeL5/7h4N+HQhnH1UjIrwzH2sTyR7Zw==" saltValue="Wh4M2Xt+fafe7fTgzMD4tQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zn7HcgwJvXIYx0LSdGrN12iDlLO3Nc987Zvt+4rSOEnT6dyCOj/z2KJDNtc4979+i8O7ZFF72GxCV0RnfMU2mw==" saltValue="RuXhh974O9SJViIkhcm5Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16334,7 +16334,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="74LvqT3cwb8AHH2k5wyGPO9cF6t4V+O7+BWwRVhlUGd/UO845B+0osRuYkpjbNnjt0xpoeCWdBmZuzZ57OZ/FA==" saltValue="tXPYtwo6RRA66Pt0slfwPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+g77fidm1VMUCodvgCm/v80nmDpkRQByozwFl4NilvtjRMnVNr42CVUaTq1lFIS2x+M4E19SCntpUx5jx7JgjQ==" saltValue="ztJwcLaDZqoMLjIK8QFc2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17130,7 +17130,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gwLwVpy19edfihX83ztYRMFt+sVab8e5mkoB2+PQfmQ8Uere1kxePZi5xfUf6pq4Ah2G8Qk/afKGk6RgKmy2sQ==" saltValue="eLMaoWV4IFbp3CFIZC3A3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Nfsfdw+ZZgN7b8iE8U2ZAo7JrvpsuaNagwFIwbm5mHFnj0eDFmeWhbM1kDSUbCTIRpomIIq3CZBqX/h2hq6ILA==" saltValue="ZLEscA/vOZBvd23rff8Jhg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17231,7 +17231,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l/gNmtkAnQLWfiFvEQQbksSsflUZBFlamJ3V4C3fMiE5ouu0jFaC/BvwiAhl91RQJ+CmGJoLwKWIvTUeO7W/Vg==" saltValue="gEhYLZ6e+eRamsha8DWjdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zs7wdrmwbZW8lQfFofyAQds63Hod3IkGxnklotDrVAZovVRe+d1B0vfAMtY4OO1NNwskOTSdiF28YSuUzXWeHQ==" saltValue="6TUkyjdc1PRm8yXaYsxViQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18361,7 +18361,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ijAv0DehVMptWmI2e1Ej2xoRnRfxlB+BG2NBy8qd7oKKGqRGKZFBMgYtzc7HlE9YSZiWXrj9ZNy1lXYWoW2lYA==" saltValue="IXlnorbVQSgIDooEE9H9VQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="I6w0/g7sNhNt822QgcTO9hXVVQjWP8FallLwoHhPYp/xewVUOER+pXmvnsqesV7WBPRhgbwiCsm1vbS4VJK50Q==" saltValue="R1qFFz6g4GPuv6KnRJrxvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18538,7 +18538,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tdao98KpyyfiAy0g2d0ww2dDLIcRUtWV28VirqtaOlQjYZocjqYUzGm1kYRtHtNnGVMV7oVOiYdeKZsRsTFZpg==" saltValue="xt5EPfzUzMPNinyGZACkzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6veBMs3FTUsK/KLQC0IiBXzgs0wnaCNGVULIE5NJ1LJEpnvEl+Ugevt0i5ZlMhFPkkuPeNe9f/TIl8Ib4QhFxg==" saltValue="aDLcaAodVjB97p64RozooA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18869,7 +18869,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fPxhE84IM2ltkrmlFOOEpfbi1d0k3r0QkQrhIBxttE00gTrsm+OgO19ICjTuDdWbyINfdCDZySWqoSdIqKI8eA==" saltValue="Kxezbe64FDgFSmwTN7G3Ww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IWzQhVV+TS4GHi6xroHjAYy5PxOrL00J80GAox6GhrVY6b5WDwrx8YmXFYkKBfB5ggr4264fAt2QxhvaA7o3dw==" saltValue="VBy1mINs9oiwyXGD5x1sNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19230,7 +19230,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r6dgxs9/PDVWBA3oWh1i2dJUIQ3Jey9NdsZQ5E/JulSXHXfvF3zXWzAV1IDNyvBdu0TCPDdNA28s2kKw8f2SVA==" saltValue="HrzH41OxVzoagke7ZHkSHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dFLd8oIDwW7LodUiuZDZ2KDm8jspat+83MvHB2CCW/WfV++uUb7rKpgJ79pgFFpKbLwziOqEZmItdudRRUvOHQ==" saltValue="sa3DsbIXVxfJXX0aDmQ1Kg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19337,7 +19337,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mQVMVKS9PonYboRSk6TzZz5YjVDZzejeSsfCoY2pQBKVxxMHhYHfgJYza7V1Vbnj1m6T0O7LYN/W5oz8MtM3ww==" saltValue="EAtidpt5bLsWSWUxnEZmlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6OPzf2AM53zKZUrgXuBZ2fGiG0ePBx/KB9qX9AZ3Z4wy+WFaN4OCKRAqR30QVS/GEdCK8wnEdmvoQ/wEq2fLWw==" saltValue="a8ISpQnBdOhdfPtKyPuyNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19653,7 +19653,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kfBvys2DNcXXr/PNeD9qcmyZ3pgzttlQ+X+bZtrVWwIQG4M9nfJwIWgo1qSqaqM3RtJxwxv0RIQFzPQimGdYmA==" saltValue="yFDOjT6W/vcM/KEjzwLvuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lGvVckq2wpMFvboHQSO154wMvFpmA8LLl5EPXGB/rIotKB22ldXBYNWV6uAZF+TD88J5ML9Va6c9FZbbZNtsKg==" saltValue="zsK+DEp+pi46XRsVJITUvw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19929,7 +19929,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/KzfcRLOJYUJvSKrehONgnRmSZGtGJ4yI7kv8D0OMLicooxMDjGjop4Lyz5jntdQZA6doXoOY5kDCR3OYhwiMg==" saltValue="ccDdApPtz2i9Msl5RmFFoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dVtWXGLA5H63ABVLMMkOmZ46YrXlWrCKf8ax6NS3SqCXYpAFbGZR3sBBUvjzMC60FYbyZjNWPHHNMad7KZtT3A==" saltValue="4R0QSEj+NyOi1tudn1VTdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -19993,7 +19993,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JCLLV2Cc7GMXSCj5FLMLd1DJnmBc3cWQlwP9osiq8Gs5/z8Rgx3AmGABY1rlk85EeDHSX7GewzGbtn9SJxoQzA==" saltValue="ngFRm8wTrWRluXbVSn3NUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NVbBUbJ12wsLgj5G9JvX+GPQOwBjrTDtsqCBIdDVdMRYXgwZWwZ4ouxwDKFfhUfWccrgUbpZTa6/AYmXbkZFSQ==" saltValue="yJ8P1GScHLGX3HDxSwc+GA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20671,7 +20671,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TdZYhr0rjXFff5oqylvozjlaTVZbWNGzYeu/T9F/nDoSi2G9RVrjRRazR/3ayJnUnGFi+VvCZntRpC1dblsVsA==" saltValue="2gKWBymL2MYkVeYS7RJpsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DYOGWOa9c7gdrgbRvIkHUdMKVpsVK0eQPNuqSkP2MIyL/b36d7aDK47+fUJ/W41zBcpor0PwCdKMaeKC4sVo0g==" saltValue="/xOG9UOZafr9S3SoBaLYVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC1E528-722C-4129-B28F-778834A60771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C44557A-FD95-42D3-8C82-B1C0D2A71D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
     <t>Année finale</t>
   </si>
   <si>
-    <t>Données sur la population</t>
+    <t>Données démographiques</t>
   </si>
   <si>
     <t>Population des enfants de moins de 5 ans</t>
@@ -1056,7 +1056,7 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
-    <t>Efficacité</t>
+    <t>efficacité</t>
   </si>
   <si>
     <t>Retard de croissance</t>
@@ -1146,19 +1146,19 @@
     <t>Anémique</t>
   </si>
   <si>
-    <t xml:space="preserve">Risque relatif des causes du décès par mode d'allaitement maternel </t>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Mode d'allaitement maternel</t>
   </si>
   <si>
-    <t xml:space="preserve">Risques relatifs de la diarrhée par mode d'allaitement maternel </t>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
   </si>
   <si>
-    <t>Avec retard de croissance précédent (HAZ &lt; -2 dans la tranche d'àge précédente)</t>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
   </si>
   <si>
     <t>Diarrhée (par épisode supplémentaire)</t>
@@ -5120,7 +5120,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7dX2j9FFaojYg8xeMlXeN8lDmJ7rwSuXUkiZ1MYsmDHdFf+1W06CtU/wald78SA7qRRW8hXWbVbswPEmYof1bw==" saltValue="uVZrmCQwsv/gNxJ532CSdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hW3KbCM5PvFQfONGnulFIP8wb1yRl+gw+90BGTYTloomjjmcTzPrshk9bp4h8x1psFXPqxZ3gT2yz6BMWXHKIA==" saltValue="gttPipUIFH+L22nmfjpCJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5219,7 +5219,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+xpzIjGWMhWuOYwe2Dim1nmGmmSr/yAx/CZh4eZPyST1YzPIhQ5DRTxnN7HwneICbMEmLum2yPluNGD/bXH6Sg==" saltValue="EraGRmbDkWEmLe/cBGKJtA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EoUQ8fTCM9dpe3pg57kTKTvjRw7qfoXtHA5qAoRWBTQ9G0oUYSvPOg4RxYp1NkmSV60+2fJEt27VkTpUs2n9jw==" saltValue="lTZa6YnuB0FZzWbXnwvpVw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5334,7 +5334,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AeLYNkbrf3XFnOuMxv5X67OvYN79TR4eudGk3OVkrlsLtdL4w4YegEGoLuJXmDBzARaSdiNbqEjy5KtcC7igqw==" saltValue="2JpcJaSoU6envTCL3Fx4AA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9YAm8YtfbRVAcJz0Cjs1IjotuIDk6pYn+8Rn4OeRkBCPcI81hL1/XWmYMhr3YCjkjD1Uy9QWtxNy1vugj9/4rg==" saltValue="NQznw3a7dm61DZRrPIXwYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5482,7 +5482,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GWYwQ7b+u6Vl3uJIovmlQ00gJA0h101tzCni6VP65o/2v8oxnWxxF9rVK2VITkr3DQl7fJjnYIqokesJuqb1ug==" saltValue="OuTlS9QTfYKEYVUzAA9Erw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CRlF7D7OwLDyBo6VdTey/5uu3agiGnCQ13lreYTfcYIOboODimBi57ecohdgpgkgo8kt8B20scLtlQlOYJDO0g==" saltValue="n6tQ5UbxvEAY2ztQ+iAsnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7199,7 +7199,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JQMqu9dwtPS8uv/YGujqDrfz9fdwTBJhJ/mCsH0FCiV3dF7Uy/VL7zTfYFPxxVYiPCWUOAB+9XgUj0sXurWPdg==" saltValue="HO85nwy7/dvZCK/l1XqVUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="urI5yX/kEjjwIkk2R7kfTa2uUOBPm2QtCJmaP9DRxh5XJQOs61A/h1qihPy35p3ZbjdZ/i82rnA+wZhWpFElvQ==" saltValue="FZmhcICndCPVRtjp49txqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7237,7 +7237,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rbEblLkWt0nJWGmcH3ncjIZSr58UoQTWZ9ZNkxzQNc8lsOILwVmPpGVZflQ498HCBBBCvGo0Y05InQu7GRxVpw==" saltValue="khYajuPxdPq75YdxDzmnRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IjYC5CYDBCbp7YoFM9H2/xxCyVFO1LQWYbJQFk5HMzPv+74iZcgknnChHdx5512bQMhEVIdViU8YE27HrFOEqw==" saltValue="SvXcA4m+7DuunxDGbS5+5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7445,7 +7445,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+3kNU6UPvXPh7wm1X+kEE3XeRXQV5TanODyGtigKKwH1b1nTyvO/oTr78lo0vy5dWfRdEiBBkzinYFvbIqXCKw==" saltValue="aR9ffoxD8HAY7uEMu/E9jQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QkGkOXnp+DN4aK4ohl3EddFHmlH0rMraE+Zbk7iM4NKNyflI287gV/mb+pDNw1zGU3QDSEv9XV0fO/vnM+LkoA==" saltValue="GePhdmcrtdOD+qdfWOO7wA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9216,7 +9216,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EmCjPwXkY0VYW1GC9wZoe0o4pZJE5aDvmPAmk+EGN4ZH7OBwFsxm5DyOV+ff2VHQ02Ug8uZ1huPArqxudjKJvg==" saltValue="PLksUdqadjkPjH+cwez7+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="033xgxFkUafeJVXMJEFQ6rAM1lAWhR2GcIfNLrnOhUkW3dJy2YV7wDoNs0w3RUWB6cUUkGzuqfwo6j+otWoIkA==" saltValue="ymevM0/mqv7cDRznW7hmSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9962,7 +9962,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gWxaMUux/EsQy0QmUkOBIKxiQzXlooHlubQAlrRBPRuLpb6eIH0b597B20BoAoHM9JOpws/xnqAC3THoyUOFOQ==" saltValue="CUmzUzHEu2JeUS8+gSZJjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oOunuu3tmp0Xe55uUE56QVSvwS3NpFPgB4FB4xTy5ff1rTouYsggQfDbamwv0NF3eCt262k8gQ2Rq+qw6NOz1w==" saltValue="O6gI33m2VPSbRn9KVc+7eQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10336,7 +10336,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9wqQ3M56x39lvN4J/LB4rnVomdLuZX2vayiujEumsDdwl525nKjr3F4oPUkk08w/KyV6unMGHvoy3qxaelZ0LQ==" saltValue="0QghFoa0t0DvJ/yuAy0N1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WPfTSBHAdWtO+eebBwnrc5CXzXGeX1LIqfTBx8B03+XeW3pcQ2/4jj9StOu/+zvXNT4PhRP+eCUetyAwYN+dIw==" saltValue="ljxzj8ffis0aeEhky+uy0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11457,7 +11457,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VhQIhoQwQTY0RjebNGsmNFhHImyNKb94j3SQ40Zhjw+Rw7y0KILc1Ijcpp78Q8FzfgpdriqNOOvADvONEFATkw==" saltValue="GUf5X8o4IMDCuqZYSu7V3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cQpGXkBGXiG7rweXCpsLih8ib9kRr7hhheKXTTz4XDO5jtGkJ46kK0YJjVPTAKUqSUyyQ8zyXhfUo24oxvCbDQ==" saltValue="kq4fSl0fLC6bCHxeUnvMkA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12425,7 +12425,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AmW8JIF7vO5PSyTfer6CU3te7KUxI5ZDvJLd8ZIsInPKO4rZi9HKO/4WRHAhKtHSS0HzofB+B6kvvVZtaakT8A==" saltValue="MmuPBIKEjEviIm5yTch1/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KdFcuS4DZZDbXQKyOq6jcdkjixIXxIeV+8eJiLB57Anl5T8R8Jt3yEscz2WK4i3XzR2djSfBhD6DQSzr9UXXoA==" saltValue="Pf6bLZl6RfWdW5MIJ+skPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12827,7 +12827,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QBVNvm8KiRb+fe6If932dNpF16ys2AIQUcNdEnqYGqxWN1ruZTDPUZI2xU/oVEXYusqQbHvcT3IHL3UJ3u7oFw==" saltValue="P2coWdINjsjn/qlpz+PynA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UwtnhdYNKU6QvQxD6704IZEFlKgZfsZnYqJt+XaIuyaJPyElO6IkIV/tH2lCvZK2dX8cGO0IwwKYFfkIoTsheg==" saltValue="vUY2cpYSi324cX2mb2igBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15730,7 +15730,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="db4ewvrTITAw7mzNhHrpAB3cmfI7PUIJO/cnaC9Db1g5fahE4LVRQUZZ9Dkq3yowwXfAwQ+R48Rg+N1P4RdYsQ==" saltValue="1yhlyWvZkd67d82rqMAm9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xAXILgRDZwl/H/yDH1GjH9haQZ98bGkEthM1aLaDJfSi1nlxLweCIo75loHWM94HNeM2Veqcr1GqmmEYTIg2iQ==" saltValue="B9/2AQ6GUx9zYUyyQOGRbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16039,7 +16039,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Zskryq5SZWRsaHT1EP8hm3jmPwv/1kFUGE9gF4YhqLTYFMVHrYsbzs8BpQL44fachV/PPdSmqxjZC+/s+dfMOg==" saltValue="gvUaY0j8fyS6eGg9mnpjpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/PEBWvQBYL/ACTUmJANJnuZwREz5oe7HvbjoH0TRshAvl55NSaBD1x5A0wRN2CutAbiAfe1c2fNXDh+9LXTJCQ==" saltValue="W2+69ntTi7YNQz/gH82mkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16319,7 +16319,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="csoua+ShLI6BzqkLRHQ+S8NkT8OJ1KRd1GLn2VXvxvC79/VXT7Me61JM+DPinI2Ljkz/cuvxqc1kL7JSmPXRSw==" saltValue="24siDamZkHlglrPNI4UEbw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rwC6c9vaoJMAAOxNVP039PsAyCpqYevg3UA73whkOdcto0+i+CTgg+a7dYKTha/M3gKXqx4tLz86pxLwp8zEyQ==" saltValue="XUHySELQc6vdOVZO/yyjnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17115,7 +17115,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2AyMBprPs5isP0D33dVLAvqgy9FshsOrR5+whwURj2F+pEFMFRRJEqpSIbzdURE4zaAy+gJMSVo8p1a25SiTnw==" saltValue="FE9wUXSZNTSHJshagHj8lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B8vURGSLl7K6ehA1dYtqNFBs+MuSSZ7bSXBqey/is1z2TqaTuKhJ3Jkmsc16Z3q9Xn2Kyz+Jajqd/SGi+flx4Q==" saltValue="PWQIGBRTKKE1Do3phDv+gw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17216,7 +17216,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Js4n0z54NiYAhEnaprkTddXT2qXzml6mlQuf1l0GEl8r6UR7HrUNn5Yq2tvZVsb89v6mGkpfY/6Kj7ebYt+/ZA==" saltValue="gdmSJ3xoMSfK5NJ4p2b1Qw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WU8CCHuDt/vYC5D+fXBNIn9TgZEX9SBxN85AlQCuybgDdDd5OZW9bj+6jMZFihG6VjL9XLgJxBIeUTsQFqXX9w==" saltValue="p+Da47bQbdoy3dnGhUlA4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18346,7 +18346,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v/Ri4FZzFRC1lAyxY8V0k54/58VenHZ1R4/M75iyCwkwMyOFtNbv+104uKxi6q5l4a0DpeNinaEkS/PZU5+TJw==" saltValue="ww/5TMN3vQ/g71quO+uMUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="agcmDkIuoJm5qKGGAMauVLxeej8pUrQVfb34khh/fmj2C9nPfCMC4e61XiE75+VBdFlNayk0drUfXHBmCXEmuQ==" saltValue="004rtSeAlwJjlIZTNDvdrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18523,7 +18523,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t4JA6nPAFknmO+B/Kj0ZmTF0+IEaJ/ury1o26FHaATPGVa3MhSnk49glIkjxpSlsXxfx3T6cWy18BvYwkyc1FA==" saltValue="rrw5aLQNayt2ue4bMX2duQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jjNz16kurtKvx1Z+k4ai+DJG0o/tUroeqOxaYh4FXlv7d93cyXEXP9T3qqiZYVf1jRdeV0u90DJEUOaqPf86yA==" saltValue="MmQcI8aJdzE4/AzyfGMVFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18854,7 +18854,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DOEacdKde/+hxZy59PHDxkJiL7nTwBxTT9HEREJU7SNFHJjjAiyjuM9FJ7wjJGMAlnB6dSAmF5NDKVYDJ3hhmw==" saltValue="1ZixueuoE3Zf69NBRIVNbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uMQAJENAbiLW9dl0bHRj/YwGhQXlswMoQVqP+pf1O3s+USBzgSwkVUuuiunUgTfpOeY87A/1dSVScxjnyLDftA==" saltValue="MZLIIJhb6/zfsUs50d8+8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19215,7 +19215,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UqZTmj49BiFDgAvO03wwRmkv5ZNrhdkDiRcUm2++1gs3lmAroNG3BHjkfVdKVRZQF2j7s/leZpKIV2oGJkbA9A==" saltValue="ziR/RW4afkMz/n82Vb/OMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3OCYl0P2vTg96pw9neog2G7o631mjfKXEGYxppVKchutBhBruUxXRSMYoGAmltA5Vg2RMBdF9gKbMEhjQv8TcQ==" saltValue="P8QHbL6bcSk7tPq0gf6Zaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19322,7 +19322,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MUPsZljS1reGW2Pj+KYolNhinthbjmn/2/6Web+apTq4GdoU8pV8mmvw4EcwpL2CSwHImgnHVO8BwIsWQBNbyA==" saltValue="Xp9Lx/FAfgeKAoU2hOhmKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CK2Vj8yGBbxojqvgYHd++tuk2oyejY7lloGHzL0eSeEBNyPBRnZRiZ21qRn2zkpmY29doRL6Gz5p4c3Wna9kWA==" saltValue="iw5ZplYN8Wa7vW9/55KpvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19638,7 +19638,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h7eFPg6Clij3kXDuDnCxiO+vsU6u+H8P2FDr+xq4DXz/M6aanabmCwFJnIOHXFdTELwcAKXko3cx8jzBU8vBvw==" saltValue="vJ/P4PHEYdI2zGRxrmYK0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eJ7+v5wmS9jTPEzZ2sLVOyc4f7/iW3mxkW9HKpGHw7/5dusykcLyj+sFqDFNaJXWH13VMIFGPwA4yHOPSZulkA==" saltValue="tk9QnCRiHxVdT350p9dPFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19914,7 +19914,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bL0393agSwMZHSnO47IkJVDwLs8vf2BoKIj2VeQYWJDF4L297EPLBgqJg/xTqW2xlAU/2/R6atd24aALu+2Vvg==" saltValue="pMZntz0YYEBOx1COoWpzJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aKlmYcOVo/1qPz/3qpHeJ0L4QN2KYSZCKqpH+HoHOwYjLn9ljaOmcpKLNliLOWX96Rpuiugm629+5ly+ry+srw==" saltValue="mhj7agXk+Li4kZ3Cszp2VQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -19978,7 +19978,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pa12PIafT8fX34nbE2ENxh/t12Fo357RpAnDORFdZlOAUWqJz2/U2XloV3m2ae7OCgBAASQGcDZFo5dvPo7KUw==" saltValue="nAN3jGWV1zENi+LIWt3byA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zUQ9AF5px7oUjnIL7/CF1dXQHhZFkfdJ5EGEFBjczC9Z9e1OIeei0ngBzDxVvYMh8o/LD5sb9UPeEA+OVgC9Iw==" saltValue="ITiVfncy74W7tYD7Fkr2FA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20656,7 +20656,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="42PcGTpxVpSdYUY2jv6PCDQ2q74LgR79vWCHPYwMrm0y1QycfViErOQjRrz+2rFy85F1Lx3BBFSk490SKRB8AQ==" saltValue="PId074s8vTVeoTD9DCSpaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Bs/lKTLOLrMDW3FazdUJxiZU7JcN3Ly7kkZgUaj5N6DUs3ZTM2jr1A0ywZ2RnZD1FHR52btDWMv/l6UxsnYRQA==" saltValue="PysgsCl7spcED341M6gSdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C44557A-FD95-42D3-8C82-B1C0D2A71D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A73C58-8488-4B57-8DFF-5116675416E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4738,14 +4738,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -4756,14 +4756,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>31</v>
@@ -4772,7 +4772,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
@@ -4781,93 +4781,93 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="65"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="66"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="66"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="66"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="66"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
@@ -4876,74 +4876,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="67"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="67"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="67"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="67"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="69"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="69"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="69"/>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="69"/>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>57</v>
       </c>
@@ -4952,26 +4952,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="71"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>61</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>62</v>
       </c>
@@ -4987,48 +4987,48 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="71"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="67"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="71"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C46" s="67"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>69</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>70</v>
       </c>
@@ -5047,80 +5047,80 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C51" s="72"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C52" s="72"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C53" s="72"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C54" s="72"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="72"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="66"/>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C59" s="66"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C60" s="66"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C61" s="66"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hW3KbCM5PvFQfONGnulFIP8wb1yRl+gw+90BGTYTloomjjmcTzPrshk9bp4h8x1psFXPqxZ3gT2yz6BMWXHKIA==" saltValue="gttPipUIFH+L22nmfjpCJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wkqr3LXYfI0kRSs/HX4ZUUKI0tHpX/zTwIA3M4H/CbNrqYAaR4xnF9A+j3LOlwRGCurLS2tmGPtFvl0lu2pfig==" saltValue="9xAsmq+2kv/8sdkCFqqx4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5137,89 +5137,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EoUQ8fTCM9dpe3pg57kTKTvjRw7qfoXtHA5qAoRWBTQ9G0oUYSvPOg4RxYp1NkmSV60+2fJEt27VkTpUs2n9jw==" saltValue="lTZa6YnuB0FZzWbXnwvpVw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BS09roF9FZMR66cC6P/0XVFOnjzofSPKgmlINhMqgCJQo7+uNPfy6wjZsFMSg9mVCI1MNSrLcSmJyRTl5PDRqA==" saltValue="zVX4gjTt2jhOWg4DvhO3/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5236,9 +5236,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>207</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>206</v>
       </c>
@@ -5334,7 +5334,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9YAm8YtfbRVAcJz0Cjs1IjotuIDk6pYn+8Rn4OeRkBCPcI81hL1/XWmYMhr3YCjkjD1Uy9QWtxNy1vugj9/4rg==" saltValue="NQznw3a7dm61DZRrPIXwYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iBbIofEri6DlZG0KrW+eCne6t2zSOX1G7yKiTsA0JkKBGdQlWCaCHKwf4fLqnNI2hHDA0I8fvT1Y9ImJ9RPimA==" saltValue="d+BQ6x1AUZf4WBU+hTPEjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5351,15 +5351,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>184</v>
       </c>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>185</v>
       </c>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>195</v>
       </c>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>192</v>
       </c>
@@ -5406,83 +5406,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CRlF7D7OwLDyBo6VdTey/5uu3agiGnCQ13lreYTfcYIOboODimBi57ecohdgpgkgo8kt8B20scLtlQlOYJDO0g==" saltValue="n6tQ5UbxvEAY2ztQ+iAsnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5frUnmanKNdJI9gH/YMHWoLCEUopD/3Ig/zD8xVWzyshzTsBE01DU6J2shqA4MNS48hEgK0Iv2qItA4UVcw85w==" saltValue="abSZYjXZFEGDS4FwIMhZUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5500,19 +5500,19 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>175</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>187</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>188</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>192</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>194</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>195</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>165</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>196</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>202</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>203</v>
       </c>
@@ -6071,10 +6071,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>173</v>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>184</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>185</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>190</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>191</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>193</v>
       </c>
@@ -6452,10 +6452,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>90</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>180</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>181</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>182</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>183</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6705,7 +6705,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>210</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>178</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>179</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>186</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>189</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>197</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>198</v>
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>199</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>200</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>201</v>
       </c>
@@ -7195,11 +7195,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="urI5yX/kEjjwIkk2R7kfTa2uUOBPm2QtCJmaP9DRxh5XJQOs61A/h1qihPy35p3ZbjdZ/i82rnA+wZhWpFElvQ==" saltValue="FZmhcICndCPVRtjp49txqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="skPssYHjncK+hNk34TqQWkm0iqvrhBjdhLTbOc0+Rx4gLd5XL/MJR9bPk0ulD0Mdgk5aK2xC4c3ziCFut/BAAg==" saltValue="3qHo8rp/2oF8RqQxBKEmZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7214,30 +7214,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IjYC5CYDBCbp7YoFM9H2/xxCyVFO1LQWYbJQFk5HMzPv+74iZcgknnChHdx5512bQMhEVIdViU8YE27HrFOEqw==" saltValue="SvXcA4m+7DuunxDGbS5+5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HPgOSTS7qP1aGUxxclbI6d4So5Hn+n9faOVGl2Sg8k3zKNGZ4JtslxsZdU+1+7enBymSNyInr4QKdUISGA8Ong==" saltValue="gJVk7YBw/tzfyePQYIZKwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7253,16 +7253,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>4</v>
       </c>
@@ -7441,11 +7441,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QkGkOXnp+DN4aK4ohl3EddFHmlH0rMraE+Zbk7iM4NKNyflI287gV/mb+pDNw1zGU3QDSEv9XV0fO/vnM+LkoA==" saltValue="GePhdmcrtdOD+qdfWOO7wA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aX88NtPWmFNIMO/IDE506hydNXBrZGioONONEWNpiMRvCRCJWY62aWjeZBHW7SvMybRC9vWyo7VQXZGydmwfSg==" saltValue="uyMfgcGbUJ0pO5xM+OpEIw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7463,20 +7463,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>211</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>100</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>175</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>19</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>22</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>23</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>187</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>188</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>192</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>194</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>195</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>165</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>196</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>202</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>203</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8158,7 +8158,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>114</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>173</v>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>184</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
         <v>185</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
         <v>2</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>190</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>191</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>193</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8530,7 +8530,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>90</v>
       </c>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>180</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>181</v>
@@ -8667,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>182</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>183</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8771,7 +8771,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>210</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>178</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>179</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>186</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>189</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>197</v>
@@ -9039,7 +9039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>198</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>199</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>200</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>201</v>
       </c>
@@ -9216,7 +9216,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="033xgxFkUafeJVXMJEFQ6rAM1lAWhR2GcIfNLrnOhUkW3dJy2YV7wDoNs0w3RUWB6cUUkGzuqfwo6j+otWoIkA==" saltValue="ymevM0/mqv7cDRznW7hmSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wbQE44dxMBHk0GAiQInTSdzbFoQXWW+Vj4zcC288xsX7EVRj1KRdjb3W4lqFEJzlvr7vz8391LOwSh/hsZSTDw==" saltValue="mgVzuoiJ4x+t80gMla2j3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9232,22 +9232,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -9299,7 +9299,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -9316,7 +9316,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -9333,7 +9333,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -9350,7 +9350,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -9407,7 +9407,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -9426,7 +9426,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -9443,7 +9443,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -9460,7 +9460,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -9477,7 +9477,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -9494,7 +9494,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>184</v>
       </c>
@@ -9513,7 +9513,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
         <v>185</v>
       </c>
@@ -9532,7 +9532,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9553,7 +9553,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -9570,7 +9570,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -9589,7 +9589,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -9627,7 +9627,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -9646,7 +9646,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -9667,7 +9667,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -9686,7 +9686,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -9703,7 +9703,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -9737,7 +9737,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -9756,7 +9756,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -9773,7 +9773,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>165</v>
       </c>
@@ -9809,7 +9809,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -9828,7 +9828,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -9847,7 +9847,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -9866,7 +9866,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -9885,7 +9885,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -9904,7 +9904,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -9923,7 +9923,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -9940,7 +9940,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -9962,7 +9962,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oOunuu3tmp0Xe55uUE56QVSvwS3NpFPgB4FB4xTy5ff1rTouYsggQfDbamwv0NF3eCt262k8gQ2Rq+qw6NOz1w==" saltValue="O6gI33m2VPSbRn9KVc+7eQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DQnv3F1eyCYVkmjApUI1Pt7++4A/Jh8h5BQ10OjtbMzwGf31HP6RqrVmZcs5o80jFfRpMmB8fOQkdHzD4bDS3g==" saltValue="DKAAFg7x+M+Z0pm5sQizoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9978,22 +9978,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>123</v>
       </c>
@@ -10057,7 +10057,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>110</v>
       </c>
@@ -10086,7 +10086,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>111</v>
       </c>
@@ -10115,7 +10115,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>112</v>
       </c>
@@ -10144,7 +10144,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>113</v>
       </c>
@@ -10173,7 +10173,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>136</v>
       </c>
@@ -10194,7 +10194,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>137</v>
       </c>
@@ -10215,7 +10215,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>138</v>
       </c>
@@ -10236,7 +10236,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>139</v>
       </c>
@@ -10257,7 +10257,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>84</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>85</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>86</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>87</v>
       </c>
@@ -10336,7 +10336,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WPfTSBHAdWtO+eebBwnrc5CXzXGeX1LIqfTBx8B03+XeW3pcQ2/4jj9StOu/+zvXNT4PhRP+eCUetyAwYN+dIw==" saltValue="ljxzj8ffis0aeEhky+uy0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tTvoasjm7ir08yOxulWNqjCvtY9xl5AdbWoZffdwRnvLRKAE0VatvSVsnfIm3VMJzHvVLcRtVu2QCrzzqRPwzw==" saltValue="pJNg8tu7SK4uhqDPzZbk+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10352,15 +10352,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>221</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>222</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>161</v>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>162</v>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
         <v>123</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>161</v>
@@ -10501,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>162</v>
@@ -10522,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
         <v>110</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>161</v>
@@ -10566,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>162</v>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
         <v>111</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>161</v>
@@ -10631,7 +10631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>162</v>
@@ -10652,7 +10652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
         <v>112</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>161</v>
@@ -10696,7 +10696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>162</v>
@@ -10717,7 +10717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
         <v>163</v>
       </c>
@@ -10740,14 +10740,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>223</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>161</v>
@@ -10794,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>162</v>
@@ -10815,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
         <v>123</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>161</v>
@@ -10859,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>162</v>
@@ -10880,7 +10880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
         <v>110</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>161</v>
@@ -10924,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>162</v>
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
         <v>111</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>161</v>
@@ -10989,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>162</v>
@@ -11010,7 +11010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
         <v>112</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>161</v>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>162</v>
@@ -11075,7 +11075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
         <v>163</v>
       </c>
@@ -11098,14 +11098,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
         <v>224</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>161</v>
@@ -11152,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>162</v>
@@ -11173,7 +11173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
         <v>123</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>161</v>
@@ -11217,7 +11217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>162</v>
@@ -11238,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
         <v>110</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>161</v>
@@ -11282,7 +11282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>162</v>
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
         <v>111</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>161</v>
@@ -11347,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>162</v>
@@ -11368,7 +11368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
         <v>112</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>161</v>
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>162</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
         <v>163</v>
       </c>
@@ -11457,7 +11457,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cQpGXkBGXiG7rweXCpsLih8ib9kRr7hhheKXTTz4XDO5jtGkJ46kK0YJjVPTAKUqSUyyQ8zyXhfUo24oxvCbDQ==" saltValue="kq4fSl0fLC6bCHxeUnvMkA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uGXJIuCnT1CV1NEOwLhOyB+JawzTPtirKxoe8N7mOt1bl/Pl9aaw2hFRrjZ9dZfTS41/5Rittuc1s+Mv2W5bRg==" saltValue="sw7+RaZcIRZTz+7qzChxNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11491,14 +11491,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>82</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11642,7 +11642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11665,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -11803,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11895,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12125,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12355,7 +12355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12425,7 +12425,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KdFcuS4DZZDbXQKyOq6jcdkjixIXxIeV+8eJiLB57Anl5T8R8Jt3yEscz2WK4i3XzR2djSfBhD6DQSzr9UXXoA==" saltValue="Pf6bLZl6RfWdW5MIJ+skPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SMahqar6VVyy50ZGTM795fhT85LfUVekFAU/8R42ejdTgwcIo6VwToZ1bzSGRMk9oHmkDISqWa+J1c5O21m8kQ==" saltValue="/mHHfiriWbnUMedNr5zjgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12447,22 +12447,22 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>70</v>
@@ -12477,7 +12477,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>226</v>
       </c>
@@ -12487,7 +12487,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
         <v>53</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>54</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>55</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>56</v>
       </c>
@@ -12555,13 +12555,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="108"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>233</v>
       </c>
@@ -12579,14 +12579,14 @@
       </c>
       <c r="G9" s="109"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="108"/>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
         <v>227</v>
       </c>
@@ -12596,7 +12596,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>228</v>
       </c>
@@ -12606,7 +12606,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
         <v>229</v>
       </c>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
         <v>230</v>
       </c>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="G14" s="109"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
         <v>231</v>
       </c>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12669,7 +12669,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>232</v>
       </c>
@@ -12680,7 +12680,7 @@
       <c r="F17" s="116"/>
       <c r="G17" s="109"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
         <v>92</v>
       </c>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
         <v>93</v>
       </c>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="G19" s="109"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
         <v>94</v>
       </c>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="G20" s="109"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
         <v>95</v>
       </c>
@@ -12752,7 +12752,7 @@
       </c>
       <c r="G21" s="109"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
         <v>96</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
         <v>97</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
         <v>98</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
         <v>99</v>
       </c>
@@ -12820,14 +12820,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UwtnhdYNKU6QvQxD6704IZEFlKgZfsZnYqJt+XaIuyaJPyElO6IkIV/tH2lCvZK2dX8cGO0IwwKYFfkIoTsheg==" saltValue="vUY2cpYSi324cX2mb2igBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="p+BPv+RqGdCrKXXKn7752lYYC0LjfkOwe/Yo66QuI7y+v3Dm7YJ9+j/gTJu+2YU14yaZxzbnJVeU4Tz0pU66Cg==" saltValue="Khe3yuRbq26ojc3XI833BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -12844,23 +12844,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>216</v>
       </c>
@@ -12894,7 +12894,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>101</v>
@@ -12926,7 +12926,7 @@
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>237</v>
       </c>
@@ -12954,7 +12954,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>238</v>
       </c>
@@ -12982,7 +12982,7 @@
       <c r="O5" s="118"/>
       <c r="P5" s="118"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>239</v>
       </c>
@@ -13010,7 +13010,7 @@
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>102</v>
       </c>
@@ -13041,7 +13041,7 @@
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>237</v>
       </c>
@@ -13069,7 +13069,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>238</v>
       </c>
@@ -13097,7 +13097,7 @@
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>239</v>
       </c>
@@ -13125,7 +13125,7 @@
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>104</v>
       </c>
@@ -13156,7 +13156,7 @@
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>237</v>
       </c>
@@ -13184,7 +13184,7 @@
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>238</v>
       </c>
@@ -13212,7 +13212,7 @@
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>239</v>
       </c>
@@ -13240,7 +13240,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>105</v>
       </c>
@@ -13271,7 +13271,7 @@
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>237</v>
       </c>
@@ -13299,7 +13299,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>238</v>
       </c>
@@ -13327,7 +13327,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>239</v>
       </c>
@@ -13355,7 +13355,7 @@
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>103</v>
       </c>
@@ -13386,7 +13386,7 @@
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>237</v>
       </c>
@@ -13414,7 +13414,7 @@
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>238</v>
       </c>
@@ -13442,7 +13442,7 @@
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>239</v>
       </c>
@@ -13470,7 +13470,7 @@
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>109</v>
       </c>
@@ -13501,7 +13501,7 @@
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>237</v>
       </c>
@@ -13529,7 +13529,7 @@
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>238</v>
       </c>
@@ -13557,7 +13557,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>239</v>
       </c>
@@ -13585,12 +13585,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
         <v>26</v>
       </c>
@@ -13624,7 +13624,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>101</v>
@@ -13656,7 +13656,7 @@
       <c r="O30" s="118"/>
       <c r="P30" s="118"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>237</v>
       </c>
@@ -13684,7 +13684,7 @@
       <c r="O31" s="118"/>
       <c r="P31" s="118"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>207</v>
       </c>
@@ -13712,7 +13712,7 @@
       <c r="O32" s="118"/>
       <c r="P32" s="118"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>206</v>
       </c>
@@ -13740,7 +13740,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>102</v>
       </c>
@@ -13771,7 +13771,7 @@
       <c r="O34" s="118"/>
       <c r="P34" s="118"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>237</v>
       </c>
@@ -13799,7 +13799,7 @@
       <c r="O35" s="118"/>
       <c r="P35" s="118"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>207</v>
       </c>
@@ -13827,7 +13827,7 @@
       <c r="O36" s="118"/>
       <c r="P36" s="118"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>206</v>
       </c>
@@ -13855,7 +13855,7 @@
       <c r="O37" s="118"/>
       <c r="P37" s="118"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>104</v>
       </c>
@@ -13886,7 +13886,7 @@
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>237</v>
       </c>
@@ -13914,7 +13914,7 @@
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>207</v>
       </c>
@@ -13942,7 +13942,7 @@
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>206</v>
       </c>
@@ -13970,7 +13970,7 @@
       <c r="O41" s="118"/>
       <c r="P41" s="118"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>105</v>
       </c>
@@ -14001,7 +14001,7 @@
       <c r="O42" s="118"/>
       <c r="P42" s="118"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>237</v>
       </c>
@@ -14029,7 +14029,7 @@
       <c r="O43" s="118"/>
       <c r="P43" s="118"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>207</v>
       </c>
@@ -14057,7 +14057,7 @@
       <c r="O44" s="118"/>
       <c r="P44" s="118"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>206</v>
       </c>
@@ -14085,7 +14085,7 @@
       <c r="O45" s="118"/>
       <c r="P45" s="118"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>103</v>
       </c>
@@ -14116,7 +14116,7 @@
       <c r="O46" s="118"/>
       <c r="P46" s="118"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>237</v>
       </c>
@@ -14144,7 +14144,7 @@
       <c r="O47" s="118"/>
       <c r="P47" s="118"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>207</v>
       </c>
@@ -14172,7 +14172,7 @@
       <c r="O48" s="118"/>
       <c r="P48" s="118"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>206</v>
       </c>
@@ -14200,7 +14200,7 @@
       <c r="O49" s="118"/>
       <c r="P49" s="118"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>109</v>
       </c>
@@ -14231,7 +14231,7 @@
       <c r="O50" s="118"/>
       <c r="P50" s="118"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>237</v>
       </c>
@@ -14259,7 +14259,7 @@
       <c r="O51" s="118"/>
       <c r="P51" s="118"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>207</v>
       </c>
@@ -14287,7 +14287,7 @@
       <c r="O52" s="118"/>
       <c r="P52" s="118"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>206</v>
       </c>
@@ -14315,16 +14315,16 @@
       <c r="O53" s="118"/>
       <c r="P53" s="118"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
         <v>135</v>
       </c>
@@ -14352,7 +14352,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>115</v>
@@ -14378,7 +14378,7 @@
       <c r="O57" s="118"/>
       <c r="P57" s="118"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14400,7 +14400,7 @@
       <c r="O58" s="118"/>
       <c r="P58" s="118"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>116</v>
       </c>
@@ -14425,7 +14425,7 @@
       <c r="O59" s="118"/>
       <c r="P59" s="118"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14447,7 +14447,7 @@
       <c r="O60" s="118"/>
       <c r="P60" s="118"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>117</v>
       </c>
@@ -14472,7 +14472,7 @@
       <c r="O61" s="118"/>
       <c r="P61" s="118"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14494,16 +14494,16 @@
       <c r="O62" s="118"/>
       <c r="P62" s="118"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
         <v>142</v>
       </c>
@@ -14537,7 +14537,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>92</v>
@@ -14569,7 +14569,7 @@
       <c r="O66" s="118"/>
       <c r="P66" s="118"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>144</v>
       </c>
@@ -14597,7 +14597,7 @@
       <c r="O67" s="118"/>
       <c r="P67" s="118"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>145</v>
       </c>
@@ -14625,7 +14625,7 @@
       <c r="O68" s="118"/>
       <c r="P68" s="118"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>146</v>
       </c>
@@ -14653,7 +14653,7 @@
       <c r="O69" s="118"/>
       <c r="P69" s="118"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>93</v>
       </c>
@@ -14684,7 +14684,7 @@
       <c r="O70" s="118"/>
       <c r="P70" s="118"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>144</v>
       </c>
@@ -14712,7 +14712,7 @@
       <c r="O71" s="118"/>
       <c r="P71" s="118"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>145</v>
       </c>
@@ -14740,7 +14740,7 @@
       <c r="O72" s="118"/>
       <c r="P72" s="118"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>146</v>
       </c>
@@ -14768,7 +14768,7 @@
       <c r="O73" s="118"/>
       <c r="P73" s="118"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>94</v>
       </c>
@@ -14799,7 +14799,7 @@
       <c r="O74" s="118"/>
       <c r="P74" s="118"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>144</v>
       </c>
@@ -14827,7 +14827,7 @@
       <c r="O75" s="118"/>
       <c r="P75" s="118"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>145</v>
       </c>
@@ -14855,7 +14855,7 @@
       <c r="O76" s="118"/>
       <c r="P76" s="118"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>146</v>
       </c>
@@ -14883,7 +14883,7 @@
       <c r="O77" s="118"/>
       <c r="P77" s="118"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>96</v>
       </c>
@@ -14914,7 +14914,7 @@
       <c r="O78" s="118"/>
       <c r="P78" s="118"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>144</v>
       </c>
@@ -14942,7 +14942,7 @@
       <c r="O79" s="118"/>
       <c r="P79" s="118"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>145</v>
       </c>
@@ -14970,7 +14970,7 @@
       <c r="O80" s="118"/>
       <c r="P80" s="118"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>146</v>
       </c>
@@ -14998,7 +14998,7 @@
       <c r="O81" s="118"/>
       <c r="P81" s="118"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>101</v>
       </c>
@@ -15029,7 +15029,7 @@
       <c r="O82" s="118"/>
       <c r="P82" s="118"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>144</v>
       </c>
@@ -15057,7 +15057,7 @@
       <c r="O83" s="118"/>
       <c r="P83" s="118"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>145</v>
       </c>
@@ -15085,7 +15085,7 @@
       <c r="O84" s="118"/>
       <c r="P84" s="118"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>146</v>
       </c>
@@ -15113,7 +15113,7 @@
       <c r="O85" s="118"/>
       <c r="P85" s="118"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>102</v>
       </c>
@@ -15144,7 +15144,7 @@
       <c r="O86" s="118"/>
       <c r="P86" s="118"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>144</v>
       </c>
@@ -15172,7 +15172,7 @@
       <c r="O87" s="118"/>
       <c r="P87" s="118"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>145</v>
       </c>
@@ -15200,7 +15200,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>146</v>
       </c>
@@ -15228,7 +15228,7 @@
       <c r="O89" s="118"/>
       <c r="P89" s="118"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>104</v>
       </c>
@@ -15259,7 +15259,7 @@
       <c r="O90" s="118"/>
       <c r="P90" s="118"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>144</v>
       </c>
@@ -15287,7 +15287,7 @@
       <c r="O91" s="118"/>
       <c r="P91" s="118"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>145</v>
       </c>
@@ -15315,7 +15315,7 @@
       <c r="O92" s="118"/>
       <c r="P92" s="118"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>146</v>
       </c>
@@ -15343,7 +15343,7 @@
       <c r="O93" s="118"/>
       <c r="P93" s="118"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>103</v>
       </c>
@@ -15374,7 +15374,7 @@
       <c r="O94" s="118"/>
       <c r="P94" s="118"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>144</v>
       </c>
@@ -15402,7 +15402,7 @@
       <c r="O95" s="118"/>
       <c r="P95" s="118"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>145</v>
       </c>
@@ -15430,7 +15430,7 @@
       <c r="O96" s="118"/>
       <c r="P96" s="118"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>146</v>
       </c>
@@ -15458,7 +15458,7 @@
       <c r="O97" s="118"/>
       <c r="P97" s="118"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>106</v>
       </c>
@@ -15489,7 +15489,7 @@
       <c r="O98" s="118"/>
       <c r="P98" s="118"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>144</v>
       </c>
@@ -15517,7 +15517,7 @@
       <c r="O99" s="118"/>
       <c r="P99" s="118"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>145</v>
       </c>
@@ -15545,7 +15545,7 @@
       <c r="O100" s="118"/>
       <c r="P100" s="118"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>146</v>
       </c>
@@ -15573,12 +15573,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
         <v>101</v>
       </c>
@@ -15612,7 +15612,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15642,7 +15642,7 @@
       <c r="O105" s="118"/>
       <c r="P105" s="118"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>144</v>
       </c>
@@ -15670,7 +15670,7 @@
       <c r="O106" s="118"/>
       <c r="P106" s="118"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>145</v>
       </c>
@@ -15698,7 +15698,7 @@
       <c r="O107" s="118"/>
       <c r="P107" s="118"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>146</v>
       </c>
@@ -15726,11 +15726,11 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xAXILgRDZwl/H/yDH1GjH9haQZ98bGkEthM1aLaDJfSi1nlxLweCIo75loHWM94HNeM2Veqcr1GqmmEYTIg2iQ==" saltValue="B9/2AQ6GUx9zYUyyQOGRbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wjMnN4/IF1M40+671dDPG/YV5vcO9YWOwEDJM6SkOxiwVforN7epYdYU7ejQe4rgqcdetyrPr4cAdCeQYB87SQ==" saltValue="ve4dGUO3wtrdqipZOXLHhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15747,24 +15747,24 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
         <v>249</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -15826,12 +15826,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
         <v>195</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
         <v>188</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
         <v>203</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="117"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -15899,12 +15899,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>187</v>
@@ -15925,16 +15925,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
         <v>26</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>256</v>
@@ -15978,7 +15978,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
         <v>135</v>
       </c>
@@ -16001,13 +16001,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>84</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
         <v>176</v>
       </c>
@@ -16039,7 +16039,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/PEBWvQBYL/ACTUmJANJnuZwREz5oe7HvbjoH0TRshAvl55NSaBD1x5A0wRN2CutAbiAfe1c2fNXDh+9LXTJCQ==" saltValue="W2+69ntTi7YNQz/gH82mkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sc3/j9tNh7shx0ayteYdZ43zApev4cLQFtMh2XL1ajKKm96NNX1TRFGUWtIDr2zEUmLVCq1fdoa3rvCZq2Qqtw==" saltValue="RSIx9zLKlVF465sBeDatVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16057,16 +16057,16 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>164</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
         <v>172</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>258</v>
@@ -16122,7 +16122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
         <v>184</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>258</v>
@@ -16160,7 +16160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
         <v>185</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
         <v>258</v>
@@ -16198,7 +16198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
         <v>2</v>
       </c>
@@ -16218,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
         <v>258</v>
@@ -16236,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
         <v>189</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
         <v>258</v>
@@ -16274,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
         <v>193</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>258</v>
@@ -16312,14 +16312,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rwC6c9vaoJMAAOxNVP039PsAyCpqYevg3UA73whkOdcto0+i+CTgg+a7dYKTha/M3gKXqx4tLz86pxLwp8zEyQ==" saltValue="XUHySELQc6vdOVZO/yyjnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j3mHv1lWUktKjYzYQrk4LHuyq/X4CReJq+CA5cGHj/cQGDsJgcja7vmpE1U0LVfFcuqOsBiBxS8+SbC5NXdpwA==" saltValue="X6fiDQlNkx+fNwJYQ7Hnww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16336,15 +16336,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16387,12 +16387,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>175</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>180</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>181</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>182</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>183</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
         <v>184</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
         <v>185</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
         <v>188</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>189</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>192</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>193</v>
       </c>
@@ -16920,13 +16920,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>260</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
         <v>177</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
         <v>178</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
         <v>179</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
         <v>186</v>
       </c>
@@ -17102,20 +17102,20 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B8vURGSLl7K6ehA1dYtqNFBs+MuSSZ7bSXBqey/is1z2TqaTuKhJ3Jkmsc16Z3q9Xn2Kyz+Jajqd/SGi+flx4Q==" saltValue="PWQIGBRTKKE1Do3phDv+gw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="A9cUz2Uw/f9v1b0xFss3DaDGLdLxH1xb99lDotBvxuB9oM0ph+v9D5MyGjfVTgG9r52CXM8EKyOKwqt+fzOLsA==" saltValue="YOqLOt4SbDQDP8dYdMp2rg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17132,15 +17132,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17159,12 +17159,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>165</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>262</v>
       </c>
@@ -17195,7 +17195,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
         <v>169</v>
       </c>
@@ -17216,7 +17216,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WU8CCHuDt/vYC5D+fXBNIn9TgZEX9SBxN85AlQCuybgDdDd5OZW9bj+6jMZFihG6VjL9XLgJxBIeUTsQFqXX9w==" saltValue="p+Da47bQbdoy3dnGhUlA4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G/4dFaA1hlfrVYO6ONAMlIdwYSqmjotxsSRFicjmixDSLG8eLvAoZKxOfYjj1MXbsSeyaw2uWZvM9N7PkQyKsA==" saltValue="cwe89g9daCtHuOM4SbaV2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17233,20 +17233,20 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>196</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>264</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>265</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>195</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>265</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>207</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>265</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>188</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>265</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>207</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>265</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>174</v>
       </c>
@@ -17542,7 +17542,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>265</v>
       </c>
@@ -17563,7 +17563,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>207</v>
       </c>
@@ -17587,7 +17587,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>265</v>
       </c>
@@ -17608,7 +17608,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>179</v>
       </c>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>264</v>
       </c>
@@ -17656,7 +17656,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>177</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>264</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>178</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>264</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>200</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>264</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>265</v>
       </c>
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>201</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>264</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>265</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>199</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>264</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>265</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>198</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>264</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>265</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>197</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>264</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>265</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>264</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>265</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>102</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>264</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>265</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>194</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>264</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>202</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>264</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>187</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>264</v>
       </c>
@@ -18346,7 +18346,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="agcmDkIuoJm5qKGGAMauVLxeej8pUrQVfb34khh/fmj2C9nPfCMC4e61XiE75+VBdFlNayk0drUfXHBmCXEmuQ==" saltValue="004rtSeAlwJjlIZTNDvdrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kDZ2GTkAUJjzXfj/nX5e5iQircBMSJHJmTX4KPB/OKMjaHKT81vwTW7SczNeaBxbaYiIzVCELj0CyjWQzsm6HQ==" saltValue="BWznymsK6Cu5nEVO646aXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18363,16 +18363,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>164</v>
       </c>
@@ -18394,7 +18394,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>173</v>
       </c>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>264</v>
       </c>
@@ -18436,7 +18436,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>191</v>
       </c>
@@ -18460,7 +18460,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>264</v>
@@ -18479,7 +18479,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>190</v>
       </c>
@@ -18503,7 +18503,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>264</v>
@@ -18523,7 +18523,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jjNz16kurtKvx1Z+k4ai+DJG0o/tUroeqOxaYh4FXlv7d93cyXEXP9T3qqiZYVf1jRdeV0u90DJEUOaqPf86yA==" saltValue="MmQcI8aJdzE4/AzyfGMVFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X8gbTH361ft267HPLeB0ETy47Shk8r6uiJZ97D337PzYv7oh110ro2WyB+yHgY0P0zyVnnxoATVC/bIPOCx43Q==" saltValue="Y5C0QgfO98bdPUmSSzbYzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18539,14 +18539,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18557,7 +18557,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -18572,55 +18572,55 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="75"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="75"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="75"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C6" s="75"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="75"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="75"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>98</v>
       </c>
       <c r="C9" s="75"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="75"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>57</v>
       </c>
@@ -18631,7 +18631,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18640,7 +18640,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>100</v>
       </c>
@@ -18661,7 +18661,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>101</v>
       </c>
@@ -18670,7 +18670,7 @@
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>102</v>
       </c>
@@ -18679,7 +18679,7 @@
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>103</v>
       </c>
@@ -18688,7 +18688,7 @@
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>104</v>
       </c>
@@ -18697,7 +18697,7 @@
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>105</v>
       </c>
@@ -18706,7 +18706,7 @@
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>106</v>
       </c>
@@ -18715,7 +18715,7 @@
       <c r="E19" s="75"/>
       <c r="F19" s="75"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>107</v>
       </c>
@@ -18724,7 +18724,7 @@
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>108</v>
       </c>
@@ -18733,7 +18733,7 @@
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>109</v>
       </c>
@@ -18742,7 +18742,7 @@
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>57</v>
       </c>
@@ -18765,7 +18765,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -18774,7 +18774,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -18790,61 +18790,61 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>115</v>
       </c>
       <c r="C26" s="75"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="75"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>117</v>
       </c>
       <c r="C28" s="75"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>118</v>
       </c>
       <c r="C29" s="75"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="75"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="75"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="75"/>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="75"/>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>122</v>
       </c>
       <c r="C34" s="75"/>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>57</v>
       </c>
@@ -18854,7 +18854,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uMQAJENAbiLW9dl0bHRj/YwGhQXlswMoQVqP+pf1O3s+USBzgSwkVUuuiunUgTfpOeY87A/1dSVScxjnyLDftA==" saltValue="MZLIIJhb6/zfsUs50d8+8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h7WUG/gOZTmfls6dDWQdJBfdt55ep8EA2WW7RqnSTeQxvEf995flcYYtACqf58g5rVx1sQ4zRf+ptsIxs33myg==" saltValue="xFpokmMQQ9ah4hyR3sL39A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18872,13 +18872,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -18902,7 +18902,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>125</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>127</v>
@@ -18956,7 +18956,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>128</v>
@@ -18967,7 +18967,7 @@
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>129</v>
@@ -18978,7 +18978,7 @@
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -18986,7 +18986,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -18994,7 +18994,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>132</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>133</v>
       </c>
@@ -19057,7 +19057,7 @@
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>134</v>
       </c>
@@ -19067,7 +19067,7 @@
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19081,7 +19081,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>135</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>140</v>
       </c>
@@ -19143,7 +19143,7 @@
       <c r="N14" s="79"/>
       <c r="O14" s="79"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>141</v>
       </c>
@@ -19200,14 +19200,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19215,7 +19215,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3OCYl0P2vTg96pw9neog2G7o631mjfKXEGYxppVKchutBhBruUxXRSMYoGAmltA5Vg2RMBdF9gKbMEhjQv8TcQ==" saltValue="P8QHbL6bcSk7tPq0gf6Zaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d4NwTbViCcAlzC16+Wm3Mz/ODDEtm2uQc96K7wMx6l48i7pLJqqXYmWyE6REk4pgwXwZMqN6ayxjoI4Y/s3VYQ==" saltValue="uhoFo0bwlh2TO5IxKX2fpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19233,13 +19233,13 @@
       <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19263,7 +19263,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>142</v>
       </c>
@@ -19276,7 +19276,7 @@
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>144</v>
       </c>
@@ -19286,7 +19286,7 @@
       <c r="F3" s="77"/>
       <c r="G3" s="77"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>145</v>
       </c>
@@ -19296,7 +19296,7 @@
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>146</v>
       </c>
@@ -19322,7 +19322,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CK2Vj8yGBbxojqvgYHd++tuk2oyejY7lloGHzL0eSeEBNyPBRnZRiZ21qRn2zkpmY29doRL6Gz5p4c3Wna9kWA==" saltValue="iw5ZplYN8Wa7vW9/55KpvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lq6lbUEn0eV4RBqucO1kIhpV/kTbvFeks5ePBJLv+fWuFyFxD4Uakn6w0wDfpCWakvkJjiEmEc9AM0PPsjHl8w==" saltValue="WeuVRvEo1bCAMeJ8F1abZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19339,14 +19339,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -19423,10 +19423,10 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -19455,10 +19455,10 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>114</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>154</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>156</v>
       </c>
@@ -19638,7 +19638,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eJ7+v5wmS9jTPEzZ2sLVOyc4f7/iW3mxkW9HKpGHw7/5dusykcLyj+sFqDFNaJXWH13VMIFGPwA4yHOPSZulkA==" saltValue="tk9QnCRiHxVdT350p9dPFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MEtqRvE/hEtaxdTqtJCAvF5+gXz7/gu7NbRC7aFoh81j8/swe0qF2UbvnPUgCxnHhncBkmFqJtq6OTOGAH0L6w==" saltValue="rnBJq0P9bLccenony4W8xw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19655,15 +19655,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>158</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>19</v>
       </c>
@@ -19694,7 +19694,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>123</v>
@@ -19708,7 +19708,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>110</v>
@@ -19722,7 +19722,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>111</v>
@@ -19736,7 +19736,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>112</v>
@@ -19750,7 +19750,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>163</v>
@@ -19759,7 +19759,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>22</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>123</v>
@@ -19785,7 +19785,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>110</v>
@@ -19797,7 +19797,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>111</v>
@@ -19809,7 +19809,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>112</v>
@@ -19821,7 +19821,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>163</v>
@@ -19832,7 +19832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>23</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>123</v>
@@ -19862,7 +19862,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>110</v>
@@ -19876,7 +19876,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>111</v>
@@ -19890,7 +19890,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>112</v>
@@ -19904,7 +19904,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>163</v>
@@ -19914,7 +19914,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aKlmYcOVo/1qPz/3qpHeJ0L4QN2KYSZCKqpH+HoHOwYjLn9ljaOmcpKLNliLOWX96Rpuiugm629+5ly+ry+srw==" saltValue="mhj7agXk+Li4kZ3Cszp2VQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SxGAUvYwqwuPfbTZHQJ3MYxNkWwAHvaHa4JH04mXnrgHI/YhHex5g57+Ya2QrGMIL2+ZXYRQzk8u1urYOh1J0A==" saltValue="eFyxUD1vyLiReyp4AhWtHA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -19931,15 +19931,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>164</v>
       </c>
@@ -19965,7 +19965,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>168</v>
       </c>
@@ -19978,7 +19978,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zUQ9AF5px7oUjnIL7/CF1dXQHhZFkfdJ5EGEFBjczC9Z9e1OIeei0ngBzDxVvYMh8o/LD5sb9UPeEA+OVgC9Iw==" saltValue="ITiVfncy74W7tYD7Fkr2FA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4QKP37ch+XtmEOeVbsZGuGH43757zI0nNrS4sv8VDo4pIEqnjRfXNKSLh2LV3VwScsMq94h1II7tE8Gj7MFsuA==" saltValue="+oGDP5m2mpoKdOkiu31pnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19994,17 +19994,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>164</v>
       </c>
@@ -20022,7 +20022,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -20039,7 +20039,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -20090,7 +20090,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -20107,7 +20107,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -20175,7 +20175,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -20192,7 +20192,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -20209,7 +20209,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>184</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>185</v>
       </c>
@@ -20260,7 +20260,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20277,7 +20277,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -20328,7 +20328,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -20362,7 +20362,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -20447,7 +20447,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -20464,7 +20464,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>165</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -20532,7 +20532,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -20618,7 +20618,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -20652,11 +20652,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bs/lKTLOLrMDW3FazdUJxiZU7JcN3Ly7kkZgUaj5N6DUs3ZTM2jr1A0ywZ2RnZD1FHR52btDWMv/l6UxsnYRQA==" saltValue="PysgsCl7spcED341M6gSdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tU2ZRv04ww5dAjDkhOA1bn/7WxB3DIu3EulRj2DtKynqVRQlZ/sqswyTY3uwpQjeuAfIiDcNMJJY5eaLdgv0Mw==" saltValue="xSRQhAam4k3bsmCAk09glQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A73C58-8488-4B57-8DFF-5116675416E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D28DB7-8606-45C5-96E1-5EC92250CC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
     <t>Modéré</t>
   </si>
   <si>
-    <t>Elevé</t>
+    <t>Élevé</t>
   </si>
   <si>
     <t>Niveau WHZ</t>
@@ -5120,7 +5120,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wkqr3LXYfI0kRSs/HX4ZUUKI0tHpX/zTwIA3M4H/CbNrqYAaR4xnF9A+j3LOlwRGCurLS2tmGPtFvl0lu2pfig==" saltValue="9xAsmq+2kv/8sdkCFqqx4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0roYzhzP/jkva1mApTn+3rTbFy/VOYQDGe0IgBA30z3B1lbFvB7zGxWbGq66BVlstkjVn+UwU8mHCP5+a5Wg0A==" saltValue="djwHnFB18oqk6a+ipEg2+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5219,7 +5219,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BS09roF9FZMR66cC6P/0XVFOnjzofSPKgmlINhMqgCJQo7+uNPfy6wjZsFMSg9mVCI1MNSrLcSmJyRTl5PDRqA==" saltValue="zVX4gjTt2jhOWg4DvhO3/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o9/+OFE24i92X6SU/g0UyR2AQAxIOYzYmLXkobRK63m4XOSgWvH9rXqqT72rNnl/5Z2jdoY39k1drF89gQQMSA==" saltValue="fBCkeiaK0vjKw7H3x6UmDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5334,7 +5334,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iBbIofEri6DlZG0KrW+eCne6t2zSOX1G7yKiTsA0JkKBGdQlWCaCHKwf4fLqnNI2hHDA0I8fvT1Y9ImJ9RPimA==" saltValue="d+BQ6x1AUZf4WBU+hTPEjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v0pZCvz+oRSKHNP0giutOANN3mx0YG1I8vmuGqOYyB64kohIz8HnISiv4VBQs1BpTJAfA8kKrnbogHdAh6xMdA==" saltValue="MhOeebIJdyiLCrP+8sRPdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5482,7 +5482,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5frUnmanKNdJI9gH/YMHWoLCEUopD/3Ig/zD8xVWzyshzTsBE01DU6J2shqA4MNS48hEgK0Iv2qItA4UVcw85w==" saltValue="abSZYjXZFEGDS4FwIMhZUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iFcsEom3LG5H5TuOLeIXwbmtxR8/pP7PrbOL+mrcC3Ne//gn/2D53YaY9Fuc48xGCrXbWMuuSayaE/zHuyOOHw==" saltValue="1AAqy92G+3TYZ/K9kkg2fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7199,7 +7199,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="skPssYHjncK+hNk34TqQWkm0iqvrhBjdhLTbOc0+Rx4gLd5XL/MJR9bPk0ulD0Mdgk5aK2xC4c3ziCFut/BAAg==" saltValue="3qHo8rp/2oF8RqQxBKEmZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GxXpHG52O6JwCyU7Jy9j0h5+LtHH9MFt1Rx1VFzMoagSsRI0cKVH06Mtv3AMX+W4LVGnnkhp5prKKgOvxzaoxA==" saltValue="qzjd8sO/ghfAT68NTRFdOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7237,7 +7237,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HPgOSTS7qP1aGUxxclbI6d4So5Hn+n9faOVGl2Sg8k3zKNGZ4JtslxsZdU+1+7enBymSNyInr4QKdUISGA8Ong==" saltValue="gJVk7YBw/tzfyePQYIZKwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="biJoK7XN/adp5AwNJ2eklLJ91L6VHpMW+ckS1OIE//gh3ZhjABY3+dMTCXGtuVDXGou3a2ludTAJ8BrVGxO+KQ==" saltValue="FDv6itvTf49tAJo0lHCLZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7445,7 +7445,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aX88NtPWmFNIMO/IDE506hydNXBrZGioONONEWNpiMRvCRCJWY62aWjeZBHW7SvMybRC9vWyo7VQXZGydmwfSg==" saltValue="uyMfgcGbUJ0pO5xM+OpEIw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="efBi2FwaH0m61AVs7ioqVvxEiqMqoXRz0Q2bOUiAHeIjJo/pmDkwC7cCxxUtIuLD7DQ4y+YPh8e3x/usDH4KUA==" saltValue="9C8GDjuEVLbVUTmush7dow==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9216,7 +9216,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wbQE44dxMBHk0GAiQInTSdzbFoQXWW+Vj4zcC288xsX7EVRj1KRdjb3W4lqFEJzlvr7vz8391LOwSh/hsZSTDw==" saltValue="mgVzuoiJ4x+t80gMla2j3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4L4B+JSI2Cf0DQ4IQrUscXkRuVBPdXGd49g0zkwCWnn76DqWAMOSCbKQTLhVNEw3VCkfuj+T1gC/emvx9JCBXw==" saltValue="l6rlT5QOE2BS06EKA/urWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9962,7 +9962,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DQnv3F1eyCYVkmjApUI1Pt7++4A/Jh8h5BQ10OjtbMzwGf31HP6RqrVmZcs5o80jFfRpMmB8fOQkdHzD4bDS3g==" saltValue="DKAAFg7x+M+Z0pm5sQizoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ndvW9PmngrGc8ARIz69HkewkVyj2gz8zVGtyDwF9Y5TMhAY8q0oI2TycHWxUyDszhsoqnZouBHE2O2BoN7CqeA==" saltValue="f1I/NvHwswxchXEXEJZLvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10336,7 +10336,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tTvoasjm7ir08yOxulWNqjCvtY9xl5AdbWoZffdwRnvLRKAE0VatvSVsnfIm3VMJzHvVLcRtVu2QCrzzqRPwzw==" saltValue="pJNg8tu7SK4uhqDPzZbk+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zHAdCJM+HyTzmRqqmJGKjd9JTmMsjoCNgjkGtGMMQ/Am3kpsscWmUjtxkvaG8HiSuvGKAi8b7mSPcMptk3x3Hg==" saltValue="VY9YmsglGrhOkVa+oM/GwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11457,7 +11457,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uGXJIuCnT1CV1NEOwLhOyB+JawzTPtirKxoe8N7mOt1bl/Pl9aaw2hFRrjZ9dZfTS41/5Rittuc1s+Mv2W5bRg==" saltValue="sw7+RaZcIRZTz+7qzChxNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8cinuz/TZgH6SMjhORGlHyVmkbpwFRmIf7RaSAqffYMVCbvn74FrFjzVz5uf8EmGvlRPsDolxOYVh2RgLR6KBg==" saltValue="s/zgciNXXg7EWRtBnfKlng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12425,7 +12425,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SMahqar6VVyy50ZGTM795fhT85LfUVekFAU/8R42ejdTgwcIo6VwToZ1bzSGRMk9oHmkDISqWa+J1c5O21m8kQ==" saltValue="/mHHfiriWbnUMedNr5zjgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dzEnJpbf/i8tr/2efzRfCmgzFccgblyz+a6wbTbKMvZGKFcwPb/HPf9zIbWkGDSBdk6A68whFemwt0Uz3L2Rig==" saltValue="tv9DK7ZXnuyVrQS1zxVKLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12827,7 +12827,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p+BPv+RqGdCrKXXKn7752lYYC0LjfkOwe/Yo66QuI7y+v3Dm7YJ9+j/gTJu+2YU14yaZxzbnJVeU4Tz0pU66Cg==" saltValue="Khe3yuRbq26ojc3XI833BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U0nG4sDngZxXhk5A5eapIyl1ypu9bw6yelQCoqyWGkVy1aEPcl6nRhYLWwh5zMJstXccFscbjwML92w1v8/W4A==" saltValue="eN3cAps87oNjlg5AYUbDmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15730,7 +15730,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wjMnN4/IF1M40+671dDPG/YV5vcO9YWOwEDJM6SkOxiwVforN7epYdYU7ejQe4rgqcdetyrPr4cAdCeQYB87SQ==" saltValue="ve4dGUO3wtrdqipZOXLHhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EZzqvmuINo1GImsAA8u3T1NPWVOBzysXnc/yfnF0gfZqtLAzyo6iPipMShGZ2lOvFHBYfIXa7yC7XTAaKKFRww==" saltValue="5IIVRlhIObJiIxHJYUinGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16039,7 +16039,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sc3/j9tNh7shx0ayteYdZ43zApev4cLQFtMh2XL1ajKKm96NNX1TRFGUWtIDr2zEUmLVCq1fdoa3rvCZq2Qqtw==" saltValue="RSIx9zLKlVF465sBeDatVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qwzN+dU0T+zPiEO69ZJbt7kz1a7jcElqJB8Ov/sQdQIGvat+WsaM9vJPo125vlODMpemDNLwxwky+rYHtSXxEg==" saltValue="3+vjsX4isZm8FYZDQuXtTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16319,7 +16319,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j3mHv1lWUktKjYzYQrk4LHuyq/X4CReJq+CA5cGHj/cQGDsJgcja7vmpE1U0LVfFcuqOsBiBxS8+SbC5NXdpwA==" saltValue="X6fiDQlNkx+fNwJYQ7Hnww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5RgNvKvCn2m95KfliPFNlF4aO9qlsFBkQDuhnzemsn5KXj0wVlIxG0mqRkJcZ1YuStH2eRLlXcJuU0Mx62gH+Q==" saltValue="HXjZf1t+GtLTkPz79mCaOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17115,7 +17115,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="A9cUz2Uw/f9v1b0xFss3DaDGLdLxH1xb99lDotBvxuB9oM0ph+v9D5MyGjfVTgG9r52CXM8EKyOKwqt+fzOLsA==" saltValue="YOqLOt4SbDQDP8dYdMp2rg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vIZuD5coAnWOMG9SWIk2oeS2Hnz0aUd+N+DS6mVlbBe4lT6zZO+FzKXAHLf+JSXAbAI/QyQaga9ERrBKr6WbHQ==" saltValue="/BeFO/NHlG2LauSQ2pY32Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17216,7 +17216,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="G/4dFaA1hlfrVYO6ONAMlIdwYSqmjotxsSRFicjmixDSLG8eLvAoZKxOfYjj1MXbsSeyaw2uWZvM9N7PkQyKsA==" saltValue="cwe89g9daCtHuOM4SbaV2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tkylp/Rik+7/6HhvRsSFfSatBx3UZUXysZ2RNQY6cZKbpbw2HNarQVNUdg0Xz17EXSTr9GrFsuYOe096bHAe+g==" saltValue="0yLf9C6M9y9Mr7OBwhP2BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18346,7 +18346,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kDZ2GTkAUJjzXfj/nX5e5iQircBMSJHJmTX4KPB/OKMjaHKT81vwTW7SczNeaBxbaYiIzVCELj0CyjWQzsm6HQ==" saltValue="BWznymsK6Cu5nEVO646aXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DO5tvLv4vf63ws5AE8GlST/LK4/d7mLtPRY4sPpaVDfz5dS8+bs2kMOO7YFo85E2tIop/nVTfLVIXneI2IzGyw==" saltValue="2KlkgQw2my4z305EJHZcyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18523,7 +18523,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X8gbTH361ft267HPLeB0ETy47Shk8r6uiJZ97D337PzYv7oh110ro2WyB+yHgY0P0zyVnnxoATVC/bIPOCx43Q==" saltValue="Y5C0QgfO98bdPUmSSzbYzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wlecsOO8lgZ8hYmlgEmW1FUOhH+GlfUk9JxxNGupelhKgShEueyUB/b37HhutzO3oifV/jrsqA60rmsdt50mvw==" saltValue="QLRkHybP+e38YqRh04NMDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18854,7 +18854,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h7WUG/gOZTmfls6dDWQdJBfdt55ep8EA2WW7RqnSTeQxvEf995flcYYtACqf58g5rVx1sQ4zRf+ptsIxs33myg==" saltValue="xFpokmMQQ9ah4hyR3sL39A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ASDjAJ7lrTy8nNSNzb/WslDOAJ9zAkk81IzVRX3Yu50QXaX6rh2TRZzg6Xmgk+Z1nyrGF8Ffh0bOlNz8T6sPfw==" saltValue="m9YF47evnJi0CEGpAGnDsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19215,7 +19215,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d4NwTbViCcAlzC16+Wm3Mz/ODDEtm2uQc96K7wMx6l48i7pLJqqXYmWyE6REk4pgwXwZMqN6ayxjoI4Y/s3VYQ==" saltValue="uhoFo0bwlh2TO5IxKX2fpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="73IGeHj7I3FW4Pymi5FnV2MGlj5pxAtzv+goONqLscbdfGQDIYdW/Pvb4ewz7BaJBF2JBkbL8hVpPEUKCzIgaA==" saltValue="752yj/crs2Mel3BSJI0XVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19322,7 +19322,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lq6lbUEn0eV4RBqucO1kIhpV/kTbvFeks5ePBJLv+fWuFyFxD4Uakn6w0wDfpCWakvkJjiEmEc9AM0PPsjHl8w==" saltValue="WeuVRvEo1bCAMeJ8F1abZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gpt82G6MG46ivyOQb0JsWLJ0TSbocR/UnjUTbPsO1RV7aaCt9JEPoEDXFDVcCQEr5ILxvkPjYDNBc5NwF708gA==" saltValue="LsxraFSO1xD+G6EKQg6RlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19638,7 +19638,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MEtqRvE/hEtaxdTqtJCAvF5+gXz7/gu7NbRC7aFoh81j8/swe0qF2UbvnPUgCxnHhncBkmFqJtq6OTOGAH0L6w==" saltValue="rnBJq0P9bLccenony4W8xw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ufn4ZQkFDde9CKgFVVGs9EnJEeYfVK4T/uibpXKgkhbc3JE84N1N5eQ9FqzeBzNDLbB0gaAUTPxlAskgi1IZSw==" saltValue="7nRWHTslUlRBv6ENUvUlzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19914,7 +19914,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SxGAUvYwqwuPfbTZHQJ3MYxNkWwAHvaHa4JH04mXnrgHI/YhHex5g57+Ya2QrGMIL2+ZXYRQzk8u1urYOh1J0A==" saltValue="eFyxUD1vyLiReyp4AhWtHA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9uKh2/KtmwDI9bIEcfOvL62S9v6eZ4VCK3oGJoVAVePZiVMLqgV9KvUJQ8pD97WSnB/Rwpteh+s8wHGU2UydOg==" saltValue="HiBbO/TopFru6r8nUvS60g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -19978,7 +19978,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4QKP37ch+XtmEOeVbsZGuGH43757zI0nNrS4sv8VDo4pIEqnjRfXNKSLh2LV3VwScsMq94h1II7tE8Gj7MFsuA==" saltValue="+oGDP5m2mpoKdOkiu31pnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6vG9QC7WTf/fg7zUowRWF0xwulc53AO8CEuGqkj+Y1oeFuGryAXngatzImX2Vpl7SbySfJNyUTi0bigxjNBnLA==" saltValue="D7jUPiISZp+pkrYQ2kldWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20656,7 +20656,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tU2ZRv04ww5dAjDkhOA1bn/7WxB3DIu3EulRj2DtKynqVRQlZ/sqswyTY3uwpQjeuAfIiDcNMJJY5eaLdgv0Mw==" saltValue="xSRQhAam4k3bsmCAk09glQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vadamgGWaHnZ7nTA3feUR3HaKA44vNTuQumyWqpNCx27Dke0whbpFZIF/s3UT7nrPQGwtaWv1Af3n3ylVRYeHw==" saltValue="OdKiYYRjOp5PfCUIKd4Puw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D28DB7-8606-45C5-96E1-5EC92250CC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8817EEBE-6264-4F92-859C-56D11D24EDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="268">
   <si>
     <t>Condition</t>
   </si>
@@ -489,9 +489,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Wasting</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -657,9 +654,6 @@
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
-    <t>Année</t>
-  </si>
-  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
@@ -684,6 +678,9 @@
     <t>FAP non enceintes</t>
   </si>
   <si>
+    <t>année</t>
+  </si>
+  <si>
     <t>Néonatal</t>
   </si>
   <si>
@@ -1056,135 +1053,141 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
+    <t>Efficacité</t>
+  </si>
+  <si>
+    <t>Retard de croissance</t>
+  </si>
+  <si>
+    <t>Prévention de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Traitement de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Résultats des naissances</t>
+  </si>
+  <si>
+    <t>Tranche d'âge</t>
+  </si>
+  <si>
+    <t>Comportement</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour le retard de croissance</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'alimentation complémetaire</t>
+  </si>
+  <si>
+    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
+  </si>
+  <si>
+    <t>Risque relatif par espacement des naissances</t>
+  </si>
+  <si>
+    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
+  </si>
+  <si>
+    <t>Rapport des cote pour des conditions</t>
+  </si>
+  <si>
+    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+  </si>
+  <si>
+    <t>MM (Score-WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>MAS (Score-WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Risques relatifs des causes du décès néonatales</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+  </si>
+  <si>
+    <t>Cause du décès</t>
+  </si>
+  <si>
+    <t>Niveau HAZ</t>
+  </si>
+  <si>
+    <t>Léger</t>
+  </si>
+  <si>
+    <t>Modéré</t>
+  </si>
+  <si>
+    <t>Élevé</t>
+  </si>
+  <si>
+    <t>Niveau WHZ</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par condition anémique</t>
+  </si>
+  <si>
+    <t>Condition anémique</t>
+  </si>
+  <si>
+    <t>Pas anémique</t>
+  </si>
+  <si>
+    <t>Anémique</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+  </si>
+  <si>
+    <t>Amaigrissement</t>
+  </si>
+  <si>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
+  </si>
+  <si>
+    <t>Diarrhée (par épisode supplémentaire)</t>
+  </si>
+  <si>
+    <t>Par programme</t>
+  </si>
+  <si>
+    <t>Rapports des cotes supplémentaires</t>
+  </si>
+  <si>
+    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
+  </si>
+  <si>
+    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
+  </si>
+  <si>
     <t>efficacité</t>
   </si>
   <si>
-    <t>Retard de croissance</t>
-  </si>
-  <si>
-    <t>Prévention de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Traitement de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Résultats des naissances</t>
-  </si>
-  <si>
-    <t>Tranche d'âge</t>
-  </si>
-  <si>
-    <t>Comportement</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour le retard de croissance</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'alimentation complémetaire</t>
-  </si>
-  <si>
-    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
-  </si>
-  <si>
-    <t>Risque relatif par espacement des naissances</t>
-  </si>
-  <si>
-    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
-  </si>
-  <si>
-    <t>Rapport des cote pour des conditions</t>
-  </si>
-  <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
-  </si>
-  <si>
-    <t>MM (Score-WHZ entre -3 et -2)</t>
-  </si>
-  <si>
-    <t>MAS (Score-WHZ &lt; -3)</t>
-  </si>
-  <si>
-    <t>Risques relatifs des causes du décès néonatales</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
-  </si>
-  <si>
-    <t>Cause du décès</t>
-  </si>
-  <si>
-    <t>Niveau HAZ</t>
-  </si>
-  <si>
-    <t>Léger</t>
-  </si>
-  <si>
-    <t>Modéré</t>
-  </si>
-  <si>
-    <t>Élevé</t>
-  </si>
-  <si>
-    <t>Niveau WHZ</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par condition anémique</t>
-  </si>
-  <si>
-    <t>Condition anémique</t>
-  </si>
-  <si>
-    <t>Pas anémique</t>
-  </si>
-  <si>
-    <t>Anémique</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
-  </si>
-  <si>
-    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
-  </si>
-  <si>
-    <t>Diarrhée (par épisode supplémentaire)</t>
-  </si>
-  <si>
-    <t>Par programme</t>
-  </si>
-  <si>
-    <t>Rapports des cotes supplémentaires</t>
-  </si>
-  <si>
-    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
-  </si>
-  <si>
-    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
-  </si>
-  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1201,6 +1204,9 @@
   </si>
   <si>
     <t>Condition ciblée</t>
+  </si>
+  <si>
+    <t>Fraction touchée</t>
   </si>
   <si>
     <t>Efficacité à prévenir une mort</t>
@@ -4747,7 +4753,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
@@ -4758,7 +4764,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4766,7 +4772,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4775,7 +4781,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4788,48 +4794,48 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="65"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="66"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="67"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="66"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="66"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="66"/>
     </row>
@@ -4838,38 +4844,38 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="67"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="67"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="67"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="67"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4881,30 +4887,30 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="67"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="67"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="67"/>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="67"/>
     </row>
@@ -4914,38 +4920,38 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="69"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="69"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="69"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="69"/>
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4955,25 +4961,25 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="71"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="17"/>
@@ -4981,7 +4987,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="17"/>
@@ -4989,19 +4995,19 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="71"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="67"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="71"/>
     </row>
@@ -5010,27 +5016,27 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="67"/>
       <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="67"/>
       <c r="D47" s="17"/>
@@ -5038,7 +5044,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5052,67 +5058,67 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="72"/>
       <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="72"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="72"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="72"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="72"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="66"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="66"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" s="66"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="66"/>
     </row>
@@ -5120,7 +5126,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0roYzhzP/jkva1mApTn+3rTbFy/VOYQDGe0IgBA30z3B1lbFvB7zGxWbGq66BVlstkjVn+UwU8mHCP5+a5Wg0A==" saltValue="djwHnFB18oqk6a+ipEg2+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QsHIJAnoqvoHdLquBzeFykydS9u1eAFxzKJ0HHFTfshLCl7b7sAJfwTfA/mOs72+gsRFD2dxxI+zYlZU0Net5g==" saltValue="xnE9h0eEVx/w0Qrku1J9vg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5145,12 +5151,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -5160,32 +5166,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5219,7 +5225,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o9/+OFE24i92X6SU/g0UyR2AQAxIOYzYmLXkobRK63m4XOSgWvH9rXqqT72rNnl/5Z2jdoY39k1drF89gQQMSA==" saltValue="fBCkeiaK0vjKw7H3x6UmDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aX99aIjGjdhvkfv/VLsyJ0utEE0wHklYhrZELDTy4T6+BimmJZ5W5eLHOg2xAT0sXNpCCqZ4kfo39tdYZJj5OA==" saltValue="JFdBHzLPfoFiacQRNSM61g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5243,24 +5249,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>112</v>
-      </c>
-      <c r="F1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5285,7 +5291,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5310,7 +5316,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5334,7 +5340,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v0pZCvz+oRSKHNP0giutOANN3mx0YG1I8vmuGqOYyB64kohIz8HnISiv4VBQs1BpTJAfA8kKrnbogHdAh6xMdA==" saltValue="MhOeebIJdyiLCrP+8sRPdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FzrZnQb69zsQ/Wwgd+o9vYthjNSiErOCqCSqv0mWDz7qYuFxLoeuDldQ/kaLuyXZeIms51udec4JA/A+ck+BWg==" saltValue="Xd0JYBqH0opwyAVBT0fN+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5361,48 +5367,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>208</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5482,7 +5488,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iFcsEom3LG5H5TuOLeIXwbmtxR8/pP7PrbOL+mrcC3Ne//gn/2D53YaY9Fuc48xGCrXbWMuuSayaE/zHuyOOHw==" saltValue="1AAqy92G+3TYZ/K9kkg2fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pZZtZzwzE6LfjOcQ6xK9yGICPHFLBv4N+FLXxBuCUxe024dedNBT7ym6fmS4yAIx8wwyD5iFaHpeyJgDJeCsJA==" saltValue="zGgubyyTzkF022X+NDVk5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5514,57 +5520,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5612,7 +5618,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5656,7 +5662,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5700,7 +5706,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5746,7 +5752,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5793,7 +5799,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5842,7 +5848,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5888,7 +5894,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -5936,7 +5942,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -5980,7 +5986,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6029,7 +6035,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6076,10 +6082,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6128,7 +6134,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6173,7 +6179,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6222,7 +6228,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6318,7 +6324,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6362,7 +6368,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6406,7 +6412,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6457,10 +6463,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6508,7 +6514,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6556,7 +6562,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6604,7 +6610,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6652,7 +6658,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6707,10 +6713,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6765,7 +6771,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6820,7 +6826,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6875,7 +6881,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -6919,7 +6925,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -6976,7 +6982,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7021,7 +7027,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7065,7 +7071,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7109,7 +7115,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7153,7 +7159,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7199,7 +7205,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GxXpHG52O6JwCyU7Jy9j0h5+LtHH9MFt1Rx1VFzMoagSsRI0cKVH06Mtv3AMX+W4LVGnnkhp5prKKgOvxzaoxA==" saltValue="qzjd8sO/ghfAT68NTRFdOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EDgC8HVLWJSCRCTnt2GilLsN/Il1EYqPYMivc34VjaT0rMrV9E467Lie53CRzCazNoBP2yZMXOm/gU03OKv8oQ==" saltValue="I7FPSnSR0Q/PGG6vcqrKRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7218,26 +7224,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="biJoK7XN/adp5AwNJ2eklLJ91L6VHpMW+ckS1OIE//gh3ZhjABY3+dMTCXGtuVDXGou3a2ludTAJ8BrVGxO+KQ==" saltValue="FDv6itvTf49tAJo0lHCLZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2d2bnvezrHFGCpa8afVYhIa7/4/IXasEvxk9rpdP3gdmNt60yo5ssOtqLMcQ2V/x+eOp/2iQ0DITbB+o0bdVig==" saltValue="M3M9Nr5AzSSg79RiFGcJig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7267,7 +7273,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>15</v>
@@ -7445,7 +7451,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="efBi2FwaH0m61AVs7ioqVvxEiqMqoXRz0Q2bOUiAHeIjJo/pmDkwC7cCxxUtIuLD7DQ4y+YPh8e3x/usDH4KUA==" saltValue="9C8GDjuEVLbVUTmush7dow==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xeM8IBDeP6H3+O2xbqgLyx/0rBVLd7fugJHqWTCB/9CGMlYsPR8EX4JCInb41ub7Xt5X/xeWMJCNYuvg3XkqSQ==" saltValue="Imm1eI3OKLwp9rdaCLB4nA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7478,57 +7484,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="56" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>139</v>
-      </c>
       <c r="L1" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -7572,7 +7578,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -7748,7 +7754,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="133">
         <v>1</v>
@@ -7792,7 +7798,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -7836,7 +7842,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="133">
         <v>0</v>
@@ -7880,7 +7886,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="133">
         <v>1</v>
@@ -7924,7 +7930,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="133">
         <v>0</v>
@@ -7968,7 +7974,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -8012,7 +8018,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -8056,7 +8062,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="133">
         <v>1</v>
@@ -8100,7 +8106,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="133">
         <v>0</v>
@@ -8160,10 +8166,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="133">
         <v>0</v>
@@ -8208,7 +8214,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -8252,7 +8258,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -8296,7 +8302,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -8384,7 +8390,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -8428,7 +8434,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="133">
         <v>0</v>
@@ -8472,7 +8478,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="133">
         <v>0</v>
@@ -8532,10 +8538,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="133">
         <v>0</v>
@@ -8580,7 +8586,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -8625,7 +8631,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -8669,7 +8675,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -8713,7 +8719,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -8773,10 +8779,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="133">
         <v>1</v>
@@ -8820,7 +8826,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -8864,7 +8870,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -8908,7 +8914,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -8952,7 +8958,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="133">
         <v>1</v>
@@ -8997,7 +9003,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="133">
         <v>1</v>
@@ -9041,7 +9047,7 @@
     </row>
     <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="133">
         <v>1</v>
@@ -9085,7 +9091,7 @@
     </row>
     <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="133">
         <v>1</v>
@@ -9129,7 +9135,7 @@
     </row>
     <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="133">
         <v>1</v>
@@ -9173,7 +9179,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="133">
         <v>1</v>
@@ -9216,7 +9222,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4L4B+JSI2Cf0DQ4IQrUscXkRuVBPdXGd49g0zkwCWnn76DqWAMOSCbKQTLhVNEw3VCkfuj+T1gC/emvx9JCBXw==" saltValue="l6rlT5QOE2BS06EKA/urWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jBK46FVkZjIDefjBLw8KIfRZHsd5LMQtgkuYasjLyY343Ob2Wmwn479Q8YOkGmpntupCdHq5m9mCLGRO8NNDwQ==" saltValue="ibAhCVaHCejwd7NF8IRHFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9249,42 +9255,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -9301,7 +9307,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -9318,7 +9324,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
@@ -9335,7 +9341,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
@@ -9352,7 +9358,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -9371,7 +9377,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
@@ -9390,7 +9396,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
@@ -9409,7 +9415,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
@@ -9428,7 +9434,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
@@ -9445,7 +9451,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -9462,7 +9468,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
@@ -9479,7 +9485,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
@@ -9496,7 +9502,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
@@ -9515,7 +9521,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
@@ -9555,7 +9561,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
@@ -9629,7 +9635,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -9648,7 +9654,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="133" t="s">
         <v>21</v>
@@ -9669,7 +9675,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
@@ -9688,7 +9694,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="133"/>
       <c r="C24" s="133"/>
@@ -9705,7 +9711,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="133"/>
       <c r="C25" s="133"/>
@@ -9722,7 +9728,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
@@ -9739,7 +9745,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
@@ -9758,7 +9764,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="133"/>
@@ -9775,7 +9781,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="133" t="s">
         <v>21</v>
@@ -9794,7 +9800,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="133"/>
       <c r="C30" s="133"/>
@@ -9811,7 +9817,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -9830,7 +9836,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="133"/>
       <c r="C32" s="133"/>
@@ -9849,7 +9855,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="133"/>
       <c r="C33" s="133"/>
@@ -9868,7 +9874,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="133"/>
@@ -9887,7 +9893,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="133"/>
       <c r="C35" s="133"/>
@@ -9906,7 +9912,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="133"/>
       <c r="C36" s="133"/>
@@ -9925,7 +9931,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="133"/>
       <c r="C37" s="133"/>
@@ -9942,7 +9948,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="133" t="s">
         <v>21</v>
@@ -9962,7 +9968,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ndvW9PmngrGc8ARIz69HkewkVyj2gz8zVGtyDwF9Y5TMhAY8q0oI2TycHWxUyDszhsoqnZouBHE2O2BoN7CqeA==" saltValue="f1I/NvHwswxchXEXEJZLvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IbAiW4+kYNs20cBqi6B/4316YpHWXUv1OSp5oHxbtKmbXeqBfoK+hW/2xxkbxPKcYkKWSGwfA9hVhS9XnW6mwA==" saltValue="LKsQS3guhyRsPjIHJkM8Jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9995,42 +10001,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="133" t="s">
         <v>21</v>
@@ -10059,7 +10065,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="133" t="s">
         <v>21</v>
@@ -10088,7 +10094,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="133" t="s">
         <v>21</v>
@@ -10117,7 +10123,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="133" t="s">
         <v>21</v>
@@ -10146,7 +10152,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="133" t="s">
         <v>21</v>
@@ -10175,7 +10181,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
@@ -10196,7 +10202,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
@@ -10217,7 +10223,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
@@ -10238,7 +10244,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
@@ -10259,7 +10265,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -10280,7 +10286,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
@@ -10299,7 +10305,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
@@ -10318,7 +10324,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
@@ -10336,7 +10342,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zHAdCJM+HyTzmRqqmJGKjd9JTmMsjoCNgjkGtGMMQ/Am3kpsscWmUjtxkvaG8HiSuvGKAi8b7mSPcMptk3x3Hg==" saltValue="VY9YmsglGrhOkVa+oM/GwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SMl5Y4l/NzSrBhafdX0kkIgnkyPYVHNhVs5ELvu+K+tPr0VJ/osIdp/VN+4QPzJ6m1QaKxS2wIf8IlK0TYc9sA==" saltValue="Uo1cweKPDBaOhXbKVOUoZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10362,39 +10368,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="94" t="s">
         <v>112</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -10415,7 +10421,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -10437,7 +10443,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -10458,10 +10464,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -10483,7 +10489,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -10504,7 +10510,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -10524,10 +10530,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -10548,7 +10554,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -10569,7 +10575,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -10589,10 +10595,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -10613,7 +10619,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -10634,7 +10640,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -10654,10 +10660,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -10678,7 +10684,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -10699,7 +10705,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -10719,10 +10725,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -10749,13 +10755,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -10776,7 +10782,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -10797,7 +10803,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -10817,10 +10823,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -10841,7 +10847,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -10862,7 +10868,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -10882,10 +10888,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -10906,7 +10912,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -10927,7 +10933,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -10947,10 +10953,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -10971,7 +10977,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -10992,7 +10998,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -11012,10 +11018,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -11036,7 +11042,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -11057,7 +11063,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -11077,10 +11083,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -11107,13 +11113,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -11134,7 +11140,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -11155,7 +11161,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -11175,10 +11181,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -11199,7 +11205,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -11220,7 +11226,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -11240,10 +11246,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -11264,7 +11270,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -11285,7 +11291,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -11305,10 +11311,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -11329,7 +11335,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -11350,7 +11356,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -11370,10 +11376,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -11394,7 +11400,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -11415,7 +11421,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -11435,10 +11441,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -11457,7 +11463,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8cinuz/TZgH6SMjhORGlHyVmkbpwFRmIf7RaSAqffYMVCbvn74FrFjzVz5uf8EmGvlRPsDolxOYVh2RgLR6KBg==" saltValue="s/zgciNXXg7EWRtBnfKlng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VKfX3URC986yNeEEWTBleEhsN2e8LCkGgRuBFQvCZ1Ifpyz922FtQoKIx6W3tiiCpCQHsTugmO+/iHW/uXsyqw==" saltValue="INgcHHGwYgVBr6VLDoBSNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11500,31 +11506,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12425,7 +12431,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dzEnJpbf/i8tr/2efzRfCmgzFccgblyz+a6wbTbKMvZGKFcwPb/HPf9zIbWkGDSBdk6A68whFemwt0Uz3L2Rig==" saltValue="tv9DK7ZXnuyVrQS1zxVKLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AtXdwFbKR0E9HgXVgNqWnM+riYrI0kagvFTRhQpZN8xkRFntwag9pbNDOOOaMVDCpAbMY0KL6ju0LIIdVRlSqQ==" saltValue="1O9eeu8UNyDxt2qNiSahzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12459,27 +12465,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -12489,7 +12495,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12506,7 +12512,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12523,7 +12529,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12540,7 +12546,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -12563,7 +12569,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -12588,7 +12594,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -12598,7 +12604,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -12608,7 +12614,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -12626,7 +12632,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -12644,7 +12650,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -12671,7 +12677,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -12682,7 +12688,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -12700,7 +12706,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -12718,7 +12724,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -12736,7 +12742,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -12754,7 +12760,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -12771,7 +12777,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -12788,7 +12794,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -12805,7 +12811,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -12827,7 +12833,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U0nG4sDngZxXhk5A5eapIyl1ypu9bw6yelQCoqyWGkVy1aEPcl6nRhYLWwh5zMJstXccFscbjwML92w1v8/W4A==" saltValue="eN3cAps87oNjlg5AYUbDmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DKcvvFMu1bF6GvbACs1XBlUX+fWfixlhA+iDM885BiNipFso+x7IumGi4dRge6xYIiJiduPlxTSLhzGRkrkJSg==" saltValue="+VQsDvCq5525XTh9eW3zPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -12857,33 +12863,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="119" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="119" t="s">
-        <v>236</v>
-      </c>
       <c r="D2" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="G2" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="H2" s="103" t="s">
         <v>112</v>
-      </c>
-      <c r="H2" s="103" t="s">
-        <v>113</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -12897,7 +12903,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>25</v>
@@ -12928,7 +12934,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -12956,7 +12962,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -12984,7 +12990,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -13012,7 +13018,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>25</v>
@@ -13043,7 +13049,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -13071,7 +13077,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -13099,7 +13105,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -13127,7 +13133,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>25</v>
@@ -13158,7 +13164,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -13186,7 +13192,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -13214,7 +13220,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -13242,7 +13248,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>25</v>
@@ -13273,7 +13279,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -13301,7 +13307,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -13329,7 +13335,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -13357,7 +13363,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>25</v>
@@ -13388,7 +13394,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -13416,7 +13422,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -13444,7 +13450,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -13472,7 +13478,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>25</v>
@@ -13503,7 +13509,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -13531,7 +13537,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -13559,7 +13565,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -13587,33 +13593,33 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="G29" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="H29" s="103" t="s">
         <v>112</v>
-      </c>
-      <c r="H29" s="103" t="s">
-        <v>113</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -13627,7 +13633,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>25</v>
@@ -13658,7 +13664,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -13686,7 +13692,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -13714,7 +13720,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -13742,7 +13748,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>25</v>
@@ -13773,7 +13779,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -13801,7 +13807,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -13829,7 +13835,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -13857,7 +13863,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>25</v>
@@ -13888,7 +13894,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -13916,7 +13922,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -13944,7 +13950,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -13972,7 +13978,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>25</v>
@@ -14003,7 +14009,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -14031,7 +14037,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -14059,7 +14065,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -14087,7 +14093,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>25</v>
@@ -14118,7 +14124,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -14146,7 +14152,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -14174,7 +14180,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -14202,7 +14208,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>25</v>
@@ -14233,7 +14239,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -14261,7 +14267,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -14289,7 +14295,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -14321,30 +14327,30 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="123" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" s="123" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="103" t="s">
+      <c r="E56" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="103" t="s">
+      <c r="F56" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="103" t="s">
+      <c r="G56" s="103" t="s">
         <v>138</v>
-      </c>
-      <c r="G56" s="103" t="s">
-        <v>139</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -14355,10 +14361,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -14380,7 +14386,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -14402,10 +14408,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -14427,7 +14433,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -14449,10 +14455,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -14474,7 +14480,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -14500,33 +14506,33 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="103" t="s">
+      <c r="G65" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="103" t="s">
+      <c r="H65" s="124" t="s">
         <v>112</v>
-      </c>
-      <c r="H65" s="124" t="s">
-        <v>113</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -14540,10 +14546,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -14571,7 +14577,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -14599,7 +14605,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -14627,7 +14633,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -14655,10 +14661,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -14686,7 +14692,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -14714,7 +14720,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -14742,7 +14748,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -14770,10 +14776,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -14801,7 +14807,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -14829,7 +14835,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -14857,7 +14863,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -14885,10 +14891,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -14916,7 +14922,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -14944,7 +14950,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -14972,7 +14978,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -15000,10 +15006,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -15031,7 +15037,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -15059,7 +15065,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -15087,7 +15093,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -15115,10 +15121,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -15146,7 +15152,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -15174,7 +15180,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -15202,7 +15208,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -15230,10 +15236,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -15261,7 +15267,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -15289,7 +15295,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -15317,7 +15323,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -15345,10 +15351,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -15376,7 +15382,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -15404,7 +15410,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -15432,7 +15438,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -15460,10 +15466,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -15491,7 +15497,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -15519,7 +15525,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -15547,7 +15553,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -15575,33 +15581,33 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E104" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F104" s="103" t="s">
+      <c r="G104" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="G104" s="103" t="s">
+      <c r="H104" s="124" t="s">
         <v>112</v>
-      </c>
-      <c r="H104" s="124" t="s">
-        <v>113</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -15616,7 +15622,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -15644,7 +15650,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -15672,7 +15678,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -15700,7 +15706,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -15730,7 +15736,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EZzqvmuINo1GImsAA8u3T1NPWVOBzysXnc/yfnF0gfZqtLAzyo6iPipMShGZ2lOvFHBYfIXa7yC7XTAaKKFRww==" saltValue="5IIVRlhIObJiIxHJYUinGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CLEWQO8/hopnS1LlZX+aK4mZNnPY38LzgjIQjJyeGC2C19VnsHAdYamhr5IDOpFwktJBL149DMB3mdjNhGt1vA==" saltValue="U2bNNv66bqOY2+Y76wETrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15761,7 +15767,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15770,19 +15776,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15790,7 +15796,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -15833,7 +15839,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -15853,7 +15859,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -15873,7 +15879,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -15907,7 +15913,7 @@
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="136">
         <v>1.5</v>
@@ -15936,7 +15942,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B14" s="117" t="s">
         <v>253</v>
@@ -15980,7 +15986,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="113" t="s">
         <v>254</v>
@@ -16009,21 +16015,21 @@
     </row>
     <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="136">
         <v>1.52</v>
@@ -16039,7 +16045,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qwzN+dU0T+zPiEO69ZJbt7kz1a7jcElqJB8Ov/sQdQIGvat+WsaM9vJPo125vlODMpemDNLwxwky+rYHtSXxEg==" saltValue="3+vjsX4isZm8FYZDQuXtTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EoBdu6Ade9HhAmprMBaxs+4f6Lub0warrh2cz7Nj4kaRsvvFLwz/1RNreg9ZAinfKoNqUCemgaOQi9ax6G/58Q==" saltValue="YBX8MToPk8WR/IXkPamdsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16068,28 +16074,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="119" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="119" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -16107,7 +16113,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -16124,10 +16130,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C4" s="136">
         <v>0</v>
@@ -16145,7 +16151,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16162,10 +16168,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C6" s="136">
         <v>0</v>
@@ -16183,7 +16189,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16203,7 +16209,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -16221,7 +16227,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16238,10 +16244,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -16259,7 +16265,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16276,10 +16282,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C12" s="136">
         <v>0.08</v>
@@ -16297,7 +16303,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16319,7 +16325,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5RgNvKvCn2m95KfliPFNlF4aO9qlsFBkQDuhnzemsn5KXj0wVlIxG0mqRkJcZ1YuStH2eRLlXcJuU0Mx62gH+Q==" saltValue="HXjZf1t+GtLTkPz79mCaOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="khtnAEG8KJaQP4mbXJGgYcrbKh+wq2Ppp1EMJJyHQd1Xjkyg3o8p0zW1hhygcUzflMmuqVUzuaAm0f9TMKUg8A==" saltValue="vc4tUbj8jQl9nu7w8OnN/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16348,53 +16354,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="103" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="103" t="s">
-        <v>87</v>
-      </c>
       <c r="L1" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>138</v>
-      </c>
-      <c r="O1" s="103" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -16438,7 +16444,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -16482,7 +16488,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16526,7 +16532,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16570,7 +16576,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16614,7 +16620,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16658,7 +16664,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16746,7 +16752,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16790,7 +16796,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="136">
         <v>0.83</v>
@@ -16834,7 +16840,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16878,7 +16884,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="136">
         <v>1</v>
@@ -16922,13 +16928,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="136">
         <v>1</v>
@@ -16972,7 +16978,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -17016,7 +17022,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -17060,7 +17066,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -17115,7 +17121,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vIZuD5coAnWOMG9SWIk2oeS2Hnz0aUd+N+DS6mVlbBe4lT6zZO+FzKXAHLf+JSXAbAI/QyQaga9ERrBKr6WbHQ==" saltValue="/BeFO/NHlG2LauSQ2pY32Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F8CdQXiV+jWPCaZKaRj93aFavbmET0uj+GtexOlb33NQey+O4WLFkN3F5aJ1Rv7AqvAzrVnp3EyglP+G2IykCA==" saltValue="LiRCIRxxc2T3qkbMMfu/KQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17144,29 +17150,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>112</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -17186,7 +17192,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -17197,7 +17203,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -17216,7 +17222,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tkylp/Rik+7/6HhvRsSFfSatBx3UZUXysZ2RNQY6cZKbpbw2HNarQVNUdg0Xz17EXSTr9GrFsuYOe096bHAe+g==" saltValue="0yLf9C6M9y9Mr7OBwhP2BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TQZwh6SjQmi0z4ktiIgvMPF+ugMXh9Gt1B5QSEEW2Sl+Atl33s0AHjy19Hi6HQitZc+ltH20BhuDGejEkvcwBw==" saltValue="pN3AhiXmaPYlBG9I9hCDcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17248,39 +17254,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>112</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -17300,7 +17306,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -17320,7 +17326,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -17340,13 +17346,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -17366,7 +17372,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -17386,10 +17392,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -17409,7 +17415,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -17429,13 +17435,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -17455,7 +17461,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -17475,10 +17481,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -17498,7 +17504,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -17518,13 +17524,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -17544,7 +17550,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -17565,10 +17571,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -17589,7 +17595,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -17610,13 +17616,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -17637,7 +17643,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D18" s="136">
         <v>0.186</v>
@@ -17658,13 +17664,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -17684,7 +17690,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D20" s="136">
         <v>0.186</v>
@@ -17704,13 +17710,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -17730,7 +17736,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D22" s="136">
         <v>0.186</v>
@@ -17750,13 +17756,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -17776,7 +17782,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -17796,7 +17802,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -17816,13 +17822,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -17842,7 +17848,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -17862,7 +17868,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -17882,13 +17888,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -17908,7 +17914,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -17928,7 +17934,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -17948,13 +17954,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -17974,7 +17980,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -17994,7 +18000,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -18014,13 +18020,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18040,7 +18046,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -18060,7 +18066,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -18080,13 +18086,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -18106,7 +18112,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D39" s="136">
         <v>0.5</v>
@@ -18126,7 +18132,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D40" s="136">
         <v>0.65</v>
@@ -18146,10 +18152,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -18169,7 +18175,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D42" s="136">
         <v>0.5</v>
@@ -18189,7 +18195,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D43" s="136">
         <v>0.63</v>
@@ -18209,13 +18215,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -18235,7 +18241,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D45" s="136">
         <v>0.8</v>
@@ -18255,13 +18261,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -18281,7 +18287,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D47" s="136">
         <v>0.76</v>
@@ -18301,13 +18307,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -18327,7 +18333,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D49" s="136">
         <v>0.88</v>
@@ -18346,7 +18352,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DO5tvLv4vf63ws5AE8GlST/LK4/d7mLtPRY4sPpaVDfz5dS8+bs2kMOO7YFo85E2tIop/nVTfLVIXneI2IzGyw==" saltValue="2KlkgQw2my4z305EJHZcyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IBB2bNLGJI8W+ve7rFaOs4I90xw33Cuzq+FU8NChDhPT0Kz0pQT2tXNf3Fu0wPzQr3AsxlUXUkTHs2B0MMd9uw==" saltValue="wRwwGRn2Lo/CwoJjoyT0Gw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18374,35 +18380,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>138</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>139</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -18420,7 +18426,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -18438,13 +18444,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18463,7 +18469,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -18481,13 +18487,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18506,7 +18512,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D7" s="136">
         <v>0.59</v>
@@ -18523,7 +18529,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wlecsOO8lgZ8hYmlgEmW1FUOhH+GlfUk9JxxNGupelhKgShEueyUB/b37HhutzO3oifV/jrsqA60rmsdt50mvw==" saltValue="QLRkHybP+e38YqRh04NMDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YOVET3DQnxpLuTJIi8xMbp0F72285A1KMYovF/P8YqDUdB8lDu47Ec2ws1mUAznTLtewyFhq6mx1bVjc8jakBQ==" saltValue="6VsDpynVjq/hnsNKKYRSOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18559,13 +18565,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18574,55 +18580,55 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="75"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="75"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="75"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="75"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="75"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="75"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="75"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18642,28 +18648,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="75"/>
@@ -18672,7 +18678,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="75"/>
       <c r="D15" s="75"/>
@@ -18681,7 +18687,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="75"/>
       <c r="D16" s="75"/>
@@ -18690,7 +18696,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="75"/>
       <c r="D17" s="75"/>
@@ -18699,7 +18705,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="75"/>
@@ -18708,7 +18714,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="75"/>
@@ -18717,7 +18723,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="75"/>
@@ -18726,7 +18732,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="75"/>
@@ -18735,7 +18741,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="75"/>
@@ -18744,7 +18750,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -18776,13 +18782,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -18792,25 +18798,25 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="75"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="75"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="75"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="75"/>
     </row>
@@ -18822,31 +18828,31 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="75"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="75"/>
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="75"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="75"/>
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -18854,7 +18860,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ASDjAJ7lrTy8nNSNzb/WslDOAJ9zAkk81IzVRX3Yu50QXaX6rh2TRZzg6Xmgk+Z1nyrGF8Ffh0bOlNz8T6sPfw==" saltValue="m9YF47evnJi0CEGpAGnDsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2Mt2ux4kVqO55lshSSbDxMLhGUDQ42ViAsR/N4cgLAdyTTjO3ktx40jx1DtecyO2OicyDIPviECVzPyDh1Safg==" saltValue="H59jlR4kf/8bEg+RQfGqzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18884,30 +18890,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="C2" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -18933,7 +18939,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -18959,7 +18965,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -18970,7 +18976,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
@@ -18996,10 +19002,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="C8" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19024,7 +19030,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19049,7 +19055,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="77"/>
@@ -19059,7 +19065,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -19083,51 +19089,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="I13" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>139</v>
-      </c>
       <c r="L13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
@@ -19145,7 +19151,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19215,7 +19221,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="73IGeHj7I3FW4Pymi5FnV2MGlj5pxAtzv+goONqLscbdfGQDIYdW/Pvb4ewz7BaJBF2JBkbL8hVpPEUKCzIgaA==" saltValue="752yj/crs2Mel3BSJI0XVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LhDjOpezmr5uyjx7/1qEGMomwlj10eir63TYDLYJ3wD0rqCemgXLpuiYfDA2nPrhoTYHchSAeNflwyjNcUeyvg==" saltValue="K21fw4whZLaoCB9eVWpdvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19245,30 +19251,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>142</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>143</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -19278,7 +19284,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -19288,7 +19294,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -19298,7 +19304,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19322,7 +19328,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Gpt82G6MG46ivyOQb0JsWLJ0TSbocR/UnjUTbPsO1RV7aaCt9JEPoEDXFDVcCQEr5ILxvkPjYDNBc5NwF708gA==" saltValue="LsxraFSO1xD+G6EKQg6RlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6CPPqZ4oWrrVpXAlqaqlwgR/H6o7dJPNYy2S8V5jmSxUxNQHc5UFHeznVP4Ji6CVoMfZpy5lDafVZHHw4eS3/Q==" saltValue="IRyp0B8Aa4IEtQSCGqFtsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19348,7 +19354,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -19398,10 +19404,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="28">
         <f>(('Dist. de l''état nutritionnel'!C4+'Dist. de l''état nutritionnel'!C5)*(1/60)+('Dist. de l''état nutritionnel'!D4+'Dist. de l''état nutritionnel'!D5)*(5/60)+('Dist. de l''état nutritionnel'!E4+'Dist. de l''état nutritionnel'!E5)*(6/60)+('Dist. de l''état nutritionnel'!F4+'Dist. de l''état nutritionnel'!F5)*(12/60)+('Dist. de l''état nutritionnel'!G4+'Dist. de l''état nutritionnel'!G5)*(36/60))</f>
@@ -19428,10 +19434,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="28">
         <f>(('Dist. de l''état nutritionnel'!C10+'Dist. de l''état nutritionnel'!C11)*(1/60)+('Dist. de l''état nutritionnel'!D10+'Dist. de l''état nutritionnel'!D11)*(5/60)+('Dist. de l''état nutritionnel'!E10+'Dist. de l''état nutritionnel'!E11)*(6/60)+('Dist. de l''état nutritionnel'!F10+'Dist. de l''état nutritionnel'!F11)*(12/60)+('Dist. de l''état nutritionnel'!G10+'Dist. de l''état nutritionnel'!G11)*(36/60))</f>
@@ -19460,10 +19466,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="28">
         <f>'Dist. de l''état nutritionnel'!C15*(1/60)+'Dist. de l''état nutritionnel'!D15*(5/60)+'Dist. de l''état nutritionnel'!E15*(6/60)+'Dist. de l''état nutritionnel'!F15*(12/60)+'Dist. de l''état nutritionnel'!G15*(36/60)</f>
@@ -19487,7 +19493,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="28" t="e">
         <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19511,7 +19517,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="28" t="e">
         <f>('Dist. de l''état nutritionnel'!L15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!M15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!N15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!O15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19537,10 +19543,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="C10" s="28">
         <f>('Dist. l''allaitement maternel'!C2*(1/6)+'Dist. l''allaitement maternel'!D2*(5/6))</f>
@@ -19564,7 +19570,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="28">
         <f>(('Dist. l''allaitement maternel'!E4)*(6/18)+('Dist. l''allaitement maternel'!F4)*(12/18))</f>
@@ -19588,10 +19594,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="28">
         <f>U5_mortality/1000</f>
@@ -19615,7 +19621,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -19638,7 +19644,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ufn4ZQkFDde9CKgFVVGs9EnJEeYfVK4T/uibpXKgkhbc3JE84N1N5eQ9FqzeBzNDLbB0gaAUTPxlAskgi1IZSw==" saltValue="7nRWHTslUlRBv6ENUvUlzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hr2CHMbZmzv9O1AEGVRSyqs+J2E+g5VDN+fGaoWwGc0/bfMZzvqcWKJphIShbbvapjtlKsJ7gX6R4XDRM0ojMg==" saltValue="824v7lfpXhZ2V7Ibl3V6Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19665,19 +19671,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -19685,7 +19691,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -19697,7 +19703,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="80" t="s">
         <v>21</v>
@@ -19711,7 +19717,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="80" t="s">
         <v>21</v>
@@ -19725,7 +19731,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>21</v>
@@ -19739,7 +19745,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="80" t="s">
         <v>21</v>
@@ -19753,7 +19759,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -19764,7 +19770,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
@@ -19776,7 +19782,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -19788,7 +19794,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -19800,7 +19806,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -19812,7 +19818,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -19824,7 +19830,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
@@ -19837,7 +19843,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
@@ -19851,7 +19857,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
@@ -19865,7 +19871,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
@@ -19879,7 +19885,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
@@ -19893,7 +19899,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
@@ -19907,14 +19913,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9uKh2/KtmwDI9bIEcfOvL62S9v6eZ4VCK3oGJoVAVePZiVMLqgV9KvUJQ8pD97WSnB/Rwpteh+s8wHGU2UydOg==" saltValue="HiBbO/TopFru6r8nUvS60g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="16es/CtXu0YtGrZPjn2mTn+lM59K6pRJ6wYvrrz84c9Q5JFEicoIxJStXPiLYUasZVjFlEOLLbxcvsDImkAPvg==" saltValue="UZI4X3D111XwhFmFsnYxKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -19944,41 +19950,41 @@
         <v>17</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>165</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>161</v>
-      </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6vG9QC7WTf/fg7zUowRWF0xwulc53AO8CEuGqkj+Y1oeFuGryAXngatzImX2Vpl7SbySfJNyUTi0bigxjNBnLA==" saltValue="D7jUPiISZp+pkrYQ2kldWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6E40QjK+kFISGJyBelCdOMY0WZnB2GGaPo9rhduriPS3aH/txgN7mfhMbP0qHrK2HqykoyWZdw52SSpADysTYg==" saltValue="W6vXTjtXiYisd87PILHomw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20006,25 +20012,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="62" t="str">
-        <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>Baseline (2017) coverage</v>
+        <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
+        <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>170</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20036,12 +20042,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20053,12 +20059,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20070,12 +20076,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20087,12 +20093,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20104,12 +20110,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="81">
         <v>0</v>
@@ -20121,12 +20127,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20138,12 +20144,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20155,12 +20161,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20172,12 +20178,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20189,12 +20195,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20206,12 +20212,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20223,12 +20229,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20240,12 +20246,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20257,7 +20263,7 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20274,12 +20280,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="81">
         <v>0</v>
@@ -20291,7 +20297,7 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20308,7 +20314,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20325,7 +20331,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20342,12 +20348,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20359,12 +20365,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20376,12 +20382,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="81">
         <v>0</v>
@@ -20393,12 +20399,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20410,12 +20416,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20427,12 +20433,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="81">
         <v>0</v>
@@ -20444,12 +20450,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="81">
         <v>0</v>
@@ -20461,12 +20467,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20478,12 +20484,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20495,12 +20501,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20512,12 +20518,12 @@
         <v>5.3</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="81">
         <v>0</v>
@@ -20529,12 +20535,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="81">
         <v>0</v>
@@ -20546,12 +20552,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="81">
         <v>0</v>
@@ -20563,12 +20569,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="81">
         <v>0</v>
@@ -20580,12 +20586,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="81">
         <v>0</v>
@@ -20597,12 +20603,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="81">
         <v>0</v>
@@ -20614,13 +20620,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="81">
         <v>0</v>
@@ -20632,12 +20638,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -20649,14 +20655,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vadamgGWaHnZ7nTA3feUR3HaKA44vNTuQumyWqpNCx27Dke0whbpFZIF/s3UT7nrPQGwtaWv1Af3n3ylVRYeHw==" saltValue="OdKiYYRjOp5PfCUIKd4Puw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8uPxCeByKUE0hkhMQraZVe7+LZALgubVA/6fBYHsiRkqK8ef433UgBY5JqL9Vpr7EaXc95B7EonWfcKl812K/g==" saltValue="kkHKovqi62W8FAnjuWjVOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8817EEBE-6264-4F92-859C-56D11D24EDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E78BFC0B-C490-4BC2-B2B4-0048FD89A13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="0" windowWidth="30255" windowHeight="13185" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId8"/>
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId10"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId11"/>
+    <sheet name="Incidence des conditions" sheetId="7" state="hidden" r:id="rId11"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId12"/>
     <sheet name="Population cible programmes" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
@@ -36,7 +36,7 @@
     <sheet name="Risques relatifs" sheetId="67" state="hidden" r:id="rId21"/>
     <sheet name="Rapports des cotes" sheetId="68" state="hidden" r:id="rId22"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" state="hidden" r:id="rId23"/>
-    <sheet name="Programs anemia" sheetId="70" state="hidden" r:id="rId24"/>
+    <sheet name="Programmes-anémie" sheetId="70" state="hidden" r:id="rId24"/>
     <sheet name="Programmes-amaigrissement" sheetId="71" state="hidden" r:id="rId25"/>
     <sheet name="Programmes pour les enfants" sheetId="72" state="hidden" r:id="rId26"/>
     <sheet name="Programmes pour les FE" sheetId="73" state="hidden" r:id="rId27"/>
@@ -465,9 +465,6 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>IYCF 1</t>
   </si>
   <si>
@@ -624,19 +621,19 @@
     <t>Incidence de la diarrhée</t>
   </si>
   <si>
-    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 1-5 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+    <t>Nombre moyen d'épisodes par an: &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 24-59 mois</t>
   </si>
   <si>
     <t>Autres risques</t>
@@ -654,19 +651,22 @@
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
+    <t>Données</t>
+  </si>
+  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
-    <t>FAP : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FAP : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FAP : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FAP : 40-49 ans</t>
+    <t>FAP: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP: 40-49 ans</t>
   </si>
   <si>
     <t>Total FAP</t>
@@ -816,16 +816,16 @@
     <t>Anémie</t>
   </si>
   <si>
-    <t>FE : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FE : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FE : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FE : 40-49 ans</t>
+    <t>FE: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FE: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FE: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FE: 40-49 ans</t>
   </si>
   <si>
     <t>Prévalence de l'anémie</t>
@@ -999,19 +999,19 @@
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>WASH : lavage des mains</t>
-  </si>
-  <si>
-    <t>WASH : Élimination hygiénique</t>
-  </si>
-  <si>
-    <t>WASH : Amélioration de l'assainissement</t>
-  </si>
-  <si>
-    <t>WASH : Source d'eau améliorée</t>
-  </si>
-  <si>
-    <t>WASH : Eau courante</t>
+    <t>WASH: lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH: Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH: Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH: Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH: Eau courante</t>
   </si>
   <si>
     <t>Zinc pour le traitement + SRO</t>
@@ -4753,18 +4753,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4772,7 +4772,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4781,7 +4781,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4794,48 +4794,48 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="65"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="66"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="67"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="66"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="66"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="66"/>
     </row>
@@ -4844,38 +4844,38 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="67"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="67"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="67"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="67"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4887,30 +4887,30 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="67"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="67"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="67"/>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="67"/>
     </row>
@@ -4920,38 +4920,38 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="69"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="69"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="69"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="69"/>
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4961,25 +4961,25 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="71"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="17"/>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="17"/>
@@ -4995,19 +4995,19 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="71"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="67"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="71"/>
     </row>
@@ -5016,27 +5016,27 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="67"/>
       <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="67"/>
       <c r="D47" s="17"/>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5058,67 +5058,67 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="72"/>
       <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="72"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="72"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="72"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="72"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="66"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="66"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="66"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="66"/>
     </row>
@@ -5126,7 +5126,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QsHIJAnoqvoHdLquBzeFykydS9u1eAFxzKJ0HHFTfshLCl7b7sAJfwTfA/mOs72+gsRFD2dxxI+zYlZU0Net5g==" saltValue="xnE9h0eEVx/w0Qrku1J9vg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Hrz/FON5q4TYaM01IRZ15l/y/0UHuDlaLt5AoxXh4LY4KBY7rCPp4TPw0EIJFrp5SbKc0DeBMiQ45GFc05A/Bw==" saltValue="kB9eVofZg0fQIedFfhezLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5225,7 +5225,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aX99aIjGjdhvkfv/VLsyJ0utEE0wHklYhrZELDTy4T6+BimmJZ5W5eLHOg2xAT0sXNpCCqZ4kfo39tdYZJj5OA==" saltValue="JFdBHzLPfoFiacQRNSM61g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NdyIVuz4AgrX6EdO0dYTXkDVeyYRN7H/Jv5oEoQZFsQM9CfyZPs+IodKhZCoDmK9ci+aQxofB3gsVjaaRsVIyg==" saltValue="ObhU5NTgt3bbRT18GzgyDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5340,7 +5340,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FzrZnQb69zsQ/Wwgd+o9vYthjNSiErOCqCSqv0mWDz7qYuFxLoeuDldQ/kaLuyXZeIms51udec4JA/A+ck+BWg==" saltValue="Xd0JYBqH0opwyAVBT0fN+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6CFGrORRO0c7mQIlsX7/L4RM1W/jkZkt34Mf+sWbVbBmeKeYIUaylLN6k6KtbJnbrDkXIoIARq2pamc6oPwbZg==" saltValue="wpNvsAIevXUKQ8p8PFkl6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5488,7 +5488,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pZZtZzwzE6LfjOcQ6xK9yGICPHFLBv4N+FLXxBuCUxe024dedNBT7ym6fmS4yAIx8wwyD5iFaHpeyJgDJeCsJA==" saltValue="zGgubyyTzkF022X+NDVk5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XzgSyHHILoKUqTRW0Q3R923CRPFcM+mL3bC4DijZH+isAlSsMKu0rQ5gpiJDZRsjfbjZAMQGgC7wPTb81vsLyQ==" saltValue="lYTfUxsGBQd1XaCog6Z0xg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7205,7 +7205,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EDgC8HVLWJSCRCTnt2GilLsN/Il1EYqPYMivc34VjaT0rMrV9E467Lie53CRzCazNoBP2yZMXOm/gU03OKv8oQ==" saltValue="I7FPSnSR0Q/PGG6vcqrKRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JbT2CmQABmo0xOaFPopuzb0okx/T8tNFBlwHELQLpoStJ7BbAyPZLhdvpKFoeehjeqfrMftjbAjfiZr+rfOVAw==" saltValue="TWSY8bIGTAYT1F5c3dHHDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7243,7 +7243,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2d2bnvezrHFGCpa8afVYhIa7/4/IXasEvxk9rpdP3gdmNt60yo5ssOtqLMcQ2V/x+eOp/2iQ0DITbB+o0bdVig==" saltValue="M3M9Nr5AzSSg79RiFGcJig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="89inouMVeLS+sxtMeIC04H0QeARm7V/gf4pQs5Pfziof3EK+99YtLxMj73suNuk56CExj6vmlJnRrkc3jqIa9w==" saltValue="ZsejdWGdmWhjlhnwh09gEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7451,7 +7451,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xeM8IBDeP6H3+O2xbqgLyx/0rBVLd7fugJHqWTCB/9CGMlYsPR8EX4JCInb41ub7Xt5X/xeWMJCNYuvg3XkqSQ==" saltValue="Imm1eI3OKLwp9rdaCLB4nA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J8t3YnYkxdzVZ3COSa926RdTaV/dpIxf0jhSkfJvIAc3A8b/i2/xwUT12KZP0EeJjvn/KRfn/l2D6i0TWJgQug==" saltValue="GCzbcUiaRIJUVgUR5t1ufQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -9222,7 +9222,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jBK46FVkZjIDefjBLw8KIfRZHsd5LMQtgkuYasjLyY343Ob2Wmwn479Q8YOkGmpntupCdHq5m9mCLGRO8NNDwQ==" saltValue="ibAhCVaHCejwd7NF8IRHFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JdBAWDvFV45qgCAujWU3eJ8tabG/uqBNVTJkpNMUNxi2hi00iJcMryPwLpOQu1kry0guLlIp2Cs2KWnrZzm5uw==" saltValue="ymLkMS6bU7NECJIpZ5jpWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9276,13 +9276,13 @@
         <v>100</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>81</v>
@@ -9300,7 +9300,7 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
@@ -9316,7 +9316,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -9329,7 +9329,7 @@
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -9369,10 +9369,10 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -9381,14 +9381,14 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -9400,14 +9400,14 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -9419,14 +9419,14 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -9472,7 +9472,7 @@
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -9514,7 +9514,7 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -9533,7 +9533,7 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
@@ -9544,17 +9544,17 @@
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -9578,16 +9578,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -9597,16 +9597,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -9616,16 +9616,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -9644,10 +9644,10 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
@@ -9657,13 +9657,13 @@
         <v>187</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -9687,7 +9687,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -9703,7 +9703,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -9720,7 +9720,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -9757,7 +9757,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -9773,7 +9773,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -9784,11 +9784,11 @@
         <v>194</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -9806,7 +9806,7 @@
       <c r="C30" s="133"/>
       <c r="D30" s="133"/>
       <c r="E30" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -9825,10 +9825,10 @@
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
       <c r="G31" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="133"/>
       <c r="J31" s="133"/>
@@ -9844,10 +9844,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -9863,10 +9863,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -9882,10 +9882,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -9901,10 +9901,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -9920,10 +9920,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -9940,7 +9940,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="133"/>
       <c r="H37" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -9951,24 +9951,24 @@
         <v>202</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
       <c r="G38" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IbAiW4+kYNs20cBqi6B/4316YpHWXUv1OSp5oHxbtKmbXeqBfoK+hW/2xxkbxPKcYkKWSGwfA9hVhS9XnW6mwA==" saltValue="LKsQS3guhyRsPjIHJkM8Jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NTrPkdUgSejAFJs1xc8L+Rk67c3bThB6XnnM0wrWaW6wd1duiYsG7QW8w0Gt8IfF7Ma3l8xMn1UOCVfIhv+1cg==" saltValue="EnEV0hJbT/U8Rte/Xzzjzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10022,13 +10022,13 @@
         <v>100</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>81</v>
@@ -10039,25 +10039,25 @@
         <v>122</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -10068,25 +10068,25 @@
         <v>109</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10097,25 +10097,25 @@
         <v>110</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -10126,25 +10126,25 @@
         <v>111</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -10155,25 +10155,25 @@
         <v>112</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -10185,17 +10185,17 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
@@ -10206,17 +10206,17 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
@@ -10227,17 +10227,17 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
@@ -10248,17 +10248,17 @@
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -10278,10 +10278,10 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -10300,7 +10300,7 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -10319,7 +10319,7 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -10338,11 +10338,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SMl5Y4l/NzSrBhafdX0kkIgnkyPYVHNhVs5ELvu+K+tPr0VJ/osIdp/VN+4QPzJ6m1QaKxS2wIf8IlK0TYc9sA==" saltValue="Uo1cweKPDBaOhXbKVOUoZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wiVIb+h2WsynIZ/2d+nRbKkzUjJ3dKbRCQC45Xw9tp5Rxk2Olmax09Wdu5eGPLBXZR7hV8TwUAEl9yVTPRK72w==" saltValue="XcnpWOf32n5TrKDdveHgQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11463,7 +11463,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VKfX3URC986yNeEEWTBleEhsN2e8LCkGgRuBFQvCZ1Ifpyz922FtQoKIx6W3tiiCpCQHsTugmO+/iHW/uXsyqw==" saltValue="INgcHHGwYgVBr6VLDoBSNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g5E1UxuQpiSVZIuIdBTcd/W1gLovV3YapAW3WVilIBYX4VfbnTC0O0LurIscnHoxRsolmW+1hm9qRwn0vljVNw==" saltValue="ADf1QrEzaAbQdlotiMFwkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12431,7 +12431,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AtXdwFbKR0E9HgXVgNqWnM+riYrI0kagvFTRhQpZN8xkRFntwag9pbNDOOOaMVDCpAbMY0KL6ju0LIIdVRlSqQ==" saltValue="1O9eeu8UNyDxt2qNiSahzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="b6kmMdSF45LD0A4SYOUyk/w0+NxGGxDlmmMsW0jZtGKPKHbjHaK9I1fYfeLuVzaBrxfEFTsHB2XWtS8P07w0cQ==" saltValue="KHnt1coUiN4YYiP9fy673A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12471,16 +12471,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12495,7 +12495,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12512,7 +12512,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12546,7 +12546,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -12833,7 +12833,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DKcvvFMu1bF6GvbACs1XBlUX+fWfixlhA+iDM885BiNipFso+x7IumGi4dRge6xYIiJiduPlxTSLhzGRkrkJSg==" saltValue="+VQsDvCq5525XTh9eW3zPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4bNJ4DXMTKBvueI8IOygy/fyNXhTphsyjAG564o3u21FRKgCDyFzyjOXHL938vxDyOWbtVx2lRdwIaHwG1fTnA==" saltValue="logndgiEr7cS7KKrPMBLQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -12906,7 +12906,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -13021,7 +13021,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -13136,7 +13136,7 @@
         <v>103</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -13251,7 +13251,7 @@
         <v>104</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -13366,7 +13366,7 @@
         <v>102</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -13481,7 +13481,7 @@
         <v>108</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -13636,7 +13636,7 @@
         <v>100</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -13751,7 +13751,7 @@
         <v>101</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -13866,7 +13866,7 @@
         <v>103</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -13981,7 +13981,7 @@
         <v>104</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -14096,7 +14096,7 @@
         <v>102</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -14211,7 +14211,7 @@
         <v>108</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -15736,7 +15736,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CLEWQO8/hopnS1LlZX+aK4mZNnPY38LzgjIQjJyeGC2C19VnsHAdYamhr5IDOpFwktJBL149DMB3mdjNhGt1vA==" saltValue="U2bNNv66bqOY2+Y76wETrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Jarq0CR+tc8n0LkYbPj4BKJnGVBdy0CmrdmHbVOm1iEW9lBMeCAfQJ6U+dExyFUfNbT0VUq3y9PaE/UW65GbQQ==" saltValue="9HIIFJfQ0Q66yUyjrtg2Mg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15796,7 +15796,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -16045,7 +16045,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EoBdu6Ade9HhAmprMBaxs+4f6Lub0warrh2cz7Nj4kaRsvvFLwz/1RNreg9ZAinfKoNqUCemgaOQi9ax6G/58Q==" saltValue="YBX8MToPk8WR/IXkPamdsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eQbrh9gNXwjZSNH/XSl4CvO5IG+H0y2LkYhcos4sWyrfhlEudEi7/gNxNasy26wn3/z+TH43JgX59EdlXWuXWA==" saltValue="7KdWOvOgPr7L4yDrlK88Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16078,16 +16078,16 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="119" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="119" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16325,7 +16325,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="khtnAEG8KJaQP4mbXJGgYcrbKh+wq2Ppp1EMJJyHQd1Xjkyg3o8p0zW1hhygcUzflMmuqVUzuaAm0f9TMKUg8A==" saltValue="vc4tUbj8jQl9nu7w8OnN/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ehldhrcM7r9VHcbshDiNq0oHnsNLsEBC+UvzIQvCWetTZ0p/3+b24w0UoOTfYH6kgvUCM8B37+3cTd3GYrrO8g==" saltValue="ZmcNRERquowhZl5ex6zMnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17121,7 +17121,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F8CdQXiV+jWPCaZKaRj93aFavbmET0uj+GtexOlb33NQey+O4WLFkN3F5aJ1Rv7AqvAzrVnp3EyglP+G2IykCA==" saltValue="LiRCIRxxc2T3qkbMMfu/KQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7SBD+/eZjmtdtmK9L6CEH9opNLylmp7VDHWaBO3EmXyaqLWvLrK3VTwDwQUVi4BFKqCY6UTQlMtYxieyAga8PQ==" saltValue="i/RXH0FfV4oIRuAKV57pLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17222,7 +17222,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TQZwh6SjQmi0z4ktiIgvMPF+ugMXh9Gt1B5QSEEW2Sl+Atl33s0AHjy19Hi6HQitZc+ltH20BhuDGejEkvcwBw==" saltValue="pN3AhiXmaPYlBG9I9hCDcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AWssKQBcI3eQBF/nX+9+yXZpyC9U5nBr4ScisFCu4UKq6GaF76mb/bDKcjmEE0oZbdPwS10S4uWEBiTql1vXjg==" saltValue="J+Jcjt7E5soKvQIzpGznQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17260,7 +17260,7 @@
         <v>264</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>122</v>
@@ -18352,7 +18352,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IBB2bNLGJI8W+ve7rFaOs4I90xw33Cuzq+FU8NChDhPT0Kz0pQT2tXNf3Fu0wPzQr3AsxlUXUkTHs2B0MMd9uw==" saltValue="wRwwGRn2Lo/CwoJjoyT0Gw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DlGqsyG+7HlXhnuxz/7+8ttDCYi0aytfYu8ja9q42luR6XVM5J4YWUPZjNYY9d2pfW/N7x20sdyAPMTPuu2Muw==" saltValue="LNXGCP/lDYbGOyoYvMJsBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18529,7 +18529,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YOVET3DQnxpLuTJIi8xMbp0F72285A1KMYovF/P8YqDUdB8lDu47Ec2ws1mUAznTLtewyFhq6mx1bVjc8jakBQ==" saltValue="6VsDpynVjq/hnsNKKYRSOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="06NMbHU3VGI4ch9RbouLJ8M3tT01n6yoLJq6EZSVnqqwyKcZqQ1UfPM7Z1hv617ST9122Cbo9/7yDYYW5tOJ1g==" saltValue="rv+JKAIUumW99Pd8t7JB2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18568,7 +18568,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>122</v>
@@ -18628,7 +18628,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18651,7 +18651,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>109</v>
@@ -18750,7 +18750,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -18785,7 +18785,7 @@
         <v>113</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>113</v>
@@ -18852,7 +18852,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -18860,7 +18860,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2Mt2ux4kVqO55lshSSbDxMLhGUDQ42ViAsR/N4cgLAdyTTjO3ktx40jx1DtecyO2OicyDIPviECVzPyDh1Safg==" saltValue="H59jlR4kf/8bEg+RQfGqzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8k21kstW21SBzIrUb+bU/jnXH5NDGxVwH5Q1nUV6L7fVzZ3ZDafXwKnQWdcRcpnKeq0SuD8Sz2Vh2GDF+P3aFQ==" saltValue="N6EU0pir4oro/IFsVn5Zmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19221,7 +19221,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LhDjOpezmr5uyjx7/1qEGMomwlj10eir63TYDLYJ3wD0rqCemgXLpuiYfDA2nPrhoTYHchSAeNflwyjNcUeyvg==" saltValue="K21fw4whZLaoCB9eVWpdvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zm6x3nR+4duL9ftx1FmAiH/ImEi7Y5312RPhuWDbqbDtSiL83YJ8yFB/L2RjQjprzwjN2pUbb5NqtodIUbE9VA==" saltValue="F5NLMTmQXfq9ooEp4jKy4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19328,7 +19328,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6CPPqZ4oWrrVpXAlqaqlwgR/H6o7dJPNYy2S8V5jmSxUxNQHc5UFHeznVP4Ji6CVoMfZpy5lDafVZHHw4eS3/Q==" saltValue="IRyp0B8Aa4IEtQSCGqFtsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ELnb/f/vBt8j/6Fx6+j7FUspzB7MT57oNo5cQ6euAEAW6/ArPsWFtj5IzBW3bWQ2r5Sobxt5ANa8hNWKBMqCQQ==" saltValue="vEMX9o/l9YYVG8Ig7CKOng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19594,7 +19594,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>154</v>
@@ -19644,7 +19644,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hr2CHMbZmzv9O1AEGVRSyqs+J2E+g5VDN+fGaoWwGc0/bfMZzvqcWKJphIShbbvapjtlKsJ7gX6R4XDRM0ojMg==" saltValue="824v7lfpXhZ2V7Ibl3V6Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QCGhitNa8EBvf1tPtUcuqzijN3aUkW0klGay623rlTKSYv0gwnM+GkdlVhHIZbfgMv+8DsPqLc9zbQgiivSAkQ==" saltValue="2GWNRkubWqEuKJoZqRWMQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19688,7 +19688,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>113</v>
@@ -19706,7 +19706,7 @@
         <v>122</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="57" t="str">
@@ -19720,7 +19720,7 @@
         <v>109</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="57" t="str">
@@ -19734,7 +19734,7 @@
         <v>110</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="57" t="str">
@@ -19748,7 +19748,7 @@
         <v>111</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="57" t="str">
@@ -19767,7 +19767,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>113</v>
@@ -19835,19 +19835,19 @@
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>113</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19861,7 +19861,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19903,7 +19903,7 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -19920,7 +19920,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="16es/CtXu0YtGrZPjn2mTn+lM59K6pRJ6wYvrrz84c9Q5JFEicoIxJStXPiLYUasZVjFlEOLLbxcvsDImkAPvg==" saltValue="UZI4X3D111XwhFmFsnYxKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x8C26qNGFggwz99WuFJTPO7C/jYyJQeEO+cZoncNn+3yPB3fPKNhHOpgxClHtsmmx8GsRi5MA98mlCaR3RXxjw==" saltValue="huzsIghMUq3JGJHozf0dHw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -19953,7 +19953,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="61" t="s">
         <v>166</v>
@@ -19984,7 +19984,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6E40QjK+kFISGJyBelCdOMY0WZnB2GGaPo9rhduriPS3aH/txgN7mfhMbP0qHrK2HqykoyWZdw52SSpADysTYg==" saltValue="W6vXTjtXiYisd87PILHomw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M6PZ07mA0ekIKfAU2cbw09SlVi0lkTgpk2N3bmgZHIqQap3/e9m4tjqAmDL7tIxw4lfLDrrdk85y5/EO8BI24Q==" saltValue="rMXROnqM71F12GAxrOvtyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20302,7 +20302,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20319,7 +20319,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20336,7 +20336,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20662,7 +20662,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8uPxCeByKUE0hkhMQraZVe7+LZALgubVA/6fBYHsiRkqK8ef433UgBY5JqL9Vpr7EaXc95B7EonWfcKl812K/g==" saltValue="kkHKovqi62W8FAnjuWjVOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NhVETAcwwTbMiSmCipybis25GjwuE+t7mO/+jTgB1SZW+1MBvUKhYHA9kPOo1XLsGajywyM+kkcAw1VkQgecAA==" saltValue="z/VBmqkX3vjBQYyNAKuqUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{054B31B3-5962-44BA-96F3-A930A3BC6553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC4AC3D-B18D-4EFA-AD56-975AC142130D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="7020" windowWidth="29265" windowHeight="12300" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4744,14 +4744,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4762,14 +4762,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>19</v>
@@ -4778,7 +4778,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -4787,93 +4787,93 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="65"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="66"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="66"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="66"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="66"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
@@ -4882,74 +4882,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="67"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="67"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="67"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="67"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="69"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="69"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="69"/>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="69"/>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>45</v>
       </c>
@@ -4958,26 +4958,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="71"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>49</v>
       </c>
@@ -4985,7 +4985,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>50</v>
       </c>
@@ -4993,48 +4993,48 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="71"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="67"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>53</v>
       </c>
       <c r="C42" s="71"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="67"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>57</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>58</v>
       </c>
@@ -5053,80 +5053,80 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="72"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="72"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="72"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="72"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="72"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C58" s="66"/>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="66"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="66"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C61" s="66"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bq+hNpr5SbO4R6b+/TQ1wGYiwaFjXiQ4kZ2duzS8bgFOHL1ORQvCsl8yiEo72YxyqeOwgtLEb251YBsF+Xhhmg==" saltValue="qII43BiforYMWXiQLb1BpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0OEMbnhEtylltnrbzonwjEAfiprGXwGb8f/NKbxMICLNu3B7DiSbL807b0EVtotkmGDW07LdP64JoxbwhDnlWA==" saltValue="GrikKJUhEj4IJ7PSRfktMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5143,89 +5143,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="km3No4qhX8dftuPqvoUE+CDRqo+IPrW7kQbMSKK1VrlKXq72wTSbaIZ9pGxdL9uqRIda+4mKE3gtrZGDHTgkdw==" saltValue="C+0GbGZTEDYWaMnXKiMMQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aLhzRRlDwGlXby5zKonhrgQ0ljGIuyxyk4+JCXH3FqyRFZVra/+aS7uv3O/hHIf8uAsj3j5rxAvNj1n2Qvr0RQ==" saltValue="F19Xu+pjE0EwKr3Bpw7rMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5242,9 +5242,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>196</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>195</v>
       </c>
@@ -5340,7 +5340,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1ldtlMkWpxkQcgrOibJ8hYZ5hXidGMb+vAshkWpnPlyV+43+xrg1g/sE106jYHSxn536HCE+VWXzy/WDlYwsHg==" saltValue="qTLxeIIGqL+De6I8W1hZ2w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TcozECR2JDhDuPpOpIjWath5Exo2clBecU1kz1UCmR1Z22YtyXY3iY97ozAOOgLRWO1U5e8ZfDkvtpCZF4TkEg==" saltValue="vINDcBbObzeyem9ospVAzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5357,15 +5357,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>173</v>
       </c>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>174</v>
       </c>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>184</v>
       </c>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>181</v>
       </c>
@@ -5412,83 +5412,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r3wwzvI/CiquDEauel7qg7GZ2EXylA+Mj9aV0R+xIRmuAbc65tAdwWPo4Hce1NRnFVmeMV4SZD0E91mlYlVbiQ==" saltValue="qr8eZcO/vJfn9MFtca6lVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0/PNZi6WhGCRkJX6gvDDZpJBgkqX0d93DnnZswd5nFysOxeKKHQmFeLY0Ds8NBRKkT9M0E0b0Mvlo6vUxowUOQ==" saltValue="wftazBqS88iQQkvGvA9iPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5506,19 +5506,19 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>200</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>164</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>176</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>177</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>181</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>183</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>184</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>154</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>191</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>192</v>
       </c>
@@ -6077,10 +6077,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>103</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>173</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>174</v>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>179</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>180</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>182</v>
       </c>
@@ -6458,10 +6458,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>78</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>169</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>170</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>171</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>172</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6711,7 +6711,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>199</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>167</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>168</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>175</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>178</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>186</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>187</v>
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>188</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>189</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>190</v>
       </c>
@@ -7201,11 +7201,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IWIXWQ8fMlDkbILwRhkx7ha0PYZgNpCsTn8f+93a6FmSCtSYi/63CYBWjjbfeEe0nVXq/BxJbH4WCnXoq8EYug==" saltValue="GMF6f/2fSFawYL9TVPA0aQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kwkKV/SBNYXzwlemGPDTwaxXfqaH9itLjH0x9kf6GQ4T0QEO04FliCeqO0ac0m2apq9qFrc6rC/lwjEM+G3kPA==" saltValue="IldEZIzkcGaCnJLPu1xYmA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7220,30 +7220,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sDUwFkretgqAbPiy5K4AiZOTcoMhNOqR0jrP/Gna/U5oe2Hu7hI8YYD2YTaYRWxwy48bxR2va5uDs1gc5silhw==" saltValue="A93SXwl4l0GAvclgPMe+cA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9c5mhx2KV4uI3Ba7zR5OVDvRBvviximwnHiEpWg2xVmRnxaHxDlRPkuco0xI+TLp22tSIOyyM9vFsrYUpZF5WA==" saltValue="Tizw88HO/cK2yX/sa87Mzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7259,16 +7259,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>205</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>206</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>207</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>208</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>209</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>210</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>211</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>212</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>213</v>
       </c>
@@ -7447,11 +7447,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OlHCYB2nfPqnCHKFd0gM87KK6FtQtGMoob+5ha4qmCu09UnCoweq6fJNmOe2o8oUPMqQ+CohnqL3zxIrtdoTQQ==" saltValue="GwXITeCyIswz4jFd/vscxw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+CsaevidZm6Iu2Z9QnW82RFMr3f4Zl7a3ShJUE9LLrrJJyTTtAHRp5s2TdU8Oz2HWghmLSnVKqGfHSy3ajzeIw==" saltValue="XpkFZ/qIXv2jvkhxV5xRlA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7469,20 +7469,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>200</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>89</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>164</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>8</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>12</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>176</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>177</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>181</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>183</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>184</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>154</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>185</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>191</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>192</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8164,7 +8164,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>103</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>162</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>173</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
         <v>174</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
         <v>2</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>179</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>180</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>182</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8536,7 +8536,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>78</v>
       </c>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>169</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>170</v>
@@ -8673,7 +8673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>171</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>172</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8777,7 +8777,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>199</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>167</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>168</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>175</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>178</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>186</v>
@@ -9045,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>187</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>188</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>189</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>190</v>
       </c>
@@ -9222,7 +9222,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6hF1ayh3lNMIxgbwhArxlpUPkvOP3Vk68EEQYfLTR04N7GusasAnHFiFdeDwgEyfGu8G/THKyrFmX4JOKkdcDw==" saltValue="0RLuvG1IIdnBwms8c/jHIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8Yv4UYn2kbsg4DH08trHl3JFDvIiwkcPv1ivydJPNm0/gNWU7PoVdHN9Hv0N1Q9LPrGcEKajju7nTmQEaf+sPw==" saltValue="OfMWjWXj8ySGkxxnxBWfiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9238,22 +9238,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -9305,7 +9305,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -9322,7 +9322,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -9339,7 +9339,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -9356,7 +9356,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -9394,7 +9394,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -9432,7 +9432,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -9449,7 +9449,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -9466,7 +9466,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -9483,7 +9483,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -9500,7 +9500,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>173</v>
       </c>
@@ -9519,7 +9519,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
         <v>174</v>
       </c>
@@ -9538,7 +9538,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9559,7 +9559,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -9576,7 +9576,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -9595,7 +9595,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -9614,7 +9614,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -9633,7 +9633,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -9652,7 +9652,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -9673,7 +9673,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -9692,7 +9692,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -9709,7 +9709,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -9743,7 +9743,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -9762,7 +9762,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -9779,7 +9779,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -9798,7 +9798,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>154</v>
       </c>
@@ -9815,7 +9815,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -9834,7 +9834,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -9853,7 +9853,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -9891,7 +9891,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -9910,7 +9910,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -9929,7 +9929,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -9968,7 +9968,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ilEHxispHVzuyiANpEkuCr3OG8fMMdeebmE1S0BMXxZDYKaznPBTnUi3N/v+WeFPPgKdn2WHiGI/dSwXkAj/Vw==" saltValue="FKIfRvsLOiIOuUDTfcVShA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Wp9h/J6m4jRCMUmQqrrjrphylg9JtLqWRtqJdHWPMIyZ0X8PvGuZqAEYeS6EvmVQA+h4iN6xF2W4nNY/SJkudg==" saltValue="iaBMCd6k3aKTknwRTsND9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9984,22 +9984,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>219</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>112</v>
       </c>
@@ -10063,7 +10063,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>99</v>
       </c>
@@ -10092,7 +10092,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>100</v>
       </c>
@@ -10121,7 +10121,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>101</v>
       </c>
@@ -10150,7 +10150,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>102</v>
       </c>
@@ -10179,7 +10179,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>125</v>
       </c>
@@ -10200,7 +10200,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>126</v>
       </c>
@@ -10221,7 +10221,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>127</v>
       </c>
@@ -10242,7 +10242,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>128</v>
       </c>
@@ -10263,7 +10263,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>72</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>73</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>74</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>75</v>
       </c>
@@ -10342,7 +10342,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Cf0VHrXB6+zwOqeDmnaXuJgPDc8SmuSwIZn56urMcnpZEOI/Q3k5vbL1A3upj8fvAdyyWb0CbuvzBM0LIEY1XA==" saltValue="fpT6OZ9MZtKvJvYfWBtyAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kmyrqs26ErH1sgrTX8tvscNC3XtUORv/50vGMZFqnxTRVCa+gvdpA9OCOX9pSQOBRhN2VeoiHu/LbngPYPmIzw==" saltValue="+h4ai7/f2bj4Vfy6nMZl2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10358,15 +10358,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>221</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>150</v>
@@ -10440,7 +10440,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>151</v>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
         <v>112</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>150</v>
@@ -10507,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>151</v>
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
         <v>99</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>150</v>
@@ -10572,7 +10572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>151</v>
@@ -10593,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
         <v>100</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>150</v>
@@ -10637,7 +10637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>151</v>
@@ -10658,7 +10658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
         <v>101</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>150</v>
@@ -10702,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>151</v>
@@ -10723,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
         <v>152</v>
       </c>
@@ -10746,14 +10746,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>222</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>150</v>
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>151</v>
@@ -10821,7 +10821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
         <v>112</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>150</v>
@@ -10865,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>151</v>
@@ -10886,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
         <v>99</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>150</v>
@@ -10930,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>151</v>
@@ -10951,7 +10951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
         <v>100</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>150</v>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>151</v>
@@ -11016,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
         <v>101</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>150</v>
@@ -11060,7 +11060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>151</v>
@@ -11081,7 +11081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
         <v>152</v>
       </c>
@@ -11104,14 +11104,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
         <v>223</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>150</v>
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>151</v>
@@ -11179,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
         <v>112</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>150</v>
@@ -11223,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>151</v>
@@ -11244,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
         <v>99</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>150</v>
@@ -11288,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>151</v>
@@ -11309,7 +11309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
         <v>100</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>150</v>
@@ -11353,7 +11353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>151</v>
@@ -11374,7 +11374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
         <v>101</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>150</v>
@@ -11418,7 +11418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>151</v>
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
         <v>152</v>
       </c>
@@ -11463,7 +11463,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IF13pKsjTqdvAyl/RaPp4EH7TFgs5UHw9K67wWxf6TSTdnOxZX4FswA1Xhndj+0ANThrkTUYEXwELdpnoAKHXw==" saltValue="Ex+otDC5fdcnJsrnjtJ1Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NSipKJHBOoK+A7vxhduBfj53cp5ZI4AxUH/lFLQaRrpUyUklTrhC5FCgmzJfdXjetn7HRoSJNjdtshLRPi9PNw==" saltValue="PmlK/NUVxj4ZQ+bI9VL5/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11497,14 +11497,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>79</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11740,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -11809,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -11832,7 +11832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11878,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11901,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11993,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12016,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12108,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12131,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12200,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12269,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12292,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12338,7 +12338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12361,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12431,7 +12431,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CuhZRpYn23WMfG85lV36H8hNVgIelC7I4jenCM0cLcvyMIfcVMiIFRjplFRko5+/qgzMtTET/8CE9hFTjJgzSA==" saltValue="C20xuPeGbrafPLBU5gSR+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y9vaKTD7weNTFSA2qsgwOIb6FFXu0jZpHShAOxjHEb5FNIxKM13YpmgTdzagLqjjaQxMRHDbGcZDYYWAKXDVkg==" saltValue="ueKi1ntFyjYt20ft8gPJ/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12453,22 +12453,22 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>58</v>
@@ -12483,7 +12483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>225</v>
       </c>
@@ -12493,7 +12493,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
         <v>41</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>42</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>43</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>44</v>
       </c>
@@ -12561,13 +12561,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="108"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>232</v>
       </c>
@@ -12585,14 +12585,14 @@
       </c>
       <c r="G9" s="109"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="108"/>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
         <v>226</v>
       </c>
@@ -12602,7 +12602,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>227</v>
       </c>
@@ -12612,7 +12612,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
         <v>228</v>
       </c>
@@ -12630,7 +12630,7 @@
       </c>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
         <v>229</v>
       </c>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="G14" s="109"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
         <v>230</v>
       </c>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12675,7 +12675,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>231</v>
       </c>
@@ -12686,7 +12686,7 @@
       <c r="F17" s="116"/>
       <c r="G17" s="109"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
         <v>81</v>
       </c>
@@ -12704,7 +12704,7 @@
       </c>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
         <v>82</v>
       </c>
@@ -12722,7 +12722,7 @@
       </c>
       <c r="G19" s="109"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
         <v>83</v>
       </c>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="G20" s="109"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
         <v>84</v>
       </c>
@@ -12758,7 +12758,7 @@
       </c>
       <c r="G21" s="109"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
         <v>85</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
         <v>86</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
         <v>87</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
         <v>88</v>
       </c>
@@ -12826,14 +12826,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jZLIh2+jya7QCuYBLrOhW8oLqzecIGlST7wD8kY/MEK8X2aAtNu+JiBe7BfBWEnv7G+iU2M/fAQuY8ah3vtTeg==" saltValue="hyjn572IvskOzCO2+6vVfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8stTKf8YHTVdbxiiPPR7IoBNR68bIejoYV4HHlGdWHhu+OEgnMHvcOnBgSVKxyWin3xpsLDyo/MGeeKmrm/LCA==" saltValue="1bZzbqM2D5W25eCe8RKxeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -12850,23 +12850,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>215</v>
       </c>
@@ -12900,7 +12900,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>90</v>
@@ -12932,7 +12932,7 @@
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>236</v>
       </c>
@@ -12960,7 +12960,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>237</v>
       </c>
@@ -12988,7 +12988,7 @@
       <c r="O5" s="118"/>
       <c r="P5" s="118"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>238</v>
       </c>
@@ -13016,7 +13016,7 @@
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>91</v>
       </c>
@@ -13047,7 +13047,7 @@
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>236</v>
       </c>
@@ -13075,7 +13075,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>237</v>
       </c>
@@ -13103,7 +13103,7 @@
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>238</v>
       </c>
@@ -13131,7 +13131,7 @@
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>93</v>
       </c>
@@ -13162,7 +13162,7 @@
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>236</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>237</v>
       </c>
@@ -13218,7 +13218,7 @@
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>238</v>
       </c>
@@ -13246,7 +13246,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>94</v>
       </c>
@@ -13277,7 +13277,7 @@
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>236</v>
       </c>
@@ -13305,7 +13305,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>237</v>
       </c>
@@ -13333,7 +13333,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>238</v>
       </c>
@@ -13361,7 +13361,7 @@
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>92</v>
       </c>
@@ -13392,7 +13392,7 @@
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>236</v>
       </c>
@@ -13420,7 +13420,7 @@
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>237</v>
       </c>
@@ -13448,7 +13448,7 @@
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>238</v>
       </c>
@@ -13476,7 +13476,7 @@
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>98</v>
       </c>
@@ -13507,7 +13507,7 @@
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>236</v>
       </c>
@@ -13535,7 +13535,7 @@
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>237</v>
       </c>
@@ -13563,7 +13563,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>238</v>
       </c>
@@ -13591,12 +13591,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
         <v>248</v>
       </c>
@@ -13630,7 +13630,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>90</v>
@@ -13662,7 +13662,7 @@
       <c r="O30" s="118"/>
       <c r="P30" s="118"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>236</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O31" s="118"/>
       <c r="P31" s="118"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>196</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="O32" s="118"/>
       <c r="P32" s="118"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>195</v>
       </c>
@@ -13746,7 +13746,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>91</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O34" s="118"/>
       <c r="P34" s="118"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>236</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="O35" s="118"/>
       <c r="P35" s="118"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>196</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="O36" s="118"/>
       <c r="P36" s="118"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>195</v>
       </c>
@@ -13861,7 +13861,7 @@
       <c r="O37" s="118"/>
       <c r="P37" s="118"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>93</v>
       </c>
@@ -13892,7 +13892,7 @@
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>236</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>196</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>195</v>
       </c>
@@ -13976,7 +13976,7 @@
       <c r="O41" s="118"/>
       <c r="P41" s="118"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>94</v>
       </c>
@@ -14007,7 +14007,7 @@
       <c r="O42" s="118"/>
       <c r="P42" s="118"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>236</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="O43" s="118"/>
       <c r="P43" s="118"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>196</v>
       </c>
@@ -14063,7 +14063,7 @@
       <c r="O44" s="118"/>
       <c r="P44" s="118"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>195</v>
       </c>
@@ -14091,7 +14091,7 @@
       <c r="O45" s="118"/>
       <c r="P45" s="118"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>92</v>
       </c>
@@ -14122,7 +14122,7 @@
       <c r="O46" s="118"/>
       <c r="P46" s="118"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>236</v>
       </c>
@@ -14150,7 +14150,7 @@
       <c r="O47" s="118"/>
       <c r="P47" s="118"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>196</v>
       </c>
@@ -14178,7 +14178,7 @@
       <c r="O48" s="118"/>
       <c r="P48" s="118"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>195</v>
       </c>
@@ -14206,7 +14206,7 @@
       <c r="O49" s="118"/>
       <c r="P49" s="118"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>98</v>
       </c>
@@ -14237,7 +14237,7 @@
       <c r="O50" s="118"/>
       <c r="P50" s="118"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>236</v>
       </c>
@@ -14265,7 +14265,7 @@
       <c r="O51" s="118"/>
       <c r="P51" s="118"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>196</v>
       </c>
@@ -14293,7 +14293,7 @@
       <c r="O52" s="118"/>
       <c r="P52" s="118"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>195</v>
       </c>
@@ -14321,16 +14321,16 @@
       <c r="O53" s="118"/>
       <c r="P53" s="118"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
         <v>124</v>
       </c>
@@ -14358,7 +14358,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>104</v>
@@ -14384,7 +14384,7 @@
       <c r="O57" s="118"/>
       <c r="P57" s="118"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14406,7 +14406,7 @@
       <c r="O58" s="118"/>
       <c r="P58" s="118"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>105</v>
       </c>
@@ -14431,7 +14431,7 @@
       <c r="O59" s="118"/>
       <c r="P59" s="118"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14453,7 +14453,7 @@
       <c r="O60" s="118"/>
       <c r="P60" s="118"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>106</v>
       </c>
@@ -14478,7 +14478,7 @@
       <c r="O61" s="118"/>
       <c r="P61" s="118"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14500,16 +14500,16 @@
       <c r="O62" s="118"/>
       <c r="P62" s="118"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
         <v>131</v>
       </c>
@@ -14543,7 +14543,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>81</v>
@@ -14575,7 +14575,7 @@
       <c r="O66" s="118"/>
       <c r="P66" s="118"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>133</v>
       </c>
@@ -14603,7 +14603,7 @@
       <c r="O67" s="118"/>
       <c r="P67" s="118"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>134</v>
       </c>
@@ -14631,7 +14631,7 @@
       <c r="O68" s="118"/>
       <c r="P68" s="118"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>135</v>
       </c>
@@ -14659,7 +14659,7 @@
       <c r="O69" s="118"/>
       <c r="P69" s="118"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>82</v>
       </c>
@@ -14690,7 +14690,7 @@
       <c r="O70" s="118"/>
       <c r="P70" s="118"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>133</v>
       </c>
@@ -14718,7 +14718,7 @@
       <c r="O71" s="118"/>
       <c r="P71" s="118"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>134</v>
       </c>
@@ -14746,7 +14746,7 @@
       <c r="O72" s="118"/>
       <c r="P72" s="118"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>135</v>
       </c>
@@ -14774,7 +14774,7 @@
       <c r="O73" s="118"/>
       <c r="P73" s="118"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>83</v>
       </c>
@@ -14805,7 +14805,7 @@
       <c r="O74" s="118"/>
       <c r="P74" s="118"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>133</v>
       </c>
@@ -14833,7 +14833,7 @@
       <c r="O75" s="118"/>
       <c r="P75" s="118"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>134</v>
       </c>
@@ -14861,7 +14861,7 @@
       <c r="O76" s="118"/>
       <c r="P76" s="118"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>135</v>
       </c>
@@ -14889,7 +14889,7 @@
       <c r="O77" s="118"/>
       <c r="P77" s="118"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>85</v>
       </c>
@@ -14920,7 +14920,7 @@
       <c r="O78" s="118"/>
       <c r="P78" s="118"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>133</v>
       </c>
@@ -14948,7 +14948,7 @@
       <c r="O79" s="118"/>
       <c r="P79" s="118"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>134</v>
       </c>
@@ -14976,7 +14976,7 @@
       <c r="O80" s="118"/>
       <c r="P80" s="118"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>135</v>
       </c>
@@ -15004,7 +15004,7 @@
       <c r="O81" s="118"/>
       <c r="P81" s="118"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>90</v>
       </c>
@@ -15035,7 +15035,7 @@
       <c r="O82" s="118"/>
       <c r="P82" s="118"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>133</v>
       </c>
@@ -15063,7 +15063,7 @@
       <c r="O83" s="118"/>
       <c r="P83" s="118"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>134</v>
       </c>
@@ -15091,7 +15091,7 @@
       <c r="O84" s="118"/>
       <c r="P84" s="118"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>135</v>
       </c>
@@ -15119,7 +15119,7 @@
       <c r="O85" s="118"/>
       <c r="P85" s="118"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>91</v>
       </c>
@@ -15150,7 +15150,7 @@
       <c r="O86" s="118"/>
       <c r="P86" s="118"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>133</v>
       </c>
@@ -15178,7 +15178,7 @@
       <c r="O87" s="118"/>
       <c r="P87" s="118"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>134</v>
       </c>
@@ -15206,7 +15206,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>135</v>
       </c>
@@ -15234,7 +15234,7 @@
       <c r="O89" s="118"/>
       <c r="P89" s="118"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>93</v>
       </c>
@@ -15265,7 +15265,7 @@
       <c r="O90" s="118"/>
       <c r="P90" s="118"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>133</v>
       </c>
@@ -15293,7 +15293,7 @@
       <c r="O91" s="118"/>
       <c r="P91" s="118"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>134</v>
       </c>
@@ -15321,7 +15321,7 @@
       <c r="O92" s="118"/>
       <c r="P92" s="118"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>135</v>
       </c>
@@ -15349,7 +15349,7 @@
       <c r="O93" s="118"/>
       <c r="P93" s="118"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>92</v>
       </c>
@@ -15380,7 +15380,7 @@
       <c r="O94" s="118"/>
       <c r="P94" s="118"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>133</v>
       </c>
@@ -15408,7 +15408,7 @@
       <c r="O95" s="118"/>
       <c r="P95" s="118"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>134</v>
       </c>
@@ -15436,7 +15436,7 @@
       <c r="O96" s="118"/>
       <c r="P96" s="118"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>135</v>
       </c>
@@ -15464,7 +15464,7 @@
       <c r="O97" s="118"/>
       <c r="P97" s="118"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>95</v>
       </c>
@@ -15495,7 +15495,7 @@
       <c r="O98" s="118"/>
       <c r="P98" s="118"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>133</v>
       </c>
@@ -15523,7 +15523,7 @@
       <c r="O99" s="118"/>
       <c r="P99" s="118"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>134</v>
       </c>
@@ -15551,7 +15551,7 @@
       <c r="O100" s="118"/>
       <c r="P100" s="118"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>135</v>
       </c>
@@ -15579,12 +15579,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
         <v>90</v>
       </c>
@@ -15618,7 +15618,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15648,7 +15648,7 @@
       <c r="O105" s="118"/>
       <c r="P105" s="118"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>133</v>
       </c>
@@ -15676,7 +15676,7 @@
       <c r="O106" s="118"/>
       <c r="P106" s="118"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>134</v>
       </c>
@@ -15704,7 +15704,7 @@
       <c r="O107" s="118"/>
       <c r="P107" s="118"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>135</v>
       </c>
@@ -15732,11 +15732,11 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NF70OH2i7eJBEig99eA0fqj+WSZ9V/7WHcF3unAqxzqJrtTGHhEW9I74+Yc4o+4F8vCiriXU2vKPs8sblTZndw==" saltValue="W8Ol/8O5y62oIFuvHDaUgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XPB2ARhbgk7MxdxDTW6KpjlCfDU5NnnqBaM4xT7qUYDjm4uxxDaeG7aK24PDsiE/qJaPave5ijl+D3s63u81Ng==" saltValue="ZEY5UIYOtRDNpmRK3KQGng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15753,24 +15753,24 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
         <v>249</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -15832,12 +15832,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
         <v>184</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
         <v>177</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
         <v>192</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="117"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -15905,12 +15905,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>176</v>
@@ -15931,16 +15931,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
         <v>248</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>256</v>
@@ -15984,7 +15984,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
         <v>124</v>
       </c>
@@ -16007,13 +16007,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>72</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
         <v>165</v>
       </c>
@@ -16045,7 +16045,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q1d10RIhgx2fbbzvIh7JWsiLneihgE+DG2vxfytkdqaS6cQN8W8EG6zjwSv/Z+iNw8kxkOtiqAo/fVnW0OHdnQ==" saltValue="qr0yVRNndNUBmFbMI5HO5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JgKQHoXuJBu2JLVW/ANaqhnhNbe+lhtRu3Ibj/ylUdLyVqT2Tc7V0N4jaeLOEeFN8rzNAWQ6r4tATTDTN9O0bw==" saltValue="xGjCTUz9dP3e8dbLp5fQ0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16063,16 +16063,16 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>153</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
         <v>161</v>
       </c>
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>259</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
         <v>173</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>259</v>
@@ -16166,7 +16166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
         <v>174</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
         <v>259</v>
@@ -16204,7 +16204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
         <v>2</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
         <v>259</v>
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
         <v>178</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
         <v>259</v>
@@ -16280,7 +16280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
         <v>182</v>
       </c>
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>259</v>
@@ -16318,14 +16318,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0gNKIS9+wM/A2sQsgW77Qdd0JKCQBek+MmIHM+j2IBWSfGPgDovkhIpamviTtqzFEJYzOv4/49ztktczUGLl7g==" saltValue="6/84AIm99LqM38dkzixFxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="b2SztFaTlXUDGE2v8zWqzTVNqy/K7V3mz7rzjxcYALz9bBEuVVlWNSZM4IcYfGLHwXKazitRH7NQIv/oX9Wctw==" saltValue="9HMrZeOTTP3YRxTS08Jzng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16342,15 +16342,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16393,12 +16393,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>164</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>169</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>170</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>171</v>
       </c>
@@ -16574,7 +16574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>172</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
         <v>173</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
         <v>174</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
         <v>177</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>178</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>181</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>182</v>
       </c>
@@ -16926,13 +16926,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
         <v>166</v>
       </c>
@@ -16976,7 +16976,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
         <v>167</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
         <v>168</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
         <v>175</v>
       </c>
@@ -17108,20 +17108,20 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8+5xrViEucsU37xu17eHylhjBP/kqzY4A4Wib5FnRJ+fDUuPMKDlVs6pl8LK+DnvoLgvvPcGI5OrwV31KiwIcQ==" saltValue="0kpOgb+GZJ8xI2Q/rf3FNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GAhoGzN7+n+62hJQ9r9dFD1bcK3HETddiSR5roGDkkaCTMGWkQiplzk0wlTZ3AlaU5bpNVdFG1+6jUDJhRhqlQ==" saltValue="eBxcm20O37C9dlBR2O+A3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17138,15 +17138,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17165,12 +17165,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>154</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17201,7 +17201,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
         <v>158</v>
       </c>
@@ -17222,7 +17222,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E0AR5v8Ng6IBdQspRiJP1HgSsvPAyJR4lMYfucbLHm3+dJNzSDpIKDlxqORQHs6yFGROBppB/Qzx/k21MUrcqA==" saltValue="ToFxKdBIUQwI046lsJw2Xg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w9/QLcEEH5HVxVJwvEUL65ChhN8NcdFvSf+sT5c0KEr6E+9TGpgnjiabIXnlpZzK7n9iif86OOo1Jm7w9t8qNA==" saltValue="xIakZg1pDt+XYsuAwbnUig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17239,20 +17239,20 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>185</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>266</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>267</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>184</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>267</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>196</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>267</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>177</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>267</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>196</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>267</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>163</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>267</v>
       </c>
@@ -17569,7 +17569,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>196</v>
       </c>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>267</v>
       </c>
@@ -17614,7 +17614,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>168</v>
       </c>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>266</v>
       </c>
@@ -17662,7 +17662,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>166</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>266</v>
       </c>
@@ -17708,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>167</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>266</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>266</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>267</v>
       </c>
@@ -17820,7 +17820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>190</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>266</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>267</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>188</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>266</v>
       </c>
@@ -17932,7 +17932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>267</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>187</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>266</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>267</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>186</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>266</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>267</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>266</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>267</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>91</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>266</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>267</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>183</v>
       </c>
@@ -18239,7 +18239,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>266</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>191</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>266</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>176</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>266</v>
       </c>
@@ -18352,7 +18352,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2xichGyumE03rX0yPf9gtHLoSxDWC7XK5jezyRSvln9XmmgYrLq13WKcAVAdOLfYLER1WIJomTiLGjW46OuWpQ==" saltValue="VwJDtuNosFKDufcnjUOVgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CwYSvS6JnsBN4P2irJpJiBsNid6NmbJGrlZcK3GDf2PMstJO1/ew34XgirBAMEHLKkxXurZm+HVvUjN8arztLQ==" saltValue="mQLTx1psdd/F71drAKs8qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18369,16 +18369,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>153</v>
       </c>
@@ -18400,7 +18400,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>162</v>
       </c>
@@ -18424,7 +18424,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>266</v>
       </c>
@@ -18442,7 +18442,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>180</v>
       </c>
@@ -18466,7 +18466,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>266</v>
@@ -18485,7 +18485,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>179</v>
       </c>
@@ -18509,7 +18509,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>266</v>
@@ -18529,7 +18529,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cAAIStrRUUXgC1QtzYPSkKKCSSjm+I0KyKnE/eb2U03wsuKLRMlqt5de2kMglP6oy9NfeJ2EObgCHitv2k6MNQ==" saltValue="AuNHX3kCYajnaVO+b/WC4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zPZadOnSZQmbUkRSIwlIDI95f0hJlvfl4b5I2PJQ2yOHg0oow6lImukyuFuvvJveg1NPQOhdGUBqxUXGmvu6WA==" saltValue="ElZpENejHfh0DEMEqwye1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18545,14 +18545,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18563,7 +18563,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -18578,55 +18578,55 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="75"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="75"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="75"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="75"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="75"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="75"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="75"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="75"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>45</v>
       </c>
@@ -18637,7 +18637,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18646,7 +18646,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>89</v>
       </c>
@@ -18667,7 +18667,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>90</v>
       </c>
@@ -18676,7 +18676,7 @@
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>91</v>
       </c>
@@ -18685,7 +18685,7 @@
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>92</v>
       </c>
@@ -18694,7 +18694,7 @@
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>93</v>
       </c>
@@ -18703,7 +18703,7 @@
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>94</v>
       </c>
@@ -18712,7 +18712,7 @@
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>95</v>
       </c>
@@ -18721,7 +18721,7 @@
       <c r="E19" s="75"/>
       <c r="F19" s="75"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>96</v>
       </c>
@@ -18730,7 +18730,7 @@
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>97</v>
       </c>
@@ -18739,7 +18739,7 @@
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>98</v>
       </c>
@@ -18748,7 +18748,7 @@
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>45</v>
       </c>
@@ -18771,7 +18771,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -18780,7 +18780,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -18796,61 +18796,61 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="75"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>105</v>
       </c>
       <c r="C27" s="75"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="75"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="75"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="75"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="75"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>109</v>
       </c>
       <c r="C32" s="75"/>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C33" s="75"/>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>111</v>
       </c>
       <c r="C34" s="75"/>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>45</v>
       </c>
@@ -18860,7 +18860,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O60HlGSVVqiImDJaqkWPCG9cvPWOl+UlD+R+BUfxkLPF4Vd6ZyOGEObCODh2Lkyh8wRu4Le5L+feFML9PCS0mQ==" saltValue="8/NdIeilaoemkWldmvrvaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gDUpKHzKXJP+BObHFyrOsQjRXoUnxp5DwBekDLKuPqWfUJCSjrbZG/VITwxIjJPA23OKCH+CuhGUa1nitLO7WA==" saltValue="wTMMkSnRC3ZwxvIMyhVFrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18878,13 +18878,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -18908,7 +18908,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>114</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>116</v>
@@ -18962,7 +18962,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>117</v>
@@ -18973,7 +18973,7 @@
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>118</v>
@@ -18984,7 +18984,7 @@
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -18992,7 +18992,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19000,7 +19000,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19063,7 +19063,7 @@
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19073,7 +19073,7 @@
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19087,7 +19087,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>124</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>129</v>
       </c>
@@ -19149,7 +19149,7 @@
       <c r="N14" s="79"/>
       <c r="O14" s="79"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>130</v>
       </c>
@@ -19206,14 +19206,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19221,7 +19221,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aqXLFTG/KZVErCZBLi9PyJPuIPju4MEdpao7casxYdC5wTwOLwN90nZ18O/20cHLUpgZb2FzolewlsplWZWehw==" saltValue="Cvifwyjo8uTBoiRMARvb5w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4L9tLkOg2rkHhTg+M0jhmh5pGnGyXjvKAXkvu8RXyYyLOIRaMnBvk6Rx3C0orEzERS5Pzf+IzvQ7wZ0LwQnKxw==" saltValue="6l7DsuCDOy+18/p04RmlpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19239,13 +19239,13 @@
       <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19269,7 +19269,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
@@ -19282,7 +19282,7 @@
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>133</v>
       </c>
@@ -19292,7 +19292,7 @@
       <c r="F3" s="77"/>
       <c r="G3" s="77"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>134</v>
       </c>
@@ -19302,7 +19302,7 @@
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>135</v>
       </c>
@@ -19328,7 +19328,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1pEZeApIj4JLcEWq/gCrCiD/lScgflFjbw+mYTfYgYYh35oGWK31oEeMMvUp/Xmy9kY6G9BphelwJyruvttYKA==" saltValue="LVPwlzFFu2o+L25GwSjSBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UuUaRaSPjxaRE6tyyR6RKFn4z7jBDuEsOwVuIp8kdyyaQ+5JuPA5GxG88O0HxdsVODXHlCKLDhnPoNxSjNKKYA==" saltValue="4A+Ts5seGncfb74meoXEhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19345,14 +19345,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -19429,10 +19429,10 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -19461,10 +19461,10 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>103</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>140</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>143</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>47</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>145</v>
       </c>
@@ -19644,7 +19644,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CMzCStXzE2fGRwltETEvFH/tfLc/Cv4u19hUORrJXsaGLlxhyVZtTw5cgDvzE0vsonHd+NXQMMtgq6Z+Pz86ag==" saltValue="+waEno4MJQw5WVa90RoVNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Pg+6Zw1IPxnthPnstPLXrBkwcokgBL0PbNbNmKv65MEeMKjLocLbRQhUbp3FeMl4R6hN+LBT1NPz+ALC54fpUQ==" saltValue="zkbtCQbiOSeBEfhQqSDGiA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19661,15 +19661,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>147</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>112</v>
@@ -19714,7 +19714,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>99</v>
@@ -19728,7 +19728,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>100</v>
@@ -19742,7 +19742,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>101</v>
@@ -19756,7 +19756,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>152</v>
@@ -19765,7 +19765,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
@@ -19779,7 +19779,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>112</v>
@@ -19791,7 +19791,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>99</v>
@@ -19803,7 +19803,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>100</v>
@@ -19815,7 +19815,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>101</v>
@@ -19827,7 +19827,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>152</v>
@@ -19838,7 +19838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>12</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>112</v>
@@ -19868,7 +19868,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>99</v>
@@ -19882,7 +19882,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>100</v>
@@ -19896,7 +19896,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>101</v>
@@ -19910,7 +19910,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>152</v>
@@ -19920,7 +19920,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="694fY62zRn6IJhiPvOxe4BWG9aLz8412ZqkDqo5OyQtf/kwgrBbhEyRwN2U1ILtYHobc5YfTyvcYXJcVAfvEVw==" saltValue="eBTXXw0FNsQo1NiV8R/bSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0cT8iau35XFeV96C6w3bxzXdsJL1dbr5jpNSeaDql0h1tFqzB+FuOSw8WpXoTEKP+jbqn8efbQKt2NGJtuowpg==" saltValue="q94Pvu49AZNIvPVUFZDjMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -19937,15 +19937,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
@@ -19959,7 +19959,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>153</v>
       </c>
@@ -19971,7 +19971,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>157</v>
       </c>
@@ -19984,7 +19984,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lGftmL5wyYZFeIU3p7OdpoCzG+j8aLYV2a/fy6gwYv1Av17JpRdGPpSYpjwaLHvnYqswXD2+R644vAw9+oaHYQ==" saltValue="kMC9nuT/IhsCRcuj64CWig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u1g7EjkT+QuIXzqpGL7A5Lruty4KIS2z5HbJyW3PZ1koCnMkYZULaBSgOWh/2YoMrZ2qXvJU04N/q8CrUWKQLg==" saltValue="hOyjNNKZj4vrQWUol7t/qQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20000,17 +20000,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>153</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -20062,7 +20062,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -20113,7 +20113,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -20198,7 +20198,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -20215,7 +20215,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>173</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>174</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -20300,7 +20300,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -20351,7 +20351,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -20402,7 +20402,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -20436,7 +20436,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -20487,7 +20487,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>154</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -20572,7 +20572,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -20606,7 +20606,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -20624,7 +20624,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -20658,11 +20658,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U39ErqgN5R9FoZLw2MIVdb7uZ7DD2n7ieL4tC50+kEd8aR9azcABGpbS1czVNQERpnz83t6liFce+wvjpV79/A==" saltValue="v4ejV0kJpRBY12eqWqnP5w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H6//3iMlokMZpS9LHWGxsdtBNoeGOPpIRkYTVSRw7fj/a/QaTW89CGcamHO/ckwl7aWkzy6I0I3CkEiirRpQUw==" saltValue="66XHa97Xd/YpW33MqkLlxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{989D83A5-8E0D-440D-8999-8F0074701D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DACD485A-5536-47EB-882E-3C94CF0AB897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8520" yWindow="6315" windowWidth="29130" windowHeight="12660" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,9 +609,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>High (HAZ-score &lt; -3)</t>
-  </si>
-  <si>
     <t>Données de l'année de référence</t>
   </si>
   <si>
@@ -913,6 +910,9 @@
   </si>
   <si>
     <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
     <t>Amaigrissement (poids-pour-taille)</t>
@@ -5123,18 +5123,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5142,7 +5142,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5151,7 +5151,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5164,12 +5164,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5228,14 +5228,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5279,12 +5279,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5320,14 +5320,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5369,19 +5369,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5436,13 +5436,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5484,13 +5484,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5531,12 +5531,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5570,7 +5570,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IniY6UWV+4NnHzIQmrbPblAB+73wZoH1Abr3G52gwCcdEnhVIMqmJgFjZ7KKKDwzewG4DAfC8xj5bjcuopykxw==" saltValue="x4Myjwh2q3WB6Tqiwyuo/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TY77YLFKtPlOxiTIQytdhSGjyy/AkSprHTTpOeA/gT1yCP96WEXls/xQun9kjKQI8InypUcikaN04ZEJWiweMQ==" saltValue="Az7bYj3S9oNtl56HgYka8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -6478,7 +6478,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5CRlK2Vo5Mrs9yVjJowwcZ2MWOckBIixxnUEjETrni2qOlc8GePIZ2Lo+nI+Ya8mUv8Femyfaf206RKP6YgmGg==" saltValue="TJPBkEi31sj3+qeWwM9H0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wsWU77QoCZ7cC9kv1geZodpNsYkqPUHeugjhGQ2dIK6sjWmVViiIXRzmDvEUmEGsvoHS0pt6qZPKY4USjjzelg==" saltValue="+B14jZZN+OKyyiaqWHc4eA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -6642,7 +6642,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zYfN6/xDwX/XWyoxEPHGcCtX44++yAqkswITifrRGCZCZGTVmbvpmEnbdJM96/tUZvCxCrOzKFrIo4KZ7xkOww==" saltValue="pXPYUAq7VqZrQ0n43lKTVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yaRvHyJuJ8grg/O5tpNQP5XJ/kzFyvj6MX93vQrOZR94ioUjKwB9LOG/kfBmbVZROWsT2w5ejCp4qyjY3UkT6A==" saltValue="Z7moVSSjo6RA3Ex0LJubfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6742,7 +6742,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LKu3iR1glPCPNbHc9zvMhOCk0K22pPpbamTm8kgXeAfO9VLdalGhw8CT9d66gS8tRY8yNDYRlluADixHhuHJiA==" saltValue="fZZ95eTDNIcdILbIVlyNAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="azHJYGLzyIkHH/eRbXKbqOKsRBK1DIIJ9NbVH/C6UWHp1h0gDwh1cvS3oFYbs50GwI5G94Obn368WZzvw76J1A==" saltValue="wMkEs9NxVQotXrBGi/FmQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6766,24 +6766,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6857,7 +6857,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uTSwj1dwxttpArBN3PDZo4eZ/OY4NbVhnAgpmkA6WdUTEiaeGY8ajXOlGEWK1rKOd1vBSUXxXGBk6S5O0TEzBA==" saltValue="yg+hkeVnOzUVYOXRBYAEAg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y7X/+RvWtPcSjP0sQ82YnMPcnU0U24uaUoBxyMVnFQ9K1KRDBJLOgE6zd/SelJzyYy1H98H4ODTqq5vHXpdO+g==" saltValue="VxHAj3xRpHNGSAQJTpzlsw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6894,19 +6894,19 @@
         <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>125</v>
@@ -6921,21 +6921,21 @@
         <v>128</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>170</v>
@@ -7450,7 +7450,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>168</v>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="59" t="s">
         <v>172</v>
@@ -8573,7 +8573,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bB/VNByxW8zdrNE81juIzWT5eYsUhyLqPAESDeCfrF5H/GpNthdcX1l76NhMsBs35IORe/GuiBMtYtMD/JpJmg==" saltValue="BIhsLA5FmLuuFn3eeGSz7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JlFoPfZ2wTKfwQXpgPuxR0Qarc/JnDCFwap5CXjeRNtp7RnlqJnt0X7d2TiwYAV7bNPy2X2JxqL2cIVRRHDoJQ==" saltValue="lnZq/iQLx+jQ80NEmkLlmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -8611,7 +8611,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j/pBQjXy7xOQtEP+yIJe2qNIZuoLSokar0Bx1xMd9V/vt5/JBjdnh9IlYni1B6LYwRam97oIvOKG8/7h5xNrZA==" saltValue="dQ8NTW/bKc7rHUtHV3zvkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LHFA+hE23RbeYIE+eVBcz7Kf69L33BZbLUL3OSoLty5gWp6e46SOpzWYdnDLy9oFa+5Ug6TFmLCQcyeMABT7VA==" saltValue="P0G8bfqvBflJoWja/aJKhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8819,7 +8819,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eejruCPmQE48f/SvIR9XeBHxc0tv5VcUJj3D0c6ib4YlsGDBIclVpZaJIoe0AZlDXs/Qv+yavB5Z1D9jHmgLLw==" saltValue="kX110pgG7fJPnbPEDXpcwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bO/GEWGHVNDG9Ao8TyFhUkr+K1MhAV/l7DxBe7sUYxmsPoodL7oLxTBAp96Rre4VJz2rjFvF3om7lPhrbZmkOA==" saltValue="e3xX4VTfl8lFKf9cZ1TEKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8858,19 +8858,19 @@
         <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>125</v>
@@ -8885,21 +8885,21 @@
         <v>128</v>
       </c>
       <c r="L1" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>170</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>168</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="52" t="s">
         <v>172</v>
@@ -10590,7 +10590,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xmxuVvBVFbDcbBSl9mYXnAeTAR/K8xjEiAWVFBSYtNtOx/gjae2NZ5FDF48WHC76v8+PwgSv8FrDtM9Sl/sqAA==" saltValue="6epCJQJ1gx4lzLEDS3sOGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uImOj7f3oXhfeyUZAOUJuAhNs05hhtZEqm4KpnV/aE+xtbIXY7ERej9iHoLj6aFYkbJeYx6JZRKMAgzishSE4w==" saltValue="Be8fj4KfbcUZaZaD+UD+Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10641,19 +10641,19 @@
         <v>131</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>227</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11336,7 +11336,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e/aCTCKMQYr9cg6SqjaC5JK7Zq1PDXVXKEm+rHdvdd3yUYdfuFwe8MVbO5+fRN4yn8LXNUlDGsqT9p1mM7dvtQ==" saltValue="VUE4FWo/nlUbFDC+GtQUVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1Lkc3bCDlqyWUkKdRpzEPFmk9BOyXjPmRSWJubMoR1W/mGa06chxSlzmErpqgGHemR5zcVY9Mw3S7WtXLlhh2w==" saltValue="jAtftvech6muOVVJguoxdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11387,24 +11387,24 @@
         <v>131</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>227</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="133" t="s">
         <v>9</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="133" t="s">
         <v>9</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="133" t="s">
         <v>9</v>
@@ -11491,7 +11491,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="133" t="s">
         <v>9</v>
@@ -11520,7 +11520,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="133" t="s">
         <v>9</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -11654,7 +11654,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
@@ -11673,7 +11673,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
@@ -11692,7 +11692,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
@@ -11710,7 +11710,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nCO3ZsIyryaKVs2yrL9b8ojkc/bOwUpA7KGReBoIub2nd/e0L5TADIjdMlrZVte92BPFaHjcaLo0f5CMs7zZ+A==" saltValue="2heSV20ArS2Y9uWyE+veBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pN2qIDz7OMhMX9ipMIfR6SApNrLElBhH3cLVDKkFh76nVUfkx9rJ3d5JRfkwTUYaInnSxi9dkRpvQrHjnzI5Jw==" saltValue="dVtBXA6TXcGzWdG2IPgJwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11735,31 +11735,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12799,7 +12799,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fKa4cH1yafCU3iT70rWjZLrNRB91kVbIbqVjynDaL0eo9bpEpFB39TEGKPxI/odzxlPpuiEEV1PFWdp95r5fSg==" saltValue="v3FZfOWU6kKLcFtiwwIY7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rDSu6LUOaYbKfemVnG6gRv6RbS5ZcVOSQQKIHbJUbyT2F0nqxLDlf8UmjXKdJry+BQCJHdekbWWHzll9MQDBMg==" saltValue="bktGZdOK5Pe8VPr7RnJomQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12840,19 +12840,19 @@
         <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -12860,7 +12860,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>156</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>156</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>156</v>
@@ -13058,7 +13058,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>156</v>
@@ -13123,7 +13123,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>156</v>
@@ -13221,7 +13221,7 @@
         <v>231</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>156</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>156</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>156</v>
@@ -13416,7 +13416,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>156</v>
@@ -13481,7 +13481,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>156</v>
@@ -13579,7 +13579,7 @@
         <v>232</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>156</v>
@@ -13644,7 +13644,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>156</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>156</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>156</v>
@@ -13839,7 +13839,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>156</v>
@@ -13948,19 +13948,19 @@
         <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="G54" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="H54" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H54" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -13968,7 +13968,7 @@
         <v>234</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>156</v>
@@ -14048,7 +14048,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>156</v>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>156</v>
@@ -14208,7 +14208,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>156</v>
@@ -14288,7 +14288,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>156</v>
@@ -14406,7 +14406,7 @@
         <v>235</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>156</v>
@@ -14486,7 +14486,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>156</v>
@@ -14566,7 +14566,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>156</v>
@@ -14646,7 +14646,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>156</v>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>156</v>
@@ -14844,7 +14844,7 @@
         <v>236</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="35" t="s">
         <v>156</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="35" t="s">
         <v>156</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="35" t="s">
         <v>156</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="35" t="s">
         <v>156</v>
@@ -15164,7 +15164,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" s="35" t="s">
         <v>156</v>
@@ -15293,19 +15293,19 @@
         <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F107" s="40" t="s">
+      <c r="G107" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G107" s="40" t="s">
+      <c r="H107" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H107" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15313,7 +15313,7 @@
         <v>238</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="35" t="s">
         <v>156</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>156</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C114" s="35" t="s">
         <v>156</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C117" s="35" t="s">
         <v>156</v>
@@ -15633,7 +15633,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C120" s="35" t="s">
         <v>156</v>
@@ -15751,7 +15751,7 @@
         <v>239</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C125" s="35" t="s">
         <v>156</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C128" s="35" t="s">
         <v>156</v>
@@ -15911,7 +15911,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" s="35" t="s">
         <v>156</v>
@@ -15991,7 +15991,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C134" s="35" t="s">
         <v>156</v>
@@ -16071,7 +16071,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C137" s="35" t="s">
         <v>156</v>
@@ -16189,7 +16189,7 @@
         <v>240</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C142" s="35" t="s">
         <v>156</v>
@@ -16269,7 +16269,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C145" s="35" t="s">
         <v>156</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>156</v>
@@ -16429,7 +16429,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C151" s="35" t="s">
         <v>156</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C154" s="35" t="s">
         <v>156</v>
@@ -16616,7 +16616,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x4YzKCB9R0Vk3zPNXrKEQ64HkLDWSZV/nPrx0YGgzAFjZuav2pJ0X1CP3WwslJmWMgu/SIwP/NmdMaWNb83PRA==" saltValue="+4gFAf3Amep4rSoaDlEzkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="quxu3JdxlbEVkTUHfdOfBLVZ2LkfbUtWbIAbe/6pdw9rB82qcKrKoWip4NsthQBhnm9w/c4WhInWLowI0jS3wg==" saltValue="CmMrwr8KMk3TXP5vpjbsSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16701,16 +16701,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16725,7 +16725,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16742,7 +16742,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16776,7 +16776,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -16918,7 +16918,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -16936,7 +16936,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -16990,7 +16990,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17007,7 +17007,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17024,7 +17024,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17041,7 +17041,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17077,16 +17077,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17101,7 +17101,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17122,7 +17122,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17164,7 +17164,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17312,7 +17312,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17333,7 +17333,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17354,7 +17354,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17417,7 +17417,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17438,7 +17438,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17459,7 +17459,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17496,16 +17496,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17520,7 +17520,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17541,7 +17541,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17562,7 +17562,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17731,7 +17731,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17752,7 +17752,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17794,7 +17794,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -17836,7 +17836,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -17857,7 +17857,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -17878,7 +17878,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -17898,7 +17898,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S1YDINyXK6jaHQ3FREbWA16/uGgsDixRu4yOhgjpm8mU7XEmVX8kHvpQU78tnILEPJ4Sn6aofEtWpjXvejtTRA==" saltValue="wJ45wdE6myjzTHg3FRN/0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+yjxVpY4cqRKgTiWKP/k+SCwSf7sWOzYk8MJQJuXhX9mqdXHxfjj8beGbhqR9mQwuutBo482FtlPOJgFjeGnDw==" saltValue="qtssg2GVu8rSzZ0nmg1tTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -17945,19 +17945,19 @@
         <v>264</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="G2" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="H2" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H2" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -17971,7 +17971,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>13</v>
@@ -18086,7 +18086,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>13</v>
@@ -18201,7 +18201,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>13</v>
@@ -18316,7 +18316,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>13</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>13</v>
@@ -18546,7 +18546,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>13</v>
@@ -18675,19 +18675,19 @@
         <v>268</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="G29" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="H29" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H29" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18701,7 +18701,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>13</v>
@@ -18816,7 +18816,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>13</v>
@@ -18931,7 +18931,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>13</v>
@@ -19046,7 +19046,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>13</v>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>13</v>
@@ -19276,7 +19276,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>13</v>
@@ -19429,7 +19429,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>271</v>
@@ -19476,7 +19476,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>271</v>
@@ -19523,7 +19523,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>271</v>
@@ -19588,19 +19588,19 @@
         <v>274</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E65" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="103" t="s">
+      <c r="G65" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G65" s="103" t="s">
+      <c r="H65" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H65" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19614,7 +19614,7 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>132</v>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>132</v>
@@ -19844,7 +19844,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>132</v>
@@ -19959,7 +19959,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>132</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>132</v>
@@ -20189,7 +20189,7 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>132</v>
@@ -20304,7 +20304,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>132</v>
@@ -20419,7 +20419,7 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>132</v>
@@ -20534,7 +20534,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="43" t="s">
         <v>132</v>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="126" t="s">
         <v>135</v>
@@ -20663,19 +20663,19 @@
         <v>274</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E104" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F104" s="103" t="s">
+      <c r="G104" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G104" s="103" t="s">
+      <c r="H104" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H104" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20829,25 +20829,25 @@
         <v>264</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E112" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F112" s="103" t="s">
+      <c r="G112" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G112" s="103" t="s">
+      <c r="H112" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H112" s="103" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>13</v>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117" s="43" t="s">
         <v>13</v>
@@ -21053,7 +21053,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C121" s="43" t="s">
         <v>13</v>
@@ -21156,7 +21156,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" s="43" t="s">
         <v>13</v>
@@ -21259,7 +21259,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C129" s="43" t="s">
         <v>13</v>
@@ -21362,7 +21362,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C133" s="43" t="s">
         <v>13</v>
@@ -21486,25 +21486,25 @@
         <v>268</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E139" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F139" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F139" s="103" t="s">
+      <c r="G139" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G139" s="103" t="s">
+      <c r="H139" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H139" s="103" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>13</v>
@@ -21607,7 +21607,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C144" s="43" t="s">
         <v>13</v>
@@ -21710,7 +21710,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>13</v>
@@ -21813,7 +21813,7 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C152" s="43" t="s">
         <v>13</v>
@@ -21916,7 +21916,7 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C156" s="43" t="s">
         <v>13</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C160" s="43" t="s">
         <v>13</v>
@@ -22163,7 +22163,7 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>271</v>
@@ -22210,7 +22210,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>271</v>
@@ -22257,7 +22257,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>271</v>
@@ -22329,25 +22329,25 @@
         <v>274</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E175" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F175" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F175" s="103" t="s">
+      <c r="G175" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G175" s="103" t="s">
+      <c r="H175" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H175" s="124" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C176" s="43" t="s">
         <v>132</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C180" s="43" t="s">
         <v>132</v>
@@ -22545,7 +22545,7 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C184" s="43" t="s">
         <v>132</v>
@@ -22644,7 +22644,7 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C188" s="43" t="s">
         <v>132</v>
@@ -22743,7 +22743,7 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C192" s="43" t="s">
         <v>132</v>
@@ -22842,7 +22842,7 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C196" s="43" t="s">
         <v>132</v>
@@ -22941,7 +22941,7 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C200" s="43" t="s">
         <v>132</v>
@@ -23040,7 +23040,7 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C204" s="43" t="s">
         <v>132</v>
@@ -23139,7 +23139,7 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C208" s="43" t="s">
         <v>132</v>
@@ -23250,7 +23250,7 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B214" s="126" t="s">
         <v>135</v>
@@ -23259,19 +23259,19 @@
         <v>274</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E214" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F214" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F214" s="103" t="s">
+      <c r="G214" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G214" s="103" t="s">
+      <c r="H214" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H214" s="124" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -23402,26 +23402,26 @@
         <v>264</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E222" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F222" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F222" s="103" t="s">
+      <c r="G222" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G222" s="103" t="s">
+      <c r="H222" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H222" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C223" s="43" t="s">
         <v>13</v>
@@ -23528,7 +23528,7 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C227" s="43" t="s">
         <v>13</v>
@@ -23635,7 +23635,7 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C231" s="43" t="s">
         <v>13</v>
@@ -23742,7 +23742,7 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C235" s="43" t="s">
         <v>13</v>
@@ -23849,7 +23849,7 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C239" s="43" t="s">
         <v>13</v>
@@ -23956,7 +23956,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C243" s="43" t="s">
         <v>13</v>
@@ -24085,26 +24085,26 @@
         <v>268</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E249" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F249" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F249" s="103" t="s">
+      <c r="G249" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G249" s="103" t="s">
+      <c r="H249" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H249" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C250" s="43" t="s">
         <v>13</v>
@@ -24211,7 +24211,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C254" s="43" t="s">
         <v>13</v>
@@ -24318,7 +24318,7 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C258" s="43" t="s">
         <v>13</v>
@@ -24425,7 +24425,7 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C262" s="43" t="s">
         <v>13</v>
@@ -24532,7 +24532,7 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C266" s="43" t="s">
         <v>13</v>
@@ -24639,7 +24639,7 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C270" s="43" t="s">
         <v>13</v>
@@ -24789,7 +24789,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>271</v>
@@ -24836,7 +24836,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>271</v>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>271</v>
@@ -24956,26 +24956,26 @@
         <v>274</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E285" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F285" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F285" s="103" t="s">
+      <c r="G285" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G285" s="103" t="s">
+      <c r="H285" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H285" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C286" s="43" t="s">
         <v>132</v>
@@ -25078,7 +25078,7 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C290" s="43" t="s">
         <v>132</v>
@@ -25181,7 +25181,7 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C294" s="43" t="s">
         <v>132</v>
@@ -25284,7 +25284,7 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C298" s="43" t="s">
         <v>132</v>
@@ -25387,7 +25387,7 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C302" s="43" t="s">
         <v>132</v>
@@ -25490,7 +25490,7 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C306" s="43" t="s">
         <v>132</v>
@@ -25593,7 +25593,7 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C310" s="43" t="s">
         <v>132</v>
@@ -25696,7 +25696,7 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C314" s="43" t="s">
         <v>132</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C318" s="43" t="s">
         <v>132</v>
@@ -25915,7 +25915,7 @@
     </row>
     <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B324" s="126" t="s">
         <v>135</v>
@@ -25924,19 +25924,19 @@
         <v>274</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E324" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F324" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F324" s="103" t="s">
+      <c r="G324" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G324" s="103" t="s">
+      <c r="H324" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H324" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26043,7 +26043,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KNsAW+PsTKWAnXtefzljeQdFT8SMAozt527WcppZnYI9ZnAK2k/z6Qqavo1b6/xfdYcOWA+g5tjZHnExlB+djA==" saltValue="93+hPFqu6TfhJV06wJBm0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hxUkrRpJKkHY3w/1TyIgWibRqhupqsN00ANIw/B35qN/AtMwNbh7QYPkacCmioH1qfrigDLpQDYV+OHNscVS5Q==" saltValue="w5nmmI7bH+gnMKHzayyldw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26086,19 +26086,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26325,16 +26325,16 @@
     </row>
     <row r="19" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -26376,19 +26376,19 @@
       </c>
       <c r="B24" s="119"/>
       <c r="C24" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="F24" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="G24" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -26675,16 +26675,16 @@
       <c r="A41" s="104"/>
       <c r="B41" s="104"/>
       <c r="C41" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="E41" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="F41" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="G41" s="104"/>
     </row>
@@ -26731,19 +26731,19 @@
       </c>
       <c r="B46" s="119"/>
       <c r="C46" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="F46" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="G46" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -27030,16 +27030,16 @@
       <c r="A63" s="104"/>
       <c r="B63" s="104"/>
       <c r="C63" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="E63" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="56" t="s">
+      <c r="F63" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F63" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="G63" s="104"/>
     </row>
@@ -27065,7 +27065,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kXIfgZd3hkk4EAayEKR+kEG3y4wmH2XddE8Z4xDSrHoLUtTcgxN7rkM8F0YWuD6i1wMo3x0UtJOsaTkdCBd04w==" saltValue="W8QGF42U0VG81aCflErFMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QG7qzjo4CvZm3vU8HNQ1XDoFT7WVfD5yF1qaVmIrbGvw8fGleOe+gyMNJnShFkng0T0cNLeIcP91+Y1wScQumw==" saltValue="L9XzbaP8HMHwnoJd+F6m7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27101,16 +27101,16 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27352,16 +27352,16 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="F16" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27651,16 +27651,16 @@
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="F31" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27940,7 +27940,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OgEUl5wG00saLf3ArM+BbHIpXcEcL5DlbfDHyaG6SbbsYbARb/q/u1ES6bHXEXetderQBLMzdrzZecthOObjtA==" saltValue="f9/SwhjHKE2vGQpMjK243Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IidEVA1qF6haB7sN2KV/7PzZLUT3VQAeZFQLcT7sIgImOXKfdTXuJFTTu8WtCd45U1OKd/1LPJR/OPfHjbTaaw==" saltValue="MpWKk2T+Kj+aOTfPclkLCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27972,31 +27972,31 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H1" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K1" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L1" s="103" t="s">
         <v>125</v>
@@ -28735,31 +28735,31 @@
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="F23" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="103" t="s">
+      <c r="G23" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H23" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="103" t="s">
+      <c r="J23" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="K23" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K23" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L23" s="103" t="s">
         <v>125</v>
@@ -29706,31 +29706,31 @@
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="F45" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="G45" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H45" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="103" t="s">
+      <c r="J45" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J45" s="103" t="s">
+      <c r="K45" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K45" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L45" s="103" t="s">
         <v>125</v>
@@ -30669,7 +30669,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oShGr9daaEsCeMJ9d9vKxJbN/QeiHScFC/rHzbH7hELEKOJwznOyhahtwT6Ed/FLf1z3a2xmCM/Cg729uY+0ZQ==" saltValue="NPBxPzUW5RUyuOkrRuA82w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="prxliSW1CoZkQJ5sFdv+VOVE/4j8yunw75sfHkZ4hRLOvNpCntU3ib5yca7hryLnvjWQNlXk2W8s0tCjEwf72g==" saltValue="wrhFm3Ku/Pvbcag2nIY3FQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -30701,19 +30701,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -30781,19 +30781,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="F8" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="G8" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -30871,19 +30871,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="F15" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -30953,7 +30953,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9+DmbQkT7UwPWaBcAY3AJWJ5krnlcN2tOQuYwHlUSTxOiIC3n8Mwo7z+MHNROgZ/fAwDG8f6M3amOOLrI6PBqA==" saltValue="ZFO2RBUElMamXY7q3rKj4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NkYp4dh4AazdrrzfzIxerF92c2iu2uClSw8hsY1qdCKkCKQeKiyvAOZ8j0rsEuV2OQkAEHpeTzjztrmxePl+ng==" saltValue="JqMTBnuaRFFJpyB0BqsSJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -30997,19 +30997,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -31017,7 +31017,7 @@
         <v>192</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>330</v>
@@ -31353,7 +31353,7 @@
         <v>175</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>330</v>
@@ -31401,7 +31401,7 @@
         <v>173</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>330</v>
@@ -31447,7 +31447,7 @@
         <v>174</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>330</v>
@@ -31493,7 +31493,7 @@
         <v>196</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>330</v>
@@ -31559,7 +31559,7 @@
         <v>197</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>330</v>
@@ -31625,7 +31625,7 @@
         <v>195</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>330</v>
@@ -31691,7 +31691,7 @@
         <v>194</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>330</v>
@@ -31757,7 +31757,7 @@
         <v>193</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>330</v>
@@ -31823,7 +31823,7 @@
         <v>199</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>330</v>
@@ -31886,7 +31886,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>330</v>
@@ -31952,7 +31952,7 @@
         <v>190</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="52" t="s">
         <v>330</v>
@@ -31998,7 +31998,7 @@
         <v>198</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="52" t="s">
         <v>330</v>
@@ -32044,7 +32044,7 @@
         <v>183</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>330</v>
@@ -32103,19 +32103,19 @@
         <v>15</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="G52" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="H52" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -32123,7 +32123,7 @@
         <v>192</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="52" t="s">
         <v>330</v>
@@ -32531,7 +32531,7 @@
         <v>175</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>330</v>
@@ -32587,7 +32587,7 @@
         <v>173</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>330</v>
@@ -32643,7 +32643,7 @@
         <v>174</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>330</v>
@@ -32699,7 +32699,7 @@
         <v>196</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>330</v>
@@ -32780,7 +32780,7 @@
         <v>197</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="52" t="s">
         <v>330</v>
@@ -32861,7 +32861,7 @@
         <v>195</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>330</v>
@@ -32942,7 +32942,7 @@
         <v>194</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" s="52" t="s">
         <v>330</v>
@@ -33023,7 +33023,7 @@
         <v>193</v>
       </c>
       <c r="B86" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="52" t="s">
         <v>330</v>
@@ -33104,7 +33104,7 @@
         <v>199</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="52" t="s">
         <v>330</v>
@@ -33182,7 +33182,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="52" t="s">
         <v>330</v>
@@ -33263,7 +33263,7 @@
         <v>190</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="52" t="s">
         <v>330</v>
@@ -33319,7 +33319,7 @@
         <v>198</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>330</v>
@@ -33375,7 +33375,7 @@
         <v>183</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="52" t="s">
         <v>330</v>
@@ -33444,19 +33444,19 @@
         <v>15</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E103" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F103" s="40" t="s">
+      <c r="G103" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G103" s="40" t="s">
+      <c r="H103" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H103" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -33464,7 +33464,7 @@
         <v>192</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="52" t="s">
         <v>330</v>
@@ -33872,7 +33872,7 @@
         <v>175</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>330</v>
@@ -33928,7 +33928,7 @@
         <v>173</v>
       </c>
       <c r="B121" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>330</v>
@@ -33984,7 +33984,7 @@
         <v>174</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>330</v>
@@ -34040,7 +34040,7 @@
         <v>196</v>
       </c>
       <c r="B125" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>330</v>
@@ -34121,7 +34121,7 @@
         <v>197</v>
       </c>
       <c r="B128" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C128" s="52" t="s">
         <v>330</v>
@@ -34202,7 +34202,7 @@
         <v>195</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>330</v>
@@ -34283,7 +34283,7 @@
         <v>194</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C134" s="52" t="s">
         <v>330</v>
@@ -34364,7 +34364,7 @@
         <v>193</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>330</v>
@@ -34445,7 +34445,7 @@
         <v>199</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>330</v>
@@ -34523,7 +34523,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>330</v>
@@ -34604,7 +34604,7 @@
         <v>190</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>330</v>
@@ -34660,7 +34660,7 @@
         <v>198</v>
       </c>
       <c r="B148" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C148" s="52" t="s">
         <v>330</v>
@@ -34716,7 +34716,7 @@
         <v>183</v>
       </c>
       <c r="B150" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C150" s="52" t="s">
         <v>330</v>
@@ -34768,7 +34768,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WzZ0/VF6lcR7bYJyJ4zHdGtGZAIhnZ97IoJcWU6sE/t6NvNZwSRNEcyHe9puByW3xSmKTzZbqtrTvXIS2tAg6A==" saltValue="NIU2UnYdB2cjg4ut6+ZENw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="upNxu13B4nAtNcwdPN8xLaUsU4/QJfF9XbWQFtttzAzrV/KwgtjnNDeSHoTehm4BKkpeKHGeJhPQbK1Nxfz/0Q==" saltValue="8fS/yHTYnya93EmvVETfhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -34824,7 +34824,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>330</v>
@@ -34866,7 +34866,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>330</v>
@@ -34909,7 +34909,7 @@
         <v>186</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>330</v>
@@ -34978,7 +34978,7 @@
         <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>330</v>
@@ -35026,7 +35026,7 @@
         <v>187</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>330</v>
@@ -35075,7 +35075,7 @@
         <v>186</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>330</v>
@@ -35150,7 +35150,7 @@
         <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>330</v>
@@ -35198,7 +35198,7 @@
         <v>187</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>330</v>
@@ -35247,7 +35247,7 @@
         <v>186</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>330</v>
@@ -35292,7 +35292,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="44x8gFmCBqlpGEXh5DpIMIW1tzvOG6vyxuigfmXs/tl/zxq9UiC2PLL59/MJDwzo8aQDaABRelErM/RozcnTiA==" saltValue="rHcS78WUoYTsJHHi+OejkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="blmxfFfB0lCyZD0Dq4LIjqdA0nApfLTjRKhpbyq1tupa4mdDIBqBvw1BAd5q44ZEuat67iyPkvD7n9Zn70AFOQ==" saltValue="TVkbYTlIVskd3LulAKXZqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -35331,13 +35331,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -35346,7 +35346,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -35354,7 +35354,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -35362,7 +35362,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -35370,7 +35370,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -35378,7 +35378,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -35386,7 +35386,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -35394,7 +35394,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -35402,7 +35402,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -35410,7 +35410,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -35430,28 +35430,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -35468,7 +35468,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -35485,7 +35485,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -35502,7 +35502,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -35519,7 +35519,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -35536,7 +35536,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -35553,7 +35553,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -35570,7 +35570,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -35587,7 +35587,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -35604,7 +35604,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -35636,13 +35636,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -35652,7 +35652,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -35660,7 +35660,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -35668,7 +35668,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -35676,7 +35676,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -35692,7 +35692,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -35700,7 +35700,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -35708,7 +35708,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -35716,7 +35716,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -35724,7 +35724,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -35732,7 +35732,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LR7ErYnFmiwVFh3aekQsChk94qqzC+3RXA3M7by2mO8gcER8ueXgr0plzFGUjJBiuL/RwrR/t7exgz5o25ttJA==" saltValue="XiC2ixKsXyl+JMp//N/gkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6IpHzBBP3H94DATQAUxq9r9b7OqJlxteuhja0xm9RfY2Yv4xAN/aMpcd1p8aNu0v7+AR2xrenSwC6ydmzq13mw==" saltValue="V8c+1j83wpImBBS2ameK4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -35762,30 +35762,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -35811,7 +35811,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -35837,7 +35837,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -35858,7 +35858,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36004,19 +36004,19 @@
         <v>124</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>125</v>
@@ -36031,16 +36031,16 @@
         <v>128</v>
       </c>
       <c r="L13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36159,7 +36159,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YFz6Z8yZDjpXn9WwhykkW02vNTXy8hk2iIVCZP3/q2RUfjGhvo+LlwdjiCd3F/1XQGWfrU/3+DFt+qlCqAq/gA==" saltValue="uR5ycQJI4aw1SgHo/edW5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t0kwT+SIX/Q8XrwLPYiOGepQ5uwSjnl1AUmGPfEbMJf+i4LfnzhTX63S4kJ+SKqarR7isxiHPiN25Tpb1jKmWw==" saltValue="Mi4ryVC39eFGaMhPjLM6wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36189,22 +36189,22 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -36296,7 +36296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jS6TFXnxeHVXlxv+4MDNLtVghISZOn9HoTieST4qB59W0u38Ud4cHY3JlYt5NSpGumU3YpzbtvNdHFt+IM5IkQ==" saltValue="v8oHG2ssEFLzaK5qMVKj9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JbQottLFm3ckxU/qq3rPIqub448CgtG44n6rkkILa6pNHlhTQ/PydisPHtaEwOTdk6PN6kqlg68mNPvBLNhxuA==" saltValue="Hr1wu9RHzSQAI7v7+ctBhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36413,7 +36413,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -36472,7 +36472,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>144</v>
@@ -36502,7 +36502,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DCn4+fFRSjeWx4LEnGHcoX67jJHtQ8R0BkXiFiDgLHnm2WsG8LhoOoaMCDedT8lWsQUK63zNI6ogEJwvIUg1qA==" saltValue="OBrNh1rrQDNBX4PgkhI0Wg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VLm6xQDsrtg34GXHoSmJRGEim6ZddbuUK3Y9GbHgbdXHLEwQURNyuZCqqrMupbWgFWiTqjPLHc4TeYzO5RdFqw==" saltValue="0Jq/wXQw+Kc791btq1O/NA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36580,7 +36580,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="G/1UfNJTyAxTMLlorD4AHG1em9K/vLMRs6q2FzRm32g4Zl7MQTcbT8CwNu7Qj9BpZB1/wwEtGqugC9kDmsqc8Q==" saltValue="ybmW2gfo4DbuOhUEZr0Lkw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q1k4a6n3haqRw06/JpuBnHxt0zBX6zA4cEUoGtVJyNkRGl6HLFxoGY2jJkLFLA/W6WD1slnN4YhS5skXhG2MKw==" saltValue="yMnikPUZqDkNd0yMX1EgFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36626,7 +36626,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -36638,7 +36638,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -36652,7 +36652,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -36666,7 +36666,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -36680,7 +36680,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -36705,7 +36705,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -36719,7 +36719,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -36731,7 +36731,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -36743,7 +36743,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -36755,7 +36755,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -36780,7 +36780,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
@@ -36794,7 +36794,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
@@ -36808,7 +36808,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
@@ -36822,7 +36822,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
@@ -36836,7 +36836,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
@@ -36857,7 +36857,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0j4K2aYynxfGGg/r5PmeB134uAtmF+7bC5qR9oUJJegr8EITkuUDHNKEoWv/CdgmfSjvpGHTT39Vxh3LCR1pXg==" saltValue="zfZUneGfaoclLN5qh/AQAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pisCUgrK3b6aePcfZd8qAozMRpbjP0XLBk0cYvHBigXFRHz88NuGNtoR4EC9qLBC437pJm4aUX5yboPeDSuzdA==" saltValue="eXNhthFWb4JRexOd/C/7CA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -36921,7 +36921,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4YnC4GnBtTch8fhKExyv203otHxgTvLMlT3y7q2tCpaJET+wyAJ3c10IdkokWH2s6LRpWgXo/s+rWmRq3pKFGQ==" saltValue="9dlEQG7KeXaL7yt/oqWMxA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cWbQy9YUmwAb6mydBOXG+3Lscdp6zknDuaWOcue1jYnwUwf3BuMB/ggaUb5bNu+gH3R7ehv+8Ywwx4ksgtsVuQ==" saltValue="3LXUd0aKAWi+D8kMRvPXsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4800DCD-E7A4-410C-9450-D299F12AD3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD48CB6-BDEE-4203-9879-0277D164E19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="3555" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
     <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
-    <sheet name="Paquets IYCF" sheetId="55" r:id="rId8"/>
+    <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
@@ -32,13 +32,13 @@
     <sheet name="Programmes - population touchée" sheetId="62" state="hidden" r:id="rId17"/>
     <sheet name="Programme - secteurs à risque" sheetId="63" r:id="rId18"/>
     <sheet name="Population des sect. à risque" sheetId="64" state="hidden" r:id="rId19"/>
-    <sheet name="Rapport des cotes IYCF" sheetId="65" r:id="rId20"/>
+    <sheet name="Rapport des cotes ANJE" sheetId="65" r:id="rId20"/>
     <sheet name="Risques des rés. des naissances" sheetId="66" r:id="rId21"/>
     <sheet name="Risques relatifs" sheetId="67" r:id="rId22"/>
     <sheet name="Rapports des cotes" sheetId="68" r:id="rId23"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" r:id="rId24"/>
     <sheet name="Programmes-anémie" sheetId="70" r:id="rId25"/>
-    <sheet name="Programmes-amaigrissement" sheetId="71" r:id="rId26"/>
+    <sheet name="Programmes-émaciation" sheetId="71" r:id="rId26"/>
     <sheet name="Programmes pour les enfants" sheetId="72" r:id="rId27"/>
     <sheet name="Programmes pour les FE" sheetId="73" r:id="rId28"/>
   </sheets>
@@ -598,9 +598,6 @@
     <t>Sepsis</t>
   </si>
   <si>
-    <t>IPTp</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -613,19 +610,10 @@
     <t>Field</t>
   </si>
   <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
-    <t>IYCF 3</t>
   </si>
   <si>
     <t>Causes</t>
@@ -937,7 +925,7 @@
     <t>État</t>
   </si>
   <si>
-    <t>Retard de croissance (taille-pour-l'âge)</t>
+    <t>Retard de croissance (taille-pour-âge)</t>
   </si>
   <si>
     <t>Normal (score HAZ &gt; -1)</t>
@@ -952,7 +940,7 @@
     <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
-    <t>Amaigrissement (poids-pour-taille)</t>
+    <t>Émaciation (poids-pour-taille)</t>
   </si>
   <si>
     <t>Normal (score WHZ &gt; -1)</t>
@@ -1009,7 +997,7 @@
     <t>Prévalence du retard de croissance (%)</t>
   </si>
   <si>
-    <t>Prévalence de l'amaigrissement (%)</t>
+    <t>Prévalence de l'émaciation (%)</t>
   </si>
   <si>
     <t>Prévalence de l'anémie (%)</t>
@@ -1039,7 +1027,7 @@
     <t>Coût</t>
   </si>
   <si>
-    <t>Épisode d'amaigrissement d'un enfant</t>
+    <t>Épisode d'émaciation d'un enfant</t>
   </si>
   <si>
     <t>Décès d'enfant</t>
@@ -1057,7 +1045,7 @@
     <t>Enfant souffrant d'un retard de croissance qui aura 5 ans (au cours de sa vie)</t>
   </si>
   <si>
-    <t>Paquet IYCF</t>
+    <t>Paquet ANJE</t>
   </si>
   <si>
     <t>Population cible</t>
@@ -1073,6 +1061,15 @@
   </si>
   <si>
     <t>Tous</t>
+  </si>
+  <si>
+    <t>ANJE 1</t>
+  </si>
+  <si>
+    <t>ANJE 2</t>
+  </si>
+  <si>
+    <t>ANJE 3</t>
   </si>
   <si>
     <t>Programme</t>
@@ -1141,10 +1138,13 @@
     <t>SFAF pour les femmes enceintes (établissement de santé)</t>
   </si>
   <si>
+    <t>TPIg</t>
+  </si>
+  <si>
     <t>Enrichissement du sel en fer et en iode</t>
   </si>
   <si>
-    <t>Méthode mère kangourou</t>
+    <t>Soins maternals kangourou</t>
   </si>
   <si>
     <t>Supplémentation en nutriments à base de lipides</t>
@@ -1189,7 +1189,7 @@
     <t>WASH: Eau courante</t>
   </si>
   <si>
-    <t>Zinc pour le traitement + SRO</t>
+    <t>SRO+Zn pour le traitement de la diarrhée</t>
   </si>
   <si>
     <t>Supplémentation en zinc</t>
@@ -1273,10 +1273,10 @@
     <t>Retard de croissance</t>
   </si>
   <si>
-    <t>Prévention de l'amaigrissement</t>
+    <t>Prévention de l'émaciation</t>
   </si>
   <si>
-    <t>Traitement de l'amaigrissement</t>
+    <t>Traitement de l'émaciation</t>
   </si>
   <si>
     <t>Résultats des naissances</t>
@@ -1333,7 +1333,7 @@
     <t>Rapport des cote pour des conditions</t>
   </si>
   <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+    <t>Émaciation (score-HAZ &lt; -2)</t>
   </si>
   <si>
     <t>Risques relatifs des causes du décès néonatales</t>
@@ -1384,7 +1384,7 @@
     <t>Rapports des cotes pour les femmes avec l'anémie maternelle - supérieur</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-âge (retard de croissance)</t>
   </si>
   <si>
     <t>Cause du décès</t>
@@ -1426,10 +1426,10 @@
     <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (émaciation)</t>
   </si>
   <si>
-    <t>Amaigrissement</t>
+    <t>Émaciation</t>
   </si>
   <si>
     <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
@@ -1480,7 +1480,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - inférieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - inférieur</t>
+    <t>Soins maternals kangourou - inférieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - inférieur</t>
@@ -1519,7 +1519,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - supérieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - supérieur</t>
+    <t>Soins maternals kangourou - supérieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - supérieur</t>
@@ -5169,18 +5169,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5188,7 +5188,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5197,7 +5197,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5210,12 +5210,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5274,14 +5274,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5325,12 +5325,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5366,14 +5366,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5415,19 +5415,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5482,13 +5482,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5577,12 +5577,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="66">
         <v>0.02</v>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i4VfANTkHOTpdgsw8p2GkakeXGzmXuhtRPNMb23FyYaFFzcDRjvd+/D4c1y1Escmy3+jRXb+kDo41GVufMctUA==" saltValue="I/2r4OS6ub44Z+1t76h+PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="guaI0J3i0xMs8Px0xtCpOkhhvbXwf9yvTzG+7GRjsYilBmTnLlB1QNR/2+oHIMSOOI1MJAAyTMTda3YzVXx3xA==" saltValue="c78Z+2ztEuLfYZTgdu6Xgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5656,20 +5656,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>203</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
         <v>204</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="81">
         <v>0.9</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NEmEYBzAhhjoDUQ3MGsIk/9gmDdX1mE91KHL4cpMalesypUhpd77GglijPSbgQIdJxDr5AlVRtpVWOsX6x4VDw==" saltValue="AiWhLfAVFQTvJqFt4dZhtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G8XL85vCFzvPhImEenccZqGS1ukXRbkVNVzwzeDCDInfziIHR0cXRF/1kAqYooyUFa5mGUVfZJ60NowoLYxhKQ==" saltValue="KV1X+a/uKR8el3obng/l2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6599,7 +6599,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>207</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>190</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>190</v>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sjH1kvQLhaokzQISguxY5EQGf6HaMX0s+Fvy5mCSO2opSxLcydQdlG8EVP69FJPik2yO00mNvPIppQ/xHSb93A==" saltValue="0V8uHit2XPNSjtk8ynq48w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+QPMtuEDknfMQMpEGtBCNlxlccWTkwsKQr8RmU8AwkPY15veDBpE6fdrHzOw8NRPTkws5mwSn5FNE0lZiNjJqA==" saltValue="4ux234WW1drLLavZALyXEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6746,17 +6746,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kN96bRSDEh3XsGu+4ku6rcQmaFlzW2BjSIh/+H5IJdKaMBub77WN1WRbrWBzOGF+pU3L4IqKBC6JhY0DA3HcrQ==" saltValue="e8Vip8ushw6uHeD1JDzulw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hlvSoe9zGiavcES4nMCK7Gqp1Pth30wYhLtwgkTOxwtbgKeyevSfqMfHjpZQvojumCHWuGM4vopzjEA0t7APyQ==" saltValue="9TwRSUbIVGpFcXCUgMT4kg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6844,24 +6844,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VFcoEOL/6Ogxf8puE2xw3dcNt8t1FsW3fn9DVao1AFi3SzaXedXQTVBMy2gXsbapmh1BAlcnS9gJ4jc2Io9GSQ==" saltValue="tmddC9RLqINeB3cwLFwKtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="slUP++oqFFdSR6aWibzYAxrTIX0OmWaj70uz63Dng8WQmbyW4CqonyONeIQVj57Mc8awAXunzm0q06oOX92XFQ==" saltValue="JDAjHKmC+v5LkGsCc3gMlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6969,54 +6969,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -7626,7 +7626,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -7671,7 +7671,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -7720,7 +7720,7 @@
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -7955,10 +7955,10 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="88">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>211</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pf1irvGrBbsbHfvg2ZeHfce/m8ln+gkm8azPrCDlgg+Do9vySXMOuAPBFQ0Tt3f/U0L/lKE3TmMgqtIE+/HBLA==" saltValue="dIb1ZFbVOtIjULRzH3tTqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+m9ssK0zp+igiAmHeJll9kXtIUTdi/MUfpnc71bONJoJNDF6D1UKPl6LVae95+fxCl6ZVL/UNR+OAP7V+Mqvtg==" saltValue="fWJxJhCJOW9k1FOZhkcHDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nbhVmJup6C1YENkKqz/QvtIcaAOReUlmH1hqNkTIoKWLd2nJiLLDujf0pQY1v9gt5l48oBZlMNm0gZfZOJvXFg==" saltValue="HYflgOdUk9/s206ndCcW9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="itdJwibD6PEV0JQwTiIa48qA1ytGaYvIGutNL9TRHtus3zdbHNVf6SHSjPFG/Awt6FSAI8ROol/AQalhCd0yfA==" saltValue="2sE4N4OsmuEs9MGp45rPZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8768,10 +8768,10 @@
         <v>215</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>225</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TIlA4mkfVPNneMuRDoi6jMSwpraUhg5v6kKWo/c8QHbS/kGN6G9RvfbByKZng/RZacghnbnXR7+3PnrL9i680w==" saltValue="YzUR2OgPMXJSS7bg8tXWug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LdDaCG/H3qYh14oWfTk67poUEIbeg2A3KkASmVpJ8OhSbjtB8JH+SwhBXvHWdAQnsB1oTRjLv4hDX/Ut63IdMg==" saltValue="EEQVKpoM0CfzkpuDBbmIJw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8979,54 +8979,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -9702,10 +9702,10 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -9750,7 +9750,7 @@
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="91" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -10074,10 +10074,10 @@
     </row>
     <row r="27" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -10167,7 +10167,7 @@
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="133">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>211</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="epDkAkwzkQxHHcsN9M3+Kb/7V8t43sUdh/Zu2z3LjdWfEgwxOiP/e3RnUY2urtZm5Q/TYwAcEIlLpeGoLaHzRw==" saltValue="OEJZrMmm0CwDri1K6u20DQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZlFwimG/pZ+x6+cFH7JknMFD2Jukw0FpVJDOD5AVgZQokE3CDNZz8e1oIozPxsZ6pc4h9VJI4zpKrbcIe4mDmw==" saltValue="zTLZ7JdKBB6EfHTkxxnkyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10791,13 +10791,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -10806,27 +10806,27 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -10836,14 +10836,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -10852,7 +10852,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10860,12 +10860,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -10877,11 +10877,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -10905,26 +10905,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -10932,18 +10932,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -10951,18 +10951,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -10970,11 +10970,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -10987,11 +10987,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11004,11 +11004,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11021,11 +11021,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11038,11 +11038,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11050,18 +11050,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -11069,28 +11069,28 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -11114,16 +11114,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="133" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" s="133" t="s">
-        <v>9</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -11133,16 +11133,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -11152,16 +11152,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -11180,10 +11180,10 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
@@ -11193,13 +11193,13 @@
         <v>185</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -11223,7 +11223,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -11239,7 +11239,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -11256,7 +11256,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -11293,7 +11293,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -11309,7 +11309,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -11320,11 +11320,11 @@
         <v>192</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -11339,13 +11339,13 @@
         <v>206</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
@@ -11357,13 +11357,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
       <c r="D31" s="133"/>
       <c r="E31" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="133"/>
       <c r="G31" s="133"/>
@@ -11382,10 +11382,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -11401,10 +11401,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -11420,10 +11420,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -11439,10 +11439,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -11458,10 +11458,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -11477,10 +11477,10 @@
       <c r="E37" s="133"/>
       <c r="F37" s="133"/>
       <c r="G37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -11497,7 +11497,7 @@
       <c r="F38" s="133"/>
       <c r="G38" s="133"/>
       <c r="H38" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
@@ -11508,24 +11508,24 @@
         <v>200</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="133"/>
       <c r="D39" s="133"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
       <c r="G39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I39" s="133"/>
       <c r="J39" s="133"/>
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PiERp8LmRmMwa3ttyRL/BUWYs2WTIMN+foSgnCz90ZvNGyzY+4BbunefJumMppnpAq+RcS63WqVrY8eLPENjLA==" saltValue="KXD/076LXkuaPo3kRBJ7Cw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fUWCv6szUTapyilsYmsxgk6kDV6e+9YJ38W22KVbVril7lrM1j2K8CaRl+3dcDF9giTUDs1nd4YIlV6+miVBBQ==" saltValue="AV3tBtFsi0laxK40XtHgEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11564,7 +11564,7 @@
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -11573,48 +11573,48 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -11622,28 +11622,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -11651,28 +11651,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -11680,28 +11680,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -11709,28 +11709,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -11738,95 +11738,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11835,19 +11835,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11857,16 +11857,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11876,16 +11876,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11895,11 +11895,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Py+i3x9V6pu1dgJZ7zAJwopxK0Q/BfHMbNGPpEMO6YbpnmaOR8org+CcJD+PtuvmizJ3JiW4Cf4Y+BN/KqaSzA==" saltValue="U66FI5T7A3txD/JOcwH4Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8PBXusmekLfuvGIVuSyGXDS6/xwx786UgKpXOeRzUbqag4LA99KO0lDA4ot+0kBev1Eg4DnnPv6S/DO08Dxt0w==" saltValue="RfyvQbknAfpngv1KqAMgmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11924,31 +11924,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f8baUnKQnyivO5m+O6FNF6AAcJaJgEA+RUfkBuv4rdoQjw6Vi7u9QOHudydCt2ldIvSaYuXrBTh08TwHwFuVeQ==" saltValue="2TMzDEIJOAj4cq0YHmkDqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5TI/L2JJNRdTpUlGgBm91MPHQ7EDDF4oQ5uN1UE2eTeqv330GTIkg0xOMDfvMu3qgJgFx6Tv+OoBI4lPabSk8A==" saltValue="PNWM5LZ58eLOtoVwV4g9ZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13023,25 +13023,25 @@
         <v>231</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -13049,10 +13049,10 @@
         <v>232</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -13073,7 +13073,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -13095,7 +13095,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -13141,7 +13141,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -13162,7 +13162,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -13182,10 +13182,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -13206,7 +13206,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -13227,7 +13227,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -13247,10 +13247,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -13271,7 +13271,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -13292,7 +13292,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -13336,7 +13336,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -13357,7 +13357,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -13377,10 +13377,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -13410,10 +13410,10 @@
         <v>233</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -13434,7 +13434,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -13455,7 +13455,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -13475,10 +13475,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -13499,7 +13499,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -13520,7 +13520,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -13540,10 +13540,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -13564,7 +13564,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -13585,7 +13585,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -13605,10 +13605,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -13629,7 +13629,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -13650,7 +13650,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -13670,10 +13670,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -13694,7 +13694,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -13715,7 +13715,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -13735,10 +13735,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -13768,10 +13768,10 @@
         <v>234</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -13792,7 +13792,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -13813,7 +13813,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -13833,10 +13833,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -13857,7 +13857,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -13878,7 +13878,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -13922,7 +13922,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -13943,7 +13943,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -13963,10 +13963,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -13987,7 +13987,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -14008,7 +14008,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -14028,10 +14028,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -14052,7 +14052,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -14073,7 +14073,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -14093,10 +14093,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -14131,25 +14131,25 @@
         <v>231</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H54" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -14157,10 +14157,10 @@
         <v>236</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D55" s="134">
         <f>D2*0.9</f>
@@ -14186,7 +14186,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D56" s="134">
         <f t="shared" ref="D56:H56" si="1">D3*0.9</f>
@@ -14212,7 +14212,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D57" s="134">
         <f t="shared" ref="D57:H57" si="2">D4*0.9</f>
@@ -14237,10 +14237,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D58" s="134">
         <f t="shared" ref="D58:H58" si="3">D5*0.9</f>
@@ -14266,7 +14266,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D59" s="134">
         <f t="shared" ref="D59:H59" si="4">D6*0.9</f>
@@ -14292,7 +14292,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D60" s="134">
         <f t="shared" ref="D60:H60" si="5">D7*0.9</f>
@@ -14317,10 +14317,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D61" s="134">
         <f t="shared" ref="D61:H61" si="6">D8*0.9</f>
@@ -14346,7 +14346,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D62" s="134">
         <f t="shared" ref="D62:H62" si="7">D9*0.9</f>
@@ -14372,7 +14372,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D63" s="134">
         <f t="shared" ref="D63:H63" si="8">D10*0.9</f>
@@ -14397,10 +14397,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D64" s="134">
         <f t="shared" ref="D64:H64" si="9">D11*0.9</f>
@@ -14426,7 +14426,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D65" s="134">
         <f t="shared" ref="D65:H65" si="10">D12*0.9</f>
@@ -14452,7 +14452,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D66" s="134">
         <f t="shared" ref="D66:H66" si="11">D13*0.9</f>
@@ -14477,10 +14477,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D67" s="134">
         <f t="shared" ref="D67:H67" si="12">D14*0.9</f>
@@ -14506,7 +14506,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D68" s="134">
         <f t="shared" ref="D68:H68" si="13">D15*0.9</f>
@@ -14532,7 +14532,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D69" s="134">
         <f t="shared" ref="D69:H69" si="14">D16*0.9</f>
@@ -14557,10 +14557,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D70" s="134">
         <f t="shared" ref="D70:H70" si="15">D17*0.9</f>
@@ -14595,10 +14595,10 @@
         <v>237</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D72" s="134">
         <f>D19*0.9</f>
@@ -14624,7 +14624,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D73" s="134">
         <f t="shared" ref="D73:D87" si="17">D20*0.9</f>
@@ -14650,7 +14650,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D74" s="134">
         <f t="shared" si="17"/>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D75" s="134">
         <f t="shared" si="17"/>
@@ -14704,7 +14704,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D76" s="134">
         <f t="shared" si="17"/>
@@ -14730,7 +14730,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D77" s="134">
         <f t="shared" si="17"/>
@@ -14755,10 +14755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D78" s="134">
         <f t="shared" si="17"/>
@@ -14784,7 +14784,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" s="134">
         <f t="shared" si="17"/>
@@ -14810,7 +14810,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D80" s="134">
         <f t="shared" si="17"/>
@@ -14835,10 +14835,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D81" s="134">
         <f t="shared" si="17"/>
@@ -14864,7 +14864,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D82" s="134">
         <f t="shared" si="17"/>
@@ -14890,7 +14890,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D83" s="134">
         <f t="shared" si="17"/>
@@ -14915,10 +14915,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D84" s="134">
         <f t="shared" si="17"/>
@@ -14944,7 +14944,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D85" s="134">
         <f t="shared" si="17"/>
@@ -14970,7 +14970,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D86" s="134">
         <f t="shared" si="17"/>
@@ -14995,10 +14995,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D87" s="134">
         <f t="shared" si="17"/>
@@ -15033,10 +15033,10 @@
         <v>238</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D89" s="134">
         <f>D36*0.9</f>
@@ -15062,7 +15062,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D90" s="134">
         <f t="shared" ref="D90:D104" si="34">D37*0.9</f>
@@ -15088,7 +15088,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D91" s="134">
         <f t="shared" si="34"/>
@@ -15113,10 +15113,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D92" s="134">
         <f t="shared" si="34"/>
@@ -15142,7 +15142,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D93" s="134">
         <f t="shared" si="34"/>
@@ -15168,7 +15168,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D94" s="134">
         <f t="shared" si="34"/>
@@ -15193,10 +15193,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D95" s="134">
         <f t="shared" si="34"/>
@@ -15222,7 +15222,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D96" s="134">
         <f t="shared" si="34"/>
@@ -15248,7 +15248,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D97" s="134">
         <f t="shared" si="34"/>
@@ -15273,10 +15273,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D98" s="134">
         <f t="shared" si="34"/>
@@ -15302,7 +15302,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" s="148"/>
       <c r="C99" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D99" s="134">
         <f t="shared" si="34"/>
@@ -15328,7 +15328,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="148"/>
       <c r="C100" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D100" s="134">
         <f t="shared" si="34"/>
@@ -15353,10 +15353,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D101" s="134">
         <f t="shared" si="34"/>
@@ -15382,7 +15382,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" s="148"/>
       <c r="C102" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D102" s="134">
         <f t="shared" si="34"/>
@@ -15408,7 +15408,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" s="148"/>
       <c r="C103" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D103" s="134">
         <f t="shared" si="34"/>
@@ -15433,10 +15433,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D104" s="134">
         <f t="shared" si="34"/>
@@ -15476,25 +15476,25 @@
         <v>231</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F107" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G107" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H107" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15502,10 +15502,10 @@
         <v>240</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D108" s="134">
         <f>D2*1.05</f>
@@ -15531,7 +15531,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" s="148"/>
       <c r="C109" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D109" s="134">
         <f t="shared" ref="D109:D112" si="51">D3*1.05</f>
@@ -15557,7 +15557,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="148"/>
       <c r="C110" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D110" s="134">
         <f t="shared" si="51"/>
@@ -15582,10 +15582,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D111" s="134">
         <f t="shared" si="51"/>
@@ -15611,7 +15611,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" s="148"/>
       <c r="C112" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D112" s="134">
         <f t="shared" si="51"/>
@@ -15637,7 +15637,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" s="148"/>
       <c r="C113" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D113" s="134">
         <f t="shared" ref="D113:H113" si="56">D7*1.05</f>
@@ -15662,10 +15662,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D114" s="134">
         <f t="shared" ref="D114:H114" si="57">D8*1.05</f>
@@ -15691,7 +15691,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" s="148"/>
       <c r="C115" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D115" s="134">
         <f t="shared" ref="D115:H115" si="58">D9*1.05</f>
@@ -15717,7 +15717,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" s="148"/>
       <c r="C116" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D116" s="134">
         <f t="shared" ref="D116:H116" si="59">D10*1.05</f>
@@ -15742,10 +15742,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D117" s="134">
         <f t="shared" ref="D117:H117" si="60">D11*1.05</f>
@@ -15771,7 +15771,7 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B118" s="148"/>
       <c r="C118" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D118" s="134">
         <f t="shared" ref="D118:H118" si="61">D12*1.05</f>
@@ -15797,7 +15797,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" s="148"/>
       <c r="C119" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D119" s="134">
         <f t="shared" ref="D119:H119" si="62">D13*1.05</f>
@@ -15822,10 +15822,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D120" s="134">
         <f t="shared" ref="D120:H120" si="63">D14*1.05</f>
@@ -15851,7 +15851,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="148"/>
       <c r="C121" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D121" s="134">
         <f t="shared" ref="D121:H121" si="64">D15*1.05</f>
@@ -15877,7 +15877,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" s="148"/>
       <c r="C122" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D122" s="134">
         <f t="shared" ref="D122:H122" si="65">D16*1.05</f>
@@ -15902,10 +15902,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D123" s="134">
         <f t="shared" ref="D123:H123" si="66">D17*1.05</f>
@@ -15940,10 +15940,10 @@
         <v>241</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D125" s="134">
         <f>D19*1.05</f>
@@ -15969,7 +15969,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="148"/>
       <c r="C126" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D126" s="134">
         <f t="shared" ref="D126:H126" si="68">D20*1.05</f>
@@ -15995,7 +15995,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="148"/>
       <c r="C127" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D127" s="134">
         <f t="shared" ref="D127:H127" si="69">D21*1.05</f>
@@ -16020,10 +16020,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D128" s="134">
         <f t="shared" ref="D128:H128" si="70">D22*1.05</f>
@@ -16049,7 +16049,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="148"/>
       <c r="C129" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D129" s="134">
         <f t="shared" ref="D129:H129" si="71">D23*1.05</f>
@@ -16075,7 +16075,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" s="148"/>
       <c r="C130" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D130" s="134">
         <f t="shared" ref="D130:H130" si="72">D24*1.05</f>
@@ -16100,10 +16100,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D131" s="134">
         <f t="shared" ref="D131:H131" si="73">D25*1.05</f>
@@ -16129,7 +16129,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" s="148"/>
       <c r="C132" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D132" s="134">
         <f t="shared" ref="D132:H132" si="74">D26*1.05</f>
@@ -16155,7 +16155,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="148"/>
       <c r="C133" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D133" s="134">
         <f t="shared" ref="D133:H133" si="75">D27*1.05</f>
@@ -16180,10 +16180,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D134" s="134">
         <f t="shared" ref="D134:H134" si="76">D28*1.05</f>
@@ -16209,7 +16209,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" s="148"/>
       <c r="C135" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D135" s="134">
         <f t="shared" ref="D135:H135" si="77">D29*1.05</f>
@@ -16235,7 +16235,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" s="148"/>
       <c r="C136" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D136" s="134">
         <f t="shared" ref="D136:H136" si="78">D30*1.05</f>
@@ -16260,10 +16260,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D137" s="134">
         <f t="shared" ref="D137:H137" si="79">D31*1.05</f>
@@ -16289,7 +16289,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" s="148"/>
       <c r="C138" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D138" s="134">
         <f t="shared" ref="D138:H138" si="80">D32*1.05</f>
@@ -16315,7 +16315,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" s="148"/>
       <c r="C139" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D139" s="134">
         <f t="shared" ref="D139:H139" si="81">D33*1.05</f>
@@ -16340,10 +16340,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B140" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D140" s="134">
         <f t="shared" ref="D140:H140" si="82">D34*1.05</f>
@@ -16378,10 +16378,10 @@
         <v>242</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D142" s="134">
         <f>D36*1.05</f>
@@ -16407,7 +16407,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="148"/>
       <c r="C143" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D143" s="134">
         <f t="shared" ref="D143:H143" si="84">D37*1.05</f>
@@ -16433,7 +16433,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="148"/>
       <c r="C144" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D144" s="134">
         <f t="shared" ref="D144:H144" si="85">D38*1.05</f>
@@ -16458,10 +16458,10 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D145" s="134">
         <f t="shared" ref="D145:H145" si="86">D39*1.05</f>
@@ -16487,7 +16487,7 @@
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="148"/>
       <c r="C146" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D146" s="134">
         <f t="shared" ref="D146:H146" si="87">D40*1.05</f>
@@ -16513,7 +16513,7 @@
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="148"/>
       <c r="C147" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D147" s="134">
         <f t="shared" ref="D147:H147" si="88">D41*1.05</f>
@@ -16538,10 +16538,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D148" s="134">
         <f t="shared" ref="D148:H148" si="89">D42*1.05</f>
@@ -16567,7 +16567,7 @@
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="148"/>
       <c r="C149" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D149" s="134">
         <f t="shared" ref="D149:H149" si="90">D43*1.05</f>
@@ -16593,7 +16593,7 @@
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="148"/>
       <c r="C150" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D150" s="134">
         <f t="shared" ref="D150:H150" si="91">D44*1.05</f>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D151" s="134">
         <f t="shared" ref="D151:H151" si="92">D45*1.05</f>
@@ -16647,7 +16647,7 @@
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="148"/>
       <c r="C152" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D152" s="134">
         <f t="shared" ref="D152:H152" si="93">D46*1.05</f>
@@ -16673,7 +16673,7 @@
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="148"/>
       <c r="C153" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D153" s="134">
         <f t="shared" ref="D153:H153" si="94">D47*1.05</f>
@@ -16698,10 +16698,10 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D154" s="134">
         <f t="shared" ref="D154:H154" si="95">D48*1.05</f>
@@ -16727,7 +16727,7 @@
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="148"/>
       <c r="C155" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D155" s="134">
         <f t="shared" ref="D155:H155" si="96">D49*1.05</f>
@@ -16753,7 +16753,7 @@
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="148"/>
       <c r="C156" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D156" s="134">
         <f t="shared" ref="D156:H156" si="97">D50*1.05</f>
@@ -16778,10 +16778,10 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D157" s="134">
         <f t="shared" ref="D157:H157" si="98">D51*1.05</f>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DsYVOkoUmD6bQKuYZrvcds1son8JEGAdBIQVi8ZD/Of6f8iQ9rnxAUdi9tlP0/vnp6SlW8u0aT/tCScihEzS0A==" saltValue="ocv1bDfpQBpZa8bu4w1Qag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UtyG2XhKtsrw6609mnAXGp8DLhkaDGUtJ4p+PSOSMvarmB1Urvil9qxUrB1xMJKGEe8YKQjruPHQM+oo0zOA1w==" saltValue="oK2d+VH+LYVq0jlRq66FZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16890,16 +16890,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16914,7 +16914,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16931,7 +16931,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -17051,7 +17051,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -17069,7 +17069,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17266,16 +17266,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17290,7 +17290,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17332,7 +17332,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17353,7 +17353,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17522,7 +17522,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17564,7 +17564,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17648,7 +17648,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17685,16 +17685,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17709,7 +17709,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17730,7 +17730,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17920,7 +17920,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -18004,7 +18004,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -18025,7 +18025,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -18046,7 +18046,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ng+lXhPmizv1cQ6OEIwODA52gYsfV3x+Ushx/qIfinSU3wvoZmAPT9Tjt7cXzphLJrB2+f6YWsY4Exco90mnAg==" saltValue="+ZIKSXoz2t04UI59ovtAmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Td3nWtw7Vqtd2Y3GfH3VQtRayJUNv8ZvacoqSPhfotV7JcKNSAnSfkc7m9bZyqoKmwYYzXO61NX51x/wVSZAwg==" saltValue="fy4CdOd/OUmS86F4ssg1TA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18134,19 +18134,19 @@
         <v>266</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H2" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -18160,10 +18160,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -18275,10 +18275,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -18390,10 +18390,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -18505,10 +18505,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -18620,10 +18620,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -18735,10 +18735,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -18864,19 +18864,19 @@
         <v>270</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H29" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18890,10 +18890,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -19005,10 +19005,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -19120,10 +19120,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -19235,10 +19235,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -19350,10 +19350,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -19465,10 +19465,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B56" s="94" t="s">
         <v>265</v>
@@ -19598,16 +19598,16 @@
         <v>272</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G56" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -19618,7 +19618,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>273</v>
@@ -19665,7 +19665,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>273</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>273</v>
@@ -19768,7 +19768,7 @@
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B65" s="94" t="s">
         <v>265</v>
@@ -19777,19 +19777,19 @@
         <v>276</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E65" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F65" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H65" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19803,10 +19803,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -19834,7 +19834,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -19862,7 +19862,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -19890,7 +19890,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -19918,10 +19918,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -20005,7 +20005,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -20033,10 +20033,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -20064,7 +20064,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -20092,7 +20092,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -20148,10 +20148,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -20207,7 +20207,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -20263,10 +20263,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -20322,7 +20322,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -20350,7 +20350,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -20378,10 +20378,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -20409,7 +20409,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -20493,10 +20493,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -20552,7 +20552,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -20608,10 +20608,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -20639,7 +20639,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -20695,7 +20695,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -20723,10 +20723,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -20754,7 +20754,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -20782,7 +20782,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -20843,28 +20843,28 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C104" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E104" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F104" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H104" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20879,7 +20879,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -20907,7 +20907,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -20935,7 +20935,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -21018,28 +21018,28 @@
         <v>266</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E112" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F112" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G112" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H112" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="139">
         <f>D3*0.8</f>
@@ -21139,10 +21139,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="139">
         <f t="shared" ref="D117:H117" si="4">D7*0.8</f>
@@ -21242,10 +21242,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="139">
         <f t="shared" ref="D121:H121" si="8">D11*0.8</f>
@@ -21345,10 +21345,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="139">
         <f t="shared" ref="D125:H125" si="12">D15*0.8</f>
@@ -21448,10 +21448,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="139">
         <f t="shared" ref="D129:H129" si="16">D19*0.8</f>
@@ -21551,10 +21551,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="139">
         <f t="shared" ref="D133:H133" si="20">D23*0.8</f>
@@ -21675,28 +21675,28 @@
         <v>270</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E139" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F139" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G139" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H139" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="139">
         <f>D30*0.7</f>
@@ -21796,10 +21796,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="139">
         <f t="shared" ref="D144:H144" si="28">D34*0.7</f>
@@ -21899,10 +21899,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="139">
         <f t="shared" ref="D148:H148" si="32">D38*0.7</f>
@@ -22002,10 +22002,10 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="139">
         <f t="shared" ref="D152:H152" si="36">D42*0.7</f>
@@ -22105,10 +22105,10 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="139">
         <f t="shared" ref="D156:H156" si="40">D46*0.7</f>
@@ -22208,10 +22208,10 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C160" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="139">
         <f t="shared" ref="D160:H160" si="44">D50*0.7</f>
@@ -22327,7 +22327,7 @@
     </row>
     <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B166" s="94" t="s">
         <v>265</v>
@@ -22336,23 +22336,23 @@
         <v>272</v>
       </c>
       <c r="D166" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E166" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F166" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G166" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H166" s="120"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>273</v>
@@ -22399,7 +22399,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>273</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>273</v>
@@ -22509,7 +22509,7 @@
     </row>
     <row r="175" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B175" s="94" t="s">
         <v>265</v>
@@ -22518,28 +22518,28 @@
         <v>276</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E175" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F175" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G175" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H175" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D176" s="139">
         <f>D66*0.7</f>
@@ -22563,7 +22563,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C177" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D177" s="139">
         <f t="shared" ref="D177:G177" si="55">D67*0.7</f>
@@ -22587,7 +22587,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C178" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D178" s="139">
         <f t="shared" ref="D178:G178" si="56">D68*0.7</f>
@@ -22611,7 +22611,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C179" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D179" s="139">
         <f t="shared" ref="D179:G179" si="57">D69*0.7</f>
@@ -22635,10 +22635,10 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D180" s="139">
         <f t="shared" ref="D180:G180" si="58">D70*0.7</f>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C181" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D181" s="139">
         <f t="shared" ref="D181:G181" si="59">D71*0.7</f>
@@ -22686,7 +22686,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C182" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D182" s="139">
         <f t="shared" ref="D182:G182" si="60">D72*0.7</f>
@@ -22710,7 +22710,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C183" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D183" s="139">
         <f t="shared" ref="D183:G183" si="61">D73*0.7</f>
@@ -22734,10 +22734,10 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D184" s="139">
         <f t="shared" ref="D184:G184" si="62">D74*0.7</f>
@@ -22761,7 +22761,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C185" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D185" s="139">
         <f t="shared" ref="D185:G185" si="63">D75*0.7</f>
@@ -22785,7 +22785,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C186" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D186" s="139">
         <f t="shared" ref="D186:G186" si="64">D76*0.7</f>
@@ -22809,7 +22809,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C187" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D187" s="139">
         <f t="shared" ref="D187:G187" si="65">D77*0.7</f>
@@ -22833,10 +22833,10 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D188" s="139">
         <f t="shared" ref="D188:G188" si="66">D78*0.7</f>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C189" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D189" s="139">
         <f t="shared" ref="D189:G189" si="67">D79*0.7</f>
@@ -22884,7 +22884,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C190" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D190" s="139">
         <f t="shared" ref="D190:G190" si="68">D80*0.7</f>
@@ -22908,7 +22908,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C191" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D191" s="139">
         <f t="shared" ref="D191:G191" si="69">D81*0.7</f>
@@ -22932,10 +22932,10 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D192" s="139">
         <f t="shared" ref="D192:G192" si="70">D82*0.7</f>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C193" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D193" s="139">
         <f t="shared" ref="D193:G193" si="71">D83*0.7</f>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C194" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D194" s="139">
         <f t="shared" ref="D194:G194" si="72">D84*0.7</f>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C195" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D195" s="139">
         <f t="shared" ref="D195:G195" si="73">D85*0.7</f>
@@ -23031,10 +23031,10 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D196" s="139">
         <f t="shared" ref="D196:G196" si="74">D86*0.7</f>
@@ -23058,7 +23058,7 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C197" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D197" s="139">
         <f t="shared" ref="D197:G197" si="75">D87*0.7</f>
@@ -23082,7 +23082,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C198" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D198" s="139">
         <f t="shared" ref="D198:G198" si="76">D88*0.7</f>
@@ -23106,7 +23106,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C199" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D199" s="139">
         <f t="shared" ref="D199:G199" si="77">D89*0.7</f>
@@ -23130,10 +23130,10 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D200" s="139">
         <f t="shared" ref="D200:G200" si="78">D90*0.7</f>
@@ -23157,7 +23157,7 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C201" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D201" s="139">
         <f t="shared" ref="D201:G201" si="79">D91*0.7</f>
@@ -23181,7 +23181,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C202" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D202" s="139">
         <f t="shared" ref="D202:G202" si="80">D92*0.7</f>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C203" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D203" s="139">
         <f t="shared" ref="D203:G203" si="81">D93*0.7</f>
@@ -23229,10 +23229,10 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D204" s="139">
         <f t="shared" ref="D204:G204" si="82">D94*0.7</f>
@@ -23256,7 +23256,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C205" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D205" s="139">
         <f t="shared" ref="D205:G205" si="83">D95*0.7</f>
@@ -23280,7 +23280,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C206" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D206" s="139">
         <f t="shared" ref="D206:G206" si="84">D96*0.7</f>
@@ -23304,7 +23304,7 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C207" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D207" s="139">
         <f t="shared" ref="D207:G207" si="85">D97*0.7</f>
@@ -23328,10 +23328,10 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D208" s="139">
         <f t="shared" ref="D208:G208" si="86">D98*0.7</f>
@@ -23355,7 +23355,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C209" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D209" s="139">
         <f t="shared" ref="D209:G209" si="87">D99*0.7</f>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C210" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D210" s="139">
         <f t="shared" ref="D210:G210" si="88">D100*0.7</f>
@@ -23403,7 +23403,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C211" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D211" s="139">
         <f t="shared" ref="D211:G211" si="89">D101*0.7</f>
@@ -23439,35 +23439,35 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B214" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C214" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E214" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F214" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G214" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H214" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D215" s="139">
         <f>D105*0.7</f>
@@ -23491,7 +23491,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C216" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D216" s="139">
         <f t="shared" ref="D216:G216" si="91">D106*0.7</f>
@@ -23515,7 +23515,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C217" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D217" s="139">
         <f t="shared" ref="D217:G217" si="92">D107*0.7</f>
@@ -23539,7 +23539,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D218" s="139">
         <f t="shared" ref="D218:G218" si="93">D108*0.7</f>
@@ -23591,29 +23591,29 @@
         <v>266</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E222" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F222" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G222" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H222" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D223" s="139">
         <f>D3*1.2</f>
@@ -23717,10 +23717,10 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D227" s="139">
         <f t="shared" ref="D227:H227" si="98">D7*1.2</f>
@@ -23824,10 +23824,10 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D231" s="139">
         <f t="shared" ref="D231:H231" si="102">D11*1.2</f>
@@ -23931,10 +23931,10 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D235" s="139">
         <f t="shared" ref="D235:H235" si="106">D15*1.2</f>
@@ -24038,10 +24038,10 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D239" s="139">
         <f t="shared" ref="D239:H239" si="110">D19*1.2</f>
@@ -24145,10 +24145,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C243" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D243" s="139">
         <f t="shared" ref="D243:H243" si="114">D23*1.2</f>
@@ -24274,29 +24274,29 @@
         <v>270</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E249" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F249" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G249" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H249" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D250" s="139">
         <f>D30*1.2</f>
@@ -24400,10 +24400,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D254" s="139">
         <f t="shared" ref="D254:H254" si="122">D34*1.2</f>
@@ -24507,10 +24507,10 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D258" s="139">
         <f t="shared" ref="D258:H258" si="126">D38*1.2</f>
@@ -24614,10 +24614,10 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D262" s="139">
         <f t="shared" ref="D262:H262" si="130">D42*1.2</f>
@@ -24721,10 +24721,10 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C266" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D266" s="139">
         <f t="shared" ref="D266:H266" si="134">D46*1.2</f>
@@ -24828,10 +24828,10 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C270" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D270" s="139">
         <f t="shared" ref="D270:H270" si="138">D50*1.2</f>
@@ -24952,7 +24952,7 @@
     </row>
     <row r="276" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B276" s="94" t="s">
         <v>265</v>
@@ -24961,16 +24961,16 @@
         <v>272</v>
       </c>
       <c r="D276" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E276" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F276" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G276" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H276" s="120"/>
       <c r="I276" s="36"/>
@@ -24978,7 +24978,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>273</v>
@@ -25025,7 +25025,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>273</v>
@@ -25072,7 +25072,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>273</v>
@@ -25134,9 +25134,9 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B285" s="94" t="s">
         <v>265</v>
@@ -25145,29 +25145,29 @@
         <v>276</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E285" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F285" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G285" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H285" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D286" s="139">
         <f>D66*1.2</f>
@@ -25192,7 +25192,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C287" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D287" s="139">
         <f t="shared" ref="D287:G287" si="149">D67*1.2</f>
@@ -25217,7 +25217,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C288" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D288" s="139">
         <f t="shared" ref="D288:G288" si="150">D68*1.2</f>
@@ -25242,7 +25242,7 @@
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C289" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D289" s="139">
         <f t="shared" ref="D289:G289" si="151">D69*1.2</f>
@@ -25267,10 +25267,10 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D290" s="139">
         <f t="shared" ref="D290:G290" si="152">D70*1.2</f>
@@ -25295,7 +25295,7 @@
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C291" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D291" s="139">
         <f t="shared" ref="D291:G291" si="153">D71*1.2</f>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C292" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D292" s="139">
         <f t="shared" ref="D292:G292" si="154">D72*1.2</f>
@@ -25345,7 +25345,7 @@
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C293" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D293" s="139">
         <f t="shared" ref="D293:G293" si="155">D73*1.2</f>
@@ -25370,10 +25370,10 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D294" s="139">
         <f t="shared" ref="D294:G294" si="156">D74*1.2</f>
@@ -25398,7 +25398,7 @@
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C295" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D295" s="139">
         <f t="shared" ref="D295:G295" si="157">D75*1.2</f>
@@ -25423,7 +25423,7 @@
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C296" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D296" s="139">
         <f t="shared" ref="D296:G296" si="158">D76*1.2</f>
@@ -25448,7 +25448,7 @@
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C297" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D297" s="139">
         <f t="shared" ref="D297:G297" si="159">D77*1.2</f>
@@ -25473,10 +25473,10 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D298" s="139">
         <f t="shared" ref="D298:G298" si="160">D78*1.2</f>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C299" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D299" s="139">
         <f t="shared" ref="D299:G299" si="161">D79*1.2</f>
@@ -25526,7 +25526,7 @@
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C300" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D300" s="139">
         <f t="shared" ref="D300:G300" si="162">D80*1.2</f>
@@ -25551,7 +25551,7 @@
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C301" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D301" s="139">
         <f t="shared" ref="D301:G301" si="163">D81*1.2</f>
@@ -25576,10 +25576,10 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C302" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D302" s="139">
         <f t="shared" ref="D302:G302" si="164">D82*1.2</f>
@@ -25604,7 +25604,7 @@
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C303" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D303" s="139">
         <f t="shared" ref="D303:G303" si="165">D83*1.2</f>
@@ -25629,7 +25629,7 @@
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C304" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D304" s="139">
         <f t="shared" ref="D304:G304" si="166">D84*1.2</f>
@@ -25654,7 +25654,7 @@
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C305" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D305" s="139">
         <f t="shared" ref="D305:G305" si="167">D85*1.2</f>
@@ -25679,10 +25679,10 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D306" s="139">
         <f t="shared" ref="D306:G306" si="168">D86*1.2</f>
@@ -25707,7 +25707,7 @@
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C307" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D307" s="139">
         <f t="shared" ref="D307:G307" si="169">D87*1.2</f>
@@ -25732,7 +25732,7 @@
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C308" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D308" s="139">
         <f t="shared" ref="D308:G308" si="170">D88*1.2</f>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C309" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D309" s="139">
         <f t="shared" ref="D309:G309" si="171">D89*1.2</f>
@@ -25782,10 +25782,10 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D310" s="139">
         <f t="shared" ref="D310:G310" si="172">D90*1.2</f>
@@ -25810,7 +25810,7 @@
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C311" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D311" s="139">
         <f t="shared" ref="D311:G311" si="173">D91*1.2</f>
@@ -25835,7 +25835,7 @@
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C312" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D312" s="139">
         <f t="shared" ref="D312:G312" si="174">D92*1.2</f>
@@ -25860,7 +25860,7 @@
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C313" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D313" s="139">
         <f t="shared" ref="D313:G313" si="175">D93*1.2</f>
@@ -25885,10 +25885,10 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D314" s="139">
         <f t="shared" ref="D314:G314" si="176">D94*1.2</f>
@@ -25913,7 +25913,7 @@
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C315" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D315" s="139">
         <f t="shared" ref="D315:G315" si="177">D95*1.2</f>
@@ -25938,7 +25938,7 @@
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C316" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D316" s="139">
         <f t="shared" ref="D316:G316" si="178">D96*1.2</f>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C317" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D317" s="139">
         <f t="shared" ref="D317:G317" si="179">D97*1.2</f>
@@ -25988,10 +25988,10 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D318" s="139">
         <f t="shared" ref="D318:G318" si="180">D98*1.2</f>
@@ -26016,7 +26016,7 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C319" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D319" s="139">
         <f t="shared" ref="D319:G319" si="181">D99*1.2</f>
@@ -26041,7 +26041,7 @@
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C320" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D320" s="139">
         <f t="shared" ref="D320:G320" si="182">D100*1.2</f>
@@ -26066,7 +26066,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C321" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D321" s="139">
         <f t="shared" ref="D321:G321" si="183">D101*1.2</f>
@@ -26102,30 +26102,30 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B324" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C324" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E324" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F324" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G324" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H324" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26133,7 +26133,7 @@
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D325" s="139">
         <f>D105*1.2</f>
@@ -26158,7 +26158,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C326" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D326" s="139">
         <f t="shared" ref="D326:G326" si="185">D106*1.2</f>
@@ -26183,7 +26183,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C327" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D327" s="139">
         <f t="shared" ref="D327:G327" si="186">D107*1.2</f>
@@ -26208,7 +26208,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C328" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D328" s="139">
         <f t="shared" ref="D328:G328" si="187">D108*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s/s7UJyEFWgvEMMZzMgvkVzE2+R7GjAMJ95EsSJjz+3zPtCkf2g0GlsminEffQMHVVuyLQYKYUxTfYNosSLaZQ==" saltValue="8Vilngcq9pDjM9zSNM0ebQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fEUNbtAthPOi//DYAjiaaPUMyAtbytUUNoc16cF4no//XiAVdfuj1nTMYQ9WzJNPTIOCc2zLkvytC8XFJfsF1g==" saltValue="d+uX2Cl6Vwd1r3JUmeqAkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26275,19 +26275,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26295,7 +26295,7 @@
         <v>280</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -26505,7 +26505,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17" s="113" t="s">
         <v>285</v>
@@ -26534,21 +26534,21 @@
     </row>
     <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="136">
         <v>1.52</v>
@@ -26585,19 +26585,19 @@
       </c>
       <c r="B25" s="119"/>
       <c r="C25" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -26605,7 +26605,7 @@
         <v>289</v>
       </c>
       <c r="C26" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="136">
         <f t="shared" ref="D26:G27" si="0">D3*0.9</f>
@@ -26868,7 +26868,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B40" s="113" t="s">
         <v>299</v>
@@ -26909,16 +26909,16 @@
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
       <c r="C43" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G43" s="104"/>
     </row>
@@ -26965,19 +26965,19 @@
       </c>
       <c r="B48" s="119"/>
       <c r="C48" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -26985,7 +26985,7 @@
         <v>302</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D49" s="136">
         <f t="shared" ref="D49:G50" si="9">D3*1.05</f>
@@ -27248,7 +27248,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B63" s="113" t="s">
         <v>312</v>
@@ -27289,16 +27289,16 @@
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
       <c r="C66" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E66" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F66" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G66" s="104"/>
     </row>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ka9ZqWBCT3xO2rjaua35RyMn4tePUY3ZWPbwGwcLA2j4U6V3vZajwQcjbDg8bAiGDh+ff/Z/MWWbTTpOF/hEww==" saltValue="5mDEZElKgPNKYwgUCXrZhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iSnujMJRpH6Z9yQ4aO+cbsBSSPm0T1jLa1AErY8xABGqEitLjdxuSwvdtVMyEPTNgfd45evF1enPV5tpm8IavQ==" saltValue="YeXvtyyR3j3TqIieguBbvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27356,25 +27356,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>317</v>
@@ -27412,7 +27412,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>317</v>
@@ -27450,7 +27450,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>317</v>
@@ -27488,7 +27488,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B8" s="90" t="s">
         <v>317</v>
@@ -27607,25 +27607,25 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="90" t="s">
         <v>317</v>
@@ -27671,7 +27671,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="90" t="s">
         <v>317</v>
@@ -27717,7 +27717,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="90" t="s">
         <v>317</v>
@@ -27763,7 +27763,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B23" s="90" t="s">
         <v>317</v>
@@ -27906,25 +27906,25 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="90" t="s">
         <v>317</v>
@@ -27970,7 +27970,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="90" t="s">
         <v>317</v>
@@ -28016,7 +28016,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="90" t="s">
         <v>317</v>
@@ -28062,7 +28062,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B38" s="90" t="s">
         <v>317</v>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eJz3Vxyv63vJw3RGv+NHDxY8bgkWsJK6vT+uTqvrP9LMAo56lyouaFTkTXF36EPm9zy3KuOCN/RJ7vR4R7pFPw==" saltValue="+xfKZMIwuxRGehUFSxT9eA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XWMJh62f2hm4q4I4YeviYx5BHVFE4qvY47BzNx/Hov3d82XmZhzedOpbmckY4KvAw4oMaqZWKxUlz/LkqN6Y2A==" saltValue="DjGiLwjPXxvoHVALUiabyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28231,43 +28231,43 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -28277,7 +28277,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -28321,7 +28321,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -28409,7 +28409,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -28453,7 +28453,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -28497,7 +28497,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -28541,7 +28541,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -28585,7 +28585,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -28899,7 +28899,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -28943,7 +28943,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -29038,43 +29038,43 @@
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G24" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L24" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M24" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N24" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O24" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -29084,7 +29084,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="136">
         <f>C3*0.9</f>
@@ -29141,7 +29141,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="136">
         <f t="shared" ref="C27:O27" si="1">C4*0.9</f>
@@ -29198,7 +29198,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="136">
         <f t="shared" ref="C28:O28" si="2">C5*0.9</f>
@@ -29255,7 +29255,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="136">
         <f t="shared" ref="C29:O29" si="3">C6*0.9</f>
@@ -29312,7 +29312,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="136">
         <f t="shared" ref="C30:O30" si="4">C7*0.9</f>
@@ -29369,7 +29369,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="136">
         <f t="shared" ref="C31:O31" si="5">C8*0.9</f>
@@ -29426,7 +29426,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="136">
         <f t="shared" ref="C32:O32" si="6">C9*0.9</f>
@@ -29483,7 +29483,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C33" s="136">
         <f t="shared" ref="C33:O33" si="7">C10*0.9</f>
@@ -29831,7 +29831,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="136">
         <f>C18*0.9</f>
@@ -29888,7 +29888,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="136">
         <f t="shared" ref="C42:O42" si="13">C19*0.9</f>
@@ -29945,7 +29945,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="136">
         <f t="shared" ref="C43:O43" si="14">C20*0.9</f>
@@ -30066,43 +30066,43 @@
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D47" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E47" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F47" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G47" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H47" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I47" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J47" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K47" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L47" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M47" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N47" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O47" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -30112,7 +30112,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" s="136">
         <f>C3*1.05</f>
@@ -30169,7 +30169,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" s="136">
         <f t="shared" ref="C50:O50" si="17">C4*1.05</f>
@@ -30226,7 +30226,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" s="136">
         <f t="shared" ref="C51:O51" si="18">C5*1.05</f>
@@ -30283,7 +30283,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="136">
         <f t="shared" ref="C52:O52" si="19">C6*1.05</f>
@@ -30340,7 +30340,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="136">
         <f t="shared" ref="C53:O53" si="20">C7*1.05</f>
@@ -30397,7 +30397,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B54" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="136">
         <f t="shared" ref="C54:O54" si="21">C8*1.05</f>
@@ -30454,7 +30454,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="136">
         <f t="shared" ref="C55:O55" si="22">C9*1.05</f>
@@ -30511,7 +30511,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C56" s="136">
         <f t="shared" ref="C56:O56" si="23">C10*1.05</f>
@@ -30859,7 +30859,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B64" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="136">
         <f>C18*1.05</f>
@@ -30916,7 +30916,7 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="136">
         <f t="shared" ref="C65:O65" si="29">C19*1.05</f>
@@ -30973,7 +30973,7 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C66" s="136">
         <f t="shared" ref="C66:O66" si="30">C20*1.05</f>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JBRxvAEnatxi5SZm/jPGr4JnMrGAQxXngnOf/oRT0F/5oWX4ODdza4WmIzWCe9dr8PHNI67hWLsnI/dEmLmTZA==" saltValue="T3HxYx0zJkBF/vim7HSaMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X+pwHJijPydiOOALpVw4U42LAitiG+R44NT6Sop+P9neJGEAvPZQtrg0YaLzbopHEREZHLt1L/syMII9HWsGcQ==" saltValue="hzf6pjgAvHN8Rz+1Lz2EAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31118,19 +31118,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -31140,7 +31140,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -31171,7 +31171,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -31198,19 +31198,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -31220,7 +31220,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="136">
         <f>C3*0.9</f>
@@ -31256,7 +31256,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="136">
         <f>C5*0.9</f>
@@ -31288,19 +31288,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -31310,7 +31310,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="136">
         <f>C3*1.05</f>
@@ -31346,7 +31346,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="136">
         <f>C5*1.05</f>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JRmmz5BzUcXBbDvWopOahdWG4x7Sq39sgh4kt+wD6b2y6gFY+QCqwvZ9pMf1cOBa4p7eKXbfQJ/woLYTQUkxGw==" saltValue="KI0naB8uPHGa7yMggAY/JA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bkwJXtXvQo0vUDkLiqQ33INaz1WT2mTJ/DV4e/QHtx10qXiEJ7vpEB/xaEUpj1IK44rYFNuFdfpuvyAx7mQupA==" saltValue="f+ULpUzc8X8mI2eAGolL1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31405,28 +31405,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -31434,7 +31434,7 @@
         <v>193</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>334</v>
@@ -31764,7 +31764,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>209</v>
@@ -31856,10 +31856,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>334</v>
@@ -31904,10 +31904,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>334</v>
@@ -31950,10 +31950,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>334</v>
@@ -31999,7 +31999,7 @@
         <v>197</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>334</v>
@@ -32065,7 +32065,7 @@
         <v>198</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>334</v>
@@ -32131,7 +32131,7 @@
         <v>196</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>334</v>
@@ -32197,7 +32197,7 @@
         <v>195</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="52" t="s">
         <v>334</v>
@@ -32263,7 +32263,7 @@
         <v>194</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>334</v>
@@ -32329,7 +32329,7 @@
         <v>200</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="52" t="s">
         <v>334</v>
@@ -32392,7 +32392,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C45" s="52" t="s">
         <v>334</v>
@@ -32458,7 +32458,7 @@
         <v>191</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>334</v>
@@ -32504,7 +32504,7 @@
         <v>199</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>334</v>
@@ -32550,7 +32550,7 @@
         <v>184</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>334</v>
@@ -32600,28 +32600,28 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -32629,7 +32629,7 @@
         <v>193</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>334</v>
@@ -33034,7 +33034,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
         <v>209</v>
@@ -33143,10 +33143,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C76" s="52" t="s">
         <v>334</v>
@@ -33199,10 +33199,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="52" t="s">
         <v>334</v>
@@ -33255,10 +33255,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>334</v>
@@ -33314,7 +33314,7 @@
         <v>197</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="52" t="s">
         <v>334</v>
@@ -33395,7 +33395,7 @@
         <v>198</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C85" s="52" t="s">
         <v>334</v>
@@ -33476,7 +33476,7 @@
         <v>196</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C88" s="52" t="s">
         <v>334</v>
@@ -33557,7 +33557,7 @@
         <v>195</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C91" s="52" t="s">
         <v>334</v>
@@ -33638,7 +33638,7 @@
         <v>194</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C94" s="52" t="s">
         <v>334</v>
@@ -33719,7 +33719,7 @@
         <v>200</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>334</v>
@@ -33797,7 +33797,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="52" t="s">
         <v>334</v>
@@ -33878,7 +33878,7 @@
         <v>191</v>
       </c>
       <c r="B103" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C103" s="52" t="s">
         <v>334</v>
@@ -33934,7 +33934,7 @@
         <v>199</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C105" s="52" t="s">
         <v>334</v>
@@ -33990,7 +33990,7 @@
         <v>184</v>
       </c>
       <c r="B107" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C107" s="52" t="s">
         <v>334</v>
@@ -34050,28 +34050,28 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B111" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C111" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E111" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F111" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G111" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -34079,7 +34079,7 @@
         <v>193</v>
       </c>
       <c r="B112" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C112" s="52" t="s">
         <v>334</v>
@@ -34484,7 +34484,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
         <v>209</v>
@@ -34593,10 +34593,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>334</v>
@@ -34649,10 +34649,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C133" s="52" t="s">
         <v>334</v>
@@ -34705,10 +34705,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C135" s="52" t="s">
         <v>334</v>
@@ -34764,7 +34764,7 @@
         <v>197</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>334</v>
@@ -34845,7 +34845,7 @@
         <v>198</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>334</v>
@@ -34926,7 +34926,7 @@
         <v>196</v>
       </c>
       <c r="B143" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>334</v>
@@ -35007,7 +35007,7 @@
         <v>195</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>334</v>
@@ -35088,7 +35088,7 @@
         <v>194</v>
       </c>
       <c r="B149" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C149" s="52" t="s">
         <v>334</v>
@@ -35169,7 +35169,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C152" s="52" t="s">
         <v>334</v>
@@ -35247,7 +35247,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B155" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C155" s="52" t="s">
         <v>334</v>
@@ -35328,7 +35328,7 @@
         <v>191</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C158" s="52" t="s">
         <v>334</v>
@@ -35384,7 +35384,7 @@
         <v>199</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C160" s="52" t="s">
         <v>334</v>
@@ -35440,7 +35440,7 @@
         <v>184</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C162" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fhNle7Io8FG8kgxBzHVziJkLVxwLtNVWHfZgC3jr0Af9nUaue8+6ceJJchzBgvrcPvEsrrYfYf32hlP4Pn1fsA==" saltValue="O/sORBHoGHR/wTIjnulgDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XEcTM3xSV9zMr2/wLKRDejHvr40o+4mBhK1GmuhIymy8K9QeZyfKI3wdFCv6fKLr42InWC1OAyhapZlW7Qp3CQ==" saltValue="zU3w1S94+k7dGI8e23tvtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35523,32 +35523,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>334</v>
@@ -35590,7 +35590,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>334</v>
@@ -35633,7 +35633,7 @@
         <v>187</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>334</v>
@@ -35678,31 +35678,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>334</v>
@@ -35750,7 +35750,7 @@
         <v>188</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>334</v>
@@ -35799,7 +35799,7 @@
         <v>187</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>334</v>
@@ -35850,31 +35850,31 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>334</v>
@@ -35922,7 +35922,7 @@
         <v>188</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>334</v>
@@ -35971,7 +35971,7 @@
         <v>187</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>334</v>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g7L/Blw5LZqD8s8bFtNKC63KiZCpN0ptyNdTHjNqm4PMaYv/TTIxxIhfuSgE5v0AVLXc8WTGBCO2eW9INpOYfg==" saltValue="qgRE9RaQeWs+7emLWsIkHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uTcO4hInPoiviT1v9SrcTLeLKYyVRjDb6Da+qww/05CmRFt4s8BHaMmz1unJP0mnUe1o43S+Es38Ldaf/Fs9Gg==" saltValue="bY43CfFXPD1ndm9ZHl5A2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36055,13 +36055,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -36070,7 +36070,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -36078,7 +36078,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -36086,7 +36086,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -36094,7 +36094,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -36102,7 +36102,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -36110,7 +36110,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -36118,7 +36118,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -36126,7 +36126,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -36134,7 +36134,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -36154,28 +36154,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -36192,7 +36192,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -36209,7 +36209,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -36226,7 +36226,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -36243,7 +36243,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -36260,7 +36260,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -36277,7 +36277,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -36294,7 +36294,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -36311,7 +36311,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -36328,7 +36328,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -36360,13 +36360,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -36376,7 +36376,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -36384,7 +36384,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -36392,7 +36392,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -36400,7 +36400,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -36416,7 +36416,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -36424,7 +36424,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -36432,7 +36432,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -36440,7 +36440,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -36448,7 +36448,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Sq7FpnEFvg7ZqlqfpUCOxf/EUVD0/wFeWNkwMeQcHi6yBBdqfy9bzOnVOzpF3VT13sXO1d93pzbw7YOMkjfhDg==" saltValue="0dJjDS1xOTstSYAMsPFy0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PKXDYqwU/Ppy2j4/DibG2T2Vgn2ncsxjiOxv/3uENHkk0nYDwFKrqYQajPe0niKnaTSLfBjIZn5LJKjNPpT4VQ==" saltValue="0jvdmnNgRPQ+PkJL22EzHA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36486,30 +36486,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36535,7 +36535,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -36561,7 +36561,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -36582,7 +36582,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36618,10 +36618,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36646,7 +36646,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -36671,7 +36671,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -36691,7 +36691,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -36725,51 +36725,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="L13" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -36813,7 +36813,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o7b8qAg0yhiaD06/oKUqeojfEVMm/jW3X7vg+n3wYMr3K3XVzDhoNYPON86C3wiy+sE/hlzOf5YeeeaOrWEFKw==" saltValue="6Rk3aUz4yPYCZLNBy6Ogbw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J65aeZGS641kmcKIj723psivXr3IRIJuaSPJdc7dGQDSk8ANX7rVwacD0F8ms/SIC7aMwcSpf1yS1aANo//5lQ==" saltValue="xpOfzKVTxZcslLSDD5rz0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36913,30 +36913,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -36956,7 +36956,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -36976,7 +36976,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -36996,7 +36996,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mR7K6FLcMyXHdEkoqrMupQyeUSEJRcAUon2h0kWzQI3uuO4mFinb5zJZoQmkt3tlDaOxivLw6kh+OqF8AxA2Aw==" saltValue="2kBn6jVSpwrauz6tm1azog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="axd+0snDjh9Gg/FIUgEctE+GxX6PM7XtwPZOQqOww+eu0cmweNOnnohPH0Xo0iGXnpU6IZkxY0mZQdm4H92xcQ==" saltValue="2+XMUa40IXsFLpPIyNQ3dA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37045,10 +37045,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -37080,10 +37080,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -37100,10 +37100,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -37120,10 +37120,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -37137,7 +37137,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -37151,7 +37151,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -37165,10 +37165,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -37182,7 +37182,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -37196,10 +37196,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -37213,7 +37213,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vklj6rF9/O9s9KvxJzi5UBFPzj58pmq3lQf/ZFacQ96ypdeNwIw5l/aT3HJ2yAtIxpbUT1/ruNTdN8oK8jzjDg==" saltValue="1U1sbgDsFwXswA0gmUv11Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Bj6qhYNOZIg3dEAYojr3PGcKdFaIoAnIZSKHiS20wsccMFYVPhFGqTQahQCy+lH9In5le9uTBQAyzajzCJ5pvQ==" saltValue="LhdFLUwrRVhD9svpz7TWyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37249,15 +37249,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -37265,7 +37265,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -37273,7 +37273,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="147">
         <v>50</v>
@@ -37281,7 +37281,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="146" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -37289,7 +37289,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="146" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -37297,14 +37297,14 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="146" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X0iLjI2QGt3xJM6V8yVtw3Ik7RlUgYZLY4F/09rrZta0mXnog7Q8f4B44Xlpt2LrQS1yr43B2DkHtyR9OB97Kw==" saltValue="H4P93+9cBwNJW9WmaOkpig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bZuqIMs09OI+a2XQ1d180zL+Wa9c54NOEnkMnAklVeSjTbblKHz1ZAsShMGHlrqtk/5EyKT7vP+Euwlezos7oQ==" saltValue="hgUXswM+uufyDA48RY3tmw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37330,27 +37330,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -37362,7 +37362,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -37376,7 +37376,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -37390,7 +37390,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -37404,7 +37404,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -37418,7 +37418,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -37426,10 +37426,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -37443,7 +37443,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -37455,7 +37455,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -37467,7 +37467,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -37479,7 +37479,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -37491,24 +37491,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37518,11 +37518,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37532,11 +37532,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37546,11 +37546,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37560,11 +37560,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37574,14 +37574,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2CU1mAgmpif3L9CCQFnag1NPYlzh5rxRd0TrvEfTIJQuhDEwbJPtTTPfbuI0S67cdMjsIQRDWfTR8SBCIs69nA==" saltValue="iFI/dGHd/a1COoC3cJmkng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2Jgn85wECbzTmrha8MylmePgpvLPYR+pCene2V3NEBTMaPY5mpt/7Pc3pK2c3VlT9sSxii9WAOrephxqlb+y+w==" saltValue="SnfGvRKEx4wmLabM3dXuwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37608,44 +37608,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="D1" s="61" t="s">
         <v>163</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IlAoDqzWShzcAFUOfHu4+rFi4VI8ZO/3LzEB37Pe2awwKfKzA6+dz68NpLVDmCThbDcWTNjvOh2HtSB5U15wXg==" saltValue="1Bzus7npwlt3Ln6JNlPBYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="N0tLZXDxJ+dF0sHJU4bKd7beRZ1bVAFIj4u17ENMoA+Nw8ukGX1DAwEztijyULabHYsyzNItrv3YGDg7xOuZcQ==" saltValue="2jclkOnJ4C5YQNMLmpqEew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD48CB6-BDEE-4203-9879-0277D164E19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25D76FA-D33F-462D-9434-416A2FAC4ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="8970" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
-    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
+    <sheet name="Coûts et couvertures des prgms" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId12"/>
     <sheet name="Incidence des conditions" sheetId="7" r:id="rId13"/>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="guaI0J3i0xMs8Px0xtCpOkhhvbXwf9yvTzG+7GRjsYilBmTnLlB1QNR/2+oHIMSOOI1MJAAyTMTda3YzVXx3xA==" saltValue="c78Z+2ztEuLfYZTgdu6Xgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="A2FyuTnmzqkn59WfW0KNVr+mTadSN3oA4vp/6AgHyc1w5RruqDL2Oklzo8/m2OLTV2IhxOp8XdIaszcdlM0FmA==" saltValue="8o3iYXek4Cnb+y/GD2NszQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="G8XL85vCFzvPhImEenccZqGS1ukXRbkVNVzwzeDCDInfziIHR0cXRF/1kAqYooyUFa5mGUVfZJ60NowoLYxhKQ==" saltValue="KV1X+a/uKR8el3obng/l2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R0/C25jgbZYRUuQfCTCbECPqwjBXi+tleDbW1s7d4y7likxpn5KXYFlhTVD6NmZBltYcnahsAPYNA61aefAEtw==" saltValue="smQ+9VC0WwIqFfEUXxuzHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+QPMtuEDknfMQMpEGtBCNlxlccWTkwsKQr8RmU8AwkPY15veDBpE6fdrHzOw8NRPTkws5mwSn5FNE0lZiNjJqA==" saltValue="4ux234WW1drLLavZALyXEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="O7YjMFCdKw1/DTbyXNoAevkWvwBXEXKpIjh/zOXxnwv3GA3v2Afb4d/LhvIGWquFD7kg6pUMJ9r6gwVJ7m/MYA==" saltValue="n6ddNb2Oet9VWdiUxE7GOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hlvSoe9zGiavcES4nMCK7Gqp1Pth30wYhLtwgkTOxwtbgKeyevSfqMfHjpZQvojumCHWuGM4vopzjEA0t7APyQ==" saltValue="9TwRSUbIVGpFcXCUgMT4kg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1EFbxm4MDPIxqQweTuJV6heqM5YUmf3cNoHYo+B9R16+IquLahIkNSIiJXAMW2Gij6CR60cIKQTNNdKCakhf7A==" saltValue="u09yTYWts+P239T5fW1a0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="slUP++oqFFdSR6aWibzYAxrTIX0OmWaj70uz63Dng8WQmbyW4CqonyONeIQVj57Mc8awAXunzm0q06oOX92XFQ==" saltValue="JDAjHKmC+v5LkGsCc3gMlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tr2bZtYlNagpEthbD+Az24mzzMKdBcjPBl4aIBHzUmGy77j3ynYKmW1vONMUaToX51jRd2AXFXzfywCxrHC83A==" saltValue="5zoFwST/VlnkWV8zIRM+Eg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+m9ssK0zp+igiAmHeJll9kXtIUTdi/MUfpnc71bONJoJNDF6D1UKPl6LVae95+fxCl6ZVL/UNR+OAP7V+Mqvtg==" saltValue="fWJxJhCJOW9k1FOZhkcHDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="adRezDy+BuqJnYWnnwT6CwcER8Sg5G+vMHqvDXQQ8Lo9Coo5jL9J6eP4OxPcdyrJ6kQ0VTOS2MEy/upii+niPg==" saltValue="PRESzXgu/kbYnkG27AKMHw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="itdJwibD6PEV0JQwTiIa48qA1ytGaYvIGutNL9TRHtus3zdbHNVf6SHSjPFG/Awt6FSAI8ROol/AQalhCd0yfA==" saltValue="2sE4N4OsmuEs9MGp45rPZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="36zE/ofsufpFwpRKuN7rQSpQiqyMQH1kBzdoFW/+/1haDVJFe+DoNiGaHhs04joxXH8WGyXaQvQWJKZEKj2W1A==" saltValue="i/B62ZFs9w2Hx5dgfNQ21g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LdDaCG/H3qYh14oWfTk67poUEIbeg2A3KkASmVpJ8OhSbjtB8JH+SwhBXvHWdAQnsB1oTRjLv4hDX/Ut63IdMg==" saltValue="EEQVKpoM0CfzkpuDBbmIJw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="waOjitH7ErcMOthczfh/ZnZzyrp//JvfiQxrOP33nao0uPg8njJYQc75TIzqDXvuQp32NWgwl4snxA99Ib2VZw==" saltValue="QXBsb4MoGdJdoyvAdorwTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZlFwimG/pZ+x6+cFH7JknMFD2Jukw0FpVJDOD5AVgZQokE3CDNZz8e1oIozPxsZ6pc4h9VJI4zpKrbcIe4mDmw==" saltValue="zTLZ7JdKBB6EfHTkxxnkyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6BpBKBjylhU3YBQ69Tt6p5/2ORieuZuHBuTs12IrFgToeq4dnOHr4V3AvDIIY9VgQXiO4Xn/kWbQjB/OimzbFQ==" saltValue="QsJS9dtcF5c1nxcV44n8eA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fUWCv6szUTapyilsYmsxgk6kDV6e+9YJ38W22KVbVril7lrM1j2K8CaRl+3dcDF9giTUDs1nd4YIlV6+miVBBQ==" saltValue="AV3tBtFsi0laxK40XtHgEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lltvVRkWd0Uk1Yd9AsdH5Tymi/xwhjH5+aiNTJR6f7E+9ijnkdOUEQcQl1T+WAQ4fN7J2K90laT3HS2cjhNR9Q==" saltValue="Q7G3wNlBngzeLfDrFmlcvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8PBXusmekLfuvGIVuSyGXDS6/xwx786UgKpXOeRzUbqag4LA99KO0lDA4ot+0kBev1Eg4DnnPv6S/DO08Dxt0w==" saltValue="RfyvQbknAfpngv1KqAMgmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V49qhuaeSEVkn4xLGSlHofuUaYCgJpFd3Pt4yYTyHr0xccwCfvf9J9AD88eRnw+xJbQdnwSPDynlyKLOEmMRtg==" saltValue="rtGi6vtGOWUaxuaAEN76wA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5TI/L2JJNRdTpUlGgBm91MPHQ7EDDF4oQ5uN1UE2eTeqv330GTIkg0xOMDfvMu3qgJgFx6Tv+OoBI4lPabSk8A==" saltValue="PNWM5LZ58eLOtoVwV4g9ZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dWffBwKj2C61YCVFbGz6z51jvU2Eto/Tv3ANtC4+HcS+8fZ9InseoWblk2vxR9gj7TpIIg/Y6eEI7rDXefPq6g==" saltValue="KmIZsH9b9nUBLez1NlNl1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UtyG2XhKtsrw6609mnAXGp8DLhkaDGUtJ4p+PSOSMvarmB1Urvil9qxUrB1xMJKGEe8YKQjruPHQM+oo0zOA1w==" saltValue="oK2d+VH+LYVq0jlRq66FZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1a2kx3GcVfgoV5vLVEvXtop7PLMpUXkOCfBsQpLON9g98hK4fiMfVHdFa9MOjLK5EGi9OIkmSzEq0PhvkC2PMg==" saltValue="5bXwNWW5dwIhWaKR8gMhFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Td3nWtw7Vqtd2Y3GfH3VQtRayJUNv8ZvacoqSPhfotV7JcKNSAnSfkc7m9bZyqoKmwYYzXO61NX51x/wVSZAwg==" saltValue="fy4CdOd/OUmS86F4ssg1TA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+0/qo1uiwx+YGgGoXMqMsGUTMKRfsEg/dunTahJit1E3fzxSV0QDv1mj30/S2gfbUH3EdXbDP0C60sGPLL2Esw==" saltValue="ZuwvIY7f3P+miuGm/LPl1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -25134,7 +25134,7 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
         <v>128</v>
       </c>
@@ -26102,7 +26102,7 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
         <v>87</v>
       </c>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fEUNbtAthPOi//DYAjiaaPUMyAtbytUUNoc16cF4no//XiAVdfuj1nTMYQ9WzJNPTIOCc2zLkvytC8XFJfsF1g==" saltValue="d+uX2Cl6Vwd1r3JUmeqAkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NDkl4jdYrGmAqUwGqvNoQz8D3p5F/VkDTIDpbDjtZBf/hPD+riDqbM4AjdU6KDmJ0N45zMcWnCSj/Yg1YKMzNQ==" saltValue="eKkLMtp07kWZVVutFwcAQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iSnujMJRpH6Z9yQ4aO+cbsBSSPm0T1jLa1AErY8xABGqEitLjdxuSwvdtVMyEPTNgfd45evF1enPV5tpm8IavQ==" saltValue="YeXvtyyR3j3TqIieguBbvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S4cF8DSjepew4EEXWxheQld3Q0C85cXqG54ILJGWUEuaQwQ7eiIJ7TwEI2CB1EvYUwo510uokJJMCGueZoOzHA==" saltValue="3awBmHxKPt1Ig/V1qKMEuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XWMJh62f2hm4q4I4YeviYx5BHVFE4qvY47BzNx/Hov3d82XmZhzedOpbmckY4KvAw4oMaqZWKxUlz/LkqN6Y2A==" saltValue="DjGiLwjPXxvoHVALUiabyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GYGgJTeufuWDBGhmCecA/31A4zLpAhbasED/okgdxhnd6/N3ezWNsa2BwIDBglTvQf08Dbld1DbV5wDy1BiZOQ==" saltValue="95Jhop7/O+/ZOufkaSUFcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X+pwHJijPydiOOALpVw4U42LAitiG+R44NT6Sop+P9neJGEAvPZQtrg0YaLzbopHEREZHLt1L/syMII9HWsGcQ==" saltValue="hzf6pjgAvHN8Rz+1Lz2EAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C0zEwihThJVz2nPd4TW++dyGFN07tOOzPyIRiiajZ1AlPFIIHmspIc1gyVrrGB4dq3nyAEKdShujbHor6QApKw==" saltValue="i7G0vuKSJh2XksHUMqYBcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bkwJXtXvQo0vUDkLiqQ33INaz1WT2mTJ/DV4e/QHtx10qXiEJ7vpEB/xaEUpj1IK44rYFNuFdfpuvyAx7mQupA==" saltValue="f+ULpUzc8X8mI2eAGolL1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J/jmJL9jDMKFMWMJSJ7u7Fu9hp4c5u1hmDCnq/vIY327EHIhzeq1HSlGZ6Zg71xDzeMgYa2UOlj47KR36o9Z4w==" saltValue="IP4fLIzwGFeGmsc4E+0wdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XEcTM3xSV9zMr2/wLKRDejHvr40o+4mBhK1GmuhIymy8K9QeZyfKI3wdFCv6fKLr42InWC1OAyhapZlW7Qp3CQ==" saltValue="zU3w1S94+k7dGI8e23tvtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c9huzwtg45VDftJiY8EG6JKfKVlV1HFiuVK0Z9AtmJZpVI4xEro2UoCtSWJ7d/rK6NG3F7ZPYc9VWioRwovGrw==" saltValue="9iiZhgsUBHsBhp6qsGRe7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uTcO4hInPoiviT1v9SrcTLeLKYyVRjDb6Da+qww/05CmRFt4s8BHaMmz1unJP0mnUe1o43S+Es38Ldaf/Fs9Gg==" saltValue="bY43CfFXPD1ndm9ZHl5A2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SOreOKEcQzODzxNsnMAti+RgX5Zl7TXatS4iVTGEhs0mgpe6tV559s1ht/jCo5AMRpKavBs96r/A5hea0qDNzQ==" saltValue="u2JqN1M/v/AcFeUBdHtiYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PKXDYqwU/Ppy2j4/DibG2T2Vgn2ncsxjiOxv/3uENHkk0nYDwFKrqYQajPe0niKnaTSLfBjIZn5LJKjNPpT4VQ==" saltValue="0jvdmnNgRPQ+PkJL22EzHA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D/wOzr8pvxQaRBGL7t32fYWh6xjVaL9UxH5SYffHCTMtPbzrlIBM/qjvQd0PpPsDW+XxOwuQ6rNpwBuZnu2NlQ==" saltValue="QXSNl2P3GgFPatawTVQhtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J65aeZGS641kmcKIj723psivXr3IRIJuaSPJdc7dGQDSk8ANX7rVwacD0F8ms/SIC7aMwcSpf1yS1aANo//5lQ==" saltValue="xpOfzKVTxZcslLSDD5rz0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ASQdA9TNztcwu4adm/4lNSIID7NQ2gzxSEWm4br9mB1DgUSKka8E4XopKppQuGkF2o8QTL4Nid3aJC99Z2Fd6g==" saltValue="EdDKxh9WA8y3T3yfj3QWMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="axd+0snDjh9Gg/FIUgEctE+GxX6PM7XtwPZOQqOww+eu0cmweNOnnohPH0Xo0iGXnpU6IZkxY0mZQdm4H92xcQ==" saltValue="2+XMUa40IXsFLpPIyNQ3dA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eDJV1XsqTZxt4nBYYgaNEZCbyavC2UrdIR9mfzdebra++bRdQFfT0QR2pPk0iBbOKL43R2taxJ6slPzq/kqC7g==" saltValue="1883lisLP65XFAXRfRpdoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bj6qhYNOZIg3dEAYojr3PGcKdFaIoAnIZSKHiS20wsccMFYVPhFGqTQahQCy+lH9In5le9uTBQAyzajzCJ5pvQ==" saltValue="LhdFLUwrRVhD9svpz7TWyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6RDHkQU7tpSPQwxief29+EMP2q/akp7C5jWZM5HBW1VFjJd1qqggqBBJjd6lddGx/mtUDBT3N6kq7adBggNOCQ==" saltValue="o3Ejz619EwZAXiUk/1so9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bZuqIMs09OI+a2XQ1d180zL+Wa9c54NOEnkMnAklVeSjTbblKHz1ZAsShMGHlrqtk/5EyKT7vP+Euwlezos7oQ==" saltValue="hgUXswM+uufyDA48RY3tmw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3Yjk16d4I+mALZ9PIBVn2d3goWi90YjREcMoBzj+XNh+ZWB1V87Gh4oAozOJCgFCgZzrv27pCLViLRXaBlC3ig==" saltValue="0akDskA8UVnW7dXbUg37Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2Jgn85wECbzTmrha8MylmePgpvLPYR+pCene2V3NEBTMaPY5mpt/7Pc3pK2c3VlT9sSxii9WAOrephxqlb+y+w==" saltValue="SnfGvRKEx4wmLabM3dXuwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="64Br3MqG6s+7SI0m5II3zGCF6tn3d16Iru07z+NvA/+x3LS68dhsyNybZpLj++QBQEJqkQHKQCt7oJQCH4WNuw==" saltValue="B8eXZfCzRHLDbe2zI/XScA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N0tLZXDxJ+dF0sHJU4bKd7beRZ1bVAFIj4u17ENMoA+Nw8ukGX1DAwEztijyULabHYsyzNItrv3YGDg7xOuZcQ==" saltValue="2jclkOnJ4C5YQNMLmpqEew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j6RSDmQfxEC1n1lCIPohagoBFaTAy02B4KeVPjTjZdxffmbvskW2UTq9CMLnkQbuaDzbevEK6AQl2q552oZ8nQ==" saltValue="MMwDkveED2+5f7MrEBnq0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2112FE99-64B9-42D3-8576-716D467B4F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD7E554-1E19-4843-A2C5-6028F8C8CFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1198,9 +1198,6 @@
     <t>Linéaire (coût marginal constant) [par défaut].</t>
   </si>
   <si>
-    <t>Courbe avec coût marginal croissant</t>
-  </si>
-  <si>
     <t>Coût à l'unité (US$)</t>
   </si>
   <si>
@@ -1229,6 +1226,9 @@
   </si>
   <si>
     <t>Groupe général de la population</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
   </si>
   <si>
     <t>Courbe avec coût marginal décroissant</t>
@@ -5156,14 +5156,14 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uMJfD7/DF56I+inC9SDM+RadV8K9rB9bSaL+37J9xthqEDIPV7tuExm9dFbujpLektuVWXNpi39vqm21o6RlPA==" saltValue="/nqlIw3Ut3LH7Cuu9ENk1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="85uprs7qZm7WAGPcUsWMWNNQZCH0xILDQDx/BItwGvlO29CI7hNxyBWJ81nPmWKhUkT7l3m9MtXwcUGaA6Ek4g==" saltValue="VZZQAP2w59VTIGoZVGr2pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5638,7 +5638,7 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
@@ -5648,13 +5648,13 @@
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>160</v>
       </c>
@@ -5666,16 +5666,16 @@
         <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>204</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6324,7 +6324,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PD71YxtZ9Qqisvq3im2Lk/psRjLD9SASIG7JDACbpLba3akXt1nkDrsnDXaDO4GkgjJ2mFvFCeXoFZAlJravpg==" saltValue="vUJoHK9W2Sral6pz76sf5w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q6vQMszdTpQ5a9stk+W/8WnT9onLAx65v6VPzE3ydPpNnBunmgVURGf7U0aYJ/gnjTTsjGMBDkgEqr+Ne1GvKw==" saltValue="zRipBppkAe/sLgo9MP4+JA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6602,10 +6602,10 @@
         <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kL7r0mV2q0CQ5mdiUqA0WQy2vTwMGhj4qNmWiYGKDVPX78JprDNCQCtxSXAHEU6Ccgq7aH50XsXZZqb6glnrYg==" saltValue="EawTl+LAjrO36OZjHV0AOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XQPQaKGxQIv3NqTJf8LkHe+MeogpTKIHcv+ZJXvJVAvc1CUnZwYgyGJl0Ostt2bMuc4TEDO7zJ7iGAvQfcGKQA==" saltValue="ghEayXdQAVblBtYdbLPOXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/Qs1UauTxvynFm4zlr/GHTDe0kyKNWq9G03CieNNS8Dmh3Aocig20969wPWm/QuwuM7IN9GwKvrt1gCUyJjCXQ==" saltValue="IMgq2Mqwcv/CwBjngVwyJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D5ly3Dv4T8rBqgo2Q+YhQkSo4EjypJP4wbPHIsB5qKt5g0i5/k0HrEQxcQJhGldA57ucP17NLU2xbl/ApR8+ew==" saltValue="MMiLup4W3SRzi8dsAitFJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KiwQe73qkeXKbsdZEIzaWcD0VV6w0Te1jEaFjl7H7FXSp017qhas0y2ZjfsnfRK/Axb25SWpLEnLj2rZtuIlTA==" saltValue="8JZlhL2kc378d89Elit5Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oYj0mjUMA16TktGVpkJLNKgm2Hzc+iK4/J/wVy7qDyhdpLe/FKfsid2yq1xDiTnqqbLx/UH9L1pOOOSPKg3AiQ==" saltValue="K42/Enezz67RBuYFMudL4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6966,7 +6966,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>160</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>173</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QbzT5AxLiyqDIbeLzoJVrz7y3OD2TMOFwsXzLQCavQl4S2JxpFy+cjLRqNK7HOij9oznmrf0RUQTHYOL4cE66g==" saltValue="SIxrZGNSUel/w9vd3Ip58w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EbOMLwOI7DnUdBdTQghnaFEyU1UvjDRH6bHHm/RnS8KjK9gmhr3GcKCGfIa7QxglN6rbk8r/V4MSPvM0/QD1IA==" saltValue="nkv0DHrzYALw+6A+W+R7dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pGUXfYfiOaxuTxQ9hntx5oBwUFTrTnxvM8Nn6mL/IJ1veiIM7pGcbjT9ZN9/AO6KJxl5VRYX2cpQ6YC0tC7hZQ==" saltValue="iWC/eyaoKcG0ItkwN3K4fw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M/yoXfzRf5h6OoeTPcKkvq52B5eM+7kd9Kcn+nQ0ifXfjNV5wYF59Dzt0IUJ1A9Db7WMsjBWJow04f+Ewy14Tg==" saltValue="ZuKFjYIQHGZ3q+0et8K9bA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8753,7 +8753,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
     <col min="3" max="4" width="11.44140625" style="35"/>
     <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OSiLwG+X8Zia+Xlr4z5H3QJsVKUGP/how+HkoH5s6FJr8iZ2/AsgzLnEMQVovQ+IFW3CGykF6tIZvihdn9ZRlQ==" saltValue="Jq6/UcNufne99E5qZgin2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aRO6FKC7nS4daGQLgGd2dHq/7uQt8TdyDdddw9HPHAkGBFV5Z7d+g9LKNkI4Y1RPRK1mXyWzF6cFUoGj4zcQ3w==" saltValue="G0OTz43yTxODExrIid7h6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8963,20 +8963,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>160</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -10072,7 +10072,7 @@
       <c r="N26" s="129"/>
       <c r="O26" s="129"/>
     </row>
-    <row r="27" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>75</v>
       </c>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>173</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/bYDOfnAQntAYZIlxT1Zu9BDUewSzXezt7Rv6zrHnhQQREcnqnuzi5juv2MAeDnDPxPjs8MrBKznfC96KpSbuA==" saltValue="zXgmAOqMVTrtqG9PjvuKFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="T6aAp2P4jS1o6d6GlEsEFvqyaD7dhvIgVZ6m3RADldeGas2aEivu/zvB3rtcoFKIS1k4f1RCVQkUeM1v2ZnOKw==" saltValue="i4LfwCusSaJhQT9BLqwE8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10774,19 +10774,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="133" t="s">
         <v>7</v>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0ViMotwu1CAhRpx3aYRu0nyKhbKoXa3wAOy1ba+alivxi/CWllVMznKnCPWxdrD/BntezpRTIL6F50Gny2EzGA==" saltValue="4tuBNzHKhAKME6H9bGaDXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+CcvIwWP/FBf6DZYOX5aFHDo0O4wn1ddtmpcoLqDmE604mePvAFK2IHV5JkN39MaNAOM2nIGBnXNzBNvZ9W1vA==" saltValue="zWfmK4QNxG9GUUk+l2EF4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11541,19 +11541,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7t6mZ37xTzbL6sIzdi9485xNja67cZLiM2zLhQhvJ4oihcVHgu8ag9YfDrVVELOfUFU1kyTL+ieRoo0IDmPL1g==" saltValue="8cgwar/l1sqFxdGpcc/qvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VTtTONjcL5cD2daiTzIH/cQuZNS5e1MtvXjEXD39V0j0vNhGqo18D4mm1XIUn1DVQ699ZuNyeO1K4Mg9V0Mong==" saltValue="cK06Eq5p5hRV2bR5vFjT8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5BE23T+7NU1xjbf9Eue/33DJ7bSccRRIisp7BXyu0iSeYTWabav5uUJdtD4hARx46K4OdJ7f6LAupao3+3bE2w==" saltValue="pxCtBo4oyCbt3nl7eikuNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JlZeyeATeSlpqZ4NanZW6St+JVotvWA9rwgbFtE6bS0ew9/+eeRdYnBseZ3Fmq0NpliR+F5AZ4WPZhY/myr9IQ==" saltValue="8LLOjKJ7OOm3OAaiH5Lvkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13010,12 +13010,12 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="avUB0GdhTeFE4NSpyvt9Db/1WbXu6RoD21ODPt6cfoaQiYcrzcBE0dRQlDrolSUgn5XQjknZ7dxnmVmSqywYTw==" saltValue="pnjKsymUg6UvoSyCTjL8Mg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IrTJu5P11+jDKP8+YmCdloZzShGfNSEdENESY8oo36IuD10gK+MtiG8IXgLwL/MBvszQ3vEidcOT18mOESUZxQ==" saltValue="RQnHnObiG0PPjJcWnQlVFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -16876,7 +16876,7 @@
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
     <col min="7" max="16384" width="16.109375" style="35"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gJV0HHTnbe4wGN7uskn68QWCwsUU5gWQVtkjWWCEcO7OFzynH6cnIdyxcMWo60LteOakfy4nbcLcsNsfLum/yw==" saltValue="/OPDgliWzEIZ6YFKFf2tHA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gT3f1YZ9IrVqtLttzbhAmhHiuGva4ngIN/XYk3Ox8HCNkKzfII1eq5UFjjjTAVY82v0cEIroidyW8psq77NqKQ==" saltValue="vw+yfpeZJa2PqpNK9Hq7Hg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18107,15 +18107,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.88671875" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.88671875" style="35"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
@@ -18590,7 +18590,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>269</v>
       </c>
@@ -18949,7 +18949,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -19179,7 +19179,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -19294,7 +19294,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -19437,7 +19437,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -19524,7 +19524,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -19552,7 +19552,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -21746,7 +21746,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D142" s="139">
         <f t="shared" ref="D142:H142" si="26">D32*0.7</f>
@@ -21771,7 +21771,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C143" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D143" s="139">
         <f t="shared" ref="D143:H143" si="27">D33*0.7</f>
@@ -21849,7 +21849,7 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C146" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D146" s="139">
         <f t="shared" ref="D146:H146" si="30">D36*0.7</f>
@@ -21874,7 +21874,7 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C147" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D147" s="139">
         <f t="shared" ref="D147:H147" si="31">D37*0.7</f>
@@ -21952,7 +21952,7 @@
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C150" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D150" s="139">
         <f t="shared" ref="D150:H150" si="34">D40*0.7</f>
@@ -21977,7 +21977,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C151" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="139">
         <f t="shared" ref="D151:H151" si="35">D41*0.7</f>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C154" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D154" s="139">
         <f t="shared" ref="D154:H154" si="38">D44*0.7</f>
@@ -22080,7 +22080,7 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C155" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D155" s="139">
         <f t="shared" ref="D155:H155" si="39">D45*0.7</f>
@@ -22158,7 +22158,7 @@
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C158" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D158" s="139">
         <f t="shared" ref="D158:H158" si="42">D48*0.7</f>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C159" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D159" s="139">
         <f t="shared" ref="D159:H159" si="43">D49*0.7</f>
@@ -22261,7 +22261,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C162" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D162" s="139">
         <f t="shared" ref="D162:H162" si="46">D52*0.7</f>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D163" s="139">
         <f t="shared" ref="D163:H163" si="47">D53*0.7</f>
@@ -24348,7 +24348,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C252" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D252" s="139">
         <f t="shared" ref="D252:H252" si="120">D32*1.2</f>
@@ -24374,7 +24374,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C253" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D253" s="139">
         <f t="shared" ref="D253:H253" si="121">D33*1.2</f>
@@ -24455,7 +24455,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C256" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D256" s="139">
         <f t="shared" ref="D256:H256" si="124">D36*1.2</f>
@@ -24481,7 +24481,7 @@
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C257" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D257" s="139">
         <f t="shared" ref="D257:H257" si="125">D37*1.2</f>
@@ -24562,7 +24562,7 @@
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C260" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D260" s="139">
         <f t="shared" ref="D260:H260" si="128">D40*1.2</f>
@@ -24588,7 +24588,7 @@
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C261" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D261" s="139">
         <f t="shared" ref="D261:H261" si="129">D41*1.2</f>
@@ -24669,7 +24669,7 @@
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C264" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D264" s="139">
         <f t="shared" ref="D264:H264" si="132">D44*1.2</f>
@@ -24695,7 +24695,7 @@
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C265" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D265" s="139">
         <f t="shared" ref="D265:H265" si="133">D45*1.2</f>
@@ -24776,7 +24776,7 @@
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C268" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D268" s="139">
         <f t="shared" ref="D268:H268" si="136">D48*1.2</f>
@@ -24802,7 +24802,7 @@
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C269" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D269" s="139">
         <f t="shared" ref="D269:H269" si="137">D49*1.2</f>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C272" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D272" s="139">
         <f t="shared" ref="D272:H272" si="140">D52*1.2</f>
@@ -24909,7 +24909,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C273" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D273" s="139">
         <f t="shared" ref="D273:H273" si="141">D53*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RxJBlvWnpiZSkEdceyCAUN2ZdNiJMBpAD8WSJCIGd9WE5kYN1HU8pH8z3MVx+7t6rvJBEC131C4Sbt5Itk3OKA==" saltValue="bQRLo5/k1/8SJYuW/mhJ+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NUeNQAWjdRWSlnUqflTW72zpG9fCqP6xvM9dbGStzeWANeX6i3XB7HoRpAOxvaLYAkjjU5XvhZlC4Ef4eJ/Qjw==" saltValue="dwJmMNe3EdIx5bj+TUSieQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26252,16 +26252,16 @@
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26378,7 +26378,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bIlVzrN38lcYyIVy5oCCJt3IX/1IlmqIn+Gc0vmq6y5VwGTemc5yBnHKrIexbv1k2oufqpRdua5N2c3MVactWg==" saltValue="gq8EA5eMni/Q044z0oolYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ewuOp37fx+VxRhQPFomkBFatQ1N6mJoI2b9u83Afn0WTIeY8jRqY6vomi0ERYojpZUU1bav8YVfHK8PPuTiT7g==" saltValue="VKLimRaQBm1RUCp546V3sg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27347,9 +27347,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
     <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U3OgPhVz0lNFdgL0o+osl1kWpIdrHKmBJfi+f3VaD0fIB1icRYlP9adM9PjhpxEB75wWGfr148pebl8VhOvFfg==" saltValue="uSwNYLmKcWHdcaBAil/3Ag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PoWG+e3ZrUA2lKJK7fRwRgORQ+/CAxigiRX68foqaUs/R+MClQy+cc/IeYyjttobgg9peN4K2i+o4To1NvBrbg==" saltValue="E8jBq/vi7gk1kR609875bQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28219,12 +28219,12 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.88671875" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28715,7 +28715,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>189</v>
       </c>
@@ -28805,7 +28805,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="136">
         <v>1</v>
@@ -29034,7 +29034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
@@ -29768,7 +29768,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" s="136">
         <f t="shared" si="11"/>
@@ -30062,7 +30062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
@@ -30796,7 +30796,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="136">
         <f t="shared" si="27"/>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mGeLyNyogumWuUuAxFNIPEvbSk0JGj/zvXt4rKV9wcdb7UK6VyC7dC51roWJ4heQj0qBDEZRQsagzeH70nYA6Q==" saltValue="s5L2yJFOYQw9ON2s+TJzYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y4tcxd2vslByJXM1NxcZBKA09a+7UKfxqamu2ZlWGIHxNYCyrJXww+oN7U6jqQ9tc/U8M2uOH6P9xQqEHzJnnw==" saltValue="MNM9GT54pMfg0M0panLp3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31106,12 +31106,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="35" customWidth="1"/>
     <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KD7hkiX45qZwoatJmA/nxwEKbcfxOqe6jTllNuEg+NnkAHN8giysOBp1pbkj44efZAHyPTEVi4EY4LFTmkHITw==" saltValue="shxpb+y3rRbX4JTCegTiNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cLVUmsY89IDFAuEqWPB99khOVnxNHu5bFtmg1fXSroB9GsRwTqKKc5v22nwQwsRaTw0wTAXHmQ+YPPFNT2iiKQ==" saltValue="6/zEOnj78zsQ+7FYitdcXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31390,17 +31390,17 @@
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
     <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -31500,7 +31500,7 @@
         <v>192</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>334</v>
@@ -31543,7 +31543,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>334</v>
@@ -31589,7 +31589,7 @@
         <v>185</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>334</v>
@@ -31632,7 +31632,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>334</v>
@@ -31675,10 +31675,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>334</v>
@@ -31721,7 +31721,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>334</v>
@@ -31767,7 +31767,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>334</v>
@@ -31811,7 +31811,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>334</v>
@@ -32710,7 +32710,7 @@
         <v>192</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>334</v>
@@ -32763,7 +32763,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>334</v>
@@ -32819,7 +32819,7 @@
         <v>185</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C64" s="52" t="s">
         <v>334</v>
@@ -32872,7 +32872,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>334</v>
@@ -32925,10 +32925,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>334</v>
@@ -32981,7 +32981,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>334</v>
@@ -33037,7 +33037,7 @@
         <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>334</v>
@@ -33090,7 +33090,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>334</v>
@@ -34160,7 +34160,7 @@
         <v>192</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" s="52" t="s">
         <v>334</v>
@@ -34213,7 +34213,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C117" s="52" t="s">
         <v>334</v>
@@ -34269,7 +34269,7 @@
         <v>185</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>334</v>
@@ -34322,7 +34322,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>334</v>
@@ -34375,10 +34375,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>334</v>
@@ -34431,7 +34431,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>334</v>
@@ -34487,7 +34487,7 @@
         <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C127" s="52" t="s">
         <v>334</v>
@@ -34540,7 +34540,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C129" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GrhVuA4eL2e8Ut+xdBVFiMfCnvx/jOI/RIQC10FQulM83K/fou4j2h57Q0XbZA4fPzX1gS2fx1HfDufnL4srfg==" saltValue="VHKAOHd1/diK6hP2eRzSxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PUTqZBLwE+8SVohDhZ99ruXUKr6zfzgg7Btogqt1JYUw3ktucTgR3hWkBDLmEtYyplmTs7rDHkSLpxEFPfiBPw==" saltValue="gfCMj2dHKKwgT/5ItX75eQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35512,13 +35512,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.109375" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3kC33UmqebWA37EgQJ2gCDzrHZV06x1H38GLhNnxIpPG6bm7suS4kCUdE17GlQgm0ig8tkiQNxPxX1DaJ7jgCQ==" saltValue="kK1fi8WD6G+gYZasZl34Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SOJkezoCBIx6FNf0pC8IjZRncWQRLPczRxN9TXT+05eYNv7cIXzUnVJhs/LEFkkI7WUfvnH4uoUxl8yL1p/6tg==" saltValue="i73d/ZYOCMW8I/1laXHyxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36038,7 +36038,7 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yiTpStAZy45E97oBob8ljbsaEjg0DEmMG0z8t5y9+4CnC6sPiWcwY+xUH9kPhLr0vgdUmXIAY8DXbaI/vcfJPw==" saltValue="Nbqc2w+hnfGuzATLmGfBUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="htl/OAhVBaTfJDoQxBW7hZZj5NfOYJDpGTjowr+Ck6DalUvjZCFoZIFehy3K1Vuo9Ovjb8Io0Jhv2fCsjPKItw==" saltValue="ZtKjGe73qPyLzkQKQBsIUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vBtr0MS2ETQwwdZJgmy+HaJXsnCZe803XO5LdONJocCDW4YEZQquCmtuBtx96GTtuRwLfn6aeJe418WFc0cqqw==" saltValue="ZHm45SQ00J/MjGdozOMQPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6737Sg2mtZ5a2MxDpYAcoYBiGLHD9eNpZuGoijD1hGkm2QwH0Mwkmgg8Q7J7oLe6uZeEU3pHyXIJNqg1Xd4H6A==" saltValue="QoGbfrtyIpamjeIXqtwdJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nroEABALWhNqdXJukMs8jexP2mBMJwppBUvxSY3tz1TYcJF45Cp8lwOiA6PZDFrbCI3nzhL3v3QHS89dO0hwJA==" saltValue="hKNYS8tIUkNFbEeeRKeUwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RHmNjS3wUObUdvPvLnARtuPcraw+FIZj6vKqbh5+KfDcFVss02HfGoj/3sJiKbSrA5R2bifvxC+i0MORgn6N0Q==" saltValue="5KHpjrLjjKFINLUJB79SUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Nd3Y0YrJ2N03tXqK3s/MW31rsT6dbqocyYlzAZaLqvYFO6PuViRZpA+1I5ZLZO7CAQzkNlx90N7wp5FONGNUEg==" saltValue="TiTRG3MygsEq89oyTUsnIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z+iVsesCpwjooq5KeQ08Q2vM1tArDNU+eMEBJ7MfDnbNmFCqzLJkNa8DQeX60lUTVtXw8RVqs4FPy89nDphgGg==" saltValue="jmWmEakkGvbdqgN/4FaBbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37244,7 +37244,7 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n+4SNMemMIdF2iAxQqW3TZkW3vWyxQElj83MrE9ZubBzIGSw/1ZuHsbvGWyUwhjGZ1fg66613pLx5dO406d4vA==" saltValue="KD+JSAJElh3UPyA1MwwSZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U0uXgJ5Loufn3C+o0edk4gDXtXuElsVda7b6mF9bA8/naNGzQ1IUNCYkfpVVcoziViNtLFS3GvQuHjXOd5u1WA==" saltValue="wY6X2lEL50lu+jPczZlsjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x6zDQTfeFfxRsojIZHy/aoo9KFFh7f8/TJGuJkeZDVOfik/xapUrO43wd5pcTQYl7TERpbR2IAlo4CftibcdNA==" saltValue="WqWWpb9OynuLL6TaOXTlbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eQeHPcLyZLbw5nnYa6eugbxrlfhnGxGt22lAE60u8cvLBgc1JERRGOrfa453VyxsU9HeUtniPe9FxC+C/uK10g==" saltValue="s4Obm9B7MNfwvNLUCFupiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37600,7 +37600,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qd26VTs1AG7N1jWAItAUVwq/ayJsZwg715mOeIhHkqYmCzHwIEbnX4vugAgN7FhFkfMym43o8hTFZSchZA9F+w==" saltValue="OYcL3AdkqYvSZ7K3cKm0mA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UPBhDzaEJMAPMs8XDvgyXVAxcrrkFUxIdCanjtk3QHvpV0ACkjSKjh43g81SwvLMOQlZeds1eY9gASjn1stxPQ==" saltValue="blz5ay6WjREtoSNCaNgrag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD7E554-1E19-4843-A2C5-6028F8C8CFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC9F4EC-EAE9-4BFD-A2FE-272230E02AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="85uprs7qZm7WAGPcUsWMWNNQZCH0xILDQDx/BItwGvlO29CI7hNxyBWJ81nPmWKhUkT7l3m9MtXwcUGaA6Ek4g==" saltValue="VZZQAP2w59VTIGoZVGr2pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5CpjiEW1j9k8U1GIMLXXbf0JvffCHfdN7M7fR2O42vxuNgAUTUtNHR5dIwYgB+jRglRMt9Qov7BHIlp89GJ92w==" saltValue="gxqjpjHrLGT7vGVTYvXfLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q6vQMszdTpQ5a9stk+W/8WnT9onLAx65v6VPzE3ydPpNnBunmgVURGf7U0aYJ/gnjTTsjGMBDkgEqr+Ne1GvKw==" saltValue="zRipBppkAe/sLgo9MP4+JA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4bwdfEVf2oHhet0QkIC9kuc613lyQvx6owOlcCv/uWAUqfueIoTjQKJFBSLa83gVZtLJi7hGkQY2d3KhtHhF9g==" saltValue="jYneJGAPi4EeK64udeRSRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XQPQaKGxQIv3NqTJf8LkHe+MeogpTKIHcv+ZJXvJVAvc1CUnZwYgyGJl0Ostt2bMuc4TEDO7zJ7iGAvQfcGKQA==" saltValue="ghEayXdQAVblBtYdbLPOXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GWkTc1exolVMSqaeDpR5bZnXcvNf1fo05DKM9N01uLmhRXYGpEBaa9zJ++sbGqm2DERhXanpb04qIzEHRVqFdg==" saltValue="RKix2WRkP+duh5ZIkCbmCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D5ly3Dv4T8rBqgo2Q+YhQkSo4EjypJP4wbPHIsB5qKt5g0i5/k0HrEQxcQJhGldA57ucP17NLU2xbl/ApR8+ew==" saltValue="MMiLup4W3SRzi8dsAitFJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6hBAHi3dHr9yNHVJdNf9CRW/DSQ0CqIJrxxYWSbmfxLMTKNgQs0Cs9D9o8Ml3Tii/24ucjK4Gz7fvNJJVQPRUw==" saltValue="AfXjFQDUrN+TIfeysLl4fg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oYj0mjUMA16TktGVpkJLNKgm2Hzc+iK4/J/wVy7qDyhdpLe/FKfsid2yq1xDiTnqqbLx/UH9L1pOOOSPKg3AiQ==" saltValue="K42/Enezz67RBuYFMudL4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Rqelp3io61rTJ5AdN38mZ+/YW0apU+2wFDG6yrc9aohTgsy0afTbbrePIRq+keGl7E1btke3h7+C9uYhLRQZRA==" saltValue="D4RII/moBaOkkzS/JoDIKA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EbOMLwOI7DnUdBdTQghnaFEyU1UvjDRH6bHHm/RnS8KjK9gmhr3GcKCGfIa7QxglN6rbk8r/V4MSPvM0/QD1IA==" saltValue="nkv0DHrzYALw+6A+W+R7dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WDc7xMG5cwirttunNjpavjuUUpuUsd0hkLY5kn9Unr8hH4thHgBx07Y3AypysGWRmGDW9JYD2/fjI5EdUmu/mw==" saltValue="CoR/zLZAnFVOKUgEMKzcfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="M/yoXfzRf5h6OoeTPcKkvq52B5eM+7kd9Kcn+nQ0ifXfjNV5wYF59Dzt0IUJ1A9Db7WMsjBWJow04f+Ewy14Tg==" saltValue="ZuKFjYIQHGZ3q+0et8K9bA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TMF2wadgh/8kEzq3i8S13c6mj/toAy3try03DPSKrAAu56xQfmtZ1KhFtGrvOJ+pz1ttVu4BW656Y1JzG8ehWQ==" saltValue="kug+SecoKUSl6AkV+S9ZWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aRO6FKC7nS4daGQLgGd2dHq/7uQt8TdyDdddw9HPHAkGBFV5Z7d+g9LKNkI4Y1RPRK1mXyWzF6cFUoGj4zcQ3w==" saltValue="G0OTz43yTxODExrIid7h6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wczvjU753b+9UyOShtTDW0XaoKAN8rHljMI3nTUowbITtEQaBnCcaXp9MxnNRux8QrEOBAVB6wHEV17xq4HZYg==" saltValue="8tIJNk2FCJdlxxsErJ8qRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T6aAp2P4jS1o6d6GlEsEFvqyaD7dhvIgVZ6m3RADldeGas2aEivu/zvB3rtcoFKIS1k4f1RCVQkUeM1v2ZnOKw==" saltValue="i4LfwCusSaJhQT9BLqwE8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S9lAQU/N2htEJnHspBdffQluOo18DQ+7BIUiCV9m1hqGDIqcz1HboUpMkP2NJ77vzmMF4sTviEBsqIXr1I2caA==" saltValue="XOuncfg2HNp0xBDb/9dL7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+CcvIwWP/FBf6DZYOX5aFHDo0O4wn1ddtmpcoLqDmE604mePvAFK2IHV5JkN39MaNAOM2nIGBnXNzBNvZ9W1vA==" saltValue="zWfmK4QNxG9GUUk+l2EF4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2zJqUVfeqfj+41uXkl3xTTPj7BbtA7VMbkZMq6KlIJhERaV6bQTaotzNlazCt7oeaOnp4OX/v7mJdiZdj7tgHA==" saltValue="idIwDASCpVGc0aFdlJqP4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VTtTONjcL5cD2daiTzIH/cQuZNS5e1MtvXjEXD39V0j0vNhGqo18D4mm1XIUn1DVQ699ZuNyeO1K4Mg9V0Mong==" saltValue="cK06Eq5p5hRV2bR5vFjT8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pozoph1DRDkb73Gr34uVGBa2Hkjjrm87CZ2dlNcqlfJHIgK3MFNXxvIqqbiOznzHQaeioIWjmxPsGZFkgkey4w==" saltValue="MyUbUhJ75DzYfRytc0QpSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JlZeyeATeSlpqZ4NanZW6St+JVotvWA9rwgbFtE6bS0ew9/+eeRdYnBseZ3Fmq0NpliR+F5AZ4WPZhY/myr9IQ==" saltValue="8LLOjKJ7OOm3OAaiH5Lvkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="knEnLQAZDoPsxASnx+lHSAmrcFwhN4yyluJoSqWaixvkDv2jvY/iwBbN+a/j6LomdIuNJzWCmFZODf9D5P/5NQ==" saltValue="8MstHAdz1KZGVIsAIxjMlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IrTJu5P11+jDKP8+YmCdloZzShGfNSEdENESY8oo36IuD10gK+MtiG8IXgLwL/MBvszQ3vEidcOT18mOESUZxQ==" saltValue="RQnHnObiG0PPjJcWnQlVFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/a77pxmjxIZ6iMAINMcm4Vsp+kAc2j+b/EhuwjZhnTY4jobRk3MWqPvXmuqfTwr3Bi32UXCZgzY+sBsnezxzNA==" saltValue="yeCRbchfYP1Mr6+DbiAjdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gT3f1YZ9IrVqtLttzbhAmhHiuGva4ngIN/XYk3Ox8HCNkKzfII1eq5UFjjjTAVY82v0cEIroidyW8psq77NqKQ==" saltValue="vw+yfpeZJa2PqpNK9Hq7Hg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z7HRBJCAA7lunllVYON9O6b1kDbqq0cbK4kDtS/5zVstJuW2aRbi4oR/oo3kQcoLC4DSAAo8yDDgdjL9cMV71g==" saltValue="+CkfApeRFCAbd/h3vE5YiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NUeNQAWjdRWSlnUqflTW72zpG9fCqP6xvM9dbGStzeWANeX6i3XB7HoRpAOxvaLYAkjjU5XvhZlC4Ef4eJ/Qjw==" saltValue="dwJmMNe3EdIx5bj+TUSieQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MiJr+VFjdbZnLMiZi0FZNwHNwsLCCk8ISEmJiloglkmdwiqlVMPWczVO373ofXpRA0Ccip+vA2dxrP8HT0CDjg==" saltValue="VaonOJ8yNv0pcSxnvMkPhg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ewuOp37fx+VxRhQPFomkBFatQ1N6mJoI2b9u83Afn0WTIeY8jRqY6vomi0ERYojpZUU1bav8YVfHK8PPuTiT7g==" saltValue="VKLimRaQBm1RUCp546V3sg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+mYSdB84sx+t/tXDrE7T7rN4Fj1/SOPyLnXyGR4tK+/GZll/lpnZ8XRfOuhUVf8z6CB/PTNm3PB687PfykdmSw==" saltValue="lJK5k4p4hlS0TfF0lKcHNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PoWG+e3ZrUA2lKJK7fRwRgORQ+/CAxigiRX68foqaUs/R+MClQy+cc/IeYyjttobgg9peN4K2i+o4To1NvBrbg==" saltValue="E8jBq/vi7gk1kR609875bQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/TuezTZ35n6kJyWBNWpvegBG5ju66uM6gkrG7oFrmXkkU8DDFaeFoGcSGZvfhwWR4IYF81GRd4KlwyrQwpVplQ==" saltValue="6MiEYuQFEt8zVz+rbtUOog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y4tcxd2vslByJXM1NxcZBKA09a+7UKfxqamu2ZlWGIHxNYCyrJXww+oN7U6jqQ9tc/U8M2uOH6P9xQqEHzJnnw==" saltValue="MNM9GT54pMfg0M0panLp3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Rp53+4hgxYkeZk6PhTKode7dn9XKtSiQX4zQY0zkGb0l9e4+xmhuqedBsCAGUa7ZhNFfs3FpPfuojR8wv3OIEw==" saltValue="gavLY9ETMzBr/Zpal4NXUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cLVUmsY89IDFAuEqWPB99khOVnxNHu5bFtmg1fXSroB9GsRwTqKKc5v22nwQwsRaTw0wTAXHmQ+YPPFNT2iiKQ==" saltValue="6/zEOnj78zsQ+7FYitdcXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CyQ4+Mv8hInPS8P/HJqlVJxE0rXb8PjCX6K6++NCTPLKRGqubKbrdzmiAROrH7zncqGrT6523IFudAVsfRYkdQ==" saltValue="ocsL2v80obJedXUl0sJFmA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PUTqZBLwE+8SVohDhZ99ruXUKr6zfzgg7Btogqt1JYUw3ktucTgR3hWkBDLmEtYyplmTs7rDHkSLpxEFPfiBPw==" saltValue="gfCMj2dHKKwgT/5ItX75eQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H9pop4Wmd6n3KNp6RcTevZVXUGnjsINTQivCINfUNoXKpQnRvUQ6IO+iiJqR4Dv5RUnqE1Tp/4EC9xO1s88HMA==" saltValue="aRk8R7VWPMDrckDKtRQLjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SOJkezoCBIx6FNf0pC8IjZRncWQRLPczRxN9TXT+05eYNv7cIXzUnVJhs/LEFkkI7WUfvnH4uoUxl8yL1p/6tg==" saltValue="i73d/ZYOCMW8I/1laXHyxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Bkq/+uqABDuCKKcSwoWz/3oDPra/JpnDG7GKsZOBIg9zQDqyricIGJcJvNgwsMCHXJSaBwmfjDWXjBrCgZATTg==" saltValue="mVwUNZhBS0gmGxbc1ExzPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="htl/OAhVBaTfJDoQxBW7hZZj5NfOYJDpGTjowr+Ck6DalUvjZCFoZIFehy3K1Vuo9Ovjb8Io0Jhv2fCsjPKItw==" saltValue="ZtKjGe73qPyLzkQKQBsIUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oBZ4h2sbbSoYLDL9sDs7clp/PrFfTy0fOYPzB1T0lSQKWjVldo3bHnFmZHtwbAnR+9bY0PdRERWyKyvUn/VQXQ==" saltValue="zhGh3GkA2Tu7ADdp5FssGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6737Sg2mtZ5a2MxDpYAcoYBiGLHD9eNpZuGoijD1hGkm2QwH0Mwkmgg8Q7J7oLe6uZeEU3pHyXIJNqg1Xd4H6A==" saltValue="QoGbfrtyIpamjeIXqtwdJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IJiX5G8jQMfUBRSd19/fvOecxQaPtgTlPt88TIHcY/qkiiRRSLjyvwOm1Um8WS+SmWfF6sFnIGUioc3+xNiERw==" saltValue="MgV4L4D/0hwBNx+rKtiK5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RHmNjS3wUObUdvPvLnARtuPcraw+FIZj6vKqbh5+KfDcFVss02HfGoj/3sJiKbSrA5R2bifvxC+i0MORgn6N0Q==" saltValue="5KHpjrLjjKFINLUJB79SUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P+oKicrQ6eXQJ6L5lj41KB7p6W7lBh2sACd0ylVB0O98cbviqronGJGc+rdhZf8zD6okGmZVYELJIktC080iQA==" saltValue="3uCgCIrRD2U9SZF9PTmuSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z+iVsesCpwjooq5KeQ08Q2vM1tArDNU+eMEBJ7MfDnbNmFCqzLJkNa8DQeX60lUTVtXw8RVqs4FPy89nDphgGg==" saltValue="jmWmEakkGvbdqgN/4FaBbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7NZW6vJSBV9BAQy4gMR2QVBw3rhKmUnOvylIm43a2WwuKyKQlVkblR1QMoe/4u4kPqgAhbXeJ6AjauGHFJpYMg==" saltValue="2pvmcvgx+PrZlC15h0oMRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U0uXgJ5Loufn3C+o0edk4gDXtXuElsVda7b6mF9bA8/naNGzQ1IUNCYkfpVVcoziViNtLFS3GvQuHjXOd5u1WA==" saltValue="wY6X2lEL50lu+jPczZlsjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mtMOX7o8S1+qc5/VWXseHw3K1pT4HJuSLW0SeWSy2WMR3cbF2oncsQd09cJ0HpXY1UM13wabN074/QYL79vxnQ==" saltValue="iCxiGK2NGUx0l5ZvWsy7og==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eQeHPcLyZLbw5nnYa6eugbxrlfhnGxGt22lAE60u8cvLBgc1JERRGOrfa453VyxsU9HeUtniPe9FxC+C/uK10g==" saltValue="s4Obm9B7MNfwvNLUCFupiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fiSL6tkxpBfjmE/SuzepTIHVIMGMH7+LScIhGo2LD3y7SFxp/7sEkDVU7tlPMWcQXd37mMppWF/35TlPLrW0Kg==" saltValue="zyR7k+l5XBgeShwGMn5yTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UPBhDzaEJMAPMs8XDvgyXVAxcrrkFUxIdCanjtk3QHvpV0ACkjSKjh43g81SwvLMOQlZeds1eY9gASjn1stxPQ==" saltValue="blz5ay6WjREtoSNCaNgrag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="T3IxAwCQhyGjQuAQnrr3CLCHFU0pOIUTjcLNO5U0cRZor2Z7ezTiZ0lHGFSowTvJ8OyReFJpEAPUYU8JrH/f3w==" saltValue="VGQZannHv1Pv9VErEYaDmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608A0C1-3BEB-4CF1-A087-74FDFED0B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7B8EF-9A48-4E18-9C6D-CB045215801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causes du décès" sheetId="4" r:id="rId3"/>
     <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
-    <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
+    <sheet name="Tendances temporelles" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
   <si>
     <t>Condition</t>
   </si>
@@ -2909,15 +2909,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5093,18 +5093,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5115,14 +5115,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -5131,7 +5131,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -5140,7 +5140,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5209,7 +5209,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="115">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5340,17 +5340,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="115">
+      <c r="C33" s="114">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5454,7 +5454,7 @@
       <c r="B48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="116">
+      <c r="C48" s="115">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5578,19 +5578,19 @@
       <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>157</v>
       </c>
@@ -6522,15 +6522,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6671,13 +6671,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.21875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6770,7 +6770,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6885,19 +6885,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
@@ -7505,7 +7505,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>169</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>180</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>181</v>
@@ -7886,7 +7886,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>210</v>
       </c>
@@ -8644,7 +8644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8683,16 +8683,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>216</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>217</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>218</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>219</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>220</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>221</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>222</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>223</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>224</v>
       </c>
@@ -8890,20 +8890,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.1796875" style="43"/>
+    <col min="6" max="7" width="13.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>211</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>86</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>171</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>157</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>158</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>159</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>184</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>185</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>189</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>191</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>192</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>205</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>161</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>193</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>199</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
         <v>200</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
@@ -9629,7 +9629,7 @@
       <c r="N17" s="99"/>
       <c r="O17" s="99"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>100</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="40" t="s">
         <v>169</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
         <v>180</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
         <v>181</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="74" t="s">
         <v>182</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>187</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>188</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40" t="s">
         <v>190</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
@@ -10001,7 +10001,7 @@
       <c r="N26" s="99"/>
       <c r="O26" s="99"/>
     </row>
-    <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>75</v>
       </c>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="P27" s="75"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>176</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="46" t="s">
         <v>177</v>
@@ -10138,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>178</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46" t="s">
         <v>179</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
@@ -10242,7 +10242,7 @@
       <c r="N32" s="99"/>
       <c r="O32" s="99"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>210</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>174</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>175</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>183</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>186</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>194</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>195</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>196</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>197</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>198</v>
       </c>
@@ -10702,22 +10702,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -11469,22 +11468,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>230</v>
       </c>
@@ -11843,14 +11841,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>76</v>
       </c>
@@ -12938,15 +12936,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.7265625" style="28"/>
+    <col min="3" max="3" width="14.77734375" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>231</v>
       </c>
@@ -12972,11 +12970,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12999,7 +12997,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="114"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="28" t="s">
         <v>154</v>
       </c>
@@ -13021,7 +13019,7 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13043,7 +13041,7 @@
       <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13067,7 +13065,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="28" t="s">
         <v>154</v>
       </c>
@@ -13088,7 +13086,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13109,7 +13107,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13132,7 +13130,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
@@ -13153,7 +13151,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13174,7 +13172,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13197,7 +13195,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="28" t="s">
         <v>154</v>
       </c>
@@ -13218,7 +13216,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13239,7 +13237,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13262,7 +13260,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="28" t="s">
         <v>154</v>
       </c>
@@ -13283,7 +13281,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13303,7 +13301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="77" t="s">
         <v>156</v>
       </c>
@@ -13333,11 +13331,11 @@
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13360,7 +13358,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="114"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="28" t="s">
         <v>154</v>
       </c>
@@ -13381,7 +13379,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="114"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13402,7 +13400,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13425,7 +13423,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="28" t="s">
         <v>154</v>
       </c>
@@ -13446,7 +13444,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13467,7 +13465,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13490,7 +13488,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="114"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="28" t="s">
         <v>154</v>
       </c>
@@ -13511,7 +13509,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13532,7 +13530,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13555,7 +13553,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="28" t="s">
         <v>154</v>
       </c>
@@ -13576,7 +13574,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13597,7 +13595,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13620,7 +13618,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="114"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="28" t="s">
         <v>154</v>
       </c>
@@ -13641,7 +13639,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="114"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13661,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="77" t="s">
         <v>156</v>
       </c>
@@ -13691,11 +13689,11 @@
       <c r="G35" s="101"/>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13718,7 +13716,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="28" t="s">
         <v>154</v>
       </c>
@@ -13739,7 +13737,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13760,7 +13758,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13783,7 +13781,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="28" t="s">
         <v>154</v>
       </c>
@@ -13804,7 +13802,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="114"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13825,7 +13823,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13848,7 +13846,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="28" t="s">
         <v>154</v>
       </c>
@@ -13869,7 +13867,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13890,7 +13888,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13913,7 +13911,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="28" t="s">
         <v>154</v>
       </c>
@@ -13934,7 +13932,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13955,7 +13953,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13978,7 +13976,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="28" t="s">
         <v>154</v>
       </c>
@@ -13999,7 +13997,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14019,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="77" t="s">
         <v>156</v>
       </c>
@@ -14042,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="107" t="s">
         <v>235</v>
       </c>
@@ -14054,7 +14052,7 @@
       <c r="G53" s="107"/>
       <c r="H53" s="107"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>231</v>
       </c>
@@ -14080,11 +14078,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14112,7 +14110,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="28" t="s">
         <v>154</v>
       </c>
@@ -14138,7 +14136,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14164,7 +14162,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14192,7 +14190,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="28" t="s">
         <v>154</v>
       </c>
@@ -14218,7 +14216,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14244,7 +14242,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14272,7 +14270,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="28" t="s">
         <v>154</v>
       </c>
@@ -14298,7 +14296,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14324,7 +14322,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14352,7 +14350,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="28" t="s">
         <v>154</v>
       </c>
@@ -14378,7 +14376,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14404,7 +14402,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14432,7 +14430,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="114"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="28" t="s">
         <v>154</v>
       </c>
@@ -14458,7 +14456,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="114"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14483,7 +14481,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="77" t="s">
         <v>156</v>
       </c>
@@ -14518,11 +14516,11 @@
       <c r="G71" s="101"/>
       <c r="H71" s="101"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14550,7 +14548,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="114"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="28" t="s">
         <v>154</v>
       </c>
@@ -14576,7 +14574,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14602,7 +14600,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="114" t="s">
+      <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14630,7 +14628,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="114"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="28" t="s">
         <v>154</v>
       </c>
@@ -14656,7 +14654,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="114"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14682,7 +14680,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14710,7 +14708,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="28" t="s">
         <v>154</v>
       </c>
@@ -14736,7 +14734,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="114"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14762,7 +14760,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14790,7 +14788,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="114"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="28" t="s">
         <v>154</v>
       </c>
@@ -14816,7 +14814,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="114"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14842,7 +14840,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="114" t="s">
+      <c r="B84" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14870,7 +14868,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="114"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="28" t="s">
         <v>154</v>
       </c>
@@ -14896,7 +14894,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="114"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14921,7 +14919,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="77" t="s">
         <v>156</v>
       </c>
@@ -14956,11 +14954,11 @@
       <c r="G88" s="101"/>
       <c r="H88" s="101"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="114" t="s">
+      <c r="B89" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14988,7 +14986,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="114"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="28" t="s">
         <v>154</v>
       </c>
@@ -15014,7 +15012,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="114"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15040,7 +15038,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="114" t="s">
+      <c r="B92" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15068,7 +15066,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="28" t="s">
         <v>154</v>
       </c>
@@ -15094,7 +15092,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="114"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15120,7 +15118,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15148,7 +15146,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="114"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="28" t="s">
         <v>154</v>
       </c>
@@ -15174,7 +15172,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="114"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15200,7 +15198,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="114" t="s">
+      <c r="B98" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15228,7 +15226,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="114"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="28" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15252,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="114"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15280,7 +15278,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15308,7 +15306,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="114"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="28" t="s">
         <v>154</v>
       </c>
@@ -15334,7 +15332,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="114"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15359,7 +15357,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="77" t="s">
         <v>156</v>
       </c>
@@ -15387,7 +15385,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="107" t="s">
         <v>239</v>
       </c>
@@ -15399,7 +15397,7 @@
       <c r="G106" s="107"/>
       <c r="H106" s="107"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>231</v>
       </c>
@@ -15425,11 +15423,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15457,7 +15455,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="114"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="28" t="s">
         <v>154</v>
       </c>
@@ -15483,7 +15481,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="114"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15509,7 +15507,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="114" t="s">
+      <c r="B111" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15537,7 +15535,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="114"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="28" t="s">
         <v>154</v>
       </c>
@@ -15563,7 +15561,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="114"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15589,7 +15587,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="114" t="s">
+      <c r="B114" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15617,7 +15615,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="114"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="28" t="s">
         <v>154</v>
       </c>
@@ -15643,7 +15641,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="114"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15669,7 +15667,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="114" t="s">
+      <c r="B117" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15697,7 +15695,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="114"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="28" t="s">
         <v>154</v>
       </c>
@@ -15723,7 +15721,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="114"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15749,7 +15747,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="114" t="s">
+      <c r="B120" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15777,7 +15775,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="114"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="28" t="s">
         <v>154</v>
       </c>
@@ -15803,7 +15801,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="114"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15828,7 +15826,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="77" t="s">
         <v>156</v>
       </c>
@@ -15863,11 +15861,11 @@
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="114" t="s">
+      <c r="B125" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15895,7 +15893,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="114"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="28" t="s">
         <v>154</v>
       </c>
@@ -15921,7 +15919,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="114"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15947,7 +15945,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="114" t="s">
+      <c r="B128" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15975,7 +15973,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="114"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="28" t="s">
         <v>154</v>
       </c>
@@ -16001,7 +15999,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="114"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16027,7 +16025,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="114" t="s">
+      <c r="B131" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16055,7 +16053,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="28" t="s">
         <v>154</v>
       </c>
@@ -16081,7 +16079,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="114"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16107,7 +16105,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="114" t="s">
+      <c r="B134" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16135,7 +16133,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="114"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="28" t="s">
         <v>154</v>
       </c>
@@ -16161,7 +16159,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="114"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16187,7 +16185,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="114" t="s">
+      <c r="B137" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16215,7 +16213,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="114"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="28" t="s">
         <v>154</v>
       </c>
@@ -16241,7 +16239,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="114"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16266,7 +16264,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="77" t="s">
         <v>156</v>
       </c>
@@ -16301,11 +16299,11 @@
       <c r="G141" s="101"/>
       <c r="H141" s="101"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="114" t="s">
+      <c r="B142" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16333,7 +16331,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="114"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="28" t="s">
         <v>154</v>
       </c>
@@ -16359,7 +16357,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="114"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16385,7 +16383,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="114" t="s">
+      <c r="B145" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16413,7 +16411,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="114"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="28" t="s">
         <v>154</v>
       </c>
@@ -16439,7 +16437,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="114"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16465,7 +16463,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="114" t="s">
+      <c r="B148" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16493,7 +16491,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="114"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="28" t="s">
         <v>154</v>
       </c>
@@ -16519,7 +16517,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="114"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16545,7 +16543,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="114" t="s">
+      <c r="B151" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16573,7 +16571,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="114"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="28" t="s">
         <v>154</v>
       </c>
@@ -16599,7 +16597,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="114"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16625,7 +16623,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="114" t="s">
+      <c r="B154" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16653,7 +16651,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="114"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="28" t="s">
         <v>154</v>
       </c>
@@ -16679,7 +16677,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="114"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -16704,7 +16702,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="77" t="s">
         <v>156</v>
       </c>
@@ -16735,6 +16733,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d5TbHPQi63nwx2Wq5JJSqukalmMv3C31IJEOC6Ln2RHu+2wV3FQIapEnZTD1R3DDEUxGNC0W0Oqhkaf0Boqebg==" saltValue="VXHqyG/n1ojfTzC/S0zfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16744,42 +16778,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16800,22 +16798,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.1796875" style="28"/>
+    <col min="7" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
         <v>54</v>
@@ -16830,7 +16828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>244</v>
       </c>
@@ -16914,7 +16912,7 @@
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>249</v>
       </c>
@@ -16937,7 +16935,7 @@
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>245</v>
       </c>
@@ -16946,7 +16944,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>246</v>
       </c>
@@ -17006,7 +17004,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="90"/>
@@ -17014,7 +17012,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>248</v>
       </c>
@@ -17163,7 +17161,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>235</v>
       </c>
@@ -17173,12 +17171,12 @@
       <c r="E27" s="110"/>
       <c r="F27" s="110"/>
     </row>
-    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="81"/>
       <c r="C29" s="82" t="s">
         <v>54</v>
@@ -17193,7 +17191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>250</v>
       </c>
@@ -17293,7 +17291,7 @@
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>262</v>
       </c>
@@ -17314,7 +17312,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>245</v>
       </c>
@@ -17324,7 +17322,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>251</v>
       </c>
@@ -17396,7 +17394,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="90"/>
@@ -17404,7 +17402,7 @@
       <c r="E43" s="76"/>
       <c r="F43" s="76"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>252</v>
       </c>
@@ -17582,7 +17580,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="107" t="s">
         <v>239</v>
       </c>
@@ -17592,12 +17590,12 @@
       <c r="E54" s="110"/>
       <c r="F54" s="110"/>
     </row>
-    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="81"/>
       <c r="C56" s="82" t="s">
         <v>54</v>
@@ -17612,7 +17610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>253</v>
       </c>
@@ -17712,7 +17710,7 @@
       <c r="E62" s="76"/>
       <c r="F62" s="76"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>263</v>
       </c>
@@ -17733,7 +17731,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>245</v>
       </c>
@@ -17743,7 +17741,7 @@
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>254</v>
       </c>
@@ -17815,7 +17813,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="90"/>
@@ -17823,7 +17821,7 @@
       <c r="E70" s="76"/>
       <c r="F70" s="76"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>255</v>
       </c>
@@ -18022,23 +18020,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.7265625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>226</v>
       </c>
@@ -18072,7 +18070,7 @@
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>87</v>
@@ -18505,7 +18503,7 @@
       <c r="O17" s="93"/>
       <c r="P17" s="93"/>
     </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>269</v>
       </c>
@@ -18763,12 +18761,12 @@
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
     </row>
-    <row r="28" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
         <v>279</v>
       </c>
@@ -18802,7 +18800,7 @@
       <c r="O29" s="94"/>
       <c r="P29" s="94"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>87</v>
@@ -19497,12 +19495,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="s">
         <v>121</v>
       </c>
@@ -19530,7 +19528,7 @@
       <c r="O56" s="94"/>
       <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>101</v>
@@ -19676,12 +19674,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="s">
         <v>128</v>
       </c>
@@ -19715,7 +19713,7 @@
       <c r="O65" s="94"/>
       <c r="P65" s="94"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="97"/>
       <c r="B66" s="28" t="s">
         <v>78</v>
@@ -20751,12 +20749,12 @@
       <c r="O101" s="93"/>
       <c r="P101" s="93"/>
     </row>
-    <row r="103" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="s">
         <v>87</v>
       </c>
@@ -20790,7 +20788,7 @@
       <c r="O104" s="94"/>
       <c r="P104" s="94"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>129</v>
@@ -20903,13 +20901,13 @@
       <c r="O108" s="93"/>
       <c r="P108" s="93"/>
     </row>
-    <row r="110" spans="1:16" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="107" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="107"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
         <v>264</v>
       </c>
@@ -20921,7 +20919,7 @@
       <c r="G111" s="80"/>
       <c r="H111" s="80"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="s">
         <v>226</v>
       </c>
@@ -20947,7 +20945,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>87</v>
@@ -21566,7 +21564,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
         <v>278</v>
       </c>
@@ -21578,7 +21576,7 @@
       <c r="G138" s="80"/>
       <c r="H138" s="80"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="s">
         <v>279</v>
       </c>
@@ -21604,7 +21602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>87</v>
@@ -22227,7 +22225,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="79" t="s">
         <v>271</v>
       </c>
@@ -22239,7 +22237,7 @@
       <c r="G165" s="80"/>
       <c r="H165" s="80"/>
     </row>
-    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="s">
         <v>121</v>
       </c>
@@ -22263,7 +22261,7 @@
       </c>
       <c r="H166" s="94"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>101</v>
@@ -22409,7 +22407,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="79" t="s">
         <v>275</v>
       </c>
@@ -22421,7 +22419,7 @@
       <c r="G174" s="80"/>
       <c r="H174" s="80"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="93" t="s">
         <v>128</v>
       </c>
@@ -22447,7 +22445,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="97"/>
       <c r="B176" s="28" t="s">
         <v>78</v>
@@ -23339,7 +23337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="79" t="s">
         <v>277</v>
       </c>
@@ -23351,7 +23349,7 @@
       <c r="G213" s="80"/>
       <c r="H213" s="80"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="93" t="s">
         <v>87</v>
       </c>
@@ -23377,7 +23375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>129</v>
@@ -23474,13 +23472,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="107" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="107"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="79" t="s">
         <v>264</v>
       </c>
@@ -23493,7 +23491,7 @@
       <c r="H221" s="80"/>
       <c r="I221" s="80"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="93" t="s">
         <v>226</v>
       </c>
@@ -23520,7 +23518,7 @@
       </c>
       <c r="I222" s="94"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>87</v>
@@ -24163,7 +24161,7 @@
       </c>
       <c r="I246" s="93"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="79" t="s">
         <v>278</v>
       </c>
@@ -24176,7 +24174,7 @@
       <c r="H248" s="80"/>
       <c r="I248" s="80"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="93" t="s">
         <v>279</v>
       </c>
@@ -24203,7 +24201,7 @@
       </c>
       <c r="I249" s="94"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>87</v>
@@ -24850,7 +24848,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="79" t="s">
         <v>271</v>
       </c>
@@ -24863,7 +24861,7 @@
       <c r="H275" s="80"/>
       <c r="I275" s="80"/>
     </row>
-    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="93" t="s">
         <v>121</v>
       </c>
@@ -24887,7 +24885,7 @@
       </c>
       <c r="H276" s="94"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>101</v>
@@ -25033,7 +25031,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="79" t="s">
         <v>275</v>
       </c>
@@ -25046,7 +25044,7 @@
       <c r="H284" s="80"/>
       <c r="I284" s="80"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="93" t="s">
         <v>128</v>
       </c>
@@ -25073,7 +25071,7 @@
       </c>
       <c r="I285" s="94"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="97"/>
       <c r="B286" s="28" t="s">
         <v>78</v>
@@ -26001,7 +25999,7 @@
       </c>
       <c r="I321" s="93"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="79" t="s">
         <v>277</v>
       </c>
@@ -26014,7 +26012,7 @@
       <c r="H323" s="80"/>
       <c r="I323" s="80"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="93" t="s">
         <v>87</v>
       </c>
@@ -26041,7 +26039,7 @@
       </c>
       <c r="I324" s="94"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>129</v>
@@ -26163,24 +26161,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="7" max="7" width="13.77734375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
@@ -26221,7 +26219,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="73" t="s">
         <v>281</v>
@@ -26242,7 +26240,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>282</v>
       </c>
@@ -26335,12 +26333,12 @@
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
       <c r="B12" s="46" t="s">
         <v>184</v>
@@ -26361,16 +26359,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>279</v>
       </c>
@@ -26393,7 +26391,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="73" t="s">
         <v>287</v>
@@ -26414,7 +26412,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
         <v>121</v>
       </c>
@@ -26438,12 +26436,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>69</v>
       </c>
@@ -26474,12 +26472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>233</v>
       </c>
@@ -26490,7 +26488,7 @@
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
         <v>0</v>
       </c>
@@ -26535,7 +26533,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="73" t="s">
         <v>290</v>
@@ -26561,7 +26559,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>291</v>
       </c>
@@ -26674,7 +26672,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
         <v>295</v>
       </c>
@@ -26685,7 +26683,7 @@
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="84"/>
       <c r="B35" s="46" t="s">
         <v>296</v>
@@ -26708,11 +26706,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
       <c r="B36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>283</v>
       </c>
@@ -26723,7 +26721,7 @@
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="97" t="s">
         <v>279</v>
       </c>
@@ -26751,7 +26749,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="73" t="s">
         <v>298</v>
@@ -26777,7 +26775,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="s">
         <v>121</v>
       </c>
@@ -26805,7 +26803,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>300</v>
       </c>
@@ -26816,7 +26814,7 @@
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
       <c r="B43" s="84"/>
       <c r="C43" s="44" t="s">
@@ -26854,12 +26852,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>233</v>
       </c>
@@ -26870,7 +26868,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="s">
         <v>0</v>
       </c>
@@ -26915,7 +26913,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="73" t="s">
         <v>303</v>
@@ -26941,7 +26939,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>304</v>
       </c>
@@ -27054,7 +27052,7 @@
       <c r="F56" s="73"/>
       <c r="G56" s="73"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
         <v>308</v>
       </c>
@@ -27065,7 +27063,7 @@
       <c r="F57" s="80"/>
       <c r="G57" s="80"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
       <c r="B58" s="46" t="s">
         <v>309</v>
@@ -27088,11 +27086,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
       <c r="B59" s="46"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>283</v>
       </c>
@@ -27103,7 +27101,7 @@
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="97" t="s">
         <v>279</v>
       </c>
@@ -27131,7 +27129,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="73" t="s">
         <v>311</v>
@@ -27157,7 +27155,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="97" t="s">
         <v>121</v>
       </c>
@@ -27185,7 +27183,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>313</v>
       </c>
@@ -27196,7 +27194,7 @@
       <c r="F65" s="80"/>
       <c r="G65" s="80"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
       <c r="B66" s="84"/>
       <c r="C66" s="44" t="s">
@@ -27256,16 +27254,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.1796875" style="28"/>
-    <col min="7" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.1796875" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.21875" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -27511,12 +27509,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>160</v>
       </c>
@@ -27810,12 +27808,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>160</v>
       </c>
@@ -28130,15 +28128,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.7265625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="83" t="s">
@@ -28181,7 +28179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>319</v>
       </c>
@@ -28626,7 +28624,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>189</v>
       </c>
@@ -28758,7 +28756,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>320</v>
       </c>
@@ -28940,12 +28938,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="83" t="s">
@@ -28988,7 +28986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>321</v>
       </c>
@@ -29734,7 +29732,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>323</v>
       </c>
@@ -29968,12 +29966,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="83" t="s">
@@ -30016,7 +30014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>322</v>
       </c>
@@ -30762,7 +30760,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>324</v>
       </c>
@@ -31017,15 +31015,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="21.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -31044,7 +31042,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>325</v>
       </c>
@@ -31069,7 +31067,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>326</v>
       </c>
@@ -31100,12 +31098,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -31124,7 +31122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>327</v>
       </c>
@@ -31154,7 +31152,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>328</v>
       </c>
@@ -31190,12 +31188,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -31214,7 +31212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>329</v>
       </c>
@@ -31244,7 +31242,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>330</v>
       </c>
@@ -31301,20 +31299,20 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.7265625" style="28"/>
+    <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -32497,14 +32495,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>331</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>160</v>
       </c>
@@ -33947,14 +33945,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="111" t="s">
         <v>332</v>
       </c>
       <c r="B110" s="112"/>
       <c r="C110" s="112"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>160</v>
       </c>
@@ -35418,16 +35416,16 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -35575,12 +35573,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>160</v>
       </c>
@@ -35745,12 +35743,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>160</v>
       </c>
@@ -35935,14 +35933,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -35953,7 +35951,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -36036,7 +36034,7 @@
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="114">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -36052,7 +36050,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
@@ -36230,19 +36228,19 @@
       <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="115">
+      <c r="C23" s="114">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="114">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="115">
+      <c r="E23" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36258,7 +36256,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -36350,7 +36348,7 @@
       <c r="B35" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="115">
+      <c r="C35" s="114">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
@@ -36374,13 +36372,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36411,23 +36409,23 @@
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="117">
+      <c r="E2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.44982829694488635</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.24457139941017503</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.23269074767298425</v>
       </c>
@@ -36436,23 +36434,23 @@
       <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="E3" s="117">
+      <c r="E3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
@@ -36520,23 +36518,23 @@
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.68355843805440353</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.73228840888273117</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.81212055177975573</v>
       </c>
@@ -36545,23 +36543,23 @@
       <c r="B9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
@@ -36712,55 +36710,55 @@
       <c r="B15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="116">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="116">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="116">
         <f t="shared" si="0"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="116">
         <f t="shared" si="0"/>
         <v>0.30639</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="116">
         <f t="shared" si="0"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N15" s="117">
+      <c r="N15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
@@ -36798,13 +36796,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36895,23 +36893,23 @@
       <c r="B5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <f>1-SUM(C2:C4)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>2.4399366085578356E-2</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="116">
         <f t="shared" si="0"/>
         <v>1.8961838681699872E-2</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="116">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="116">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36934,13 +36932,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -37138,13 +37136,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -37214,18 +37212,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>151</v>
       </c>
@@ -37242,7 +37240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>157</v>
       </c>
@@ -37260,8 +37258,8 @@
       <c r="B3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="63" t="b">
-        <v>1</v>
+      <c r="C3" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="45" t="str">
@@ -37273,8 +37271,8 @@
       <c r="B4" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="63" t="b">
-        <v>1</v>
+      <c r="C4" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="45" t="str">
@@ -37286,8 +37284,8 @@
       <c r="B5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="63" t="b">
-        <v>1</v>
+      <c r="C5" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="45" t="str">
@@ -37299,8 +37297,8 @@
       <c r="B6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="63" t="b">
-        <v>1</v>
+      <c r="C6" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="45" t="str">
@@ -37316,7 +37314,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>158</v>
       </c>
@@ -37324,9 +37322,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="63" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="63"/>
       <c r="E9" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37337,7 +37333,9 @@
         <v>109</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="D10" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37348,7 +37346,9 @@
         <v>96</v>
       </c>
       <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37359,7 +37359,9 @@
         <v>97</v>
       </c>
       <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37370,7 +37372,9 @@
         <v>98</v>
       </c>
       <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37382,11 +37386,9 @@
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="63"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>159</v>
       </c>
@@ -37394,9 +37396,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="63"/>
-      <c r="D16" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="63"/>
       <c r="E16" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37433,9 +37433,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="63"/>
-      <c r="D19" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D19" s="63"/>
       <c r="E19" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37446,9 +37444,7 @@
         <v>98</v>
       </c>
       <c r="C20" s="63"/>
-      <c r="D20" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="63"/>
       <c r="E20" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37480,15 +37476,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
@@ -37502,7 +37498,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>160</v>
       </c>
@@ -37514,7 +37510,7 @@
       </c>
       <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>164</v>
       </c>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7B8EF-9A48-4E18-9C6D-CB045215801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457AECDD-87E1-41B3-B76C-10C95F9124F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -5093,7 +5093,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -6518,7 +6518,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -16733,12 +16733,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d5TbHPQi63nwx2Wq5JJSqukalmMv3C31IJEOC6Ln2RHu+2wV3FQIapEnZTD1R3DDEUxGNC0W0Oqhkaf0Boqebg==" saltValue="VXHqyG/n1ojfTzC/S0zfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16748,36 +16772,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31295,8 +31295,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31375,13 +31375,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31751,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31771,13 +31771,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31797,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31817,13 +31817,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31863,13 +31863,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31915,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31935,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31955,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31981,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32001,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32021,7 +32021,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32047,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32067,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32113,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32133,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32179,7 +32179,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32199,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32219,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32265,7 +32265,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32285,7 +32285,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32308,7 +32308,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32328,7 +32328,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32348,7 +32348,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32374,7 +32374,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32388,19 +32388,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32414,19 +32414,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32440,7 +32440,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32466,7 +32466,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32486,7 +32486,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32548,15 +32548,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32573,15 +32573,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32981,7 +32981,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33034,7 +33034,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33057,7 +33057,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="105">
         <f t="shared" si="8"/>
@@ -33090,7 +33090,7 @@
       </c>
       <c r="F77" s="105">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="105">
         <f t="shared" si="9"/>
@@ -33113,7 +33113,7 @@
       </c>
       <c r="D78" s="105">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="105">
         <f t="shared" si="10"/>
@@ -33121,7 +33121,7 @@
       </c>
       <c r="F78" s="105">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="105">
         <f t="shared" si="10"/>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F79" s="105">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="105">
         <f t="shared" si="11"/>
@@ -33169,7 +33169,7 @@
       </c>
       <c r="D80" s="105">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="105">
         <f t="shared" si="12"/>
@@ -33177,7 +33177,7 @@
       </c>
       <c r="F80" s="105">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="105">
         <f t="shared" si="12"/>
@@ -33202,7 +33202,7 @@
       </c>
       <c r="F81" s="105">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="105">
         <f t="shared" si="13"/>
@@ -33233,7 +33233,7 @@
       </c>
       <c r="F82" s="105">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="105">
         <f t="shared" si="14"/>
@@ -33258,7 +33258,7 @@
       </c>
       <c r="F83" s="105">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="105">
         <f t="shared" si="15"/>
@@ -33283,7 +33283,7 @@
       </c>
       <c r="F84" s="105">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="105">
         <f t="shared" si="16"/>
@@ -33314,7 +33314,7 @@
       </c>
       <c r="F85" s="105">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="105">
         <f t="shared" si="17"/>
@@ -33339,7 +33339,7 @@
       </c>
       <c r="F86" s="105">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="105">
         <f t="shared" si="18"/>
@@ -33364,7 +33364,7 @@
       </c>
       <c r="F87" s="105">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="105">
         <f t="shared" si="19"/>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="F88" s="105">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="105">
         <f t="shared" si="20"/>
@@ -33420,7 +33420,7 @@
       </c>
       <c r="F89" s="105">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="105">
         <f t="shared" si="21"/>
@@ -33445,7 +33445,7 @@
       </c>
       <c r="F90" s="105">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="105">
         <f t="shared" si="22"/>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="F91" s="105">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="105">
         <f t="shared" si="23"/>
@@ -33501,7 +33501,7 @@
       </c>
       <c r="F92" s="105">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="105">
         <f t="shared" si="24"/>
@@ -33526,7 +33526,7 @@
       </c>
       <c r="F93" s="105">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="105">
         <f t="shared" si="25"/>
@@ -33557,7 +33557,7 @@
       </c>
       <c r="F94" s="105">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="105">
         <f t="shared" si="26"/>
@@ -33582,7 +33582,7 @@
       </c>
       <c r="F95" s="105">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="105">
         <f t="shared" si="27"/>
@@ -33607,7 +33607,7 @@
       </c>
       <c r="F96" s="105">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="105">
         <f t="shared" si="28"/>
@@ -33638,7 +33638,7 @@
       </c>
       <c r="F97" s="105">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="105">
         <f t="shared" si="29"/>
@@ -33663,7 +33663,7 @@
       </c>
       <c r="F98" s="105">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="105">
         <f t="shared" si="30"/>
@@ -33688,7 +33688,7 @@
       </c>
       <c r="F99" s="105">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="105">
         <f t="shared" si="31"/>
@@ -33716,7 +33716,7 @@
       </c>
       <c r="F100" s="105">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="105">
         <f t="shared" si="32"/>
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F101" s="105">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="105">
         <f t="shared" si="33"/>
@@ -33766,7 +33766,7 @@
       </c>
       <c r="F102" s="105">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="105">
         <f t="shared" si="34"/>
@@ -33797,7 +33797,7 @@
       </c>
       <c r="F103" s="105">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="105">
         <f t="shared" si="35"/>
@@ -33814,23 +33814,23 @@
       </c>
       <c r="D104" s="105">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="105">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33845,23 +33845,23 @@
       </c>
       <c r="D105" s="105">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="105">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33878,7 +33878,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="105">
         <f t="shared" si="38"/>
@@ -33909,7 +33909,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="105">
         <f t="shared" si="39"/>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="105">
         <f t="shared" si="40"/>
@@ -33998,15 +33998,15 @@
       </c>
       <c r="F112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34023,15 +34023,15 @@
       </c>
       <c r="F113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34431,7 +34431,7 @@
       </c>
       <c r="F128" s="105">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="105">
         <f t="shared" si="46"/>
@@ -34484,7 +34484,7 @@
       </c>
       <c r="F130" s="105">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="105">
         <f t="shared" si="48"/>
@@ -34507,7 +34507,7 @@
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="105">
         <f t="shared" si="49"/>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="F131" s="105">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="105">
         <f t="shared" si="49"/>
@@ -34540,7 +34540,7 @@
       </c>
       <c r="F132" s="105">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="105">
         <f t="shared" si="50"/>
@@ -34563,7 +34563,7 @@
       </c>
       <c r="D133" s="105">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="105">
         <f t="shared" si="51"/>
@@ -34571,7 +34571,7 @@
       </c>
       <c r="F133" s="105">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="105">
         <f t="shared" si="51"/>
@@ -34596,7 +34596,7 @@
       </c>
       <c r="F134" s="105">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="105">
         <f t="shared" si="52"/>
@@ -34619,7 +34619,7 @@
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="105">
         <f t="shared" si="53"/>
@@ -34627,7 +34627,7 @@
       </c>
       <c r="F135" s="105">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="105">
         <f t="shared" si="53"/>
@@ -34652,7 +34652,7 @@
       </c>
       <c r="F136" s="105">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="105">
         <f t="shared" si="54"/>
@@ -34683,7 +34683,7 @@
       </c>
       <c r="F137" s="105">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="105">
         <f t="shared" si="55"/>
@@ -34708,7 +34708,7 @@
       </c>
       <c r="F138" s="105">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="105">
         <f t="shared" si="56"/>
@@ -34733,7 +34733,7 @@
       </c>
       <c r="F139" s="105">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="105">
         <f t="shared" si="57"/>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="F140" s="105">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="105">
         <f t="shared" si="58"/>
@@ -34789,7 +34789,7 @@
       </c>
       <c r="F141" s="105">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="105">
         <f t="shared" si="59"/>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="F142" s="105">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="105">
         <f t="shared" si="60"/>
@@ -34845,7 +34845,7 @@
       </c>
       <c r="F143" s="105">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="105">
         <f t="shared" si="61"/>
@@ -34870,7 +34870,7 @@
       </c>
       <c r="F144" s="105">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="105">
         <f t="shared" si="62"/>
@@ -34895,7 +34895,7 @@
       </c>
       <c r="F145" s="105">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="105">
         <f t="shared" si="63"/>
@@ -34926,7 +34926,7 @@
       </c>
       <c r="F146" s="105">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="105">
         <f t="shared" si="64"/>
@@ -34951,7 +34951,7 @@
       </c>
       <c r="F147" s="105">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="105">
         <f t="shared" si="65"/>
@@ -34976,7 +34976,7 @@
       </c>
       <c r="F148" s="105">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="105">
         <f t="shared" si="66"/>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="F149" s="105">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="105">
         <f t="shared" si="67"/>
@@ -35032,7 +35032,7 @@
       </c>
       <c r="F150" s="105">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="105">
         <f t="shared" si="68"/>
@@ -35057,7 +35057,7 @@
       </c>
       <c r="F151" s="105">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="105">
         <f t="shared" si="69"/>
@@ -35088,7 +35088,7 @@
       </c>
       <c r="F152" s="105">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="105">
         <f t="shared" si="70"/>
@@ -35113,7 +35113,7 @@
       </c>
       <c r="F153" s="105">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="105">
         <f t="shared" si="71"/>
@@ -35138,7 +35138,7 @@
       </c>
       <c r="F154" s="105">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="105">
         <f t="shared" si="72"/>
@@ -35166,7 +35166,7 @@
       </c>
       <c r="F155" s="105">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="105">
         <f t="shared" si="73"/>
@@ -35191,7 +35191,7 @@
       </c>
       <c r="F156" s="105">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="105">
         <f t="shared" si="74"/>
@@ -35216,7 +35216,7 @@
       </c>
       <c r="F157" s="105">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="105">
         <f t="shared" si="75"/>
@@ -35247,7 +35247,7 @@
       </c>
       <c r="F158" s="105">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="105">
         <f t="shared" si="76"/>
@@ -35264,23 +35264,23 @@
       </c>
       <c r="D159" s="105">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="105">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35295,23 +35295,23 @@
       </c>
       <c r="D160" s="105">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="105">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35328,7 +35328,7 @@
       </c>
       <c r="F161" s="105">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="105">
         <f t="shared" si="79"/>
@@ -35359,7 +35359,7 @@
       </c>
       <c r="F162" s="105">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="105">
         <f t="shared" si="80"/>
@@ -35384,7 +35384,7 @@
       </c>
       <c r="F163" s="105">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="105">
         <f t="shared" si="81"/>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7B8EF-9A48-4E18-9C6D-CB045215801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CB456E-D974-4662-BA71-6B93A7B3B457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -5093,7 +5093,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -6518,7 +6518,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -16733,12 +16733,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d5TbHPQi63nwx2Wq5JJSqukalmMv3C31IJEOC6Ln2RHu+2wV3FQIapEnZTD1R3DDEUxGNC0W0Oqhkaf0Boqebg==" saltValue="VXHqyG/n1ojfTzC/S0zfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16748,36 +16772,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31295,8 +31295,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31375,13 +31375,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31751,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31771,13 +31771,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31797,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31817,13 +31817,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31863,13 +31863,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31915,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31935,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31955,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31981,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32001,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32021,7 +32021,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32047,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32067,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32113,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32133,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32179,7 +32179,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32199,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32219,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32265,7 +32265,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32285,7 +32285,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32308,7 +32308,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32328,7 +32328,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32348,7 +32348,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32374,7 +32374,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32388,19 +32388,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32414,19 +32414,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32440,7 +32440,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32466,7 +32466,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32486,7 +32486,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32548,15 +32548,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32573,15 +32573,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32981,7 +32981,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33034,7 +33034,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33057,7 +33057,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="105">
         <f t="shared" si="8"/>
@@ -33090,7 +33090,7 @@
       </c>
       <c r="F77" s="105">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="105">
         <f t="shared" si="9"/>
@@ -33113,7 +33113,7 @@
       </c>
       <c r="D78" s="105">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="105">
         <f t="shared" si="10"/>
@@ -33121,7 +33121,7 @@
       </c>
       <c r="F78" s="105">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="105">
         <f t="shared" si="10"/>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F79" s="105">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="105">
         <f t="shared" si="11"/>
@@ -33169,7 +33169,7 @@
       </c>
       <c r="D80" s="105">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="105">
         <f t="shared" si="12"/>
@@ -33177,7 +33177,7 @@
       </c>
       <c r="F80" s="105">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="105">
         <f t="shared" si="12"/>
@@ -33202,7 +33202,7 @@
       </c>
       <c r="F81" s="105">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="105">
         <f t="shared" si="13"/>
@@ -33233,7 +33233,7 @@
       </c>
       <c r="F82" s="105">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="105">
         <f t="shared" si="14"/>
@@ -33258,7 +33258,7 @@
       </c>
       <c r="F83" s="105">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="105">
         <f t="shared" si="15"/>
@@ -33283,7 +33283,7 @@
       </c>
       <c r="F84" s="105">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="105">
         <f t="shared" si="16"/>
@@ -33314,7 +33314,7 @@
       </c>
       <c r="F85" s="105">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="105">
         <f t="shared" si="17"/>
@@ -33339,7 +33339,7 @@
       </c>
       <c r="F86" s="105">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="105">
         <f t="shared" si="18"/>
@@ -33364,7 +33364,7 @@
       </c>
       <c r="F87" s="105">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="105">
         <f t="shared" si="19"/>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="F88" s="105">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="105">
         <f t="shared" si="20"/>
@@ -33420,7 +33420,7 @@
       </c>
       <c r="F89" s="105">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="105">
         <f t="shared" si="21"/>
@@ -33445,7 +33445,7 @@
       </c>
       <c r="F90" s="105">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="105">
         <f t="shared" si="22"/>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="F91" s="105">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="105">
         <f t="shared" si="23"/>
@@ -33501,7 +33501,7 @@
       </c>
       <c r="F92" s="105">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="105">
         <f t="shared" si="24"/>
@@ -33526,7 +33526,7 @@
       </c>
       <c r="F93" s="105">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="105">
         <f t="shared" si="25"/>
@@ -33557,7 +33557,7 @@
       </c>
       <c r="F94" s="105">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="105">
         <f t="shared" si="26"/>
@@ -33582,7 +33582,7 @@
       </c>
       <c r="F95" s="105">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="105">
         <f t="shared" si="27"/>
@@ -33607,7 +33607,7 @@
       </c>
       <c r="F96" s="105">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="105">
         <f t="shared" si="28"/>
@@ -33638,7 +33638,7 @@
       </c>
       <c r="F97" s="105">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="105">
         <f t="shared" si="29"/>
@@ -33663,7 +33663,7 @@
       </c>
       <c r="F98" s="105">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="105">
         <f t="shared" si="30"/>
@@ -33688,7 +33688,7 @@
       </c>
       <c r="F99" s="105">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="105">
         <f t="shared" si="31"/>
@@ -33716,7 +33716,7 @@
       </c>
       <c r="F100" s="105">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="105">
         <f t="shared" si="32"/>
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F101" s="105">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="105">
         <f t="shared" si="33"/>
@@ -33766,7 +33766,7 @@
       </c>
       <c r="F102" s="105">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="105">
         <f t="shared" si="34"/>
@@ -33797,7 +33797,7 @@
       </c>
       <c r="F103" s="105">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="105">
         <f t="shared" si="35"/>
@@ -33814,23 +33814,23 @@
       </c>
       <c r="D104" s="105">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="105">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33845,23 +33845,23 @@
       </c>
       <c r="D105" s="105">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="105">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33878,7 +33878,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="105">
         <f t="shared" si="38"/>
@@ -33909,7 +33909,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="105">
         <f t="shared" si="39"/>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="105">
         <f t="shared" si="40"/>
@@ -33998,15 +33998,15 @@
       </c>
       <c r="F112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34023,15 +34023,15 @@
       </c>
       <c r="F113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34431,7 +34431,7 @@
       </c>
       <c r="F128" s="105">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="105">
         <f t="shared" si="46"/>
@@ -34484,7 +34484,7 @@
       </c>
       <c r="F130" s="105">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="105">
         <f t="shared" si="48"/>
@@ -34507,7 +34507,7 @@
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="105">
         <f t="shared" si="49"/>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="F131" s="105">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="105">
         <f t="shared" si="49"/>
@@ -34540,7 +34540,7 @@
       </c>
       <c r="F132" s="105">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="105">
         <f t="shared" si="50"/>
@@ -34563,7 +34563,7 @@
       </c>
       <c r="D133" s="105">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="105">
         <f t="shared" si="51"/>
@@ -34571,7 +34571,7 @@
       </c>
       <c r="F133" s="105">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="105">
         <f t="shared" si="51"/>
@@ -34596,7 +34596,7 @@
       </c>
       <c r="F134" s="105">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="105">
         <f t="shared" si="52"/>
@@ -34619,7 +34619,7 @@
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="105">
         <f t="shared" si="53"/>
@@ -34627,7 +34627,7 @@
       </c>
       <c r="F135" s="105">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="105">
         <f t="shared" si="53"/>
@@ -34652,7 +34652,7 @@
       </c>
       <c r="F136" s="105">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="105">
         <f t="shared" si="54"/>
@@ -34683,7 +34683,7 @@
       </c>
       <c r="F137" s="105">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="105">
         <f t="shared" si="55"/>
@@ -34708,7 +34708,7 @@
       </c>
       <c r="F138" s="105">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="105">
         <f t="shared" si="56"/>
@@ -34733,7 +34733,7 @@
       </c>
       <c r="F139" s="105">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="105">
         <f t="shared" si="57"/>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="F140" s="105">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="105">
         <f t="shared" si="58"/>
@@ -34789,7 +34789,7 @@
       </c>
       <c r="F141" s="105">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="105">
         <f t="shared" si="59"/>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="F142" s="105">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="105">
         <f t="shared" si="60"/>
@@ -34845,7 +34845,7 @@
       </c>
       <c r="F143" s="105">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="105">
         <f t="shared" si="61"/>
@@ -34870,7 +34870,7 @@
       </c>
       <c r="F144" s="105">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="105">
         <f t="shared" si="62"/>
@@ -34895,7 +34895,7 @@
       </c>
       <c r="F145" s="105">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="105">
         <f t="shared" si="63"/>
@@ -34926,7 +34926,7 @@
       </c>
       <c r="F146" s="105">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="105">
         <f t="shared" si="64"/>
@@ -34951,7 +34951,7 @@
       </c>
       <c r="F147" s="105">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="105">
         <f t="shared" si="65"/>
@@ -34976,7 +34976,7 @@
       </c>
       <c r="F148" s="105">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="105">
         <f t="shared" si="66"/>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="F149" s="105">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="105">
         <f t="shared" si="67"/>
@@ -35032,7 +35032,7 @@
       </c>
       <c r="F150" s="105">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="105">
         <f t="shared" si="68"/>
@@ -35057,7 +35057,7 @@
       </c>
       <c r="F151" s="105">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="105">
         <f t="shared" si="69"/>
@@ -35088,7 +35088,7 @@
       </c>
       <c r="F152" s="105">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="105">
         <f t="shared" si="70"/>
@@ -35113,7 +35113,7 @@
       </c>
       <c r="F153" s="105">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="105">
         <f t="shared" si="71"/>
@@ -35138,7 +35138,7 @@
       </c>
       <c r="F154" s="105">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="105">
         <f t="shared" si="72"/>
@@ -35166,7 +35166,7 @@
       </c>
       <c r="F155" s="105">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="105">
         <f t="shared" si="73"/>
@@ -35191,7 +35191,7 @@
       </c>
       <c r="F156" s="105">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="105">
         <f t="shared" si="74"/>
@@ -35216,7 +35216,7 @@
       </c>
       <c r="F157" s="105">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="105">
         <f t="shared" si="75"/>
@@ -35247,7 +35247,7 @@
       </c>
       <c r="F158" s="105">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="105">
         <f t="shared" si="76"/>
@@ -35264,23 +35264,23 @@
       </c>
       <c r="D159" s="105">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="105">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35295,23 +35295,23 @@
       </c>
       <c r="D160" s="105">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="105">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35328,7 +35328,7 @@
       </c>
       <c r="F161" s="105">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="105">
         <f t="shared" si="79"/>
@@ -35359,7 +35359,7 @@
       </c>
       <c r="F162" s="105">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="105">
         <f t="shared" si="80"/>
@@ -35384,7 +35384,7 @@
       </c>
       <c r="F163" s="105">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="105">
         <f t="shared" si="81"/>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CB456E-D974-4662-BA71-6B93A7B3B457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5851E5-7953-4A86-A37B-651B18F2BFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="341">
   <si>
     <t>Condition</t>
   </si>
@@ -1602,6 +1602,18 @@
   <si>
     <t>Efficacité à prévenir un cas</t>
   </si>
+  <si>
+    <t>Enfant 1-5 mois</t>
+  </si>
+  <si>
+    <t>Enfant 6-11 mois</t>
+  </si>
+  <si>
+    <t>Enfant 12-23 mois</t>
+  </si>
+  <si>
+    <t>Enfant 24-59 mois</t>
+  </si>
 </sst>
 </file>
 
@@ -1614,7 +1626,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1784,6 +1796,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2646,7 +2664,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2918,6 +2936,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -6518,7 +6539,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -16733,6 +16754,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d5TbHPQi63nwx2Wq5JJSqukalmMv3C31IJEOC6Ln2RHu+2wV3FQIapEnZTD1R3DDEUxGNC0W0Oqhkaf0Boqebg==" saltValue="VXHqyG/n1ojfTzC/S0zfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16742,42 +16799,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -35929,8 +35950,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36057,17 +36078,17 @@
       <c r="B13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>99</v>
+      <c r="C13" s="118" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="118" t="s">
+        <v>340</v>
       </c>
       <c r="G13" s="19"/>
     </row>
@@ -36354,7 +36375,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z1IkxsXFo1Ye8/eU53xcXajSQ2TMIbCXXylMwhWbu0xYZKN1sMMisNpTSv6oL7zJzgcuJrlhiL45hfgjzeE1Nw==" saltValue="xNrRk7r2jNf3qYXh2MKtKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mzaUwajEuxyWUkNXkPWVzABWUQ7sGSPTMrWi5LeWrKryu6eWPLEQJB5NQnyQUBoEbtuaKl+Hz1GtvuReif71hQ==" saltValue="4swn6Ke8AMfYL98rNIUX2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/inputs/fr/template_input.xlsx
+++ b/inputs/fr/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1AB360C-0CE2-4588-9EEA-288537AC931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1219A197-CBCF-4E59-916C-4252E660877F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9330" yWindow="-13065" windowWidth="21600" windowHeight="12675" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données pop de l'année de ref" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="335">
   <si>
     <t>Field</t>
   </si>
@@ -616,6 +616,9 @@
     <t>Insuffisance pondérale à la naissance</t>
   </si>
   <si>
+    <t>Année</t>
+  </si>
+  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
@@ -638,9 +641,6 @@
   </si>
   <si>
     <t>FAP non enceintes</t>
-  </si>
-  <si>
-    <t>année</t>
   </si>
   <si>
     <t>Néonatal</t>
@@ -1057,7 +1057,7 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
-    <t>Efficacité</t>
+    <t>efficacité</t>
   </si>
   <si>
     <t>Méthode</t>
@@ -1363,9 +1363,6 @@
     <t>Petite quantité de supplémentation en nutriments à base de lipids - supérieur</t>
   </si>
   <si>
-    <t>efficacité</t>
-  </si>
-  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1412,9 +1409,6 @@
   </si>
   <si>
     <t>Condition ciblée</t>
-  </si>
-  <si>
-    <t>Fraction touchée</t>
   </si>
   <si>
     <t>Efficacité à prévenir une mort</t>
@@ -2325,7 +2319,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2716,7 +2710,7 @@
       <c r="A63" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+IEGaV2caiGfb5SmbcObz0yJCt4xlEnw7vZThEN7hJuAPecovyMN9UeoyDuQDdMlcMKxNllJ9A94HXnttzs7xA==" saltValue="cEpx7e3ghIA3iGELhbn74g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9kARMVl+LYyODsdZUKWDoqYx0rj+/kWGKQCJ4S9v8z12CXBF+Szu+d6ybUOWDbY0kZfjKWVQzQjkBfLHzh86CA==" saltValue="1OTPH3Mpdw0T9jxslazsZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3494,7 +3488,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0npTeXLIq7GGMLHaFw2lTCrleYEKPJuXwmbRJ93N+FsrzvcDylN+qg5MelbXkGUPjL/CjF8a3UnozTjYkwXz6w==" saltValue="II+8cjWkWXd1fap2uA6Quw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l6Z2E11YZTZB3r4TaNLEdfPIYx0Yi/2R53o+QplF8QI4Se3RxZFLiKS0WXgTiuPd6HAv/w3s3eEpFVoJL7FkZw==" saltValue="i35draVLlh/fg610l3TwKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3644,7 +3638,7 @@
       <c r="C20" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F5iiWVCPXTctLOwL8V//E2NOpkpMc3Eob2o+o5FNUpQ7KtI5qOOdFe8rxffouC2+qylvPiGKU/o5ruYsrXj/UQ==" saltValue="gOjGz0Nx5OSx2UuUy403Ww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6wj2vmHlt1KAQlbPRRF30FBk+vntDqoC22VmW4X2/LJYJtiQc96fWUNJouDA/vzJNOy46aNyDd3UM6iYNZeDfQ==" saltValue="33GKjzlKCXVzTdZfakIzwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3745,7 +3739,7 @@
       <c r="A19" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SILewYvMApt4Cvc/pmQPgG0S13aj/SJmiUQ4NL/uDcr+7x+wZGEeIjJt0bSDFRnFo7+6kGz/utCB/r0/FlNCIg==" saltValue="sPMMqGBpY1zUu1vJtnb41Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IRSnLklxrPgI8O64R7Jc4vmT68VZnhaPbRSezFXxwFGQz6lJx1S7Zq/e5Eg8SLbBuX5UnnvVZ3YygQ9Kplw30A==" saltValue="bYeKSVz+VqQtk73xdFwE8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3860,7 +3854,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6NUTMxYJ83xaQ/VEzm+RE2MbfT+FChDjgmeO76F0rtaRsW1IoMeoUfUyJrG//Lc0eVYH/9iSGBjp/CVFt1Cnlg==" saltValue="B9nG3fMT9BvkNk5GiE8Siw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z6rnvcyTD0A6cI2RU4PotveO03tNcZ4uYeuyi//Ny0KyBmXtQNNcPTjAL8k3VXtgga3fWXURL6+l5T2qCnL23Q==" saltValue="x3t3SAh2/YBCVe/Cy0p8RQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -3924,16 +3918,16 @@
         <v>125</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4880,7 +4874,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>172</v>
@@ -5621,7 +5615,7 @@
       <c r="B40" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QOelA5BWM/PXJcFkxhyFj3N4hbHvG+eZjHzpLywY0sYrbF8HOnPhkuQTzzU0X5Kw5SIcxkCPxNpaxf86VR0MQQ==" saltValue="u8lXcte+SpEsrY0eSWM8cg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="giJLQA7M5xdWnH0va3xhEb3TMJX+69oMuEgDEaX2SYzZRVFoZ8ArUg35eOc9SV7G7p4eIc1n8XgVuKgnb7mzow==" saltValue="/ku+ygOkMCWZsrHwmuto4w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5656,7 +5650,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YSbELESYHGtPZNMtYrCuGVRnmhVxg0Uw7Kh206BvKWP+FPvy5gxh5uDIELN5JYrYTPkWCt1YwSVcNndSt5KnkA==" saltValue="yJdyq7bcpY6lE0aZ72DM7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Fcp3B24sSya1o9qM1NX1Ybvcq1BTOIdXUesKtGgQww5vOVXRz8CBKsOt4OI+kgOth75hGldjbooee2eRI2DMTg==" saltValue="0EUTuqJlidMZTvgZwtfDSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5862,7 +5856,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dPOoatMWv2wLc2tNkz2i4izWpOr6po6siNnDrPZc2xs4Z9O1lcE+Z5ISIKsHUneI7PdqXpx2m7HyONkbEuqpYg==" saltValue="0so6r//NAvJ5V68AgtrhdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hiXz8FLtVAc2HhzrOkpzhDPUQtG2shNF2F97CVElMP2QCijQAiYnVZM0kFUQaQcDIHo8DrcQAOQ9Ja5TtQL1jQ==" saltValue="NDQSTC0n/SZygEMDP65Nfw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -5929,16 +5923,16 @@
         <v>125</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6994,7 +6988,7 @@
     </row>
     <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>172</v>
@@ -7677,7 +7671,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t+hxj+KpXZwkLd6EKs4i+oOqayThGvJy0fWjfkVlNo4aUXa0ih62vZ5ctwXe0VJ55gYC+cKccoPZ+y/5qsvJGw==" saltValue="eCpivUJUkCeXRs+O100FyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="emn6mNhejEtb0qdE02EUytimv8HAwRbH+uKweDipxK7qxg2MLND36SvXD6oLO45cFawPourGVXBo29i4M+rIGw==" saltValue="ZyMHyMKcrqBVjaSZdfV0Dw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7741,7 +7735,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8445,7 +8439,7 @@
       <c r="K39" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qzN1lfCZ2GS9N2qbpOxSOHK13zMF1GAuy7OH7jgtgsirSY6NrFZy+plCE0K5RzljkENceU/Zrqbg74rZNZMqng==" saltValue="yBFrajDxH5RGkOiBKCxnbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JAnf5esW4CITVSE9CIFDCS2Q66HmTvYRPlF4Hd/8DRpsoJh7OMCELK+B/R9HG9lMXyRYcIxif04H1TvvzWZQtA==" saltValue="C5uognXez/DXq8PFBKT35w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8509,7 +8503,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8743,7 +8737,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="96" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="82"/>
       <c r="C11" s="82" t="s">
@@ -8764,7 +8758,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="82"/>
       <c r="C12" s="82" t="s">
@@ -8783,7 +8777,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="82"/>
       <c r="C13" s="82" t="s">
@@ -8802,7 +8796,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="82"/>
       <c r="C14" s="82" t="s">
@@ -8820,7 +8814,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u97/9/lbMPKo4oeXD5CnONYXPQtEgn/F6eB8kEmWbe94J9EVDgpDtXsBuwPTvNsLPcQfhkqOLs3wuTGQlRVkYg==" saltValue="Dgiz09BdE0FzztXAvUZGLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ehhm9JjHFGXCdjxf+ia6KqjgvFHcXTQdk2VXachHCm2ejMJIj7rbEpFfdgeafFReuutl6eaPtuRl10gPX56NnA==" saltValue="SG5I0jy8Yd9oluZSfiepug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8846,31 +8840,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9810,7 +9804,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XK4NSTt0Wl6i+MDbWMOvPnz5WF+h1dNPG4s7zUKD2I6Yiqwp0r8vVxqgoiYCGeReWo3gBvwYUbFl3AT4ujE/AQ==" saltValue="f+mxH3KgjjySvbGHyzJ11g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BdEyAvwhi1T/TWI5PjxCOQiHbdqbyXpKssZKgcpFNVTLWzSAPUZOUEMALqUoEWqgZ2vSdaU80cyHwoq/H/QC5w==" saltValue="L2blQzd3ZuMBJv0sb7l1wA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13628,7 +13622,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GBNyWqjHi6JBDD0sDRohG0+zKSwBQRmq3tK2UQu0npecie6G9t7+kbG8/6G9QJL99Ca+3uDxXD6+/n7c7AjMFg==" saltValue="ci+CLgFxbtvgVsFuzL8hDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6CKaQqsEz2NPUgF4gNmvA6/OGtGclYxVSij0SyDp40EuOGdXL3tXVATdPJ6fYBbi+vd4CGoJ/oYmdhmu97T3Jw==" saltValue="hEr2+YKhvaaRny5feZer6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -14895,7 +14889,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s4tc42XHaAX0YOSD/5/JGY0CLlb00G4FxX/2/sNSxt6LFsyERsRty82wp2hn5pYgEA5gCnXqNvjYJSu7Y8izIA==" saltValue="tmZyC2FzuUpzhBzEx61kOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sB3AE+cQs05pnLQnWKOyAB+1UfscREVJOmhrroMOGZtZuk8rd5dot8VY2IM+f3yKbkUg1hC0PNg4auKoaTZlNw==" saltValue="SFOs25JN1Lo5uAxFI9o0sA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -14929,7 +14923,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>226</v>
       </c>
@@ -15659,7 +15653,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
         <v>279</v>
       </c>
@@ -17812,7 +17806,7 @@
       <c r="G111" s="64"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="72" t="s">
         <v>226</v>
       </c>
@@ -18469,7 +18463,7 @@
       <c r="G138" s="64"/>
       <c r="H138" s="64"/>
     </row>
-    <row r="139" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="72" t="s">
         <v>279</v>
       </c>
@@ -20384,7 +20378,7 @@
       <c r="H221" s="64"/>
       <c r="I221" s="64"/>
     </row>
-    <row r="222" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="72" t="s">
         <v>226</v>
       </c>
@@ -23034,7 +23028,7 @@
       <c r="I328" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V0thJYSK3O7Dm1FCBmb7llf1x8sZP3OPuhFklHlVob9m7yn2poVjQiZigIJtTWim7orJSp/Qfon86tWXdcEqJg==" saltValue="RkqUeWEM8Rh61CQuMx5ueg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yD0kS8QSeykWr1whefZtI/Z4/tB/Tt4Oct8fZkwdn2HAsI2iEw7ZBb+gfmkpQ/+yIIPn0eS1EO2oiFDshQJXiw==" saltValue="hKpVz43WZ3KyD15FzysCzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23334,16 +23328,16 @@
     </row>
     <row r="20" spans="1:7" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -23709,16 +23703,16 @@
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G43" s="58"/>
     </row>
@@ -24089,16 +24083,16 @@
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E66" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F66" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G66" s="58"/>
     </row>
@@ -24124,7 +24118,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gr/CvCmIBRcRnLPH5JV6GhIMK9C+uCyo/lB2DvT2WEUieOzRO6YIqD5De4D4+IsQUGNZJY+ochzIc0a1SGtvxQ==" saltValue="1Iuq/gNZIucAVRgduUzgGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4Fx6VFBdjdL8dMBgBQJW5CKq78Z+FZzo3g+m0ORL3xe+aclweGZUTlabgivQoBYLa+LGq9xE8lrTugRU5KE9Pw==" saltValue="5Rg6/229LPbpD2mFkXI/HQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -24174,7 +24168,7 @@
         <v>168</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C2" s="85">
         <v>0.21</v>
@@ -24192,7 +24186,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3" s="85">
         <v>1</v>
@@ -24212,7 +24206,7 @@
         <v>180</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C4" s="85">
         <v>0.15</v>
@@ -24230,7 +24224,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69"/>
       <c r="B5" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="85">
         <v>1</v>
@@ -24250,7 +24244,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C6" s="85">
         <v>0.15</v>
@@ -24268,7 +24262,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69"/>
       <c r="B7" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="85">
         <v>1</v>
@@ -24288,7 +24282,7 @@
         <v>182</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C8" s="85">
         <v>0.35</v>
@@ -24306,7 +24300,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69"/>
       <c r="B9" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" s="85">
         <v>1</v>
@@ -24326,7 +24320,7 @@
         <v>186</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C10" s="85">
         <v>0.35</v>
@@ -24344,7 +24338,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69"/>
       <c r="B11" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C11" s="85">
         <v>1</v>
@@ -24364,7 +24358,7 @@
         <v>190</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C12" s="85">
         <v>0.23</v>
@@ -24382,7 +24376,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="69"/>
       <c r="B13" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C13" s="85">
         <v>1</v>
@@ -24425,7 +24419,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C17" s="85">
         <f t="shared" ref="C17:F28" si="0">C2*0.9</f>
@@ -24447,7 +24441,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
       <c r="B18" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" s="85">
         <f t="shared" si="0"/>
@@ -24471,7 +24465,7 @@
         <v>180</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C19" s="85">
         <f t="shared" si="0"/>
@@ -24493,7 +24487,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69"/>
       <c r="B20" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" s="85">
         <f t="shared" si="0"/>
@@ -24517,7 +24511,7 @@
         <v>181</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C21" s="85">
         <f t="shared" si="0"/>
@@ -24539,7 +24533,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
       <c r="B22" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C22" s="85">
         <f t="shared" si="0"/>
@@ -24563,7 +24557,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C23" s="85">
         <f t="shared" si="0"/>
@@ -24585,7 +24579,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="69"/>
       <c r="B24" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C24" s="85">
         <f t="shared" si="0"/>
@@ -24609,7 +24603,7 @@
         <v>186</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C25" s="85">
         <f t="shared" si="0"/>
@@ -24631,7 +24625,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69"/>
       <c r="B26" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C26" s="85">
         <f t="shared" si="0"/>
@@ -24655,7 +24649,7 @@
         <v>190</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C27" s="85">
         <f t="shared" si="0"/>
@@ -24677,7 +24671,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="69"/>
       <c r="B28" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C28" s="85">
         <f t="shared" si="0"/>
@@ -24724,7 +24718,7 @@
         <v>168</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C32" s="85">
         <f t="shared" ref="C32:F43" si="1">C2*1.05</f>
@@ -24746,7 +24740,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="69"/>
       <c r="B33" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C33" s="85">
         <f t="shared" si="1"/>
@@ -24770,7 +24764,7 @@
         <v>180</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C34" s="85">
         <f t="shared" si="1"/>
@@ -24792,7 +24786,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="69"/>
       <c r="B35" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C35" s="85">
         <f t="shared" si="1"/>
@@ -24816,7 +24810,7 @@
         <v>181</v>
       </c>
       <c r="B36" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C36" s="85">
         <f t="shared" si="1"/>
@@ -24838,7 +24832,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C37" s="85">
         <f t="shared" si="1"/>
@@ -24862,7 +24856,7 @@
         <v>182</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C38" s="85">
         <f t="shared" si="1"/>
@@ -24884,7 +24878,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="69"/>
       <c r="B39" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" s="85">
         <f t="shared" si="1"/>
@@ -24908,7 +24902,7 @@
         <v>186</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C40" s="85">
         <f t="shared" si="1"/>
@@ -24930,7 +24924,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="69"/>
       <c r="B41" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C41" s="85">
         <f t="shared" si="1"/>
@@ -24954,7 +24948,7 @@
         <v>190</v>
       </c>
       <c r="B42" s="69" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="C42" s="85">
         <f t="shared" si="1"/>
@@ -24976,7 +24970,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="69"/>
       <c r="B43" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43" s="85">
         <f t="shared" si="1"/>
@@ -24996,7 +24990,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1sdLZc6O8ARUHbXpxzxyja3xGZxk36QJZJdXMYj3JX81vGa4bxoVQTNzjw6p5dWHJqJRpchUccYNhYe6P8eiAg==" saltValue="Rb7F04OaH493y+0wqzw+WA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QGLLrfsmz0PFWwlYgw0svl0uyYSWIhS3vrD5h3PmbxpFypgAwfznA7HQ1saOmLzj0KB/42fARsnnTr9NrxvG4w==" saltValue="zA3KFRo/KZgQraxIkZuH+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -25041,16 +25035,16 @@
         <v>99</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="